--- a/Field_Days.xlsx
+++ b/Field_Days.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jacob/Desktop/Projects/Field-Days/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0B6476D-B1BD-8F4B-85D8-7F2E9D5DAD04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{508F78F9-DC5E-D348-A73C-B15A288C841C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15960" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -574,7 +574,6 @@
       <b/>
       <sz val="12"/>
       <name val="Calibri"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="5">
@@ -1111,7 +1110,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-22E0-0643-927F-2498D3EB4157}"/>
+              <c16:uniqueId val="{00000000-B943-3942-A2A1-54A971CC8D6E}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1216,7 +1215,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-22E0-0643-927F-2498D3EB4157}"/>
+              <c16:uniqueId val="{00000001-B943-3942-A2A1-54A971CC8D6E}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1321,7 +1320,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-22E0-0643-927F-2498D3EB4157}"/>
+              <c16:uniqueId val="{00000002-B943-3942-A2A1-54A971CC8D6E}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1426,7 +1425,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-22E0-0643-927F-2498D3EB4157}"/>
+              <c16:uniqueId val="{00000003-B943-3942-A2A1-54A971CC8D6E}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1531,7 +1530,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-22E0-0643-927F-2498D3EB4157}"/>
+              <c16:uniqueId val="{00000004-B943-3942-A2A1-54A971CC8D6E}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1636,7 +1635,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000005-22E0-0643-927F-2498D3EB4157}"/>
+              <c16:uniqueId val="{00000005-B943-3942-A2A1-54A971CC8D6E}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1743,7 +1742,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000006-22E0-0643-927F-2498D3EB4157}"/>
+              <c16:uniqueId val="{00000006-B943-3942-A2A1-54A971CC8D6E}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1838,7 +1837,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000007-22E0-0643-927F-2498D3EB4157}"/>
+              <c16:uniqueId val="{00000007-B943-3942-A2A1-54A971CC8D6E}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2390,7 +2389,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-CA36-0646-BE7E-2B259DC0BDD8}"/>
+              <c16:uniqueId val="{00000000-2402-604F-B454-3801CEF99BBF}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2495,7 +2494,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-CA36-0646-BE7E-2B259DC0BDD8}"/>
+              <c16:uniqueId val="{00000001-2402-604F-B454-3801CEF99BBF}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2600,7 +2599,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-CA36-0646-BE7E-2B259DC0BDD8}"/>
+              <c16:uniqueId val="{00000002-2402-604F-B454-3801CEF99BBF}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2705,7 +2704,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-CA36-0646-BE7E-2B259DC0BDD8}"/>
+              <c16:uniqueId val="{00000003-2402-604F-B454-3801CEF99BBF}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2810,7 +2809,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-CA36-0646-BE7E-2B259DC0BDD8}"/>
+              <c16:uniqueId val="{00000004-2402-604F-B454-3801CEF99BBF}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2915,7 +2914,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000005-CA36-0646-BE7E-2B259DC0BDD8}"/>
+              <c16:uniqueId val="{00000005-2402-604F-B454-3801CEF99BBF}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3022,7 +3021,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000006-CA36-0646-BE7E-2B259DC0BDD8}"/>
+              <c16:uniqueId val="{00000006-2402-604F-B454-3801CEF99BBF}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3117,7 +3116,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000007-CA36-0646-BE7E-2B259DC0BDD8}"/>
+              <c16:uniqueId val="{00000007-2402-604F-B454-3801CEF99BBF}"/>
             </c:ext>
           </c:extLst>
         </c:ser>

--- a/Field_Days.xlsx
+++ b/Field_Days.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jacob/Desktop/Projects/Field-Days/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{508F78F9-DC5E-D348-A73C-B15A288C841C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61362629-C683-0945-9BF8-F632ED4BC56E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15960" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,12 +22,25 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'2024'!$A$1:$T$11</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Stats!$A$1:$T$11</definedName>
   </definedNames>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="450" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="458" uniqueCount="202">
   <si>
     <t>Date</t>
   </si>
@@ -281,6 +294,12 @@
     <t>Cross (2-1)</t>
   </si>
   <si>
+    <t>Jacob, Sam G, Sam S, Aaron</t>
+  </si>
+  <si>
+    <t>Kiernan, Brandon, AB, Quinn</t>
+  </si>
+  <si>
     <t>Name</t>
   </si>
   <si>
@@ -338,6 +357,186 @@
     <t>(Name)</t>
   </si>
   <si>
+    <t>3-5</t>
+  </si>
+  <si>
+    <t>17-22</t>
+  </si>
+  <si>
+    <t>15-14</t>
+  </si>
+  <si>
+    <t>14-26</t>
+  </si>
+  <si>
+    <t>5-2</t>
+  </si>
+  <si>
+    <t>0-1</t>
+  </si>
+  <si>
+    <t>10-7</t>
+  </si>
+  <si>
+    <t>40-36</t>
+  </si>
+  <si>
+    <t>34-23</t>
+  </si>
+  <si>
+    <t>39-36</t>
+  </si>
+  <si>
+    <t>5-8</t>
+  </si>
+  <si>
+    <t>9-6</t>
+  </si>
+  <si>
+    <t>Anthony</t>
+  </si>
+  <si>
+    <t>3-2</t>
+  </si>
+  <si>
+    <t>0-0</t>
+  </si>
+  <si>
+    <t>7-8</t>
+  </si>
+  <si>
+    <t>33-36</t>
+  </si>
+  <si>
+    <t>23-28</t>
+  </si>
+  <si>
+    <t>32-37</t>
+  </si>
+  <si>
+    <t>9-3</t>
+  </si>
+  <si>
+    <t>8-5</t>
+  </si>
+  <si>
+    <t>27-32</t>
+  </si>
+  <si>
+    <t>23-20</t>
+  </si>
+  <si>
+    <t>27-25</t>
+  </si>
+  <si>
+    <t>5-6</t>
+  </si>
+  <si>
+    <t>3-9</t>
+  </si>
+  <si>
+    <t>8-9</t>
+  </si>
+  <si>
+    <t>29-28</t>
+  </si>
+  <si>
+    <t>37-38</t>
+  </si>
+  <si>
+    <t>6-7</t>
+  </si>
+  <si>
+    <t>6-9</t>
+  </si>
+  <si>
+    <t>4-0</t>
+  </si>
+  <si>
+    <t>6-8</t>
+  </si>
+  <si>
+    <t>29-36</t>
+  </si>
+  <si>
+    <t>17-30</t>
+  </si>
+  <si>
+    <t>30-32</t>
+  </si>
+  <si>
+    <t>7-4</t>
+  </si>
+  <si>
+    <t>7-6</t>
+  </si>
+  <si>
+    <t>2-2</t>
+  </si>
+  <si>
+    <t>Quinn</t>
+  </si>
+  <si>
+    <t>11-11</t>
+  </si>
+  <si>
+    <t>9-12</t>
+  </si>
+  <si>
+    <t>1-0</t>
+  </si>
+  <si>
+    <t>2-0</t>
+  </si>
+  <si>
+    <t>11-6</t>
+  </si>
+  <si>
+    <t>43-33</t>
+  </si>
+  <si>
+    <t>35-22</t>
+  </si>
+  <si>
+    <t>36-39</t>
+  </si>
+  <si>
+    <t>8-7</t>
+  </si>
+  <si>
+    <t>4-6</t>
+  </si>
+  <si>
+    <t>20-24</t>
+  </si>
+  <si>
+    <t>16-21</t>
+  </si>
+  <si>
+    <t>30-17</t>
+  </si>
+  <si>
+    <t>0-8</t>
+  </si>
+  <si>
+    <t>2-5</t>
+  </si>
+  <si>
+    <t>1-1</t>
+  </si>
+  <si>
+    <t>Tighe</t>
+  </si>
+  <si>
+    <t>Player B</t>
+  </si>
+  <si>
+    <t>Player A</t>
+  </si>
+  <si>
+    <t>Frequency of Players A and B being on the same team (As a percentage of days that Player A has played)</t>
+  </si>
+  <si>
     <t>16-19</t>
   </si>
   <si>
@@ -350,9 +549,6 @@
     <t>5-1</t>
   </si>
   <si>
-    <t>0-1</t>
-  </si>
-  <si>
     <t>9-7</t>
   </si>
   <si>
@@ -371,18 +567,6 @@
     <t>8-6</t>
   </si>
   <si>
-    <t>Anthony</t>
-  </si>
-  <si>
-    <t>3-2</t>
-  </si>
-  <si>
-    <t>0-0</t>
-  </si>
-  <si>
-    <t>6-8</t>
-  </si>
-  <si>
     <t>30-35</t>
   </si>
   <si>
@@ -398,24 +582,6 @@
     <t>7-5</t>
   </si>
   <si>
-    <t>5-8</t>
-  </si>
-  <si>
-    <t>27-32</t>
-  </si>
-  <si>
-    <t>23-20</t>
-  </si>
-  <si>
-    <t>27-25</t>
-  </si>
-  <si>
-    <t>5-6</t>
-  </si>
-  <si>
-    <t>3-9</t>
-  </si>
-  <si>
     <t>8-8</t>
   </si>
   <si>
@@ -431,9 +597,6 @@
     <t>6-6</t>
   </si>
   <si>
-    <t>4-0</t>
-  </si>
-  <si>
     <t>26-35</t>
   </si>
   <si>
@@ -446,12 +609,6 @@
     <t>6-4</t>
   </si>
   <si>
-    <t>2-2</t>
-  </si>
-  <si>
-    <t>Quinn</t>
-  </si>
-  <si>
     <t>8-10</t>
   </si>
   <si>
@@ -464,12 +621,6 @@
     <t>0-3</t>
   </si>
   <si>
-    <t>1-0</t>
-  </si>
-  <si>
-    <t>2-0</t>
-  </si>
-  <si>
     <t>11-5</t>
   </si>
   <si>
@@ -495,24 +646,6 @@
   </si>
   <si>
     <t>2-4</t>
-  </si>
-  <si>
-    <t>1-1</t>
-  </si>
-  <si>
-    <t>Tighe</t>
-  </si>
-  <si>
-    <t>3-5</t>
-  </si>
-  <si>
-    <t>Player B</t>
-  </si>
-  <si>
-    <t>Player A</t>
-  </si>
-  <si>
-    <t>Frequency of Players A and B being on the same team (As a percentage of days that Player A has played)</t>
   </si>
 </sst>
 </file>
@@ -522,7 +655,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -574,6 +707,14 @@
       <b/>
       <sz val="12"/>
       <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="44"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="5">
@@ -777,7 +918,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -837,9 +978,6 @@
     </xf>
     <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -921,12 +1059,34 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="9" xfId="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="1" fillId="4" borderId="4" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="7" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1073,34 +1233,34 @@
                 <c:formatCode>0.0%</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>0.42859999999999998</c:v>
+                  <c:v>0.375</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.5625</c:v>
+                  <c:v>0.58819999999999995</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.42859999999999998</c:v>
+                  <c:v>0.4667</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0.3846</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>0.47060000000000002</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.42859999999999998</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>0.5</c:v>
                 </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.3846</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.33329999999999999</c:v>
-                </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.6875</c:v>
+                  <c:v>0.64710000000000001</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.44440000000000002</c:v>
+                  <c:v>0.4</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>0.5</c:v>
@@ -1110,7 +1270,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-B943-3942-A2A1-54A971CC8D6E}"/>
+              <c16:uniqueId val="{00000000-8303-CC41-8EA0-C80753E99C2C}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1178,34 +1338,34 @@
                 <c:formatCode>0.0%</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>0.45710000000000001</c:v>
+                  <c:v>0.43590000000000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.51390000000000002</c:v>
+                  <c:v>0.52629999999999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0.33329999999999999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.46150000000000002</c:v>
+                  <c:v>0.4783</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0.45760000000000001</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.54169999999999996</c:v>
+                  <c:v>0.52629999999999999</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.42620000000000002</c:v>
+                  <c:v>0.44619999999999999</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.44440000000000002</c:v>
+                  <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.58330000000000004</c:v>
+                  <c:v>0.56579999999999997</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.47499999999999998</c:v>
+                  <c:v>0.45450000000000002</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>0.45450000000000002</c:v>
@@ -1215,7 +1375,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-B943-3942-A2A1-54A971CC8D6E}"/>
+              <c16:uniqueId val="{00000001-8303-CC41-8EA0-C80753E99C2C}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1283,34 +1443,34 @@
                 <c:formatCode>0.0%</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>0.55559999999999998</c:v>
+                  <c:v>0.51719999999999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.58179999999999998</c:v>
+                  <c:v>0.59650000000000003</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0.33329999999999999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.42859999999999998</c:v>
+                  <c:v>0.45100000000000001</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0.53490000000000004</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.52729999999999999</c:v>
+                  <c:v>0.50880000000000003</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.33329999999999999</c:v>
+                  <c:v>0.36170000000000002</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.2727</c:v>
+                  <c:v>0.3846</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.63639999999999997</c:v>
+                  <c:v>0.61399999999999999</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.45710000000000001</c:v>
+                  <c:v>0.43240000000000001</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>0.375</c:v>
@@ -1320,7 +1480,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-B943-3942-A2A1-54A971CC8D6E}"/>
+              <c16:uniqueId val="{00000002-8303-CC41-8EA0-C80753E99C2C}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1388,34 +1548,34 @@
                 <c:formatCode>0.0%</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>0.31430000000000002</c:v>
+                  <c:v>0.35</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.52859999999999996</c:v>
+                  <c:v>0.52</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0.6</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.46879999999999999</c:v>
+                  <c:v>0.46379999999999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0.51919999999999999</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.48570000000000002</c:v>
+                  <c:v>0.49330000000000002</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.49120000000000003</c:v>
+                  <c:v>0.4839</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.4375</c:v>
+                  <c:v>0.42859999999999998</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.47139999999999999</c:v>
+                  <c:v>0.48</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.64290000000000003</c:v>
+                  <c:v>0.63829999999999998</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>0.4</c:v>
@@ -1425,7 +1585,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-B943-3942-A2A1-54A971CC8D6E}"/>
+              <c16:uniqueId val="{00000003-8303-CC41-8EA0-C80753E99C2C}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1493,31 +1653,31 @@
                 <c:formatCode>0.0%</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>0.8</c:v>
+                  <c:v>0.66669999999999996</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.33329999999999999</c:v>
+                  <c:v>0.3846</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.72729999999999995</c:v>
+                  <c:v>0.75</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0.45450000000000002</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.5</c:v>
+                  <c:v>0.46150000000000002</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.6</c:v>
+                  <c:v>0.63639999999999997</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.66669999999999996</c:v>
+                  <c:v>0.75</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.5</c:v>
+                  <c:v>0.46150000000000002</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>0</c:v>
@@ -1530,7 +1690,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-B943-3942-A2A1-54A971CC8D6E}"/>
+              <c16:uniqueId val="{00000004-8303-CC41-8EA0-C80753E99C2C}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1598,34 +1758,34 @@
                 <c:formatCode>0.0%</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>0.83330000000000004</c:v>
+                  <c:v>0.71430000000000005</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.57140000000000002</c:v>
+                  <c:v>0.6</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.58330000000000004</c:v>
+                  <c:v>0.61539999999999995</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0.25</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.42859999999999998</c:v>
+                  <c:v>0.4</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.5</c:v>
+                  <c:v>0.53849999999999998</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>0.25</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.57140000000000002</c:v>
+                  <c:v>0.5333</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.33329999999999999</c:v>
+                  <c:v>0.28570000000000001</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>0.66669999999999996</c:v>
@@ -1635,7 +1795,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000005-B943-3942-A2A1-54A971CC8D6E}"/>
+              <c16:uniqueId val="{00000005-8303-CC41-8EA0-C80753E99C2C}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1742,7 +1902,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000006-B943-3942-A2A1-54A971CC8D6E}"/>
+              <c16:uniqueId val="{00000006-8303-CC41-8EA0-C80753E99C2C}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1837,7 +1997,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000007-B943-3942-A2A1-54A971CC8D6E}"/>
+              <c16:uniqueId val="{00000007-8303-CC41-8EA0-C80753E99C2C}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2389,7 +2549,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-2402-604F-B454-3801CEF99BBF}"/>
+              <c16:uniqueId val="{00000000-430E-4D47-9D5F-349DCC2405EE}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2494,7 +2654,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-2402-604F-B454-3801CEF99BBF}"/>
+              <c16:uniqueId val="{00000001-430E-4D47-9D5F-349DCC2405EE}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2599,7 +2759,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-2402-604F-B454-3801CEF99BBF}"/>
+              <c16:uniqueId val="{00000002-430E-4D47-9D5F-349DCC2405EE}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2704,7 +2864,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-2402-604F-B454-3801CEF99BBF}"/>
+              <c16:uniqueId val="{00000003-430E-4D47-9D5F-349DCC2405EE}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2809,7 +2969,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-2402-604F-B454-3801CEF99BBF}"/>
+              <c16:uniqueId val="{00000004-430E-4D47-9D5F-349DCC2405EE}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2914,7 +3074,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000005-2402-604F-B454-3801CEF99BBF}"/>
+              <c16:uniqueId val="{00000005-430E-4D47-9D5F-349DCC2405EE}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3021,7 +3181,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000006-2402-604F-B454-3801CEF99BBF}"/>
+              <c16:uniqueId val="{00000006-430E-4D47-9D5F-349DCC2405EE}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3116,7 +3276,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000007-2402-604F-B454-3801CEF99BBF}"/>
+              <c16:uniqueId val="{00000007-430E-4D47-9D5F-349DCC2405EE}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3885,7 +4045,7 @@
   <dimension ref="A1:Z36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L21" sqref="L21"/>
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3897,10 +4057,10 @@
       <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="46" t="s">
+      <c r="B1" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="47" t="s">
+      <c r="C1" s="46" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="10" t="s">
@@ -3930,7 +4090,7 @@
       <c r="L1" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="48" t="s">
+      <c r="M1" s="47" t="s">
         <v>12</v>
       </c>
       <c r="Q1" s="1"/>
@@ -3979,7 +4139,7 @@
       <c r="L2" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="M2" s="5" t="s">
+      <c r="M2" s="60" t="s">
         <v>23</v>
       </c>
     </row>
@@ -4012,7 +4172,7 @@
       <c r="L3" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="M3" s="5" t="s">
+      <c r="M3" s="61" t="s">
         <v>30</v>
       </c>
     </row>
@@ -4045,7 +4205,7 @@
       <c r="L4" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="M4" s="4" t="s">
+      <c r="M4" s="62" t="s">
         <v>29</v>
       </c>
     </row>
@@ -4082,7 +4242,7 @@
       <c r="L5" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="M5" s="4" t="s">
+      <c r="M5" s="62" t="s">
         <v>43</v>
       </c>
     </row>
@@ -4119,7 +4279,7 @@
       <c r="L6" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="M6" s="4" t="s">
+      <c r="M6" s="62" t="s">
         <v>23</v>
       </c>
     </row>
@@ -4156,7 +4316,7 @@
       <c r="L7" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="M7" s="5" t="s">
+      <c r="M7" s="61" t="s">
         <v>51</v>
       </c>
     </row>
@@ -4193,7 +4353,7 @@
       <c r="L8" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="M8" s="5" t="s">
+      <c r="M8" s="61" t="s">
         <v>30</v>
       </c>
     </row>
@@ -4230,7 +4390,7 @@
       <c r="L9" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="M9" s="4" t="s">
+      <c r="M9" s="62" t="s">
         <v>30</v>
       </c>
     </row>
@@ -4267,7 +4427,7 @@
       <c r="L10" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="M10" s="5" t="s">
+      <c r="M10" s="61" t="s">
         <v>30</v>
       </c>
     </row>
@@ -4300,7 +4460,7 @@
       <c r="L11" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="M11" s="4" t="s">
+      <c r="M11" s="62" t="s">
         <v>30</v>
       </c>
     </row>
@@ -4335,7 +4495,7 @@
       <c r="L12" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="M12" s="5" t="s">
+      <c r="M12" s="61" t="s">
         <v>29</v>
       </c>
     </row>
@@ -4368,7 +4528,7 @@
       <c r="L13" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="M13" s="1"/>
+      <c r="M13" s="17"/>
     </row>
     <row r="14" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A14" s="3">
@@ -4407,7 +4567,7 @@
       <c r="L14" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="M14" s="7" t="s">
+      <c r="M14" s="63" t="s">
         <v>42</v>
       </c>
       <c r="O14" s="1"/>
@@ -4439,7 +4599,7 @@
       <c r="L15" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="M15" s="8" t="s">
+      <c r="M15" s="64" t="s">
         <v>42</v>
       </c>
     </row>
@@ -4474,62 +4634,82 @@
       <c r="L16" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="M16" s="7" t="s">
+      <c r="M16" s="63" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A17" s="42">
+      <c r="A17" s="41">
         <v>45657</v>
       </c>
-      <c r="B17" s="43" t="s">
+      <c r="B17" s="42" t="s">
         <v>79</v>
       </c>
-      <c r="C17" s="43" t="s">
+      <c r="C17" s="42" t="s">
         <v>80</v>
       </c>
-      <c r="D17" s="44" t="s">
+      <c r="D17" s="43" t="s">
         <v>81</v>
       </c>
-      <c r="E17" s="44" t="s">
+      <c r="E17" s="43" t="s">
         <v>82</v>
       </c>
-      <c r="F17" s="45" t="s">
+      <c r="F17" s="44" t="s">
         <v>28</v>
       </c>
-      <c r="G17" s="44" t="s">
+      <c r="G17" s="43" t="s">
         <v>39</v>
       </c>
-      <c r="H17" s="44" t="s">
+      <c r="H17" s="43" t="s">
         <v>20</v>
       </c>
-      <c r="I17" s="45" t="s">
+      <c r="I17" s="44" t="s">
         <v>83</v>
       </c>
-      <c r="J17" s="45" t="s">
+      <c r="J17" s="44" t="s">
         <v>50</v>
       </c>
-      <c r="K17" s="44" t="s">
+      <c r="K17" s="43" t="s">
         <v>46</v>
       </c>
-      <c r="L17" s="44" t="s">
+      <c r="L17" s="43" t="s">
         <v>22</v>
       </c>
-      <c r="M17" s="45" t="s">
+      <c r="M17" s="65" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A18" s="3"/>
-      <c r="D18" s="6"/>
-      <c r="E18" s="6"/>
-      <c r="F18" s="6"/>
-      <c r="G18" s="6"/>
-      <c r="H18" s="6"/>
+      <c r="A18" s="3">
+        <v>45659</v>
+      </c>
+      <c r="B18" t="s">
+        <v>84</v>
+      </c>
+      <c r="C18" t="s">
+        <v>85</v>
+      </c>
+      <c r="D18" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="E18" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G18" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="H18" s="8" t="s">
+        <v>20</v>
+      </c>
       <c r="I18" s="6"/>
       <c r="J18" s="6"/>
       <c r="K18" s="6"/>
-      <c r="L18" s="6"/>
+      <c r="L18" s="8" t="s">
+        <v>29</v>
+      </c>
       <c r="M18" s="6"/>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.2">
@@ -4630,113 +4810,113 @@
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.2">
       <c r="D27" s="6"/>
-      <c r="E27" s="24"/>
-      <c r="F27" s="24"/>
-      <c r="G27" s="24"/>
-      <c r="H27" s="24"/>
-      <c r="I27" s="24"/>
-      <c r="J27" s="24"/>
-      <c r="K27" s="24"/>
-      <c r="L27" s="24"/>
-      <c r="M27" s="24"/>
+      <c r="E27" s="23"/>
+      <c r="F27" s="23"/>
+      <c r="G27" s="23"/>
+      <c r="H27" s="23"/>
+      <c r="I27" s="23"/>
+      <c r="J27" s="23"/>
+      <c r="K27" s="23"/>
+      <c r="L27" s="23"/>
+      <c r="M27" s="23"/>
       <c r="N27" s="21"/>
       <c r="O27" s="22"/>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.2">
       <c r="D28" s="6"/>
-      <c r="E28" s="24"/>
-      <c r="F28" s="24"/>
-      <c r="G28" s="24"/>
-      <c r="H28" s="24"/>
-      <c r="I28" s="24"/>
-      <c r="J28" s="24"/>
-      <c r="K28" s="24"/>
-      <c r="L28" s="24"/>
-      <c r="M28" s="24"/>
+      <c r="E28" s="23"/>
+      <c r="F28" s="23"/>
+      <c r="G28" s="23"/>
+      <c r="H28" s="23"/>
+      <c r="I28" s="23"/>
+      <c r="J28" s="23"/>
+      <c r="K28" s="23"/>
+      <c r="L28" s="23"/>
+      <c r="M28" s="23"/>
       <c r="N28" s="21"/>
       <c r="O28" s="22"/>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.2">
       <c r="D29" s="6"/>
-      <c r="E29" s="24"/>
-      <c r="F29" s="24"/>
-      <c r="G29" s="24"/>
-      <c r="H29" s="24"/>
-      <c r="I29" s="24"/>
-      <c r="J29" s="24"/>
-      <c r="K29" s="24"/>
-      <c r="L29" s="24"/>
-      <c r="M29" s="24"/>
+      <c r="E29" s="23"/>
+      <c r="F29" s="23"/>
+      <c r="G29" s="23"/>
+      <c r="H29" s="23"/>
+      <c r="I29" s="23"/>
+      <c r="J29" s="23"/>
+      <c r="K29" s="23"/>
+      <c r="L29" s="23"/>
+      <c r="M29" s="23"/>
       <c r="N29" s="21"/>
       <c r="O29" s="22"/>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.2">
       <c r="D30" s="1"/>
-      <c r="E30" s="25"/>
-      <c r="F30" s="25"/>
-      <c r="G30" s="25"/>
-      <c r="H30" s="25"/>
-      <c r="I30" s="25"/>
-      <c r="J30" s="25"/>
-      <c r="K30" s="25"/>
-      <c r="L30" s="25"/>
-      <c r="M30" s="25"/>
+      <c r="E30" s="24"/>
+      <c r="F30" s="24"/>
+      <c r="G30" s="24"/>
+      <c r="H30" s="24"/>
+      <c r="I30" s="24"/>
+      <c r="J30" s="24"/>
+      <c r="K30" s="24"/>
+      <c r="L30" s="24"/>
+      <c r="M30" s="24"/>
       <c r="N30" s="21"/>
       <c r="O30" s="22"/>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.2">
       <c r="D31" s="6"/>
-      <c r="E31" s="26"/>
-      <c r="F31" s="26"/>
-      <c r="G31" s="26"/>
-      <c r="H31" s="26"/>
-      <c r="I31" s="26"/>
-      <c r="J31" s="26"/>
-      <c r="K31" s="26"/>
-      <c r="L31" s="26"/>
-      <c r="M31" s="26"/>
+      <c r="E31" s="25"/>
+      <c r="F31" s="25"/>
+      <c r="G31" s="25"/>
+      <c r="H31" s="25"/>
+      <c r="I31" s="25"/>
+      <c r="J31" s="25"/>
+      <c r="K31" s="25"/>
+      <c r="L31" s="25"/>
+      <c r="M31" s="25"/>
       <c r="N31" s="21"/>
       <c r="O31" s="22"/>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.2">
       <c r="D32" s="6"/>
-      <c r="E32" s="26"/>
-      <c r="F32" s="26"/>
-      <c r="G32" s="26"/>
-      <c r="H32" s="26"/>
-      <c r="I32" s="26"/>
-      <c r="J32" s="26"/>
-      <c r="K32" s="26"/>
-      <c r="L32" s="26"/>
-      <c r="M32" s="26"/>
+      <c r="E32" s="25"/>
+      <c r="F32" s="25"/>
+      <c r="G32" s="25"/>
+      <c r="H32" s="25"/>
+      <c r="I32" s="25"/>
+      <c r="J32" s="25"/>
+      <c r="K32" s="25"/>
+      <c r="L32" s="25"/>
+      <c r="M32" s="25"/>
       <c r="N32" s="21"/>
       <c r="O32" s="22"/>
     </row>
     <row r="33" spans="4:15" x14ac:dyDescent="0.2">
       <c r="D33" s="6"/>
-      <c r="E33" s="26"/>
-      <c r="F33" s="26"/>
-      <c r="G33" s="26"/>
-      <c r="H33" s="26"/>
-      <c r="I33" s="26"/>
-      <c r="J33" s="26"/>
-      <c r="K33" s="26"/>
-      <c r="L33" s="26"/>
-      <c r="M33" s="26"/>
+      <c r="E33" s="25"/>
+      <c r="F33" s="25"/>
+      <c r="G33" s="25"/>
+      <c r="H33" s="25"/>
+      <c r="I33" s="25"/>
+      <c r="J33" s="25"/>
+      <c r="K33" s="25"/>
+      <c r="L33" s="25"/>
+      <c r="M33" s="25"/>
       <c r="N33" s="21"/>
       <c r="O33" s="22"/>
     </row>
     <row r="34" spans="4:15" x14ac:dyDescent="0.2">
       <c r="D34" s="6"/>
-      <c r="E34" s="26"/>
-      <c r="F34" s="26"/>
-      <c r="G34" s="26"/>
-      <c r="H34" s="26"/>
-      <c r="I34" s="26"/>
-      <c r="J34" s="26"/>
-      <c r="K34" s="26"/>
-      <c r="L34" s="26"/>
-      <c r="M34" s="26"/>
+      <c r="E34" s="25"/>
+      <c r="F34" s="25"/>
+      <c r="G34" s="25"/>
+      <c r="H34" s="25"/>
+      <c r="I34" s="25"/>
+      <c r="J34" s="25"/>
+      <c r="K34" s="25"/>
+      <c r="L34" s="25"/>
+      <c r="M34" s="25"/>
       <c r="N34" s="21"/>
       <c r="O34" s="22"/>
     </row>
@@ -4790,7 +4970,7 @@
   <dimension ref="A1:AA29"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="W11" sqref="W11"/>
+      <selection activeCell="W6" sqref="W6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4802,125 +4982,125 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A1" s="61" t="s">
-        <v>84</v>
-      </c>
-      <c r="B1" s="61" t="s">
-        <v>85</v>
-      </c>
-      <c r="C1" s="61" t="s">
+      <c r="A1" s="66" t="s">
         <v>86</v>
       </c>
-      <c r="D1" s="61" t="s">
+      <c r="B1" s="66" t="s">
         <v>87</v>
       </c>
-      <c r="E1" s="61" t="s">
+      <c r="C1" s="66" t="s">
         <v>88</v>
       </c>
-      <c r="F1" s="61" t="s">
+      <c r="D1" s="66" t="s">
         <v>89</v>
       </c>
-      <c r="G1" s="61" t="s">
+      <c r="E1" s="66" t="s">
         <v>90</v>
       </c>
-      <c r="H1" s="61" t="s">
+      <c r="F1" s="66" t="s">
         <v>91</v>
       </c>
-      <c r="I1" s="61" t="s">
+      <c r="G1" s="66" t="s">
         <v>92</v>
       </c>
-      <c r="J1" s="61" t="s">
+      <c r="H1" s="66" t="s">
         <v>93</v>
       </c>
-      <c r="K1" s="61" t="s">
+      <c r="I1" s="66" t="s">
         <v>94</v>
       </c>
-      <c r="L1" s="61" t="s">
+      <c r="J1" s="66" t="s">
         <v>95</v>
       </c>
-      <c r="M1" s="61" t="s">
+      <c r="K1" s="66" t="s">
         <v>96</v>
       </c>
-      <c r="N1" s="61" t="s">
+      <c r="L1" s="66" t="s">
         <v>97</v>
       </c>
-      <c r="O1" s="61" t="s">
+      <c r="M1" s="66" t="s">
         <v>98</v>
       </c>
-      <c r="P1" s="61" t="s">
+      <c r="N1" s="66" t="s">
         <v>99</v>
       </c>
-      <c r="Q1" s="61" t="s">
+      <c r="O1" s="66" t="s">
         <v>100</v>
       </c>
-      <c r="R1" s="61" t="s">
+      <c r="P1" s="66" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q1" s="66" t="s">
+        <v>102</v>
+      </c>
+      <c r="R1" s="66" t="s">
         <v>11</v>
       </c>
-      <c r="S1" s="61" t="s">
-        <v>101</v>
-      </c>
-      <c r="T1" s="61" t="s">
-        <v>102</v>
+      <c r="S1" s="66" t="s">
+        <v>103</v>
+      </c>
+      <c r="T1" s="66" t="s">
+        <v>104</v>
       </c>
       <c r="U1" s="14"/>
       <c r="V1" s="13"/>
       <c r="W1" s="13"/>
       <c r="X1" s="13"/>
-      <c r="Y1" s="39"/>
+      <c r="Y1" s="38"/>
     </row>
     <row r="2" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A2" s="11" t="s">
         <v>78</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="C2" s="34">
-        <v>0.42859999999999998</v>
+        <v>105</v>
+      </c>
+      <c r="C2" s="33">
+        <v>0.375</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="E2" s="34">
-        <v>0.45710000000000001</v>
+        <v>106</v>
+      </c>
+      <c r="E2" s="33">
+        <v>0.43590000000000001</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="G2" s="37">
-        <v>0.55559999999999998</v>
+        <v>107</v>
+      </c>
+      <c r="G2" s="36">
+        <v>0.51719999999999999</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="I2" s="37">
-        <v>0.31430000000000002</v>
+        <v>108</v>
+      </c>
+      <c r="I2" s="36">
+        <v>0.35</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="K2" s="37">
-        <v>0.8</v>
+        <v>15</v>
+      </c>
+      <c r="K2" s="36">
+        <v>0.66669999999999996</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="M2" s="37">
-        <v>0.83330000000000004</v>
+        <v>109</v>
+      </c>
+      <c r="M2" s="36">
+        <v>0.71430000000000005</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="O2" s="37">
+        <v>110</v>
+      </c>
+      <c r="O2" s="36">
         <v>0</v>
       </c>
       <c r="P2" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="Q2" s="34">
+      <c r="Q2" s="33">
         <v>0</v>
       </c>
-      <c r="R2" s="40">
+      <c r="R2" s="39">
         <v>0</v>
       </c>
       <c r="S2" s="1">
@@ -4936,54 +5116,54 @@
         <v>30</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="C3" s="34">
-        <v>0.5625</v>
+        <v>111</v>
+      </c>
+      <c r="C3" s="33">
+        <v>0.58819999999999995</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="E3" s="37">
-        <v>0.51390000000000002</v>
+        <v>112</v>
+      </c>
+      <c r="E3" s="36">
+        <v>0.52629999999999999</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="G3" s="37">
-        <v>0.58179999999999998</v>
+        <v>113</v>
+      </c>
+      <c r="G3" s="36">
+        <v>0.59650000000000003</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="I3" s="37">
-        <v>0.52859999999999996</v>
+        <v>114</v>
+      </c>
+      <c r="I3" s="36">
+        <v>0.52</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="K3" s="37">
-        <v>0.33329999999999999</v>
+        <v>115</v>
+      </c>
+      <c r="K3" s="36">
+        <v>0.3846</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="M3" s="37">
-        <v>0.57140000000000002</v>
+        <v>116</v>
+      </c>
+      <c r="M3" s="36">
+        <v>0.6</v>
       </c>
       <c r="N3" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="O3" s="37">
+      <c r="O3" s="36">
         <v>0.33329999999999999</v>
       </c>
       <c r="P3" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="Q3" s="34">
+      <c r="Q3" s="33">
         <v>0.25</v>
       </c>
-      <c r="R3" s="40">
+      <c r="R3" s="39">
         <v>1</v>
       </c>
       <c r="S3" s="1">
@@ -4996,64 +5176,64 @@
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A4" s="12" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="C4" s="34">
+        <v>110</v>
+      </c>
+      <c r="C4" s="33">
         <v>0</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="E4" s="37">
+      <c r="E4" s="36">
         <v>0.33329999999999999</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="G4" s="37">
+      <c r="G4" s="36">
         <v>0.33329999999999999</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="I4" s="37">
+        <v>118</v>
+      </c>
+      <c r="I4" s="36">
         <v>0.6</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="K4" s="37">
+        <v>119</v>
+      </c>
+      <c r="K4" s="36">
         <v>0</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="M4" s="37">
+        <v>110</v>
+      </c>
+      <c r="M4" s="36">
         <v>0</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="O4" s="37">
+        <v>119</v>
+      </c>
+      <c r="O4" s="36">
         <v>0</v>
       </c>
       <c r="P4" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="Q4" s="34">
+        <v>119</v>
+      </c>
+      <c r="Q4" s="33">
         <v>0</v>
       </c>
-      <c r="R4" s="40">
+      <c r="R4" s="39">
         <v>0</v>
       </c>
       <c r="S4" s="1">
         <v>0</v>
       </c>
       <c r="T4" s="19" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="U4" s="15"/>
     </row>
@@ -5062,55 +5242,55 @@
         <v>29</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="C5" s="34">
-        <v>0.42859999999999998</v>
+        <v>120</v>
+      </c>
+      <c r="C5" s="33">
+        <v>0.4667</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="E5" s="37">
-        <v>0.46150000000000002</v>
+        <v>121</v>
+      </c>
+      <c r="E5" s="36">
+        <v>0.4783</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="G5" s="37">
-        <v>0.42859999999999998</v>
+        <v>122</v>
+      </c>
+      <c r="G5" s="36">
+        <v>0.45100000000000001</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="I5" s="37">
-        <v>0.46879999999999999</v>
+        <v>123</v>
+      </c>
+      <c r="I5" s="36">
+        <v>0.46379999999999999</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="K5" s="37">
-        <v>0.72729999999999995</v>
+        <v>124</v>
+      </c>
+      <c r="K5" s="36">
+        <v>0.75</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="M5" s="37">
-        <v>0.58330000000000004</v>
+        <v>125</v>
+      </c>
+      <c r="M5" s="36">
+        <v>0.61539999999999995</v>
       </c>
       <c r="N5" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="O5" s="37">
+      <c r="O5" s="36">
         <v>0.66669999999999996</v>
       </c>
       <c r="P5" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="Q5" s="34">
+      <c r="Q5" s="33">
         <v>0.25</v>
       </c>
-      <c r="R5" s="40">
-        <v>5</v>
+      <c r="R5" s="39">
+        <v>6</v>
       </c>
       <c r="S5" s="1">
         <v>2</v>
@@ -5125,54 +5305,54 @@
         <v>51</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="C6" s="34">
+        <v>115</v>
+      </c>
+      <c r="C6" s="33">
         <v>0.3846</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="E6" s="37">
+        <v>126</v>
+      </c>
+      <c r="E6" s="36">
         <v>0.45760000000000001</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="G6" s="37">
+        <v>127</v>
+      </c>
+      <c r="G6" s="36">
         <v>0.53490000000000004</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="I6" s="37">
+        <v>128</v>
+      </c>
+      <c r="I6" s="36">
         <v>0.51919999999999999</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="K6" s="37">
+        <v>129</v>
+      </c>
+      <c r="K6" s="36">
         <v>0.45450000000000002</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="M6" s="37">
+        <v>130</v>
+      </c>
+      <c r="M6" s="36">
         <v>0.25</v>
       </c>
       <c r="N6" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="O6" s="37">
+      <c r="O6" s="36">
         <v>0.33329999999999999</v>
       </c>
       <c r="P6" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="Q6" s="34">
+      <c r="Q6" s="33">
         <v>0.33329999999999999</v>
       </c>
-      <c r="R6" s="40">
+      <c r="R6" s="39">
         <v>2</v>
       </c>
       <c r="S6" s="1">
@@ -5188,54 +5368,54 @@
         <v>43</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="C7" s="34">
-        <v>0.5</v>
+        <v>131</v>
+      </c>
+      <c r="C7" s="33">
+        <v>0.47060000000000002</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="E7" s="37">
-        <v>0.54169999999999996</v>
+        <v>112</v>
+      </c>
+      <c r="E7" s="36">
+        <v>0.52629999999999999</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="G7" s="37">
-        <v>0.52729999999999999</v>
+        <v>132</v>
+      </c>
+      <c r="G7" s="36">
+        <v>0.50880000000000003</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="I7" s="37">
-        <v>0.48570000000000002</v>
+        <v>133</v>
+      </c>
+      <c r="I7" s="36">
+        <v>0.49330000000000002</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="K7" s="37">
-        <v>0.5</v>
+        <v>134</v>
+      </c>
+      <c r="K7" s="36">
+        <v>0.46150000000000002</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="M7" s="37">
-        <v>0.42859999999999998</v>
+        <v>135</v>
+      </c>
+      <c r="M7" s="36">
+        <v>0.4</v>
       </c>
       <c r="N7" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="O7" s="37">
+      <c r="O7" s="36">
         <v>0.66669999999999996</v>
       </c>
       <c r="P7" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="Q7" s="34">
+        <v>136</v>
+      </c>
+      <c r="Q7" s="33">
         <v>1</v>
       </c>
-      <c r="R7" s="40">
+      <c r="R7" s="39">
         <v>1</v>
       </c>
       <c r="S7" s="1">
@@ -5251,54 +5431,54 @@
         <v>42</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="C8" s="34">
-        <v>0.3846</v>
+        <v>137</v>
+      </c>
+      <c r="C8" s="33">
+        <v>0.42859999999999998</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="E8" s="37">
-        <v>0.42620000000000002</v>
+        <v>138</v>
+      </c>
+      <c r="E8" s="36">
+        <v>0.44619999999999999</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="G8" s="37">
-        <v>0.33329999999999999</v>
+        <v>139</v>
+      </c>
+      <c r="G8" s="36">
+        <v>0.36170000000000002</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="I8" s="37">
-        <v>0.49120000000000003</v>
+        <v>140</v>
+      </c>
+      <c r="I8" s="36">
+        <v>0.4839</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="K8" s="37">
-        <v>0.6</v>
+        <v>141</v>
+      </c>
+      <c r="K8" s="36">
+        <v>0.63639999999999997</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="M8" s="37">
-        <v>0.5</v>
+        <v>142</v>
+      </c>
+      <c r="M8" s="36">
+        <v>0.53849999999999998</v>
       </c>
       <c r="N8" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="O8" s="37">
+      <c r="O8" s="36">
         <v>0.66669999999999996</v>
       </c>
       <c r="P8" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="Q8" s="34">
+        <v>143</v>
+      </c>
+      <c r="Q8" s="33">
         <v>0.5</v>
       </c>
-      <c r="R8" s="40">
+      <c r="R8" s="39">
         <v>1</v>
       </c>
       <c r="S8" s="1">
@@ -5311,64 +5491,64 @@
     </row>
     <row r="9" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A9" s="12" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C9" s="34">
-        <v>0.33329999999999999</v>
+        <v>143</v>
+      </c>
+      <c r="C9" s="33">
+        <v>0.5</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="E9" s="37">
-        <v>0.44440000000000002</v>
+        <v>145</v>
+      </c>
+      <c r="E9" s="36">
+        <v>0.5</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="G9" s="37">
-        <v>0.2727</v>
+        <v>115</v>
+      </c>
+      <c r="G9" s="36">
+        <v>0.3846</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="I9" s="37">
-        <v>0.4375</v>
+        <v>146</v>
+      </c>
+      <c r="I9" s="36">
+        <v>0.42859999999999998</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="K9" s="37">
-        <v>0.66669999999999996</v>
+        <v>62</v>
+      </c>
+      <c r="K9" s="36">
+        <v>0.75</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="M9" s="37">
-        <v>0</v>
+        <v>75</v>
+      </c>
+      <c r="M9" s="36">
+        <v>0.25</v>
       </c>
       <c r="N9" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="O9" s="37">
+        <v>147</v>
+      </c>
+      <c r="O9" s="36">
         <v>1</v>
       </c>
       <c r="P9" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="Q9" s="34">
+        <v>148</v>
+      </c>
+      <c r="Q9" s="33">
         <v>1</v>
       </c>
-      <c r="R9" s="40">
+      <c r="R9" s="39">
         <v>0</v>
       </c>
       <c r="S9" s="1">
         <v>0</v>
       </c>
       <c r="T9" s="19" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="U9" s="15"/>
     </row>
@@ -5377,54 +5557,54 @@
         <v>22</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="C10" s="34">
-        <v>0.6875</v>
+        <v>149</v>
+      </c>
+      <c r="C10" s="33">
+        <v>0.64710000000000001</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="E10" s="37">
-        <v>0.58330000000000004</v>
+        <v>150</v>
+      </c>
+      <c r="E10" s="36">
+        <v>0.56579999999999997</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="G10" s="37">
-        <v>0.63639999999999997</v>
+        <v>151</v>
+      </c>
+      <c r="G10" s="36">
+        <v>0.61399999999999999</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="I10" s="37">
-        <v>0.47139999999999999</v>
+        <v>152</v>
+      </c>
+      <c r="I10" s="36">
+        <v>0.48</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="K10" s="37">
-        <v>0.5</v>
+        <v>134</v>
+      </c>
+      <c r="K10" s="36">
+        <v>0.46150000000000002</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="M10" s="37">
-        <v>0.57140000000000002</v>
+        <v>153</v>
+      </c>
+      <c r="M10" s="36">
+        <v>0.5333</v>
       </c>
       <c r="N10" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="O10" s="37">
+      <c r="O10" s="36">
         <v>0.33329999999999999</v>
       </c>
       <c r="P10" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="Q10" s="34">
+        <v>143</v>
+      </c>
+      <c r="Q10" s="33">
         <v>0.5</v>
       </c>
-      <c r="R10" s="40">
+      <c r="R10" s="39">
         <v>5</v>
       </c>
       <c r="S10" s="17">
@@ -5436,127 +5616,127 @@
       <c r="U10" s="15"/>
     </row>
     <row r="11" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A11" s="30" t="s">
+      <c r="A11" s="29" t="s">
         <v>23</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="C11" s="35">
-        <v>0.44440000000000002</v>
-      </c>
-      <c r="D11" s="29" t="s">
-        <v>152</v>
-      </c>
-      <c r="E11" s="35">
-        <v>0.47499999999999998</v>
-      </c>
-      <c r="F11" s="29" t="s">
-        <v>103</v>
-      </c>
-      <c r="G11" s="35">
-        <v>0.45710000000000001</v>
-      </c>
-      <c r="H11" s="29" t="s">
-        <v>153</v>
-      </c>
-      <c r="I11" s="35">
-        <v>0.64290000000000003</v>
-      </c>
-      <c r="J11" s="29" t="s">
         <v>154</v>
       </c>
-      <c r="K11" s="35">
+      <c r="C11" s="34">
+        <v>0.4</v>
+      </c>
+      <c r="D11" s="28" t="s">
+        <v>155</v>
+      </c>
+      <c r="E11" s="34">
+        <v>0.45450000000000002</v>
+      </c>
+      <c r="F11" s="28" t="s">
+        <v>156</v>
+      </c>
+      <c r="G11" s="34">
+        <v>0.43240000000000001</v>
+      </c>
+      <c r="H11" s="28" t="s">
+        <v>157</v>
+      </c>
+      <c r="I11" s="34">
+        <v>0.63829999999999998</v>
+      </c>
+      <c r="J11" s="28" t="s">
+        <v>158</v>
+      </c>
+      <c r="K11" s="34">
         <v>0</v>
       </c>
-      <c r="L11" s="29" t="s">
-        <v>155</v>
-      </c>
-      <c r="M11" s="35">
-        <v>0.33329999999999999</v>
-      </c>
-      <c r="N11" s="29" t="s">
-        <v>156</v>
-      </c>
-      <c r="O11" s="35">
+      <c r="L11" s="28" t="s">
+        <v>159</v>
+      </c>
+      <c r="M11" s="34">
+        <v>0.28570000000000001</v>
+      </c>
+      <c r="N11" s="28" t="s">
+        <v>160</v>
+      </c>
+      <c r="O11" s="34">
         <v>0.5</v>
       </c>
-      <c r="P11" s="29" t="s">
-        <v>145</v>
-      </c>
-      <c r="Q11" s="35">
+      <c r="P11" s="28" t="s">
+        <v>147</v>
+      </c>
+      <c r="Q11" s="34">
         <v>1</v>
       </c>
-      <c r="R11" s="40">
+      <c r="R11" s="39">
         <v>1</v>
       </c>
       <c r="S11" s="1">
         <v>3</v>
       </c>
-      <c r="T11" s="32" t="s">
+      <c r="T11" s="31" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="12" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A12" s="31" t="s">
-        <v>157</v>
+      <c r="A12" s="30" t="s">
+        <v>161</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>156</v>
-      </c>
-      <c r="C12" s="36">
+        <v>160</v>
+      </c>
+      <c r="C12" s="35">
         <v>0.5</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>127</v>
-      </c>
-      <c r="E12" s="36">
+        <v>129</v>
+      </c>
+      <c r="E12" s="35">
         <v>0.45450000000000002</v>
       </c>
       <c r="F12" s="10" t="s">
-        <v>158</v>
-      </c>
-      <c r="G12" s="36">
+        <v>105</v>
+      </c>
+      <c r="G12" s="35">
         <v>0.375</v>
       </c>
       <c r="H12" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="I12" s="36">
+      <c r="I12" s="35">
         <v>0.4</v>
       </c>
       <c r="J12" s="10" t="s">
-        <v>156</v>
-      </c>
-      <c r="K12" s="36">
+        <v>160</v>
+      </c>
+      <c r="K12" s="35">
         <v>0.5</v>
       </c>
       <c r="L12" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="M12" s="36">
+      <c r="M12" s="35">
         <v>0.66669999999999996</v>
       </c>
       <c r="N12" s="10" t="s">
-        <v>156</v>
-      </c>
-      <c r="O12" s="36">
+        <v>160</v>
+      </c>
+      <c r="O12" s="35">
         <v>0.5</v>
       </c>
       <c r="P12" s="10" t="s">
-        <v>116</v>
-      </c>
-      <c r="Q12" s="36">
+        <v>119</v>
+      </c>
+      <c r="Q12" s="35">
         <v>0</v>
       </c>
-      <c r="R12" s="41">
+      <c r="R12" s="40">
         <v>0</v>
       </c>
       <c r="S12" s="10">
         <v>0</v>
       </c>
-      <c r="T12" s="33" t="s">
-        <v>157</v>
+      <c r="T12" s="32" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="13" spans="1:25" x14ac:dyDescent="0.2">
@@ -5605,8 +5785,8 @@
       <c r="C19" s="9"/>
       <c r="E19" s="9"/>
       <c r="X19" s="2"/>
-      <c r="Y19" s="37"/>
-      <c r="Z19" s="34"/>
+      <c r="Y19" s="36"/>
+      <c r="Z19" s="33"/>
       <c r="AA19" s="1"/>
     </row>
     <row r="20" spans="1:27" x14ac:dyDescent="0.2">
@@ -5614,8 +5794,8 @@
       <c r="C20" s="9"/>
       <c r="E20" s="9"/>
       <c r="X20" s="2"/>
-      <c r="Y20" s="37"/>
-      <c r="Z20" s="34"/>
+      <c r="Y20" s="36"/>
+      <c r="Z20" s="33"/>
       <c r="AA20" s="1"/>
     </row>
     <row r="21" spans="1:27" x14ac:dyDescent="0.2">
@@ -5623,52 +5803,52 @@
       <c r="C21" s="9"/>
       <c r="E21" s="9"/>
       <c r="X21" s="2"/>
-      <c r="Y21" s="37"/>
-      <c r="Z21" s="34"/>
+      <c r="Y21" s="36"/>
+      <c r="Z21" s="33"/>
       <c r="AA21" s="1"/>
     </row>
     <row r="22" spans="1:27" x14ac:dyDescent="0.2">
       <c r="X22" s="2"/>
-      <c r="Y22" s="37"/>
-      <c r="Z22" s="34"/>
+      <c r="Y22" s="36"/>
+      <c r="Z22" s="33"/>
       <c r="AA22" s="1"/>
     </row>
     <row r="23" spans="1:27" x14ac:dyDescent="0.2">
       <c r="X23" s="2"/>
-      <c r="Y23" s="37"/>
-      <c r="Z23" s="34"/>
+      <c r="Y23" s="36"/>
+      <c r="Z23" s="33"/>
       <c r="AA23" s="1"/>
     </row>
     <row r="24" spans="1:27" x14ac:dyDescent="0.2">
       <c r="X24" s="2"/>
-      <c r="Y24" s="37"/>
-      <c r="Z24" s="34"/>
+      <c r="Y24" s="36"/>
+      <c r="Z24" s="33"/>
       <c r="AA24" s="1"/>
     </row>
     <row r="25" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="X25" s="38"/>
-      <c r="Y25" s="35"/>
-      <c r="Z25" s="34"/>
+      <c r="X25" s="37"/>
+      <c r="Y25" s="34"/>
+      <c r="Z25" s="33"/>
       <c r="AA25" s="1"/>
     </row>
     <row r="26" spans="1:27" x14ac:dyDescent="0.2">
       <c r="X26" s="2"/>
-      <c r="Y26" s="35"/>
-      <c r="Z26" s="34"/>
+      <c r="Y26" s="34"/>
+      <c r="Z26" s="33"/>
       <c r="AA26" s="1"/>
     </row>
     <row r="27" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="Z27" s="34"/>
+      <c r="Z27" s="33"/>
       <c r="AA27" s="1"/>
     </row>
     <row r="28" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="Z28" s="35"/>
-      <c r="AA28" s="29"/>
+      <c r="Z28" s="34"/>
+      <c r="AA28" s="28"/>
     </row>
     <row r="29" spans="1:27" x14ac:dyDescent="0.2">
       <c r="X29" s="2"/>
-      <c r="Y29" s="34"/>
-      <c r="Z29" s="34"/>
+      <c r="Y29" s="33"/>
+      <c r="Z29" s="33"/>
       <c r="AA29" s="1"/>
     </row>
   </sheetData>
@@ -5808,139 +5988,141 @@
   <dimension ref="A1:M15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H24" sqref="H24"/>
+      <selection activeCell="N5" sqref="N5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A1" s="62" t="s">
-        <v>84</v>
-      </c>
-      <c r="B1" s="61" t="s">
+      <c r="A1" s="67" t="s">
+        <v>86</v>
+      </c>
+      <c r="B1" s="66" t="s">
         <v>78</v>
       </c>
-      <c r="C1" s="61" t="s">
+      <c r="C1" s="66" t="s">
         <v>30</v>
       </c>
-      <c r="D1" s="61" t="s">
-        <v>114</v>
-      </c>
-      <c r="E1" s="61" t="s">
+      <c r="D1" s="66" t="s">
+        <v>117</v>
+      </c>
+      <c r="E1" s="66" t="s">
         <v>29</v>
       </c>
-      <c r="F1" s="61" t="s">
+      <c r="F1" s="66" t="s">
         <v>51</v>
       </c>
-      <c r="G1" s="61" t="s">
+      <c r="G1" s="66" t="s">
         <v>43</v>
       </c>
-      <c r="H1" s="61" t="s">
+      <c r="H1" s="66" t="s">
         <v>42</v>
       </c>
-      <c r="I1" s="61" t="s">
-        <v>140</v>
-      </c>
-      <c r="J1" s="61" t="s">
+      <c r="I1" s="66" t="s">
+        <v>144</v>
+      </c>
+      <c r="J1" s="66" t="s">
         <v>22</v>
       </c>
-      <c r="K1" s="61" t="s">
+      <c r="K1" s="66" t="s">
         <v>23</v>
       </c>
-      <c r="L1" s="61" t="s">
-        <v>157</v>
-      </c>
-      <c r="M1" s="61" t="s">
-        <v>159</v>
+      <c r="L1" s="66" t="s">
+        <v>161</v>
+      </c>
+      <c r="M1" s="66" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A2" s="27" t="s">
+      <c r="A2" s="26" t="s">
         <v>78</v>
       </c>
-      <c r="B2" s="52">
+      <c r="B2" s="51">
         <v>0</v>
       </c>
-      <c r="C2" s="53">
-        <v>0.42899999999999999</v>
-      </c>
-      <c r="D2" s="53">
+      <c r="C2" s="52">
+        <v>0.375</v>
+      </c>
+      <c r="D2" s="52">
         <v>0</v>
       </c>
-      <c r="E2" s="53">
-        <v>0.42899999999999999</v>
-      </c>
-      <c r="F2" s="53">
-        <v>0.28599999999999998</v>
-      </c>
-      <c r="G2" s="53">
-        <v>0.42899999999999999</v>
-      </c>
-      <c r="H2" s="53">
-        <v>0.28599999999999998</v>
-      </c>
-      <c r="I2" s="53">
+      <c r="E2" s="52">
+        <v>0.375</v>
+      </c>
+      <c r="F2" s="52">
+        <v>0.25</v>
+      </c>
+      <c r="G2" s="52">
+        <v>0.5</v>
+      </c>
+      <c r="H2" s="52">
+        <v>0.25</v>
+      </c>
+      <c r="I2" s="52">
         <v>0</v>
       </c>
-      <c r="J2" s="53">
-        <v>0.85699999999999998</v>
-      </c>
-      <c r="K2" s="53">
+      <c r="J2" s="52">
+        <v>0.875</v>
+      </c>
+      <c r="K2" s="52">
+        <v>0.125</v>
+      </c>
+      <c r="L2" s="53">
         <v>0</v>
       </c>
-      <c r="L2" s="54">
-        <v>0</v>
-      </c>
+      <c r="M2" s="69"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A3" s="27" t="s">
+      <c r="A3" s="26" t="s">
         <v>30</v>
       </c>
-      <c r="B3" s="55">
-        <v>0.188</v>
-      </c>
-      <c r="C3" s="56">
+      <c r="B3" s="54">
+        <v>0.17599999999999999</v>
+      </c>
+      <c r="C3" s="55">
         <v>0</v>
       </c>
       <c r="D3" s="9">
         <v>0</v>
       </c>
       <c r="E3" s="9">
-        <v>0.312</v>
+        <v>0.35299999999999998</v>
       </c>
       <c r="F3" s="9">
-        <v>0.312</v>
+        <v>0.29399999999999998</v>
       </c>
       <c r="G3" s="9">
-        <v>0.56200000000000006</v>
+        <v>0.52900000000000003</v>
       </c>
       <c r="H3" s="9">
-        <v>0.25</v>
+        <v>0.29399999999999998</v>
       </c>
       <c r="I3" s="9">
-        <v>0</v>
+        <v>5.8999999999999997E-2</v>
       </c>
       <c r="J3" s="9">
-        <v>0.5</v>
+        <v>0.47099999999999997</v>
       </c>
       <c r="K3" s="9">
-        <v>0.312</v>
-      </c>
-      <c r="L3" s="57">
-        <v>6.2E-2</v>
-      </c>
+        <v>0.29399999999999998</v>
+      </c>
+      <c r="L3" s="56">
+        <v>5.8999999999999997E-2</v>
+      </c>
+      <c r="M3" s="69"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A4" s="28" t="s">
-        <v>114</v>
-      </c>
-      <c r="B4" s="55">
+      <c r="A4" s="27" t="s">
+        <v>117</v>
+      </c>
+      <c r="B4" s="54">
         <v>0</v>
       </c>
       <c r="C4" s="9">
         <v>0</v>
       </c>
-      <c r="D4" s="56">
+      <c r="D4" s="55">
         <v>0</v>
       </c>
       <c r="E4" s="9">
@@ -5964,53 +6146,55 @@
       <c r="K4" s="9">
         <v>0</v>
       </c>
-      <c r="L4" s="57">
+      <c r="L4" s="56">
         <v>0</v>
       </c>
+      <c r="M4" s="69"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A5" s="27" t="s">
+      <c r="A5" s="26" t="s">
         <v>29</v>
       </c>
-      <c r="B5" s="55">
-        <v>0.214</v>
+      <c r="B5" s="54">
+        <v>0.2</v>
       </c>
       <c r="C5" s="9">
-        <v>0.35699999999999998</v>
+        <v>0.4</v>
       </c>
       <c r="D5" s="9">
         <v>0</v>
       </c>
-      <c r="E5" s="56">
+      <c r="E5" s="55">
         <v>0</v>
       </c>
       <c r="F5" s="9">
-        <v>0.214</v>
+        <v>0.2</v>
       </c>
       <c r="G5" s="9">
-        <v>0.42899999999999999</v>
+        <v>0.4</v>
       </c>
       <c r="H5" s="9">
-        <v>0.57099999999999995</v>
+        <v>0.6</v>
       </c>
       <c r="I5" s="9">
-        <v>0.14299999999999999</v>
+        <v>0.2</v>
       </c>
       <c r="J5" s="9">
-        <v>0.214</v>
+        <v>0.2</v>
       </c>
       <c r="K5" s="9">
-        <v>0.214</v>
-      </c>
-      <c r="L5" s="57">
-        <v>7.0999999999999994E-2</v>
-      </c>
+        <v>0.2</v>
+      </c>
+      <c r="L5" s="56">
+        <v>6.7000000000000004E-2</v>
+      </c>
+      <c r="M5" s="69"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A6" s="27" t="s">
+      <c r="A6" s="26" t="s">
         <v>51</v>
       </c>
-      <c r="B6" s="55">
+      <c r="B6" s="54">
         <v>0.154</v>
       </c>
       <c r="C6" s="9">
@@ -6022,7 +6206,7 @@
       <c r="E6" s="9">
         <v>0.23100000000000001</v>
       </c>
-      <c r="F6" s="56">
+      <c r="F6" s="55">
         <v>0</v>
       </c>
       <c r="G6" s="9">
@@ -6040,260 +6224,328 @@
       <c r="K6" s="9">
         <v>0.308</v>
       </c>
-      <c r="L6" s="57">
+      <c r="L6" s="56">
         <v>0</v>
       </c>
+      <c r="M6" s="69"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A7" s="27" t="s">
+      <c r="A7" s="26" t="s">
         <v>43</v>
       </c>
-      <c r="B7" s="55">
-        <v>0.188</v>
+      <c r="B7" s="54">
+        <v>0.23499999999999999</v>
       </c>
       <c r="C7" s="9">
-        <v>0.56200000000000006</v>
+        <v>0.52900000000000003</v>
       </c>
       <c r="D7" s="9">
         <v>0</v>
       </c>
       <c r="E7" s="9">
-        <v>0.375</v>
+        <v>0.35299999999999998</v>
       </c>
       <c r="F7" s="9">
-        <v>0.25</v>
-      </c>
-      <c r="G7" s="56">
+        <v>0.23499999999999999</v>
+      </c>
+      <c r="G7" s="55">
         <v>0</v>
       </c>
       <c r="H7" s="9">
-        <v>0.188</v>
+        <v>0.17599999999999999</v>
       </c>
       <c r="I7" s="9">
-        <v>0.125</v>
+        <v>0.11799999999999999</v>
       </c>
       <c r="J7" s="9">
-        <v>0.56200000000000006</v>
+        <v>0.58799999999999997</v>
       </c>
       <c r="K7" s="9">
-        <v>0.188</v>
-      </c>
-      <c r="L7" s="57">
+        <v>0.23499999999999999</v>
+      </c>
+      <c r="L7" s="56">
         <v>0</v>
       </c>
+      <c r="M7" s="69"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A8" s="27" t="s">
+      <c r="A8" s="26" t="s">
         <v>42</v>
       </c>
-      <c r="B8" s="55">
-        <v>0.154</v>
+      <c r="B8" s="54">
+        <v>0.14299999999999999</v>
       </c>
       <c r="C8" s="9">
-        <v>0.308</v>
+        <v>0.35699999999999998</v>
       </c>
       <c r="D8" s="9">
         <v>0</v>
       </c>
       <c r="E8" s="9">
-        <v>0.61499999999999999</v>
+        <v>0.64300000000000002</v>
       </c>
       <c r="F8" s="9">
-        <v>0.38500000000000001</v>
+        <v>0.35699999999999998</v>
       </c>
       <c r="G8" s="9">
-        <v>0.23100000000000001</v>
-      </c>
-      <c r="H8" s="56">
+        <v>0.214</v>
+      </c>
+      <c r="H8" s="55">
         <v>0</v>
       </c>
       <c r="I8" s="9">
-        <v>0.23100000000000001</v>
+        <v>0.28599999999999998</v>
       </c>
       <c r="J8" s="9">
-        <v>7.6999999999999999E-2</v>
+        <v>7.0999999999999994E-2</v>
       </c>
       <c r="K8" s="9">
-        <v>0.38500000000000001</v>
-      </c>
-      <c r="L8" s="57">
-        <v>0.154</v>
-      </c>
+        <v>0.35699999999999998</v>
+      </c>
+      <c r="L8" s="56">
+        <v>0.14299999999999999</v>
+      </c>
+      <c r="M8" s="69"/>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A9" s="27" t="s">
-        <v>140</v>
-      </c>
-      <c r="B9" s="55">
+      <c r="A9" s="26" t="s">
+        <v>144</v>
+      </c>
+      <c r="B9" s="54">
         <v>0</v>
       </c>
       <c r="C9" s="9">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="D9" s="9">
         <v>0</v>
       </c>
       <c r="E9" s="9">
-        <v>0.66700000000000004</v>
+        <v>0.75</v>
       </c>
       <c r="F9" s="9">
-        <v>0.33300000000000002</v>
+        <v>0.25</v>
       </c>
       <c r="G9" s="9">
-        <v>0.66700000000000004</v>
+        <v>0.5</v>
       </c>
       <c r="H9" s="9">
         <v>1</v>
       </c>
-      <c r="I9" s="56">
+      <c r="I9" s="55">
         <v>0</v>
       </c>
       <c r="J9" s="9">
         <v>0</v>
       </c>
       <c r="K9" s="9">
-        <v>0.33300000000000002</v>
-      </c>
-      <c r="L9" s="57">
+        <v>0.25</v>
+      </c>
+      <c r="L9" s="56">
         <v>0</v>
       </c>
+      <c r="M9" s="69"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A10" s="27" t="s">
+      <c r="A10" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="B10" s="55">
-        <v>0.375</v>
+      <c r="B10" s="54">
+        <v>0.41199999999999998</v>
       </c>
       <c r="C10" s="9">
-        <v>0.5</v>
+        <v>0.47099999999999997</v>
       </c>
       <c r="D10" s="9">
-        <v>6.2E-2</v>
+        <v>5.8999999999999997E-2</v>
       </c>
       <c r="E10" s="9">
-        <v>0.188</v>
+        <v>0.17599999999999999</v>
       </c>
       <c r="F10" s="9">
-        <v>0.5</v>
+        <v>0.47099999999999997</v>
       </c>
       <c r="G10" s="9">
-        <v>0.56200000000000006</v>
+        <v>0.58799999999999997</v>
       </c>
       <c r="H10" s="9">
-        <v>6.2E-2</v>
+        <v>5.8999999999999997E-2</v>
       </c>
       <c r="I10" s="9">
         <v>0</v>
       </c>
-      <c r="J10" s="56">
+      <c r="J10" s="55">
         <v>0</v>
       </c>
       <c r="K10" s="9">
-        <v>0.125</v>
-      </c>
-      <c r="L10" s="57">
+        <v>0.17599999999999999</v>
+      </c>
+      <c r="L10" s="56">
         <v>0</v>
       </c>
+      <c r="M10" s="69"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A11" s="27" t="s">
+      <c r="A11" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="B11" s="55">
-        <v>0</v>
+      <c r="B11" s="54">
+        <v>0.1</v>
       </c>
       <c r="C11" s="9">
-        <v>0.55600000000000005</v>
+        <v>0.5</v>
       </c>
       <c r="D11" s="9">
         <v>0</v>
       </c>
       <c r="E11" s="9">
-        <v>0.33300000000000002</v>
+        <v>0.3</v>
       </c>
       <c r="F11" s="9">
-        <v>0.44400000000000001</v>
+        <v>0.4</v>
       </c>
       <c r="G11" s="9">
-        <v>0.33300000000000002</v>
+        <v>0.4</v>
       </c>
       <c r="H11" s="9">
-        <v>0.55600000000000005</v>
+        <v>0.5</v>
       </c>
       <c r="I11" s="9">
-        <v>0.111</v>
+        <v>0.1</v>
       </c>
       <c r="J11" s="9">
-        <v>0.222</v>
-      </c>
-      <c r="K11" s="56">
+        <v>0.3</v>
+      </c>
+      <c r="K11" s="55">
         <v>0</v>
       </c>
-      <c r="L11" s="57">
-        <v>0.111</v>
-      </c>
+      <c r="L11" s="56">
+        <v>0.1</v>
+      </c>
+      <c r="M11" s="69"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A12" s="50" t="s">
-        <v>157</v>
-      </c>
-      <c r="B12" s="58">
+      <c r="A12" s="49" t="s">
+        <v>161</v>
+      </c>
+      <c r="B12" s="57">
         <v>0</v>
       </c>
-      <c r="C12" s="59">
+      <c r="C12" s="58">
         <v>0.5</v>
       </c>
-      <c r="D12" s="59">
+      <c r="D12" s="58">
         <v>0</v>
       </c>
-      <c r="E12" s="59">
+      <c r="E12" s="58">
         <v>0.5</v>
       </c>
-      <c r="F12" s="59">
+      <c r="F12" s="58">
         <v>0</v>
       </c>
-      <c r="G12" s="59">
+      <c r="G12" s="58">
         <v>0</v>
       </c>
-      <c r="H12" s="59">
+      <c r="H12" s="58">
         <v>1</v>
       </c>
-      <c r="I12" s="59">
+      <c r="I12" s="58">
         <v>0</v>
       </c>
-      <c r="J12" s="59">
+      <c r="J12" s="58">
         <v>0</v>
       </c>
-      <c r="K12" s="59">
+      <c r="K12" s="58">
         <v>0.5</v>
       </c>
-      <c r="L12" s="60">
+      <c r="L12" s="59">
         <v>0</v>
       </c>
+      <c r="M12" s="69"/>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A13" s="51" t="s">
-        <v>160</v>
-      </c>
-      <c r="B13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
-      <c r="I13" s="1"/>
-      <c r="J13" s="1"/>
-      <c r="K13" s="1"/>
-      <c r="L13" s="23"/>
+      <c r="A13" s="50" t="s">
+        <v>163</v>
+      </c>
+      <c r="B13" s="28"/>
+      <c r="C13" s="28"/>
+      <c r="D13" s="28"/>
+      <c r="E13" s="28"/>
+      <c r="F13" s="28"/>
+      <c r="G13" s="28"/>
+      <c r="H13" s="28"/>
+      <c r="I13" s="28"/>
+      <c r="J13" s="28"/>
+      <c r="K13" s="28"/>
+      <c r="L13" s="28"/>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="B3:B12 C2:L2">
+    <cfRule type="colorScale" priority="7">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B4:C4 B3 B5:D5 B6:E6 B7:F7 B8:G8 B9:H9 B10:I10 B11:J11 B12:K12 C2:L2 D3:L3 E4:L4 F5:L5 G6:L6 H7:L7 I8:L8 J9:L9 K10:L10 L11">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B4:C4 D2:D3 D5:D12 E4:L4">
+    <cfRule type="colorScale" priority="5">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B5:D5 E2:E4 E6:E12 F5:L5">
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B3 C2 C4:C12 D3:L3">
+    <cfRule type="colorScale" priority="3">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C4:C12 C2 D3:L3">
     <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="min"/>
@@ -6305,56 +6557,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B4:C4 B3 B5:D5 B6:E6 B7:F7 B8:G8 B9:H9 B10:I10 B11:J11 B12:K12 C2:L2 D3:L3 E4:L4 F5:L5 G6:L6 H7:L7 I8:L8 J9:L9 K10:L10 L11">
+  <conditionalFormatting sqref="M2:M12">
     <cfRule type="colorScale" priority="1">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B4:C4 D2:D3 D5:D12 E4:L4">
-    <cfRule type="colorScale" priority="4">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B5:D5 E2:E4 E6:E12 F5:L5">
-    <cfRule type="colorScale" priority="3">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C2 B3 C4:C12 D3:L3">
-    <cfRule type="colorScale" priority="2">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C4:C12 C2 D3:L3">
-    <cfRule type="colorScale" priority="5">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -6374,7 +6578,7 @@
   <dimension ref="A1:AA29"/>
   <sheetViews>
     <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="W11" sqref="W11"/>
+      <selection activeCell="W8" sqref="W8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6386,71 +6590,71 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A1" s="49" t="s">
-        <v>84</v>
-      </c>
-      <c r="B1" s="49" t="s">
-        <v>85</v>
-      </c>
-      <c r="C1" s="49" t="s">
+      <c r="A1" s="48" t="s">
         <v>86</v>
       </c>
-      <c r="D1" s="49" t="s">
+      <c r="B1" s="48" t="s">
         <v>87</v>
       </c>
-      <c r="E1" s="49" t="s">
+      <c r="C1" s="48" t="s">
         <v>88</v>
       </c>
-      <c r="F1" s="49" t="s">
+      <c r="D1" s="48" t="s">
         <v>89</v>
       </c>
-      <c r="G1" s="49" t="s">
+      <c r="E1" s="48" t="s">
         <v>90</v>
       </c>
-      <c r="H1" s="49" t="s">
+      <c r="F1" s="48" t="s">
         <v>91</v>
       </c>
-      <c r="I1" s="49" t="s">
+      <c r="G1" s="48" t="s">
         <v>92</v>
       </c>
-      <c r="J1" s="49" t="s">
+      <c r="H1" s="48" t="s">
         <v>93</v>
       </c>
-      <c r="K1" s="49" t="s">
+      <c r="I1" s="48" t="s">
         <v>94</v>
       </c>
-      <c r="L1" s="49" t="s">
+      <c r="J1" s="48" t="s">
         <v>95</v>
       </c>
-      <c r="M1" s="49" t="s">
+      <c r="K1" s="48" t="s">
         <v>96</v>
       </c>
-      <c r="N1" s="49" t="s">
+      <c r="L1" s="48" t="s">
         <v>97</v>
       </c>
-      <c r="O1" s="49" t="s">
+      <c r="M1" s="48" t="s">
         <v>98</v>
       </c>
-      <c r="P1" s="49" t="s">
+      <c r="N1" s="48" t="s">
         <v>99</v>
       </c>
-      <c r="Q1" s="49" t="s">
+      <c r="O1" s="48" t="s">
         <v>100</v>
       </c>
-      <c r="R1" s="49" t="s">
+      <c r="P1" s="48" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q1" s="48" t="s">
+        <v>102</v>
+      </c>
+      <c r="R1" s="48" t="s">
         <v>11</v>
       </c>
-      <c r="S1" s="49" t="s">
-        <v>101</v>
-      </c>
-      <c r="T1" s="49" t="s">
-        <v>102</v>
+      <c r="S1" s="48" t="s">
+        <v>103</v>
+      </c>
+      <c r="T1" s="48" t="s">
+        <v>104</v>
       </c>
       <c r="U1" s="14"/>
       <c r="V1" s="13"/>
       <c r="W1" s="13"/>
       <c r="X1" s="13"/>
-      <c r="Y1" s="39"/>
+      <c r="Y1" s="38"/>
     </row>
     <row r="2" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A2" s="11" t="s">
@@ -6459,52 +6663,52 @@
       <c r="B2" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="C2" s="34">
+      <c r="C2" s="33">
         <v>0.42859999999999998</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="E2" s="34">
+        <v>165</v>
+      </c>
+      <c r="E2" s="33">
         <v>0.45710000000000001</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="G2" s="37">
+        <v>166</v>
+      </c>
+      <c r="G2" s="36">
         <v>0.55559999999999998</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="I2" s="37">
+        <v>167</v>
+      </c>
+      <c r="I2" s="36">
         <v>0.31430000000000002</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="K2" s="37">
+      <c r="K2" s="36">
         <v>0.8</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="M2" s="37">
+        <v>168</v>
+      </c>
+      <c r="M2" s="36">
         <v>0.83330000000000004</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="O2" s="37">
+        <v>110</v>
+      </c>
+      <c r="O2" s="36">
         <v>0</v>
       </c>
       <c r="P2" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="Q2" s="34">
+      <c r="Q2" s="33">
         <v>0</v>
       </c>
-      <c r="R2" s="40">
+      <c r="R2" s="39">
         <v>0</v>
       </c>
       <c r="S2" s="1">
@@ -6514,60 +6718,65 @@
         <v>78</v>
       </c>
       <c r="U2" s="15"/>
+      <c r="V2" s="68">
+        <v>2024</v>
+      </c>
+      <c r="W2" s="68"/>
+      <c r="X2" s="68"/>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A3" s="12" t="s">
         <v>30</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="C3" s="34">
+        <v>169</v>
+      </c>
+      <c r="C3" s="33">
         <v>0.5625</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="E3" s="37">
+        <v>170</v>
+      </c>
+      <c r="E3" s="36">
         <v>0.51390000000000002</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="G3" s="37">
+        <v>171</v>
+      </c>
+      <c r="G3" s="36">
         <v>0.58179999999999998</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="I3" s="37">
+        <v>172</v>
+      </c>
+      <c r="I3" s="36">
         <v>0.52859999999999996</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="K3" s="37">
+        <v>173</v>
+      </c>
+      <c r="K3" s="36">
         <v>0.33329999999999999</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="M3" s="37">
+        <v>174</v>
+      </c>
+      <c r="M3" s="36">
         <v>0.57140000000000002</v>
       </c>
       <c r="N3" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="O3" s="37">
+      <c r="O3" s="36">
         <v>0.33329999999999999</v>
       </c>
       <c r="P3" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="Q3" s="34">
+      <c r="Q3" s="33">
         <v>0.25</v>
       </c>
-      <c r="R3" s="40">
+      <c r="R3" s="39">
         <v>1</v>
       </c>
       <c r="S3" s="1">
@@ -6577,123 +6786,129 @@
         <v>30</v>
       </c>
       <c r="U3" s="15"/>
+      <c r="V3" s="68"/>
+      <c r="W3" s="68"/>
+      <c r="X3" s="68"/>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A4" s="12" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="C4" s="34">
+        <v>110</v>
+      </c>
+      <c r="C4" s="33">
         <v>0</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="E4" s="37">
+      <c r="E4" s="36">
         <v>0.33329999999999999</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="G4" s="37">
+      <c r="G4" s="36">
         <v>0.33329999999999999</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="I4" s="37">
+        <v>118</v>
+      </c>
+      <c r="I4" s="36">
         <v>0.6</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="K4" s="37">
+        <v>119</v>
+      </c>
+      <c r="K4" s="36">
         <v>0</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="M4" s="37">
+        <v>110</v>
+      </c>
+      <c r="M4" s="36">
         <v>0</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="O4" s="37">
+        <v>119</v>
+      </c>
+      <c r="O4" s="36">
         <v>0</v>
       </c>
       <c r="P4" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="Q4" s="34">
+        <v>119</v>
+      </c>
+      <c r="Q4" s="33">
         <v>0</v>
       </c>
-      <c r="R4" s="40">
+      <c r="R4" s="39">
         <v>0</v>
       </c>
       <c r="S4" s="1">
         <v>0</v>
       </c>
       <c r="T4" s="19" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="U4" s="15"/>
+      <c r="V4" s="68"/>
+      <c r="W4" s="68"/>
+      <c r="X4" s="68"/>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A5" s="12" t="s">
         <v>29</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="C5" s="34">
+        <v>137</v>
+      </c>
+      <c r="C5" s="33">
         <v>0.42859999999999998</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="E5" s="37">
+        <v>175</v>
+      </c>
+      <c r="E5" s="36">
         <v>0.46150000000000002</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="G5" s="37">
+        <v>176</v>
+      </c>
+      <c r="G5" s="36">
         <v>0.42859999999999998</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="I5" s="37">
+        <v>177</v>
+      </c>
+      <c r="I5" s="36">
         <v>0.46879999999999999</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="K5" s="37">
+        <v>178</v>
+      </c>
+      <c r="K5" s="36">
         <v>0.72729999999999995</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="M5" s="37">
+        <v>179</v>
+      </c>
+      <c r="M5" s="36">
         <v>0.58330000000000004</v>
       </c>
       <c r="N5" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="O5" s="37">
+      <c r="O5" s="36">
         <v>0.66669999999999996</v>
       </c>
       <c r="P5" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="Q5" s="34">
+      <c r="Q5" s="33">
         <v>0.25</v>
       </c>
-      <c r="R5" s="40">
+      <c r="R5" s="39">
         <v>5</v>
       </c>
       <c r="S5" s="1">
@@ -6709,54 +6924,54 @@
         <v>51</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="C6" s="34">
+        <v>115</v>
+      </c>
+      <c r="C6" s="33">
         <v>0.3846</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="E6" s="37">
+        <v>126</v>
+      </c>
+      <c r="E6" s="36">
         <v>0.45760000000000001</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="G6" s="37">
+        <v>127</v>
+      </c>
+      <c r="G6" s="36">
         <v>0.53490000000000004</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="I6" s="37">
+        <v>128</v>
+      </c>
+      <c r="I6" s="36">
         <v>0.51919999999999999</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="K6" s="37">
+        <v>129</v>
+      </c>
+      <c r="K6" s="36">
         <v>0.45450000000000002</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="M6" s="37">
+        <v>130</v>
+      </c>
+      <c r="M6" s="36">
         <v>0.25</v>
       </c>
       <c r="N6" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="O6" s="37">
+      <c r="O6" s="36">
         <v>0.33329999999999999</v>
       </c>
       <c r="P6" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="Q6" s="34">
+      <c r="Q6" s="33">
         <v>0.33329999999999999</v>
       </c>
-      <c r="R6" s="40">
+      <c r="R6" s="39">
         <v>2</v>
       </c>
       <c r="S6" s="1">
@@ -6772,54 +6987,54 @@
         <v>43</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="C7" s="34">
+        <v>180</v>
+      </c>
+      <c r="C7" s="33">
         <v>0.5</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="E7" s="37">
+        <v>181</v>
+      </c>
+      <c r="E7" s="36">
         <v>0.54169999999999996</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="G7" s="37">
+        <v>182</v>
+      </c>
+      <c r="G7" s="36">
         <v>0.52729999999999999</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="I7" s="37">
+        <v>183</v>
+      </c>
+      <c r="I7" s="36">
         <v>0.48570000000000002</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="K7" s="37">
+        <v>184</v>
+      </c>
+      <c r="K7" s="36">
         <v>0.5</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="M7" s="37">
+        <v>137</v>
+      </c>
+      <c r="M7" s="36">
         <v>0.42859999999999998</v>
       </c>
       <c r="N7" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="O7" s="37">
+      <c r="O7" s="36">
         <v>0.66669999999999996</v>
       </c>
       <c r="P7" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="Q7" s="34">
+        <v>136</v>
+      </c>
+      <c r="Q7" s="33">
         <v>1</v>
       </c>
-      <c r="R7" s="40">
+      <c r="R7" s="39">
         <v>1</v>
       </c>
       <c r="S7" s="1">
@@ -6835,54 +7050,54 @@
         <v>42</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="C8" s="34">
+        <v>115</v>
+      </c>
+      <c r="C8" s="33">
         <v>0.3846</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="E8" s="37">
+        <v>185</v>
+      </c>
+      <c r="E8" s="36">
         <v>0.42620000000000002</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="G8" s="37">
+        <v>186</v>
+      </c>
+      <c r="G8" s="36">
         <v>0.33329999999999999</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="I8" s="37">
+        <v>187</v>
+      </c>
+      <c r="I8" s="36">
         <v>0.49120000000000003</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="K8" s="37">
+        <v>188</v>
+      </c>
+      <c r="K8" s="36">
         <v>0.6</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="M8" s="37">
+        <v>184</v>
+      </c>
+      <c r="M8" s="36">
         <v>0.5</v>
       </c>
       <c r="N8" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="O8" s="37">
+      <c r="O8" s="36">
         <v>0.66669999999999996</v>
       </c>
       <c r="P8" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="Q8" s="34">
+        <v>143</v>
+      </c>
+      <c r="Q8" s="33">
         <v>0.5</v>
       </c>
-      <c r="R8" s="40">
+      <c r="R8" s="39">
         <v>1</v>
       </c>
       <c r="S8" s="1">
@@ -6895,64 +7110,64 @@
     </row>
     <row r="9" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A9" s="12" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C9" s="34">
+      <c r="C9" s="33">
         <v>0.33329999999999999</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="E9" s="37">
+        <v>189</v>
+      </c>
+      <c r="E9" s="36">
         <v>0.44440000000000002</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="G9" s="37">
+        <v>190</v>
+      </c>
+      <c r="G9" s="36">
         <v>0.2727</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="I9" s="37">
+        <v>191</v>
+      </c>
+      <c r="I9" s="36">
         <v>0.4375</v>
       </c>
       <c r="J9" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="K9" s="37">
+      <c r="K9" s="36">
         <v>0.66669999999999996</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="M9" s="37">
+        <v>192</v>
+      </c>
+      <c r="M9" s="36">
         <v>0</v>
       </c>
       <c r="N9" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="O9" s="37">
+        <v>147</v>
+      </c>
+      <c r="O9" s="36">
         <v>1</v>
       </c>
       <c r="P9" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="Q9" s="34">
+        <v>148</v>
+      </c>
+      <c r="Q9" s="33">
         <v>1</v>
       </c>
-      <c r="R9" s="40">
+      <c r="R9" s="39">
         <v>0</v>
       </c>
       <c r="S9" s="1">
         <v>0</v>
       </c>
       <c r="T9" s="19" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="U9" s="15"/>
     </row>
@@ -6961,54 +7176,54 @@
         <v>22</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="C10" s="34">
+        <v>193</v>
+      </c>
+      <c r="C10" s="33">
         <v>0.6875</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="E10" s="37">
+        <v>194</v>
+      </c>
+      <c r="E10" s="36">
         <v>0.58330000000000004</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="G10" s="37">
+        <v>195</v>
+      </c>
+      <c r="G10" s="36">
         <v>0.63639999999999997</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="I10" s="37">
+        <v>196</v>
+      </c>
+      <c r="I10" s="36">
         <v>0.47139999999999999</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="K10" s="37">
+        <v>184</v>
+      </c>
+      <c r="K10" s="36">
         <v>0.5</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="M10" s="37">
+        <v>174</v>
+      </c>
+      <c r="M10" s="36">
         <v>0.57140000000000002</v>
       </c>
       <c r="N10" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="O10" s="37">
+      <c r="O10" s="36">
         <v>0.33329999999999999</v>
       </c>
       <c r="P10" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="Q10" s="34">
+        <v>143</v>
+      </c>
+      <c r="Q10" s="33">
         <v>0.5</v>
       </c>
-      <c r="R10" s="40">
+      <c r="R10" s="39">
         <v>5</v>
       </c>
       <c r="S10" s="17">
@@ -7020,127 +7235,127 @@
       <c r="U10" s="15"/>
     </row>
     <row r="11" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A11" s="30" t="s">
+      <c r="A11" s="29" t="s">
         <v>23</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="C11" s="35">
+        <v>197</v>
+      </c>
+      <c r="C11" s="34">
         <v>0.44440000000000002</v>
       </c>
-      <c r="D11" s="29" t="s">
-        <v>152</v>
-      </c>
-      <c r="E11" s="35">
+      <c r="D11" s="28" t="s">
+        <v>198</v>
+      </c>
+      <c r="E11" s="34">
         <v>0.47499999999999998</v>
       </c>
-      <c r="F11" s="29" t="s">
-        <v>103</v>
-      </c>
-      <c r="G11" s="35">
+      <c r="F11" s="28" t="s">
+        <v>165</v>
+      </c>
+      <c r="G11" s="34">
         <v>0.45710000000000001</v>
       </c>
-      <c r="H11" s="29" t="s">
-        <v>153</v>
-      </c>
-      <c r="I11" s="35">
+      <c r="H11" s="28" t="s">
+        <v>199</v>
+      </c>
+      <c r="I11" s="34">
         <v>0.64290000000000003</v>
       </c>
-      <c r="J11" s="29" t="s">
-        <v>154</v>
-      </c>
-      <c r="K11" s="35">
+      <c r="J11" s="28" t="s">
+        <v>200</v>
+      </c>
+      <c r="K11" s="34">
         <v>0</v>
       </c>
-      <c r="L11" s="29" t="s">
-        <v>155</v>
-      </c>
-      <c r="M11" s="35">
+      <c r="L11" s="28" t="s">
+        <v>201</v>
+      </c>
+      <c r="M11" s="34">
         <v>0.33329999999999999</v>
       </c>
-      <c r="N11" s="29" t="s">
-        <v>156</v>
-      </c>
-      <c r="O11" s="35">
+      <c r="N11" s="28" t="s">
+        <v>160</v>
+      </c>
+      <c r="O11" s="34">
         <v>0.5</v>
       </c>
-      <c r="P11" s="29" t="s">
-        <v>145</v>
-      </c>
-      <c r="Q11" s="35">
+      <c r="P11" s="28" t="s">
+        <v>147</v>
+      </c>
+      <c r="Q11" s="34">
         <v>1</v>
       </c>
-      <c r="R11" s="40">
+      <c r="R11" s="39">
         <v>1</v>
       </c>
       <c r="S11" s="1">
         <v>3</v>
       </c>
-      <c r="T11" s="32" t="s">
+      <c r="T11" s="31" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="12" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A12" s="31" t="s">
-        <v>157</v>
+      <c r="A12" s="30" t="s">
+        <v>161</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>156</v>
-      </c>
-      <c r="C12" s="36">
+        <v>160</v>
+      </c>
+      <c r="C12" s="35">
         <v>0.5</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>127</v>
-      </c>
-      <c r="E12" s="36">
+        <v>129</v>
+      </c>
+      <c r="E12" s="35">
         <v>0.45450000000000002</v>
       </c>
       <c r="F12" s="10" t="s">
-        <v>158</v>
-      </c>
-      <c r="G12" s="36">
+        <v>105</v>
+      </c>
+      <c r="G12" s="35">
         <v>0.375</v>
       </c>
       <c r="H12" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="I12" s="36">
+      <c r="I12" s="35">
         <v>0.4</v>
       </c>
       <c r="J12" s="10" t="s">
-        <v>156</v>
-      </c>
-      <c r="K12" s="36">
+        <v>160</v>
+      </c>
+      <c r="K12" s="35">
         <v>0.5</v>
       </c>
       <c r="L12" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="M12" s="36">
+      <c r="M12" s="35">
         <v>0.66669999999999996</v>
       </c>
       <c r="N12" s="10" t="s">
-        <v>156</v>
-      </c>
-      <c r="O12" s="36">
+        <v>160</v>
+      </c>
+      <c r="O12" s="35">
         <v>0.5</v>
       </c>
       <c r="P12" s="10" t="s">
-        <v>116</v>
-      </c>
-      <c r="Q12" s="36">
+        <v>119</v>
+      </c>
+      <c r="Q12" s="35">
         <v>0</v>
       </c>
-      <c r="R12" s="41">
+      <c r="R12" s="40">
         <v>0</v>
       </c>
       <c r="S12" s="10">
         <v>0</v>
       </c>
-      <c r="T12" s="33" t="s">
-        <v>157</v>
+      <c r="T12" s="32" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="13" spans="1:25" x14ac:dyDescent="0.2">
@@ -7189,8 +7404,8 @@
       <c r="C19" s="9"/>
       <c r="E19" s="9"/>
       <c r="X19" s="2"/>
-      <c r="Y19" s="37"/>
-      <c r="Z19" s="34"/>
+      <c r="Y19" s="36"/>
+      <c r="Z19" s="33"/>
       <c r="AA19" s="1"/>
     </row>
     <row r="20" spans="1:27" x14ac:dyDescent="0.2">
@@ -7198,8 +7413,8 @@
       <c r="C20" s="9"/>
       <c r="E20" s="9"/>
       <c r="X20" s="2"/>
-      <c r="Y20" s="37"/>
-      <c r="Z20" s="34"/>
+      <c r="Y20" s="36"/>
+      <c r="Z20" s="33"/>
       <c r="AA20" s="1"/>
     </row>
     <row r="21" spans="1:27" x14ac:dyDescent="0.2">
@@ -7207,52 +7422,52 @@
       <c r="C21" s="9"/>
       <c r="E21" s="9"/>
       <c r="X21" s="2"/>
-      <c r="Y21" s="37"/>
-      <c r="Z21" s="34"/>
+      <c r="Y21" s="36"/>
+      <c r="Z21" s="33"/>
       <c r="AA21" s="1"/>
     </row>
     <row r="22" spans="1:27" x14ac:dyDescent="0.2">
       <c r="X22" s="2"/>
-      <c r="Y22" s="37"/>
-      <c r="Z22" s="34"/>
+      <c r="Y22" s="36"/>
+      <c r="Z22" s="33"/>
       <c r="AA22" s="1"/>
     </row>
     <row r="23" spans="1:27" x14ac:dyDescent="0.2">
       <c r="X23" s="2"/>
-      <c r="Y23" s="37"/>
-      <c r="Z23" s="34"/>
+      <c r="Y23" s="36"/>
+      <c r="Z23" s="33"/>
       <c r="AA23" s="1"/>
     </row>
     <row r="24" spans="1:27" x14ac:dyDescent="0.2">
       <c r="X24" s="2"/>
-      <c r="Y24" s="37"/>
-      <c r="Z24" s="34"/>
+      <c r="Y24" s="36"/>
+      <c r="Z24" s="33"/>
       <c r="AA24" s="1"/>
     </row>
     <row r="25" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="X25" s="38"/>
-      <c r="Y25" s="35"/>
-      <c r="Z25" s="34"/>
+      <c r="X25" s="37"/>
+      <c r="Y25" s="34"/>
+      <c r="Z25" s="33"/>
       <c r="AA25" s="1"/>
     </row>
     <row r="26" spans="1:27" x14ac:dyDescent="0.2">
       <c r="X26" s="2"/>
-      <c r="Y26" s="35"/>
-      <c r="Z26" s="34"/>
+      <c r="Y26" s="34"/>
+      <c r="Z26" s="33"/>
       <c r="AA26" s="1"/>
     </row>
     <row r="27" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="Z27" s="34"/>
+      <c r="Z27" s="33"/>
       <c r="AA27" s="1"/>
     </row>
     <row r="28" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="Z28" s="35"/>
-      <c r="AA28" s="29"/>
+      <c r="Z28" s="34"/>
+      <c r="AA28" s="28"/>
     </row>
     <row r="29" spans="1:27" x14ac:dyDescent="0.2">
       <c r="X29" s="2"/>
-      <c r="Y29" s="34"/>
-      <c r="Z29" s="34"/>
+      <c r="Y29" s="33"/>
+      <c r="Z29" s="33"/>
       <c r="AA29" s="1"/>
     </row>
   </sheetData>
@@ -7261,6 +7476,9 @@
       <sortCondition ref="A1:A12"/>
     </sortState>
   </autoFilter>
+  <mergeCells count="1">
+    <mergeCell ref="V2:X4"/>
+  </mergeCells>
   <conditionalFormatting sqref="C2:C12">
     <cfRule type="colorScale" priority="8">
       <colorScale>

--- a/Field_Days.xlsx
+++ b/Field_Days.xlsx
@@ -3,17 +3,19 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15960" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15960" tabRatio="600" firstSheet="0" activeTab="1" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Days" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Stats" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Teams" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2024" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2024 Stats" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025 Stats" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Stats'!$A$1:$T$11</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'2024'!$A$1:$T$11</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'2024 Stats'!$A$1:$T$11</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'2025 Stats'!$A$1:$T$11</definedName>
   </definedNames>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
@@ -70,15 +72,15 @@
     <font>
       <name val="Calibri"/>
       <family val="2"/>
-      <b val="1"/>
-      <sz val="12"/>
+      <color theme="1"/>
+      <sz val="44"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="44"/>
-      <scheme val="minor"/>
+      <b val="1"/>
+      <sz val="12"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -116,7 +118,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="16">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -226,21 +228,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -272,6 +259,45 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color auto="1"/>
       </left>
@@ -297,7 +323,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="73">
+  <cellXfs count="84">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
@@ -404,25 +430,10 @@
     <xf numFmtId="49" fontId="0" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="11" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="4" borderId="12" pivotButton="0" quotePrefix="0" xfId="1"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="1"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="13" pivotButton="0" quotePrefix="0" xfId="1"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="8" pivotButton="0" quotePrefix="0" xfId="1"/>
-    <xf numFmtId="9" fontId="1" fillId="4" borderId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="1"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="9" pivotButton="0" quotePrefix="0" xfId="1"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="1"/>
-    <xf numFmtId="9" fontId="1" fillId="4" borderId="4" pivotButton="0" quotePrefix="0" xfId="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -457,26 +468,68 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="14" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="14" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="14" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="15" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="14" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="15" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="14" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="16" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="1" fillId="4" borderId="11" pivotButton="0" quotePrefix="0" xfId="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="8" pivotButton="0" quotePrefix="0" xfId="1"/>
+    <xf numFmtId="164" fontId="1" fillId="4" borderId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="9" pivotButton="0" quotePrefix="0" xfId="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="1"/>
+    <xf numFmtId="164" fontId="1" fillId="4" borderId="4" pivotButton="0" quotePrefix="0" xfId="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="15" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="17" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -689,10 +742,10 @@
                   <v>0.3846</v>
                 </pt>
                 <pt idx="5">
-                  <v>0.5</v>
+                  <v>0.4706</v>
                 </pt>
                 <pt idx="6">
-                  <v>0.4</v>
+                  <v>0.4286</v>
                 </pt>
                 <pt idx="7">
                   <v>0.5</v>
@@ -789,10 +842,10 @@
                   <v>0.4576</v>
                 </pt>
                 <pt idx="5">
-                  <v>0.5325</v>
+                  <v>0.5263</v>
                 </pt>
                 <pt idx="6">
-                  <v>0.4394</v>
+                  <v>0.4462</v>
                 </pt>
                 <pt idx="7">
                   <v>0.5</v>
@@ -889,10 +942,10 @@
                   <v>0.5349</v>
                 </pt>
                 <pt idx="5">
-                  <v>0.5172</v>
+                  <v>0.5088</v>
                 </pt>
                 <pt idx="6">
-                  <v>0.3542</v>
+                  <v>0.3617</v>
                 </pt>
                 <pt idx="7">
                   <v>0.3846</v>
@@ -1457,7 +1510,7 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:t/>
+              <a:t>None</a:t>
             </a:r>
             <a:endParaRPr lang="en-US"/>
           </a:p>
@@ -1531,7 +1584,7 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:t/>
+              <a:t>None</a:t>
             </a:r>
             <a:endParaRPr lang="en-US"/>
           </a:p>
@@ -1565,7 +1618,7 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:t/>
+              <a:t>None</a:t>
             </a:r>
             <a:endParaRPr lang="en-US"/>
           </a:p>
@@ -1592,7 +1645,7 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:t/>
+              <a:t>None</a:t>
             </a:r>
             <a:endParaRPr lang="en-US"/>
           </a:p>
@@ -1619,7 +1672,7 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:t/>
+              <a:t>None</a:t>
             </a:r>
             <a:endParaRPr lang="en-US"/>
           </a:p>
@@ -1646,7 +1699,7 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:t/>
+              <a:t>None</a:t>
             </a:r>
             <a:endParaRPr lang="en-US"/>
           </a:p>
@@ -1673,7 +1726,7 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:t/>
+              <a:t>None</a:t>
             </a:r>
             <a:endParaRPr lang="en-US"/>
           </a:p>
@@ -1700,7 +1753,7 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:t/>
+              <a:t>None</a:t>
             </a:r>
             <a:endParaRPr lang="en-US"/>
           </a:p>
@@ -1727,7 +1780,7 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:t/>
+              <a:t>None</a:t>
             </a:r>
             <a:endParaRPr lang="en-US"/>
           </a:p>
@@ -1754,7 +1807,7 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:t/>
+              <a:t>None</a:t>
             </a:r>
             <a:endParaRPr lang="en-US"/>
           </a:p>
@@ -1798,7 +1851,7 @@
             </a:defRPr>
           </a:pPr>
           <a:r>
-            <a:t/>
+            <a:t>None</a:t>
           </a:r>
           <a:endParaRPr lang="en-US"/>
         </a:p>
@@ -1894,7 +1947,7 @@
           <invertIfNegative val="0"/>
           <cat>
             <strRef>
-              <f>'2024'!$A$2:$A$12</f>
+              <f>'2024 Stats'!$A$2:$A$12</f>
               <strCache>
                 <ptCount val="11"/>
                 <pt idx="0">
@@ -1935,7 +1988,7 @@
           </cat>
           <val>
             <numRef>
-              <f>'2024'!$C$2:$C$12</f>
+              <f>'2024 Stats'!$C$2:$C$12</f>
               <numCache>
                 <formatCode>0.0%</formatCode>
                 <ptCount val="11"/>
@@ -1943,34 +1996,34 @@
                   <v>0.4286</v>
                 </pt>
                 <pt idx="1">
-                  <v>0.5625</v>
+                  <v>0.5333</v>
                 </pt>
                 <pt idx="2">
                   <v>0</v>
                 </pt>
                 <pt idx="3">
-                  <v>0.4286</v>
+                  <v>0.4615</v>
                 </pt>
                 <pt idx="4">
-                  <v>0.3846</v>
+                  <v>0.3333</v>
                 </pt>
                 <pt idx="5">
-                  <v>0.5</v>
+                  <v>0.4667</v>
                 </pt>
                 <pt idx="6">
-                  <v>0.3846</v>
+                  <v>0.4167</v>
                 </pt>
                 <pt idx="7">
                   <v>0.3333</v>
                 </pt>
                 <pt idx="8">
-                  <v>0.6875</v>
+                  <v>0.6667</v>
                 </pt>
                 <pt idx="9">
-                  <v>0.4444</v>
+                  <v>0.5</v>
                 </pt>
                 <pt idx="10">
-                  <v>0.5</v>
+                  <v>1</v>
                 </pt>
               </numCache>
             </numRef>
@@ -1994,7 +2047,7 @@
           <invertIfNegative val="0"/>
           <cat>
             <strRef>
-              <f>'2024'!$A$2:$A$12</f>
+              <f>'2024 Stats'!$A$2:$A$12</f>
               <strCache>
                 <ptCount val="11"/>
                 <pt idx="0">
@@ -2035,7 +2088,7 @@
           </cat>
           <val>
             <numRef>
-              <f>'2024'!$E$2:$E$12</f>
+              <f>'2024 Stats'!$E$2:$E$12</f>
               <numCache>
                 <formatCode>0.0%</formatCode>
                 <ptCount val="11"/>
@@ -2043,34 +2096,34 @@
                   <v>0.4571</v>
                 </pt>
                 <pt idx="1">
-                  <v>0.5139</v>
+                  <v>0.5</v>
                 </pt>
                 <pt idx="2">
                   <v>0.3333</v>
                 </pt>
                 <pt idx="3">
-                  <v>0.4615</v>
+                  <v>0.4746</v>
                 </pt>
                 <pt idx="4">
-                  <v>0.4576</v>
+                  <v>0.434</v>
                 </pt>
                 <pt idx="5">
-                  <v>0.5417</v>
+                  <v>0.5303</v>
                 </pt>
                 <pt idx="6">
-                  <v>0.4262</v>
+                  <v>0.4364</v>
                 </pt>
                 <pt idx="7">
                   <v>0.4444</v>
                 </pt>
                 <pt idx="8">
-                  <v>0.5833</v>
+                  <v>0.5758</v>
                 </pt>
                 <pt idx="9">
-                  <v>0.475</v>
+                  <v>0.5</v>
                 </pt>
                 <pt idx="10">
-                  <v>0.4545</v>
+                  <v>0.6</v>
                 </pt>
               </numCache>
             </numRef>
@@ -2094,7 +2147,7 @@
           <invertIfNegative val="0"/>
           <cat>
             <strRef>
-              <f>'2024'!$A$2:$A$12</f>
+              <f>'2024 Stats'!$A$2:$A$12</f>
               <strCache>
                 <ptCount val="11"/>
                 <pt idx="0">
@@ -2135,7 +2188,7 @@
           </cat>
           <val>
             <numRef>
-              <f>'2024'!$G$2:$G$12</f>
+              <f>'2024 Stats'!$G$2:$G$12</f>
               <numCache>
                 <formatCode>0.0%</formatCode>
                 <ptCount val="11"/>
@@ -2143,34 +2196,34 @@
                   <v>0.5556</v>
                 </pt>
                 <pt idx="1">
-                  <v>0.5818</v>
+                  <v>0.58</v>
                 </pt>
                 <pt idx="2">
                   <v>0.3333</v>
                 </pt>
                 <pt idx="3">
-                  <v>0.4286</v>
+                  <v>0.4318</v>
                 </pt>
                 <pt idx="4">
-                  <v>0.5349</v>
+                  <v>0.5263</v>
                 </pt>
                 <pt idx="5">
-                  <v>0.5273</v>
+                  <v>0.52</v>
                 </pt>
                 <pt idx="6">
-                  <v>0.3333</v>
+                  <v>0.325</v>
                 </pt>
                 <pt idx="7">
                   <v>0.2727</v>
                 </pt>
                 <pt idx="8">
-                  <v>0.6364</v>
+                  <v>0.64</v>
                 </pt>
                 <pt idx="9">
-                  <v>0.4571</v>
+                  <v>0.4667</v>
                 </pt>
                 <pt idx="10">
-                  <v>0.375</v>
+                  <v>0.3333</v>
                 </pt>
               </numCache>
             </numRef>
@@ -2194,7 +2247,7 @@
           <invertIfNegative val="0"/>
           <cat>
             <strRef>
-              <f>'2024'!$A$2:$A$12</f>
+              <f>'2024 Stats'!$A$2:$A$12</f>
               <strCache>
                 <ptCount val="11"/>
                 <pt idx="0">
@@ -2235,7 +2288,7 @@
           </cat>
           <val>
             <numRef>
-              <f>'2024'!$I$2:$I$12</f>
+              <f>'2024 Stats'!$I$2:$I$12</f>
               <numCache>
                 <formatCode>0.0%</formatCode>
                 <ptCount val="11"/>
@@ -2243,34 +2296,34 @@
                   <v>0.3143</v>
                 </pt>
                 <pt idx="1">
-                  <v>0.5286</v>
+                  <v>0.5075</v>
                 </pt>
                 <pt idx="2">
                   <v>0.6</v>
                 </pt>
                 <pt idx="3">
-                  <v>0.4688</v>
+                  <v>0.4918</v>
                 </pt>
                 <pt idx="4">
-                  <v>0.5192</v>
+                  <v>0.4898</v>
                 </pt>
                 <pt idx="5">
-                  <v>0.4857</v>
+                  <v>0.4627</v>
                 </pt>
                 <pt idx="6">
-                  <v>0.4912</v>
+                  <v>0.5185</v>
                 </pt>
                 <pt idx="7">
                   <v>0.4375</v>
                 </pt>
                 <pt idx="8">
-                  <v>0.4714</v>
+                  <v>0.4478</v>
                 </pt>
                 <pt idx="9">
-                  <v>0.6429</v>
+                  <v>0.6923</v>
                 </pt>
                 <pt idx="10">
-                  <v>0.4</v>
+                  <v>1</v>
                 </pt>
               </numCache>
             </numRef>
@@ -2294,7 +2347,7 @@
           <invertIfNegative val="0"/>
           <cat>
             <strRef>
-              <f>'2024'!$A$2:$A$12</f>
+              <f>'2024 Stats'!$A$2:$A$12</f>
               <strCache>
                 <ptCount val="11"/>
                 <pt idx="0">
@@ -2335,7 +2388,7 @@
           </cat>
           <val>
             <numRef>
-              <f>'2024'!$K$2:$K$12</f>
+              <f>'2024 Stats'!$K$2:$K$12</f>
               <numCache>
                 <formatCode>0.0%</formatCode>
                 <ptCount val="11"/>
@@ -2343,34 +2396,34 @@
                   <v>0.8</v>
                 </pt>
                 <pt idx="1">
-                  <v>0.3333</v>
+                  <v>0.2727</v>
                 </pt>
                 <pt idx="2">
                   <v>0</v>
                 </pt>
                 <pt idx="3">
-                  <v>0.7272999999999999</v>
+                  <v>0.8</v>
                 </pt>
                 <pt idx="4">
+                  <v>0.4</v>
+                </pt>
+                <pt idx="5">
                   <v>0.4545</v>
                 </pt>
-                <pt idx="5">
-                  <v>0.5</v>
-                </pt>
                 <pt idx="6">
-                  <v>0.6</v>
+                  <v>0.6667</v>
                 </pt>
                 <pt idx="7">
                   <v>0.6667</v>
                 </pt>
                 <pt idx="8">
-                  <v>0.5</v>
+                  <v>0.4545</v>
                 </pt>
                 <pt idx="9">
                   <v>0</v>
                 </pt>
                 <pt idx="10">
-                  <v>0.5</v>
+                  <v>1</v>
                 </pt>
               </numCache>
             </numRef>
@@ -2394,7 +2447,7 @@
           <invertIfNegative val="0"/>
           <cat>
             <strRef>
-              <f>'2024'!$A$2:$A$12</f>
+              <f>'2024 Stats'!$A$2:$A$12</f>
               <strCache>
                 <ptCount val="11"/>
                 <pt idx="0">
@@ -2435,7 +2488,7 @@
           </cat>
           <val>
             <numRef>
-              <f>'2024'!$M$2:$M$12</f>
+              <f>'2024 Stats'!$M$2:$M$12</f>
               <numCache>
                 <formatCode>0.0%</formatCode>
                 <ptCount val="11"/>
@@ -2443,34 +2496,34 @@
                   <v>0.8333</v>
                 </pt>
                 <pt idx="1">
-                  <v>0.5714</v>
+                  <v>0.6153999999999999</v>
                 </pt>
                 <pt idx="2">
                   <v>0</v>
                 </pt>
                 <pt idx="3">
-                  <v>0.5833</v>
+                  <v>0.5455</v>
                 </pt>
                 <pt idx="4">
-                  <v>0.25</v>
+                  <v>0.2727</v>
                 </pt>
                 <pt idx="5">
-                  <v>0.4286</v>
+                  <v>0.4615</v>
                 </pt>
                 <pt idx="6">
-                  <v>0.5</v>
+                  <v>0.4545</v>
                 </pt>
                 <pt idx="7">
                   <v>0</v>
                 </pt>
                 <pt idx="8">
-                  <v>0.5714</v>
+                  <v>0.6153999999999999</v>
                 </pt>
                 <pt idx="9">
-                  <v>0.3333</v>
+                  <v>0.2</v>
                 </pt>
                 <pt idx="10">
-                  <v>0.6667</v>
+                  <v>0.5</v>
                 </pt>
               </numCache>
             </numRef>
@@ -2496,7 +2549,7 @@
           <invertIfNegative val="0"/>
           <cat>
             <strRef>
-              <f>'2024'!$A$2:$A$12</f>
+              <f>'2024 Stats'!$A$2:$A$12</f>
               <strCache>
                 <ptCount val="11"/>
                 <pt idx="0">
@@ -2537,7 +2590,7 @@
           </cat>
           <val>
             <numRef>
-              <f>'2024'!$O$2:$O$12</f>
+              <f>'2024 Stats'!$O$2:$O$12</f>
               <numCache>
                 <formatCode>0.0%</formatCode>
                 <ptCount val="11"/>
@@ -2545,34 +2598,34 @@
                   <v>0</v>
                 </pt>
                 <pt idx="1">
-                  <v>0.3333</v>
+                  <v>0</v>
                 </pt>
                 <pt idx="2">
                   <v>0</v>
                 </pt>
                 <pt idx="3">
-                  <v>0.6667</v>
+                  <v>1</v>
                 </pt>
                 <pt idx="4">
-                  <v>0.3333</v>
+                  <v>0</v>
                 </pt>
                 <pt idx="5">
-                  <v>0.6667</v>
+                  <v>1</v>
                 </pt>
                 <pt idx="6">
-                  <v>0.6667</v>
+                  <v>1</v>
                 </pt>
                 <pt idx="7">
                   <v>1</v>
                 </pt>
                 <pt idx="8">
-                  <v>0.3333</v>
+                  <v>0</v>
                 </pt>
                 <pt idx="9">
-                  <v>0.5</v>
+                  <v>0</v>
                 </pt>
                 <pt idx="10">
-                  <v>0.5</v>
+                  <v>0</v>
                 </pt>
               </numCache>
             </numRef>
@@ -2592,7 +2645,7 @@
           <invertIfNegative val="0"/>
           <cat>
             <strRef>
-              <f>'2024'!$A$2:$A$12</f>
+              <f>'2024 Stats'!$A$2:$A$12</f>
               <strCache>
                 <ptCount val="11"/>
                 <pt idx="0">
@@ -2633,7 +2686,7 @@
           </cat>
           <val>
             <numRef>
-              <f>'2024'!$Q$2:$Q$10</f>
+              <f>'2024 Stats'!$Q$2:$Q$10</f>
               <numCache>
                 <formatCode>0.0%</formatCode>
                 <ptCount val="9"/>
@@ -2723,7 +2776,7 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:t/>
+              <a:t>None</a:t>
             </a:r>
             <a:endParaRPr lang="en-US"/>
           </a:p>
@@ -2797,7 +2850,7 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:t/>
+              <a:t>None</a:t>
             </a:r>
             <a:endParaRPr lang="en-US"/>
           </a:p>
@@ -2831,7 +2884,7 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:t/>
+              <a:t>None</a:t>
             </a:r>
             <a:endParaRPr lang="en-US"/>
           </a:p>
@@ -2858,7 +2911,7 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:t/>
+              <a:t>None</a:t>
             </a:r>
             <a:endParaRPr lang="en-US"/>
           </a:p>
@@ -2885,7 +2938,7 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:t/>
+              <a:t>None</a:t>
             </a:r>
             <a:endParaRPr lang="en-US"/>
           </a:p>
@@ -2912,7 +2965,7 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:t/>
+              <a:t>None</a:t>
             </a:r>
             <a:endParaRPr lang="en-US"/>
           </a:p>
@@ -2939,7 +2992,7 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:t/>
+              <a:t>None</a:t>
             </a:r>
             <a:endParaRPr lang="en-US"/>
           </a:p>
@@ -2966,7 +3019,7 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:t/>
+              <a:t>None</a:t>
             </a:r>
             <a:endParaRPr lang="en-US"/>
           </a:p>
@@ -2993,7 +3046,7 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:t/>
+              <a:t>None</a:t>
             </a:r>
             <a:endParaRPr lang="en-US"/>
           </a:p>
@@ -3020,7 +3073,7 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:t/>
+              <a:t>None</a:t>
             </a:r>
             <a:endParaRPr lang="en-US"/>
           </a:p>
@@ -3064,7 +3117,1273 @@
             </a:defRPr>
           </a:pPr>
           <a:r>
-            <a:t/>
+            <a:t>None</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </txPr>
+    </legend>
+    <plotVisOnly val="1"/>
+    <dispBlanksAs val="gap"/>
+  </chart>
+  <spPr>
+    <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1"/>
+      </a:solidFill>
+      <a:prstDash val="solid"/>
+      <a:round/>
+    </a:ln>
+  </spPr>
+</chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <chart>
+    <title>
+      <tx>
+        <rich>
+          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:pPr>
+              <a:defRPr sz="2400" b="0" i="0" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="2400"/>
+              <a:t>Win Percentages</a:t>
+            </a:r>
+          </a:p>
+        </rich>
+      </tx>
+      <layout>
+        <manualLayout>
+          <xMode val="edge"/>
+          <yMode val="edge"/>
+          <wMode val="factor"/>
+          <hMode val="factor"/>
+          <x val="0.4157345996140159"/>
+          <y val="0.04883474605470711"/>
+        </manualLayout>
+      </layout>
+      <overlay val="0"/>
+      <spPr>
+        <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:noFill/>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </title>
+    <plotArea>
+      <layout/>
+      <barChart>
+        <barDir val="col"/>
+        <grouping val="clustered"/>
+        <varyColors val="0"/>
+        <ser>
+          <idx val="0"/>
+          <order val="0"/>
+          <tx>
+            <v>Days</v>
+          </tx>
+          <spPr>
+            <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a:noFill/>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <invertIfNegative val="0"/>
+          <cat>
+            <strRef>
+              <f>'2025 Stats'!$A$2:$A$12</f>
+              <strCache>
+                <ptCount val="11"/>
+                <pt idx="0">
+                  <v>Aaron</v>
+                </pt>
+                <pt idx="1">
+                  <v>AB</v>
+                </pt>
+                <pt idx="2">
+                  <v>Anthony</v>
+                </pt>
+                <pt idx="3">
+                  <v>Brandon</v>
+                </pt>
+                <pt idx="4">
+                  <v>Eric</v>
+                </pt>
+                <pt idx="5">
+                  <v>Jacob</v>
+                </pt>
+                <pt idx="6">
+                  <v>Kiernan</v>
+                </pt>
+                <pt idx="7">
+                  <v>Quinn</v>
+                </pt>
+                <pt idx="8">
+                  <v>Sam G</v>
+                </pt>
+                <pt idx="9">
+                  <v>Sam S</v>
+                </pt>
+                <pt idx="10">
+                  <v>Tighe</v>
+                </pt>
+              </strCache>
+            </strRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'2025 Stats'!$C$2:$C$12</f>
+              <numCache>
+                <formatCode>0.0%</formatCode>
+                <ptCount val="11"/>
+                <pt idx="0">
+                  <v>0</v>
+                </pt>
+                <pt idx="1">
+                  <v>1</v>
+                </pt>
+                <pt idx="2">
+                  <v>0</v>
+                </pt>
+                <pt idx="3">
+                  <v>1</v>
+                </pt>
+                <pt idx="4">
+                  <v>0</v>
+                </pt>
+                <pt idx="5">
+                  <v>0</v>
+                </pt>
+                <pt idx="6">
+                  <v>1</v>
+                </pt>
+                <pt idx="7">
+                  <v>1</v>
+                </pt>
+                <pt idx="8">
+                  <v>0</v>
+                </pt>
+                <pt idx="9">
+                  <v>0</v>
+                </pt>
+                <pt idx="10">
+                  <v>0</v>
+                </pt>
+              </numCache>
+            </numRef>
+          </val>
+        </ser>
+        <ser>
+          <idx val="1"/>
+          <order val="1"/>
+          <tx>
+            <v>Games</v>
+          </tx>
+          <spPr>
+            <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a:noFill/>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <invertIfNegative val="0"/>
+          <cat>
+            <strRef>
+              <f>'2025 Stats'!$A$2:$A$12</f>
+              <strCache>
+                <ptCount val="11"/>
+                <pt idx="0">
+                  <v>Aaron</v>
+                </pt>
+                <pt idx="1">
+                  <v>AB</v>
+                </pt>
+                <pt idx="2">
+                  <v>Anthony</v>
+                </pt>
+                <pt idx="3">
+                  <v>Brandon</v>
+                </pt>
+                <pt idx="4">
+                  <v>Eric</v>
+                </pt>
+                <pt idx="5">
+                  <v>Jacob</v>
+                </pt>
+                <pt idx="6">
+                  <v>Kiernan</v>
+                </pt>
+                <pt idx="7">
+                  <v>Quinn</v>
+                </pt>
+                <pt idx="8">
+                  <v>Sam G</v>
+                </pt>
+                <pt idx="9">
+                  <v>Sam S</v>
+                </pt>
+                <pt idx="10">
+                  <v>Tighe</v>
+                </pt>
+              </strCache>
+            </strRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'2025 Stats'!$E$2:$E$12</f>
+              <numCache>
+                <formatCode>0.0%</formatCode>
+                <ptCount val="11"/>
+                <pt idx="0">
+                  <v>0.25</v>
+                </pt>
+                <pt idx="1">
+                  <v>0.75</v>
+                </pt>
+                <pt idx="2">
+                  <v>0</v>
+                </pt>
+                <pt idx="3">
+                  <v>0.75</v>
+                </pt>
+                <pt idx="4">
+                  <v>0</v>
+                </pt>
+                <pt idx="5">
+                  <v>0.25</v>
+                </pt>
+                <pt idx="6">
+                  <v>0.75</v>
+                </pt>
+                <pt idx="7">
+                  <v>0.75</v>
+                </pt>
+                <pt idx="8">
+                  <v>0.25</v>
+                </pt>
+                <pt idx="9">
+                  <v>0.25</v>
+                </pt>
+                <pt idx="10">
+                  <v>0</v>
+                </pt>
+              </numCache>
+            </numRef>
+          </val>
+        </ser>
+        <ser>
+          <idx val="2"/>
+          <order val="2"/>
+          <tx>
+            <v>PK's</v>
+          </tx>
+          <spPr>
+            <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a:noFill/>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <invertIfNegative val="0"/>
+          <cat>
+            <strRef>
+              <f>'2025 Stats'!$A$2:$A$12</f>
+              <strCache>
+                <ptCount val="11"/>
+                <pt idx="0">
+                  <v>Aaron</v>
+                </pt>
+                <pt idx="1">
+                  <v>AB</v>
+                </pt>
+                <pt idx="2">
+                  <v>Anthony</v>
+                </pt>
+                <pt idx="3">
+                  <v>Brandon</v>
+                </pt>
+                <pt idx="4">
+                  <v>Eric</v>
+                </pt>
+                <pt idx="5">
+                  <v>Jacob</v>
+                </pt>
+                <pt idx="6">
+                  <v>Kiernan</v>
+                </pt>
+                <pt idx="7">
+                  <v>Quinn</v>
+                </pt>
+                <pt idx="8">
+                  <v>Sam G</v>
+                </pt>
+                <pt idx="9">
+                  <v>Sam S</v>
+                </pt>
+                <pt idx="10">
+                  <v>Tighe</v>
+                </pt>
+              </strCache>
+            </strRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'2025 Stats'!$G$2:$G$12</f>
+              <numCache>
+                <formatCode>0.0%</formatCode>
+                <ptCount val="11"/>
+                <pt idx="0">
+                  <v>0</v>
+                </pt>
+                <pt idx="1">
+                  <v>1</v>
+                </pt>
+                <pt idx="2">
+                  <v>0</v>
+                </pt>
+                <pt idx="3">
+                  <v>1</v>
+                </pt>
+                <pt idx="4">
+                  <v>0</v>
+                </pt>
+                <pt idx="5">
+                  <v>0</v>
+                </pt>
+                <pt idx="6">
+                  <v>1</v>
+                </pt>
+                <pt idx="7">
+                  <v>1</v>
+                </pt>
+                <pt idx="8">
+                  <v>0</v>
+                </pt>
+                <pt idx="9">
+                  <v>0</v>
+                </pt>
+                <pt idx="10">
+                  <v>0</v>
+                </pt>
+              </numCache>
+            </numRef>
+          </val>
+        </ser>
+        <ser>
+          <idx val="3"/>
+          <order val="3"/>
+          <tx>
+            <v>Cross</v>
+          </tx>
+          <spPr>
+            <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a:noFill/>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <invertIfNegative val="0"/>
+          <cat>
+            <strRef>
+              <f>'2025 Stats'!$A$2:$A$12</f>
+              <strCache>
+                <ptCount val="11"/>
+                <pt idx="0">
+                  <v>Aaron</v>
+                </pt>
+                <pt idx="1">
+                  <v>AB</v>
+                </pt>
+                <pt idx="2">
+                  <v>Anthony</v>
+                </pt>
+                <pt idx="3">
+                  <v>Brandon</v>
+                </pt>
+                <pt idx="4">
+                  <v>Eric</v>
+                </pt>
+                <pt idx="5">
+                  <v>Jacob</v>
+                </pt>
+                <pt idx="6">
+                  <v>Kiernan</v>
+                </pt>
+                <pt idx="7">
+                  <v>Quinn</v>
+                </pt>
+                <pt idx="8">
+                  <v>Sam G</v>
+                </pt>
+                <pt idx="9">
+                  <v>Sam S</v>
+                </pt>
+                <pt idx="10">
+                  <v>Tighe</v>
+                </pt>
+              </strCache>
+            </strRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'2025 Stats'!$I$2:$I$12</f>
+              <numCache>
+                <formatCode>0.0%</formatCode>
+                <ptCount val="11"/>
+                <pt idx="0">
+                  <v>0.6</v>
+                </pt>
+                <pt idx="1">
+                  <v>0.4</v>
+                </pt>
+                <pt idx="2">
+                  <v>0</v>
+                </pt>
+                <pt idx="3">
+                  <v>0.4</v>
+                </pt>
+                <pt idx="4">
+                  <v>0</v>
+                </pt>
+                <pt idx="5">
+                  <v>0.6</v>
+                </pt>
+                <pt idx="6">
+                  <v>0.4</v>
+                </pt>
+                <pt idx="7">
+                  <v>0.4</v>
+                </pt>
+                <pt idx="8">
+                  <v>0.6</v>
+                </pt>
+                <pt idx="9">
+                  <v>0.6</v>
+                </pt>
+                <pt idx="10">
+                  <v>0</v>
+                </pt>
+              </numCache>
+            </numRef>
+          </val>
+        </ser>
+        <ser>
+          <idx val="4"/>
+          <order val="4"/>
+          <tx>
+            <v>A/D</v>
+          </tx>
+          <spPr>
+            <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a:schemeClr val="accent5"/>
+            </a:solidFill>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a:noFill/>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <invertIfNegative val="0"/>
+          <cat>
+            <strRef>
+              <f>'2025 Stats'!$A$2:$A$12</f>
+              <strCache>
+                <ptCount val="11"/>
+                <pt idx="0">
+                  <v>Aaron</v>
+                </pt>
+                <pt idx="1">
+                  <v>AB</v>
+                </pt>
+                <pt idx="2">
+                  <v>Anthony</v>
+                </pt>
+                <pt idx="3">
+                  <v>Brandon</v>
+                </pt>
+                <pt idx="4">
+                  <v>Eric</v>
+                </pt>
+                <pt idx="5">
+                  <v>Jacob</v>
+                </pt>
+                <pt idx="6">
+                  <v>Kiernan</v>
+                </pt>
+                <pt idx="7">
+                  <v>Quinn</v>
+                </pt>
+                <pt idx="8">
+                  <v>Sam G</v>
+                </pt>
+                <pt idx="9">
+                  <v>Sam S</v>
+                </pt>
+                <pt idx="10">
+                  <v>Tighe</v>
+                </pt>
+              </strCache>
+            </strRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'2025 Stats'!$K$2:$K$12</f>
+              <numCache>
+                <formatCode>0.0%</formatCode>
+                <ptCount val="11"/>
+                <pt idx="0">
+                  <v>0</v>
+                </pt>
+                <pt idx="1">
+                  <v>1</v>
+                </pt>
+                <pt idx="2">
+                  <v>0</v>
+                </pt>
+                <pt idx="3">
+                  <v>1</v>
+                </pt>
+                <pt idx="4">
+                  <v>0</v>
+                </pt>
+                <pt idx="5">
+                  <v>0</v>
+                </pt>
+                <pt idx="6">
+                  <v>1</v>
+                </pt>
+                <pt idx="7">
+                  <v>1</v>
+                </pt>
+                <pt idx="8">
+                  <v>0</v>
+                </pt>
+                <pt idx="9">
+                  <v>0</v>
+                </pt>
+                <pt idx="10">
+                  <v>0</v>
+                </pt>
+              </numCache>
+            </numRef>
+          </val>
+        </ser>
+        <ser>
+          <idx val="5"/>
+          <order val="5"/>
+          <tx>
+            <v>P&amp;F</v>
+          </tx>
+          <spPr>
+            <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a:schemeClr val="accent6"/>
+            </a:solidFill>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a:noFill/>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <invertIfNegative val="0"/>
+          <cat>
+            <strRef>
+              <f>'2025 Stats'!$A$2:$A$12</f>
+              <strCache>
+                <ptCount val="11"/>
+                <pt idx="0">
+                  <v>Aaron</v>
+                </pt>
+                <pt idx="1">
+                  <v>AB</v>
+                </pt>
+                <pt idx="2">
+                  <v>Anthony</v>
+                </pt>
+                <pt idx="3">
+                  <v>Brandon</v>
+                </pt>
+                <pt idx="4">
+                  <v>Eric</v>
+                </pt>
+                <pt idx="5">
+                  <v>Jacob</v>
+                </pt>
+                <pt idx="6">
+                  <v>Kiernan</v>
+                </pt>
+                <pt idx="7">
+                  <v>Quinn</v>
+                </pt>
+                <pt idx="8">
+                  <v>Sam G</v>
+                </pt>
+                <pt idx="9">
+                  <v>Sam S</v>
+                </pt>
+                <pt idx="10">
+                  <v>Tighe</v>
+                </pt>
+              </strCache>
+            </strRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'2025 Stats'!$M$2:$M$12</f>
+              <numCache>
+                <formatCode>0.0%</formatCode>
+                <ptCount val="11"/>
+                <pt idx="0">
+                  <v>0</v>
+                </pt>
+                <pt idx="1">
+                  <v>1</v>
+                </pt>
+                <pt idx="2">
+                  <v>0</v>
+                </pt>
+                <pt idx="3">
+                  <v>1</v>
+                </pt>
+                <pt idx="4">
+                  <v>0</v>
+                </pt>
+                <pt idx="5">
+                  <v>0</v>
+                </pt>
+                <pt idx="6">
+                  <v>1</v>
+                </pt>
+                <pt idx="7">
+                  <v>1</v>
+                </pt>
+                <pt idx="8">
+                  <v>0</v>
+                </pt>
+                <pt idx="9">
+                  <v>0</v>
+                </pt>
+                <pt idx="10">
+                  <v>0</v>
+                </pt>
+              </numCache>
+            </numRef>
+          </val>
+        </ser>
+        <ser>
+          <idx val="6"/>
+          <order val="6"/>
+          <tx>
+            <v>SS</v>
+          </tx>
+          <spPr>
+            <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a:schemeClr val="accent1">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a:noFill/>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <invertIfNegative val="0"/>
+          <cat>
+            <strRef>
+              <f>'2025 Stats'!$A$2:$A$12</f>
+              <strCache>
+                <ptCount val="11"/>
+                <pt idx="0">
+                  <v>Aaron</v>
+                </pt>
+                <pt idx="1">
+                  <v>AB</v>
+                </pt>
+                <pt idx="2">
+                  <v>Anthony</v>
+                </pt>
+                <pt idx="3">
+                  <v>Brandon</v>
+                </pt>
+                <pt idx="4">
+                  <v>Eric</v>
+                </pt>
+                <pt idx="5">
+                  <v>Jacob</v>
+                </pt>
+                <pt idx="6">
+                  <v>Kiernan</v>
+                </pt>
+                <pt idx="7">
+                  <v>Quinn</v>
+                </pt>
+                <pt idx="8">
+                  <v>Sam G</v>
+                </pt>
+                <pt idx="9">
+                  <v>Sam S</v>
+                </pt>
+                <pt idx="10">
+                  <v>Tighe</v>
+                </pt>
+              </strCache>
+            </strRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'2025 Stats'!$O$2:$O$12</f>
+              <numCache>
+                <formatCode>0.0%</formatCode>
+                <ptCount val="11"/>
+                <pt idx="0">
+                  <v>0</v>
+                </pt>
+                <pt idx="1">
+                  <v>0</v>
+                </pt>
+                <pt idx="2">
+                  <v>0</v>
+                </pt>
+                <pt idx="3">
+                  <v>0</v>
+                </pt>
+                <pt idx="4">
+                  <v>0</v>
+                </pt>
+                <pt idx="5">
+                  <v>0</v>
+                </pt>
+                <pt idx="6">
+                  <v>0</v>
+                </pt>
+                <pt idx="7">
+                  <v>0</v>
+                </pt>
+                <pt idx="8">
+                  <v>0</v>
+                </pt>
+                <pt idx="9">
+                  <v>0</v>
+                </pt>
+                <pt idx="10">
+                  <v>0</v>
+                </pt>
+              </numCache>
+            </numRef>
+          </val>
+        </ser>
+        <ser>
+          <idx val="7"/>
+          <order val="7"/>
+          <tx>
+            <v>FK's</v>
+          </tx>
+          <spPr>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <invertIfNegative val="0"/>
+          <cat>
+            <strRef>
+              <f>'2025 Stats'!$A$2:$A$12</f>
+              <strCache>
+                <ptCount val="11"/>
+                <pt idx="0">
+                  <v>Aaron</v>
+                </pt>
+                <pt idx="1">
+                  <v>AB</v>
+                </pt>
+                <pt idx="2">
+                  <v>Anthony</v>
+                </pt>
+                <pt idx="3">
+                  <v>Brandon</v>
+                </pt>
+                <pt idx="4">
+                  <v>Eric</v>
+                </pt>
+                <pt idx="5">
+                  <v>Jacob</v>
+                </pt>
+                <pt idx="6">
+                  <v>Kiernan</v>
+                </pt>
+                <pt idx="7">
+                  <v>Quinn</v>
+                </pt>
+                <pt idx="8">
+                  <v>Sam G</v>
+                </pt>
+                <pt idx="9">
+                  <v>Sam S</v>
+                </pt>
+                <pt idx="10">
+                  <v>Tighe</v>
+                </pt>
+              </strCache>
+            </strRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'2025 Stats'!$Q$2:$Q$10</f>
+              <numCache>
+                <formatCode>0.0%</formatCode>
+                <ptCount val="9"/>
+                <pt idx="0">
+                  <v>0</v>
+                </pt>
+                <pt idx="1">
+                  <v>0</v>
+                </pt>
+                <pt idx="2">
+                  <v>0</v>
+                </pt>
+                <pt idx="3">
+                  <v>0</v>
+                </pt>
+                <pt idx="4">
+                  <v>0</v>
+                </pt>
+                <pt idx="5">
+                  <v>0</v>
+                </pt>
+                <pt idx="6">
+                  <v>0</v>
+                </pt>
+                <pt idx="7">
+                  <v>0</v>
+                </pt>
+                <pt idx="8">
+                  <v>0</v>
+                </pt>
+              </numCache>
+            </numRef>
+          </val>
+        </ser>
+        <dLbls>
+          <showLegendKey val="0"/>
+          <showVal val="0"/>
+          <showCatName val="0"/>
+          <showSerName val="0"/>
+          <showPercent val="0"/>
+          <showBubbleSize val="0"/>
+        </dLbls>
+        <gapWidth val="219"/>
+        <overlap val="-27"/>
+        <axId val="560633855"/>
+        <axId val="560635567"/>
+      </barChart>
+      <catAx>
+        <axId val="560633855"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <delete val="0"/>
+        <axPos val="b"/>
+        <numFmt formatCode="General" sourceLinked="1"/>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <tickLblPos val="nextTo"/>
+        <spPr>
+          <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+          <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:prstDash val="solid"/>
+            <a:round/>
+          </a:ln>
+        </spPr>
+        <txPr>
+          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:pPr>
+              <a:defRPr sz="1200" b="0" i="0" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:t>None</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </txPr>
+        <crossAx val="560635567"/>
+        <crosses val="autoZero"/>
+        <auto val="1"/>
+        <lblAlgn val="ctr"/>
+        <lblOffset val="100"/>
+        <noMultiLvlLbl val="0"/>
+      </catAx>
+      <valAx>
+        <axId val="560635567"/>
+        <scaling>
+          <orientation val="minMax"/>
+          <max val="1"/>
+        </scaling>
+        <delete val="0"/>
+        <axPos val="l"/>
+        <majorGridlines>
+          <spPr>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="65000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+              <a:round/>
+            </a:ln>
+          </spPr>
+        </majorGridlines>
+        <minorGridlines>
+          <spPr>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+        </minorGridlines>
+        <numFmt formatCode="0.0%" sourceLinked="1"/>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <tickLblPos val="nextTo"/>
+        <spPr>
+          <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+          <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:noFill/>
+            <a:prstDash val="solid"/>
+          </a:ln>
+        </spPr>
+        <txPr>
+          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:pPr>
+              <a:defRPr sz="1200" b="0" i="0" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:t>None</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </txPr>
+        <crossAx val="560633855"/>
+        <crosses val="autoZero"/>
+        <crossBetween val="between"/>
+        <minorUnit val="0.05"/>
+      </valAx>
+    </plotArea>
+    <legend>
+      <legendPos val="t"/>
+      <legendEntry>
+        <idx val="0"/>
+        <delete val="0"/>
+        <txPr>
+          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:t>None</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </txPr>
+      </legendEntry>
+      <legendEntry>
+        <idx val="1"/>
+        <delete val="0"/>
+        <txPr>
+          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:t>None</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </txPr>
+      </legendEntry>
+      <legendEntry>
+        <idx val="2"/>
+        <delete val="0"/>
+        <txPr>
+          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:t>None</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </txPr>
+      </legendEntry>
+      <legendEntry>
+        <idx val="3"/>
+        <delete val="0"/>
+        <txPr>
+          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:t>None</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </txPr>
+      </legendEntry>
+      <legendEntry>
+        <idx val="4"/>
+        <delete val="0"/>
+        <txPr>
+          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:t>None</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </txPr>
+      </legendEntry>
+      <legendEntry>
+        <idx val="5"/>
+        <delete val="0"/>
+        <txPr>
+          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:t>None</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </txPr>
+      </legendEntry>
+      <legendEntry>
+        <idx val="6"/>
+        <delete val="0"/>
+        <txPr>
+          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:t>None</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </txPr>
+      </legendEntry>
+      <legendEntry>
+        <idx val="7"/>
+        <delete val="0"/>
+        <txPr>
+          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:t>None</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </txPr>
+      </legendEntry>
+      <layout>
+        <manualLayout>
+          <xMode val="edge"/>
+          <yMode val="edge"/>
+          <wMode val="factor"/>
+          <hMode val="factor"/>
+          <x val="0.03350276285314353"/>
+          <y val="0.05142274851112607"/>
+          <w val="0.3605298018667383"/>
+          <h val="0.06442396088804161"/>
+        </manualLayout>
+      </layout>
+      <overlay val="0"/>
+      <spPr>
+        <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:noFill/>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+      <txPr>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:r>
+            <a:t>None</a:t>
           </a:r>
           <a:endParaRPr lang="en-US"/>
         </a:p>
@@ -3121,6 +4440,38 @@
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+  <twoCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>13</row>
+      <rowOff>3138</rowOff>
+    </from>
+    <to>
+      <col>25</col>
+      <colOff>-1</colOff>
+      <row>53</row>
+      <rowOff>0</rowOff>
+    </to>
+    <graphicFrame>
+      <nvGraphicFramePr>
+        <cNvPr id="1" name="Chart 1"/>
+        <cNvGraphicFramePr/>
+      </nvGraphicFramePr>
+      <xfrm/>
+      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </graphicFrame>
+    <clientData/>
+  </twoCellAnchor>
+</wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <twoCellAnchor>
     <from>
@@ -3455,78 +4806,78 @@
   </sheetPr>
   <dimension ref="A1:Z36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F30" sqref="F30"/>
+    <sheetView zoomScale="119" zoomScaleNormal="119" workbookViewId="0">
+      <selection activeCell="M1" sqref="M1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16"/>
   <cols>
-    <col width="12.5" customWidth="1" style="70" min="1" max="1"/>
-    <col width="30.83203125" customWidth="1" style="70" min="2" max="3"/>
+    <col width="12.5" customWidth="1" style="71" min="1" max="1"/>
+    <col width="30.83203125" customWidth="1" style="71" min="2" max="3"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="65" t="inlineStr">
+      <c r="A1" s="61" t="inlineStr">
         <is>
           <t>Date</t>
         </is>
       </c>
-      <c r="B1" s="67" t="inlineStr">
+      <c r="B1" s="62" t="inlineStr">
         <is>
           <t>Team 1</t>
         </is>
       </c>
-      <c r="C1" s="68" t="inlineStr">
+      <c r="C1" s="63" t="inlineStr">
         <is>
           <t>Team 2</t>
         </is>
       </c>
-      <c r="D1" s="65" t="inlineStr">
+      <c r="D1" s="61" t="inlineStr">
         <is>
           <t>Score</t>
         </is>
       </c>
-      <c r="E1" s="65" t="inlineStr">
+      <c r="E1" s="61" t="inlineStr">
         <is>
           <t>Game 1</t>
         </is>
       </c>
-      <c r="F1" s="65" t="inlineStr">
+      <c r="F1" s="61" t="inlineStr">
         <is>
           <t>Game 2</t>
         </is>
       </c>
-      <c r="G1" s="65" t="inlineStr">
+      <c r="G1" s="61" t="inlineStr">
         <is>
           <t>Game 3</t>
         </is>
       </c>
-      <c r="H1" s="65" t="inlineStr">
+      <c r="H1" s="61" t="inlineStr">
         <is>
           <t>Game 4</t>
         </is>
       </c>
-      <c r="I1" s="65" t="inlineStr">
+      <c r="I1" s="61" t="inlineStr">
         <is>
           <t>Game 5</t>
         </is>
       </c>
-      <c r="J1" s="65" t="inlineStr">
+      <c r="J1" s="61" t="inlineStr">
         <is>
           <t>Game 6</t>
         </is>
       </c>
-      <c r="K1" s="65" t="inlineStr">
+      <c r="K1" s="61" t="inlineStr">
         <is>
           <t>Game 7</t>
         </is>
       </c>
-      <c r="L1" s="65" t="inlineStr">
+      <c r="L1" s="61" t="inlineStr">
         <is>
           <t>MVP</t>
         </is>
       </c>
-      <c r="M1" s="65" t="inlineStr">
+      <c r="M1" s="67" t="inlineStr">
         <is>
           <t>Clown of the Match</t>
         </is>
@@ -3543,70 +4894,70 @@
       <c r="Z1" s="1" t="n"/>
     </row>
     <row r="2">
-      <c r="A2" s="63" t="inlineStr">
+      <c r="A2" s="54" t="inlineStr">
         <is>
           <t>12/31/23</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="B2" s="55" t="inlineStr">
         <is>
           <t>Jacob, Sam G, AB, Eric</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="C2" s="55" t="inlineStr">
         <is>
           <t>Kiernan, Brandon, Sam S, Tighe</t>
         </is>
       </c>
-      <c r="D2" s="6" t="inlineStr">
+      <c r="D2" s="56" t="inlineStr">
         <is>
           <t>4-2</t>
         </is>
       </c>
-      <c r="E2" s="3" t="inlineStr">
+      <c r="E2" s="57" t="inlineStr">
         <is>
           <t>PK's (3-2)</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="F2" s="57" t="inlineStr">
         <is>
           <t>Cross (3-0)</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="G2" s="57" t="inlineStr">
         <is>
           <t>A/D (1-0)</t>
         </is>
       </c>
-      <c r="H2" s="4" t="inlineStr">
+      <c r="H2" s="58" t="inlineStr">
         <is>
           <t>SS (0-1)</t>
         </is>
       </c>
-      <c r="I2" s="4" t="inlineStr">
+      <c r="I2" s="58" t="inlineStr">
         <is>
           <t>P&amp;F (0-1)</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="J2" s="57" t="inlineStr">
         <is>
           <t>SS (1-0)</t>
         </is>
       </c>
-      <c r="K2" s="1" t="n"/>
-      <c r="L2" s="3" t="inlineStr">
+      <c r="K2" s="59" t="n"/>
+      <c r="L2" s="57" t="inlineStr">
         <is>
           <t>Sam G</t>
         </is>
       </c>
-      <c r="M2" s="52" t="inlineStr">
+      <c r="M2" s="60" t="inlineStr">
         <is>
           <t>Sam S</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="63" t="inlineStr">
+      <c r="A3" s="52" t="inlineStr">
         <is>
           <t>1/2/24</t>
         </is>
@@ -3650,14 +5001,14 @@
           <t>Brandon</t>
         </is>
       </c>
-      <c r="M3" s="53" t="inlineStr">
+      <c r="M3" s="42" t="inlineStr">
         <is>
           <t>AB</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="63" t="inlineStr">
+      <c r="A4" s="52" t="inlineStr">
         <is>
           <t>1/6/24</t>
         </is>
@@ -3701,14 +5052,14 @@
           <t>Sam G</t>
         </is>
       </c>
-      <c r="M4" s="54" t="inlineStr">
+      <c r="M4" s="43" t="inlineStr">
         <is>
           <t>Brandon</t>
         </is>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="63" t="inlineStr">
+      <c r="A5" s="52" t="inlineStr">
         <is>
           <t>1/14/24</t>
         </is>
@@ -3760,14 +5111,14 @@
           <t>Kiernan</t>
         </is>
       </c>
-      <c r="M5" s="54" t="inlineStr">
+      <c r="M5" s="43" t="inlineStr">
         <is>
           <t>Jacob</t>
         </is>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="63" t="inlineStr">
+      <c r="A6" s="52" t="inlineStr">
         <is>
           <t>5/27/24</t>
         </is>
@@ -3819,14 +5170,14 @@
           <t>Brandon</t>
         </is>
       </c>
-      <c r="M6" s="54" t="inlineStr">
+      <c r="M6" s="43" t="inlineStr">
         <is>
           <t>Sam S</t>
         </is>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="63" t="inlineStr">
+      <c r="A7" s="52" t="inlineStr">
         <is>
           <t>6/2/24</t>
         </is>
@@ -3878,14 +5229,14 @@
           <t>Sam G</t>
         </is>
       </c>
-      <c r="M7" s="53" t="inlineStr">
+      <c r="M7" s="42" t="inlineStr">
         <is>
           <t>Eric</t>
         </is>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="63" t="inlineStr">
+      <c r="A8" s="52" t="inlineStr">
         <is>
           <t>6/8/24</t>
         </is>
@@ -3937,14 +5288,14 @@
           <t>Eric</t>
         </is>
       </c>
-      <c r="M8" s="53" t="inlineStr">
+      <c r="M8" s="42" t="inlineStr">
         <is>
           <t>AB</t>
         </is>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="63" t="inlineStr">
+      <c r="A9" s="52" t="inlineStr">
         <is>
           <t>6/8/24</t>
         </is>
@@ -3996,14 +5347,14 @@
           <t>Sam G</t>
         </is>
       </c>
-      <c r="M9" s="54" t="inlineStr">
+      <c r="M9" s="43" t="inlineStr">
         <is>
           <t>AB</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="63" t="inlineStr">
+      <c r="A10" s="52" t="inlineStr">
         <is>
           <t>6/25/24</t>
         </is>
@@ -4055,14 +5406,14 @@
           <t>Brandon</t>
         </is>
       </c>
-      <c r="M10" s="53" t="inlineStr">
+      <c r="M10" s="42" t="inlineStr">
         <is>
           <t>AB</t>
         </is>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="63" t="inlineStr">
+      <c r="A11" s="52" t="inlineStr">
         <is>
           <t>6/29/24</t>
         </is>
@@ -4106,14 +5457,14 @@
           <t>Brandon</t>
         </is>
       </c>
-      <c r="M11" s="54" t="inlineStr">
+      <c r="M11" s="43" t="inlineStr">
         <is>
           <t>AB</t>
         </is>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="63" t="inlineStr">
+      <c r="A12" s="52" t="inlineStr">
         <is>
           <t>6/30/24</t>
         </is>
@@ -4161,14 +5512,14 @@
           <t>AB</t>
         </is>
       </c>
-      <c r="M12" s="53" t="inlineStr">
+      <c r="M12" s="42" t="inlineStr">
         <is>
           <t>Brandon</t>
         </is>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="63" t="inlineStr">
+      <c r="A13" s="52" t="inlineStr">
         <is>
           <t>7/7/24</t>
         </is>
@@ -4215,7 +5566,7 @@
       <c r="M13" s="15" t="n"/>
     </row>
     <row r="14">
-      <c r="A14" s="63" t="inlineStr">
+      <c r="A14" s="52" t="inlineStr">
         <is>
           <t>7/20/24</t>
         </is>
@@ -4275,7 +5626,7 @@
           <t>Eric</t>
         </is>
       </c>
-      <c r="M14" s="55" t="inlineStr">
+      <c r="M14" s="44" t="inlineStr">
         <is>
           <t>Kiernan</t>
         </is>
@@ -4283,7 +5634,7 @@
       <c r="O14" s="1" t="n"/>
     </row>
     <row r="15">
-      <c r="A15" s="63" t="inlineStr">
+      <c r="A15" s="52" t="inlineStr">
         <is>
           <t>11/29/24</t>
         </is>
@@ -4323,14 +5674,14 @@
           <t>Sam S</t>
         </is>
       </c>
-      <c r="M15" s="56" t="inlineStr">
+      <c r="M15" s="45" t="inlineStr">
         <is>
           <t>Kiernan</t>
         </is>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="63" t="inlineStr">
+      <c r="A16" s="52" t="inlineStr">
         <is>
           <t>12/27/24</t>
         </is>
@@ -4378,14 +5729,14 @@
           <t>Brandon</t>
         </is>
       </c>
-      <c r="M16" s="55" t="inlineStr">
+      <c r="M16" s="44" t="inlineStr">
         <is>
           <t>Aaron</t>
         </is>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="64" t="inlineStr">
+      <c r="A17" s="53" t="inlineStr">
         <is>
           <t>12/31/24</t>
         </is>
@@ -4445,14 +5796,14 @@
           <t>Sam G</t>
         </is>
       </c>
-      <c r="M17" s="57" t="inlineStr">
+      <c r="M17" s="46" t="inlineStr">
         <is>
           <t>Sam S</t>
         </is>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="63" t="inlineStr">
+      <c r="A18" s="52" t="inlineStr">
         <is>
           <t>1/2/25</t>
         </is>
@@ -4552,7 +5903,7 @@
       <c r="M22" s="5" t="n"/>
     </row>
     <row r="23">
-      <c r="C23" s="61" t="n"/>
+      <c r="C23" s="50" t="n"/>
       <c r="D23" s="5" t="n"/>
       <c r="E23" s="5" t="n"/>
       <c r="F23" s="5" t="n"/>
@@ -4565,7 +5916,7 @@
       <c r="M23" s="5" t="n"/>
     </row>
     <row r="24">
-      <c r="C24" s="61" t="n"/>
+      <c r="C24" s="50" t="n"/>
       <c r="D24" s="5" t="n"/>
       <c r="E24" s="5" t="n"/>
       <c r="F24" s="5" t="n"/>
@@ -4578,7 +5929,7 @@
       <c r="M24" s="5" t="n"/>
     </row>
     <row r="25">
-      <c r="C25" s="61" t="n"/>
+      <c r="C25" s="50" t="n"/>
       <c r="D25" s="5" t="n"/>
       <c r="E25" s="5" t="n"/>
       <c r="F25" s="5" t="n"/>
@@ -4591,7 +5942,7 @@
       <c r="M25" s="5" t="n"/>
     </row>
     <row r="26">
-      <c r="C26" s="61" t="n"/>
+      <c r="C26" s="50" t="n"/>
       <c r="D26" s="5" t="n"/>
       <c r="E26" s="5" t="n"/>
       <c r="F26" s="5" t="n"/>
@@ -4604,7 +5955,7 @@
       <c r="M26" s="5" t="n"/>
     </row>
     <row r="27">
-      <c r="C27" s="61" t="n"/>
+      <c r="C27" s="50" t="n"/>
       <c r="D27" s="5" t="n"/>
       <c r="E27" s="21" t="n"/>
       <c r="F27" s="21" t="n"/>
@@ -4619,7 +5970,7 @@
       <c r="O27" s="20" t="n"/>
     </row>
     <row r="28">
-      <c r="C28" s="61" t="n"/>
+      <c r="C28" s="50" t="n"/>
       <c r="D28" s="5" t="n"/>
       <c r="E28" s="21" t="n"/>
       <c r="F28" s="21" t="n"/>
@@ -4634,7 +5985,7 @@
       <c r="O28" s="20" t="n"/>
     </row>
     <row r="29">
-      <c r="C29" s="61" t="n"/>
+      <c r="C29" s="50" t="n"/>
       <c r="D29" s="5" t="n"/>
       <c r="E29" s="21" t="n"/>
       <c r="F29" s="21" t="n"/>
@@ -4649,8 +6000,8 @@
       <c r="O29" s="20" t="n"/>
     </row>
     <row r="30">
-      <c r="C30" s="61" t="n"/>
-      <c r="D30" s="62" t="n"/>
+      <c r="C30" s="50" t="n"/>
+      <c r="D30" s="51" t="n"/>
       <c r="E30" s="22" t="n"/>
       <c r="F30" s="22" t="n"/>
       <c r="G30" s="22" t="n"/>
@@ -4664,7 +6015,7 @@
       <c r="O30" s="20" t="n"/>
     </row>
     <row r="31">
-      <c r="C31" s="61" t="n"/>
+      <c r="C31" s="50" t="n"/>
       <c r="D31" s="5" t="n"/>
       <c r="E31" s="23" t="n"/>
       <c r="F31" s="23" t="n"/>
@@ -4679,7 +6030,7 @@
       <c r="O31" s="20" t="n"/>
     </row>
     <row r="32">
-      <c r="C32" s="61" t="n"/>
+      <c r="C32" s="50" t="n"/>
       <c r="D32" s="5" t="n"/>
       <c r="E32" s="23" t="n"/>
       <c r="F32" s="23" t="n"/>
@@ -4694,7 +6045,7 @@
       <c r="O32" s="20" t="n"/>
     </row>
     <row r="33">
-      <c r="C33" s="61" t="n"/>
+      <c r="C33" s="50" t="n"/>
       <c r="D33" s="5" t="n"/>
       <c r="E33" s="23" t="n"/>
       <c r="F33" s="23" t="n"/>
@@ -4709,7 +6060,7 @@
       <c r="O33" s="20" t="n"/>
     </row>
     <row r="34">
-      <c r="C34" s="61" t="n"/>
+      <c r="C34" s="50" t="n"/>
       <c r="D34" s="5" t="n"/>
       <c r="E34" s="23" t="n"/>
       <c r="F34" s="23" t="n"/>
@@ -4724,7 +6075,7 @@
       <c r="O34" s="20" t="n"/>
     </row>
     <row r="35">
-      <c r="C35" s="61" t="n"/>
+      <c r="C35" s="50" t="n"/>
       <c r="D35" s="5" t="n"/>
       <c r="E35" s="19" t="n"/>
       <c r="F35" s="19" t="n"/>
@@ -4739,7 +6090,7 @@
       <c r="O35" s="20" t="n"/>
     </row>
     <row r="36">
-      <c r="C36" s="61" t="n"/>
+      <c r="C36" s="50" t="n"/>
       <c r="D36" s="5" t="n"/>
       <c r="E36" s="19" t="n"/>
       <c r="F36" s="19" t="n"/>
@@ -4778,115 +6129,115 @@
   </sheetPr>
   <dimension ref="A1:AA29"/>
   <sheetViews>
-    <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="V11" sqref="V11"/>
+    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="W8" sqref="W8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16"/>
   <cols>
-    <col width="11.33203125" customWidth="1" style="70" min="1" max="1"/>
-    <col width="13.1640625" customWidth="1" style="70" min="2" max="17"/>
-    <col width="9.83203125" customWidth="1" style="70" min="18" max="19"/>
-    <col width="11.33203125" customWidth="1" style="70" min="20" max="20"/>
+    <col width="11.33203125" customWidth="1" style="71" min="1" max="1"/>
+    <col width="13.1640625" customWidth="1" style="71" min="2" max="17"/>
+    <col width="9.83203125" customWidth="1" style="71" min="18" max="19"/>
+    <col width="11.33203125" customWidth="1" style="71" min="20" max="20"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="71" t="inlineStr">
+      <c r="A1" s="82" t="inlineStr">
         <is>
           <t>Name</t>
         </is>
       </c>
-      <c r="B1" s="71" t="inlineStr">
+      <c r="B1" s="82" t="inlineStr">
         <is>
           <t>Days Record</t>
         </is>
       </c>
-      <c r="C1" s="71" t="inlineStr">
+      <c r="C1" s="82" t="inlineStr">
         <is>
           <t>Days Pct</t>
         </is>
       </c>
-      <c r="D1" s="71" t="inlineStr">
+      <c r="D1" s="82" t="inlineStr">
         <is>
           <t>Games Record</t>
         </is>
       </c>
-      <c r="E1" s="71" t="inlineStr">
+      <c r="E1" s="82" t="inlineStr">
         <is>
           <t>Games Pct</t>
         </is>
       </c>
-      <c r="F1" s="71" t="inlineStr">
+      <c r="F1" s="82" t="inlineStr">
         <is>
           <t>PK's Record</t>
         </is>
       </c>
-      <c r="G1" s="71" t="inlineStr">
+      <c r="G1" s="82" t="inlineStr">
         <is>
           <t>PK's Pct</t>
         </is>
       </c>
-      <c r="H1" s="71" t="inlineStr">
+      <c r="H1" s="82" t="inlineStr">
         <is>
           <t>Cross Record</t>
         </is>
       </c>
-      <c r="I1" s="71" t="inlineStr">
+      <c r="I1" s="82" t="inlineStr">
         <is>
           <t>Cross Pct</t>
         </is>
       </c>
-      <c r="J1" s="71" t="inlineStr">
+      <c r="J1" s="82" t="inlineStr">
         <is>
           <t>A/D Record</t>
         </is>
       </c>
-      <c r="K1" s="71" t="inlineStr">
+      <c r="K1" s="82" t="inlineStr">
         <is>
           <t>A/D Pct</t>
         </is>
       </c>
-      <c r="L1" s="71" t="inlineStr">
+      <c r="L1" s="82" t="inlineStr">
         <is>
           <t>P&amp;F Record</t>
         </is>
       </c>
-      <c r="M1" s="71" t="inlineStr">
+      <c r="M1" s="82" t="inlineStr">
         <is>
           <t>P&amp;F Pct</t>
         </is>
       </c>
-      <c r="N1" s="71" t="inlineStr">
+      <c r="N1" s="82" t="inlineStr">
         <is>
           <t>SS Record</t>
         </is>
       </c>
-      <c r="O1" s="71" t="inlineStr">
+      <c r="O1" s="82" t="inlineStr">
         <is>
           <t>SS Pct</t>
         </is>
       </c>
-      <c r="P1" s="71" t="inlineStr">
+      <c r="P1" s="82" t="inlineStr">
         <is>
           <t>FK's Record</t>
         </is>
       </c>
-      <c r="Q1" s="71" t="inlineStr">
+      <c r="Q1" s="82" t="inlineStr">
         <is>
           <t>FK's Pct</t>
         </is>
       </c>
-      <c r="R1" s="71" t="inlineStr">
+      <c r="R1" s="82" t="inlineStr">
         <is>
           <t>MVP</t>
         </is>
       </c>
-      <c r="S1" s="71" t="inlineStr">
+      <c r="S1" s="82" t="inlineStr">
         <is>
           <t>Clown</t>
         </is>
       </c>
-      <c r="T1" s="71" t="inlineStr">
+      <c r="T1" s="82" t="inlineStr">
         <is>
           <t>(Name)</t>
         </is>
@@ -5645,7 +6996,7 @@
       <c r="U10" s="14" t="n"/>
     </row>
     <row r="11">
-      <c r="A11" s="59" t="inlineStr">
+      <c r="A11" s="48" t="inlineStr">
         <is>
           <t>Sam S</t>
         </is>
@@ -5727,7 +7078,7 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="60" t="inlineStr">
+      <c r="A12" s="49" t="inlineStr">
         <is>
           <t>Tighe</t>
         </is>
@@ -6060,74 +7411,74 @@
   </sheetPr>
   <dimension ref="A1:M15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H23" sqref="H23"/>
+    <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0">
+      <selection activeCell="K22" sqref="K22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="72" t="inlineStr">
+      <c r="A1" s="83" t="inlineStr">
         <is>
           <t>Name</t>
         </is>
       </c>
-      <c r="B1" s="71" t="inlineStr">
+      <c r="B1" s="82" t="inlineStr">
         <is>
           <t>Aaron</t>
         </is>
       </c>
-      <c r="C1" s="71" t="inlineStr">
+      <c r="C1" s="82" t="inlineStr">
         <is>
           <t>AB</t>
         </is>
       </c>
-      <c r="D1" s="71" t="inlineStr">
+      <c r="D1" s="82" t="inlineStr">
         <is>
           <t>Anthony</t>
         </is>
       </c>
-      <c r="E1" s="71" t="inlineStr">
+      <c r="E1" s="82" t="inlineStr">
         <is>
           <t>Brandon</t>
         </is>
       </c>
-      <c r="F1" s="71" t="inlineStr">
+      <c r="F1" s="82" t="inlineStr">
         <is>
           <t>Eric</t>
         </is>
       </c>
-      <c r="G1" s="71" t="inlineStr">
+      <c r="G1" s="82" t="inlineStr">
         <is>
           <t>Jacob</t>
         </is>
       </c>
-      <c r="H1" s="71" t="inlineStr">
+      <c r="H1" s="82" t="inlineStr">
         <is>
           <t>Kiernan</t>
         </is>
       </c>
-      <c r="I1" s="71" t="inlineStr">
+      <c r="I1" s="82" t="inlineStr">
         <is>
           <t>Quinn</t>
         </is>
       </c>
-      <c r="J1" s="71" t="inlineStr">
+      <c r="J1" s="82" t="inlineStr">
         <is>
           <t>Sam G</t>
         </is>
       </c>
-      <c r="K1" s="71" t="inlineStr">
+      <c r="K1" s="82" t="inlineStr">
         <is>
           <t>Sam S</t>
         </is>
       </c>
-      <c r="L1" s="71" t="inlineStr">
+      <c r="L1" s="82" t="inlineStr">
         <is>
           <t>Tighe</t>
         </is>
       </c>
-      <c r="M1" s="71" t="inlineStr">
+      <c r="M1" s="82" t="inlineStr">
         <is>
           <t>Player B</t>
         </is>
@@ -6139,40 +7490,40 @@
           <t>Aaron</t>
         </is>
       </c>
-      <c r="B2" s="43" t="n">
-        <v>0</v>
-      </c>
-      <c r="C2" s="44" t="n">
+      <c r="B2" s="72" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" s="73" t="n">
         <v>0.375</v>
       </c>
-      <c r="D2" s="44" t="n">
-        <v>0</v>
-      </c>
-      <c r="E2" s="44" t="n">
+      <c r="D2" s="73" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" s="73" t="n">
         <v>0.375</v>
       </c>
-      <c r="F2" s="44" t="n">
+      <c r="F2" s="73" t="n">
         <v>0.25</v>
       </c>
-      <c r="G2" s="44" t="n">
+      <c r="G2" s="73" t="n">
         <v>0.5</v>
       </c>
-      <c r="H2" s="44" t="n">
+      <c r="H2" s="73" t="n">
         <v>0.25</v>
       </c>
-      <c r="I2" s="44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" s="44" t="n">
+      <c r="I2" s="73" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" s="73" t="n">
         <v>0.875</v>
       </c>
-      <c r="K2" s="44" t="n">
+      <c r="K2" s="73" t="n">
         <v>0.125</v>
       </c>
-      <c r="L2" s="45" t="n">
-        <v>0</v>
-      </c>
-      <c r="M2" s="58" t="inlineStr"/>
+      <c r="L2" s="74" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" s="47" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="24" t="inlineStr">
@@ -6180,40 +7531,40 @@
           <t>AB</t>
         </is>
       </c>
-      <c r="B3" s="46" t="n">
+      <c r="B3" s="75" t="n">
         <v>0.176</v>
       </c>
-      <c r="C3" s="47" t="n">
-        <v>0.375</v>
-      </c>
-      <c r="D3" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="E3" s="8" t="n">
+      <c r="C3" s="76" t="n">
+        <v>0</v>
+      </c>
+      <c r="D3" s="77" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" s="77" t="n">
         <v>0.353</v>
       </c>
-      <c r="F3" s="8" t="n">
+      <c r="F3" s="77" t="n">
         <v>0.294</v>
       </c>
-      <c r="G3" s="8" t="n">
+      <c r="G3" s="77" t="n">
         <v>0.529</v>
       </c>
-      <c r="H3" s="8" t="n">
+      <c r="H3" s="77" t="n">
         <v>0.294</v>
       </c>
-      <c r="I3" s="8" t="n">
+      <c r="I3" s="77" t="n">
         <v>0.059</v>
       </c>
-      <c r="J3" s="8" t="n">
+      <c r="J3" s="77" t="n">
         <v>0.471</v>
       </c>
-      <c r="K3" s="8" t="n">
+      <c r="K3" s="77" t="n">
         <v>0.294</v>
       </c>
-      <c r="L3" s="48" t="n">
+      <c r="L3" s="78" t="n">
         <v>0.059</v>
       </c>
-      <c r="M3" s="58" t="inlineStr"/>
+      <c r="M3" s="47" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="25" t="inlineStr">
@@ -6221,40 +7572,40 @@
           <t>Anthony</t>
         </is>
       </c>
-      <c r="B4" s="46" t="n">
-        <v>0.176</v>
-      </c>
-      <c r="C4" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="D4" s="47" t="n">
-        <v>0</v>
-      </c>
-      <c r="E4" s="8" t="n">
-        <v>0.353</v>
-      </c>
-      <c r="F4" s="8" t="n">
+      <c r="B4" s="75" t="n">
+        <v>0</v>
+      </c>
+      <c r="C4" s="77" t="n">
+        <v>0</v>
+      </c>
+      <c r="D4" s="76" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" s="77" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" s="77" t="n">
         <v>1</v>
       </c>
-      <c r="G4" s="8" t="n">
-        <v>0.529</v>
-      </c>
-      <c r="H4" s="8" t="n">
-        <v>0.294</v>
-      </c>
-      <c r="I4" s="8" t="n">
-        <v>0.059</v>
-      </c>
-      <c r="J4" s="8" t="n">
+      <c r="G4" s="77" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" s="77" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" s="77" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" s="77" t="n">
         <v>1</v>
       </c>
-      <c r="K4" s="8" t="n">
-        <v>0.294</v>
-      </c>
-      <c r="L4" s="48" t="n">
-        <v>0.059</v>
-      </c>
-      <c r="M4" s="58" t="inlineStr"/>
+      <c r="K4" s="77" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" s="78" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" s="47" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="24" t="inlineStr">
@@ -6262,40 +7613,40 @@
           <t>Brandon</t>
         </is>
       </c>
-      <c r="B5" s="46" t="n">
+      <c r="B5" s="75" t="n">
         <v>0.2</v>
       </c>
-      <c r="C5" s="8" t="n">
+      <c r="C5" s="77" t="n">
         <v>0.4</v>
       </c>
-      <c r="D5" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="E5" s="47" t="n">
-        <v>0</v>
-      </c>
-      <c r="F5" s="8" t="n">
+      <c r="D5" s="77" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" s="76" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" s="77" t="n">
         <v>0.2</v>
       </c>
-      <c r="G5" s="8" t="n">
+      <c r="G5" s="77" t="n">
         <v>0.4</v>
       </c>
-      <c r="H5" s="8" t="n">
+      <c r="H5" s="77" t="n">
         <v>0.6</v>
       </c>
-      <c r="I5" s="8" t="n">
+      <c r="I5" s="77" t="n">
         <v>0.2</v>
       </c>
-      <c r="J5" s="8" t="n">
+      <c r="J5" s="77" t="n">
         <v>0.2</v>
       </c>
-      <c r="K5" s="8" t="n">
+      <c r="K5" s="77" t="n">
         <v>0.2</v>
       </c>
-      <c r="L5" s="48" t="n">
+      <c r="L5" s="78" t="n">
         <v>0.067</v>
       </c>
-      <c r="M5" s="58" t="inlineStr"/>
+      <c r="M5" s="47" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="24" t="inlineStr">
@@ -6303,40 +7654,40 @@
           <t>Eric</t>
         </is>
       </c>
-      <c r="B6" s="46" t="n">
+      <c r="B6" s="75" t="n">
         <v>0.154</v>
       </c>
-      <c r="C6" s="8" t="n">
+      <c r="C6" s="77" t="n">
         <v>0.385</v>
       </c>
-      <c r="D6" s="8" t="n">
+      <c r="D6" s="77" t="n">
         <v>0.077</v>
       </c>
-      <c r="E6" s="8" t="n">
+      <c r="E6" s="77" t="n">
         <v>0.231</v>
       </c>
-      <c r="F6" s="47" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="G6" s="8" t="n">
+      <c r="F6" s="76" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" s="77" t="n">
         <v>0.308</v>
       </c>
-      <c r="H6" s="8" t="n">
+      <c r="H6" s="77" t="n">
         <v>0.385</v>
       </c>
-      <c r="I6" s="8" t="n">
+      <c r="I6" s="77" t="n">
         <v>0.077</v>
       </c>
-      <c r="J6" s="8" t="n">
+      <c r="J6" s="77" t="n">
         <v>0.615</v>
       </c>
-      <c r="K6" s="8" t="n">
+      <c r="K6" s="77" t="n">
         <v>0.308</v>
       </c>
-      <c r="L6" s="48" t="n">
-        <v>0.067</v>
-      </c>
-      <c r="M6" s="58" t="inlineStr"/>
+      <c r="L6" s="78" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" s="47" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="24" t="inlineStr">
@@ -6344,40 +7695,40 @@
           <t>Jacob</t>
         </is>
       </c>
-      <c r="B7" s="46" t="n">
+      <c r="B7" s="75" t="n">
         <v>0.235</v>
       </c>
-      <c r="C7" s="8" t="n">
+      <c r="C7" s="77" t="n">
         <v>0.529</v>
       </c>
-      <c r="D7" s="8" t="n">
-        <v>0.077</v>
-      </c>
-      <c r="E7" s="8" t="n">
+      <c r="D7" s="77" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" s="77" t="n">
         <v>0.353</v>
       </c>
-      <c r="F7" s="8" t="n">
+      <c r="F7" s="77" t="n">
         <v>0.235</v>
       </c>
-      <c r="G7" s="47" t="n">
-        <v>0.308</v>
-      </c>
-      <c r="H7" s="8" t="n">
+      <c r="G7" s="76" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" s="77" t="n">
         <v>0.176</v>
       </c>
-      <c r="I7" s="8" t="n">
+      <c r="I7" s="77" t="n">
         <v>0.118</v>
       </c>
-      <c r="J7" s="8" t="n">
+      <c r="J7" s="77" t="n">
         <v>0.588</v>
       </c>
-      <c r="K7" s="8" t="n">
+      <c r="K7" s="77" t="n">
         <v>0.235</v>
       </c>
-      <c r="L7" s="48" t="n">
-        <v>0</v>
-      </c>
-      <c r="M7" s="58" t="inlineStr"/>
+      <c r="L7" s="78" t="n">
+        <v>0</v>
+      </c>
+      <c r="M7" s="47" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="24" t="inlineStr">
@@ -6385,40 +7736,40 @@
           <t>Kiernan</t>
         </is>
       </c>
-      <c r="B8" s="46" t="n">
+      <c r="B8" s="75" t="n">
         <v>0.143</v>
       </c>
-      <c r="C8" s="8" t="n">
+      <c r="C8" s="77" t="n">
         <v>0.357</v>
       </c>
-      <c r="D8" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="E8" s="8" t="n">
+      <c r="D8" s="77" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" s="77" t="n">
         <v>0.643</v>
       </c>
-      <c r="F8" s="8" t="n">
+      <c r="F8" s="77" t="n">
         <v>0.357</v>
       </c>
-      <c r="G8" s="8" t="n">
+      <c r="G8" s="77" t="n">
         <v>0.214</v>
       </c>
-      <c r="H8" s="47" t="n">
-        <v>0.167</v>
-      </c>
-      <c r="I8" s="8" t="n">
+      <c r="H8" s="76" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" s="77" t="n">
         <v>0.286</v>
       </c>
-      <c r="J8" s="8" t="n">
+      <c r="J8" s="77" t="n">
         <v>0.07099999999999999</v>
       </c>
-      <c r="K8" s="8" t="n">
+      <c r="K8" s="77" t="n">
         <v>0.357</v>
       </c>
-      <c r="L8" s="48" t="n">
+      <c r="L8" s="78" t="n">
         <v>0.143</v>
       </c>
-      <c r="M8" s="58" t="inlineStr"/>
+      <c r="M8" s="47" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="24" t="inlineStr">
@@ -6426,40 +7777,40 @@
           <t>Quinn</t>
         </is>
       </c>
-      <c r="B9" s="46" t="n">
-        <v>0.133</v>
-      </c>
-      <c r="C9" s="8" t="n">
+      <c r="B9" s="75" t="n">
+        <v>0</v>
+      </c>
+      <c r="C9" s="77" t="n">
         <v>0.25</v>
       </c>
-      <c r="D9" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="E9" s="8" t="n">
+      <c r="D9" s="77" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" s="77" t="n">
         <v>0.75</v>
       </c>
-      <c r="F9" s="8" t="n">
+      <c r="F9" s="77" t="n">
         <v>0.25</v>
       </c>
-      <c r="G9" s="8" t="n">
+      <c r="G9" s="77" t="n">
         <v>0.5</v>
       </c>
-      <c r="H9" s="8" t="n">
+      <c r="H9" s="77" t="n">
         <v>1</v>
       </c>
-      <c r="I9" s="47" t="n">
-        <v>0.267</v>
-      </c>
-      <c r="J9" s="8" t="n">
-        <v>0.067</v>
-      </c>
-      <c r="K9" s="8" t="n">
+      <c r="I9" s="76" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" s="77" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" s="77" t="n">
         <v>0.25</v>
       </c>
-      <c r="L9" s="48" t="n">
-        <v>0.133</v>
-      </c>
-      <c r="M9" s="58" t="inlineStr"/>
+      <c r="L9" s="78" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" s="47" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="24" t="inlineStr">
@@ -6467,40 +7818,40 @@
           <t>Sam G</t>
         </is>
       </c>
-      <c r="B10" s="46" t="n">
+      <c r="B10" s="75" t="n">
         <v>0.412</v>
       </c>
-      <c r="C10" s="8" t="n">
+      <c r="C10" s="77" t="n">
         <v>0.471</v>
       </c>
-      <c r="D10" s="8" t="n">
+      <c r="D10" s="77" t="n">
         <v>0.059</v>
       </c>
-      <c r="E10" s="8" t="n">
+      <c r="E10" s="77" t="n">
         <v>0.176</v>
       </c>
-      <c r="F10" s="8" t="n">
+      <c r="F10" s="77" t="n">
         <v>0.471</v>
       </c>
-      <c r="G10" s="8" t="n">
+      <c r="G10" s="77" t="n">
         <v>0.588</v>
       </c>
-      <c r="H10" s="8" t="n">
+      <c r="H10" s="77" t="n">
         <v>0.059</v>
       </c>
-      <c r="I10" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="J10" s="47" t="n">
-        <v>0</v>
-      </c>
-      <c r="K10" s="8" t="n">
+      <c r="I10" s="77" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" s="76" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" s="77" t="n">
         <v>0.176</v>
       </c>
-      <c r="L10" s="48" t="n">
-        <v>0</v>
-      </c>
-      <c r="M10" s="58" t="inlineStr"/>
+      <c r="L10" s="78" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" s="47" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="24" t="inlineStr">
@@ -6508,84 +7859,84 @@
           <t>Sam S</t>
         </is>
       </c>
-      <c r="B11" s="46" t="n">
+      <c r="B11" s="75" t="n">
         <v>0.1</v>
       </c>
-      <c r="C11" s="8" t="n">
+      <c r="C11" s="77" t="n">
         <v>0.5</v>
       </c>
-      <c r="D11" s="8" t="n">
-        <v>0.059</v>
-      </c>
-      <c r="E11" s="8" t="n">
+      <c r="D11" s="77" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" s="77" t="n">
         <v>0.3</v>
       </c>
-      <c r="F11" s="8" t="n">
+      <c r="F11" s="77" t="n">
         <v>0.4</v>
       </c>
-      <c r="G11" s="8" t="n">
+      <c r="G11" s="77" t="n">
         <v>0.4</v>
       </c>
-      <c r="H11" s="8" t="n">
+      <c r="H11" s="77" t="n">
         <v>0.5</v>
       </c>
-      <c r="I11" s="8" t="n">
+      <c r="I11" s="77" t="n">
         <v>0.1</v>
       </c>
-      <c r="J11" s="8" t="n">
+      <c r="J11" s="77" t="n">
         <v>0.3</v>
       </c>
-      <c r="K11" s="47" t="n">
-        <v>0.176</v>
-      </c>
-      <c r="L11" s="48" t="n">
+      <c r="K11" s="76" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" s="78" t="n">
         <v>0.1</v>
       </c>
-      <c r="M11" s="58" t="inlineStr"/>
+      <c r="M11" s="47" t="inlineStr"/>
     </row>
     <row r="12">
-      <c r="A12" s="41" t="inlineStr">
+      <c r="A12" s="40" t="inlineStr">
         <is>
           <t>Tighe</t>
         </is>
       </c>
-      <c r="B12" s="49" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="C12" s="50" t="n">
+      <c r="B12" s="79" t="n">
+        <v>0</v>
+      </c>
+      <c r="C12" s="80" t="n">
         <v>0.5</v>
       </c>
-      <c r="D12" s="50" t="n">
-        <v>0</v>
-      </c>
-      <c r="E12" s="50" t="n">
+      <c r="D12" s="80" t="n">
+        <v>0</v>
+      </c>
+      <c r="E12" s="80" t="n">
         <v>0.5</v>
       </c>
-      <c r="F12" s="50" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="G12" s="50" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="H12" s="50" t="n">
+      <c r="F12" s="80" t="n">
+        <v>0</v>
+      </c>
+      <c r="G12" s="80" t="n">
+        <v>0</v>
+      </c>
+      <c r="H12" s="80" t="n">
         <v>1</v>
       </c>
-      <c r="I12" s="50" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="J12" s="50" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="K12" s="50" t="n">
+      <c r="I12" s="80" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" s="80" t="n">
+        <v>0</v>
+      </c>
+      <c r="K12" s="80" t="n">
         <v>0.5</v>
       </c>
-      <c r="L12" s="51" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="M12" s="58" t="inlineStr"/>
+      <c r="L12" s="81" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" s="47" t="inlineStr"/>
     </row>
     <row r="13">
-      <c r="A13" s="42" t="inlineStr">
+      <c r="A13" s="41" t="inlineStr">
         <is>
           <t>Player A</t>
         </is>
@@ -6601,22 +7952,6 @@
       <c r="J13" s="26" t="inlineStr"/>
       <c r="K13" s="26" t="inlineStr"/>
       <c r="L13" s="26" t="inlineStr"/>
-      <c r="M13" t="inlineStr"/>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr"/>
-      <c r="B14" t="inlineStr"/>
-      <c r="C14" t="inlineStr"/>
-      <c r="D14" t="inlineStr"/>
-      <c r="E14" t="inlineStr"/>
-      <c r="F14" t="inlineStr"/>
-      <c r="G14" t="inlineStr"/>
-      <c r="H14" t="inlineStr"/>
-      <c r="I14" t="inlineStr"/>
-      <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
-      <c r="M14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -6624,18 +7959,6 @@
           <t>Frequency of Players A and B being on the same team (As a percentage of days that Player A has played)</t>
         </is>
       </c>
-      <c r="B15" t="inlineStr"/>
-      <c r="C15" t="inlineStr"/>
-      <c r="D15" t="inlineStr"/>
-      <c r="E15" t="inlineStr"/>
-      <c r="F15" t="inlineStr"/>
-      <c r="G15" t="inlineStr"/>
-      <c r="H15" t="inlineStr"/>
-      <c r="I15" t="inlineStr"/>
-      <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
-      <c r="M15" t="inlineStr"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="B3:B12 C2:L2">
@@ -6735,114 +8058,114 @@
   <dimension ref="A1:AA29"/>
   <sheetViews>
     <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="V7" sqref="V7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16"/>
   <cols>
-    <col width="11.33203125" customWidth="1" style="70" min="1" max="1"/>
-    <col width="13.1640625" customWidth="1" style="70" min="2" max="17"/>
-    <col width="9.83203125" customWidth="1" style="70" min="18" max="19"/>
-    <col width="11.33203125" customWidth="1" style="70" min="20" max="20"/>
+    <col width="11.33203125" customWidth="1" style="71" min="1" max="1"/>
+    <col width="13.1640625" customWidth="1" style="71" min="2" max="17"/>
+    <col width="9.83203125" customWidth="1" style="71" min="18" max="19"/>
+    <col width="11.33203125" customWidth="1" style="71" min="20" max="20"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="40" t="inlineStr">
+      <c r="A1" s="82" t="inlineStr">
         <is>
           <t>Name</t>
         </is>
       </c>
-      <c r="B1" s="40" t="inlineStr">
+      <c r="B1" s="82" t="inlineStr">
         <is>
           <t>Days Record</t>
         </is>
       </c>
-      <c r="C1" s="40" t="inlineStr">
+      <c r="C1" s="82" t="inlineStr">
         <is>
           <t>Days Pct</t>
         </is>
       </c>
-      <c r="D1" s="40" t="inlineStr">
+      <c r="D1" s="82" t="inlineStr">
         <is>
           <t>Games Record</t>
         </is>
       </c>
-      <c r="E1" s="40" t="inlineStr">
+      <c r="E1" s="82" t="inlineStr">
         <is>
           <t>Games Pct</t>
         </is>
       </c>
-      <c r="F1" s="40" t="inlineStr">
+      <c r="F1" s="82" t="inlineStr">
         <is>
           <t>PK's Record</t>
         </is>
       </c>
-      <c r="G1" s="40" t="inlineStr">
+      <c r="G1" s="82" t="inlineStr">
         <is>
           <t>PK's Pct</t>
         </is>
       </c>
-      <c r="H1" s="40" t="inlineStr">
+      <c r="H1" s="82" t="inlineStr">
         <is>
           <t>Cross Record</t>
         </is>
       </c>
-      <c r="I1" s="40" t="inlineStr">
+      <c r="I1" s="82" t="inlineStr">
         <is>
           <t>Cross Pct</t>
         </is>
       </c>
-      <c r="J1" s="40" t="inlineStr">
+      <c r="J1" s="82" t="inlineStr">
         <is>
           <t>A/D Record</t>
         </is>
       </c>
-      <c r="K1" s="40" t="inlineStr">
+      <c r="K1" s="82" t="inlineStr">
         <is>
           <t>A/D Pct</t>
         </is>
       </c>
-      <c r="L1" s="40" t="inlineStr">
+      <c r="L1" s="82" t="inlineStr">
         <is>
           <t>P&amp;F Record</t>
         </is>
       </c>
-      <c r="M1" s="40" t="inlineStr">
+      <c r="M1" s="82" t="inlineStr">
         <is>
           <t>P&amp;F Pct</t>
         </is>
       </c>
-      <c r="N1" s="40" t="inlineStr">
+      <c r="N1" s="82" t="inlineStr">
         <is>
           <t>SS Record</t>
         </is>
       </c>
-      <c r="O1" s="40" t="inlineStr">
+      <c r="O1" s="82" t="inlineStr">
         <is>
           <t>SS Pct</t>
         </is>
       </c>
-      <c r="P1" s="40" t="inlineStr">
+      <c r="P1" s="82" t="inlineStr">
         <is>
           <t>FK's Record</t>
         </is>
       </c>
-      <c r="Q1" s="40" t="inlineStr">
+      <c r="Q1" s="82" t="inlineStr">
         <is>
           <t>FK's Pct</t>
         </is>
       </c>
-      <c r="R1" s="40" t="inlineStr">
+      <c r="R1" s="82" t="inlineStr">
         <is>
           <t>MVP</t>
         </is>
       </c>
-      <c r="S1" s="40" t="inlineStr">
+      <c r="S1" s="82" t="inlineStr">
         <is>
           <t>Clown</t>
         </is>
       </c>
-      <c r="T1" s="40" t="inlineStr">
+      <c r="T1" s="82" t="inlineStr">
         <is>
           <t>(Name)</t>
         </is>
@@ -6872,7 +8195,7 @@
           <t>16-19</t>
         </is>
       </c>
-      <c r="E2" s="29" t="n">
+      <c r="E2" s="32" t="n">
         <v>0.4571</v>
       </c>
       <c r="F2" s="1" t="inlineStr">
@@ -6935,7 +8258,7 @@
         </is>
       </c>
       <c r="U2" s="14" t="n"/>
-      <c r="V2" s="69" t="n">
+      <c r="V2" s="70" t="n">
         <v>2024</v>
       </c>
     </row>
@@ -6947,59 +8270,59 @@
       </c>
       <c r="B3" s="1" t="inlineStr">
         <is>
-          <t>9-7</t>
+          <t>8-7</t>
         </is>
       </c>
       <c r="C3" s="29" t="n">
-        <v>0.5625</v>
+        <v>0.5333</v>
       </c>
       <c r="D3" s="1" t="inlineStr">
         <is>
-          <t>37-35</t>
+          <t>33-33</t>
         </is>
       </c>
       <c r="E3" s="32" t="n">
-        <v>0.5139</v>
+        <v>0.5</v>
       </c>
       <c r="F3" s="1" t="inlineStr">
         <is>
-          <t>32-23</t>
+          <t>29-21</t>
         </is>
       </c>
       <c r="G3" s="32" t="n">
-        <v>0.5818</v>
+        <v>0.58</v>
       </c>
       <c r="H3" s="1" t="inlineStr">
         <is>
-          <t>37-33</t>
+          <t>34-33</t>
         </is>
       </c>
       <c r="I3" s="32" t="n">
-        <v>0.5286</v>
+        <v>0.5075</v>
       </c>
       <c r="J3" s="1" t="inlineStr">
         <is>
-          <t>4-8</t>
+          <t>3-8</t>
         </is>
       </c>
       <c r="K3" s="32" t="n">
-        <v>0.3333</v>
+        <v>0.2727</v>
       </c>
       <c r="L3" s="1" t="inlineStr">
         <is>
-          <t>8-6</t>
+          <t>8-5</t>
         </is>
       </c>
       <c r="M3" s="32" t="n">
-        <v>0.5714</v>
+        <v>0.6153999999999999</v>
       </c>
       <c r="N3" s="1" t="inlineStr">
         <is>
-          <t>1-2</t>
+          <t>0-1</t>
         </is>
       </c>
       <c r="O3" s="32" t="n">
-        <v>0.3333</v>
+        <v>0</v>
       </c>
       <c r="P3" s="1" t="inlineStr">
         <is>
@@ -7041,7 +8364,7 @@
           <t>1-2</t>
         </is>
       </c>
-      <c r="E4" s="32" t="n">
+      <c r="E4" s="29" t="n">
         <v>0.3333</v>
       </c>
       <c r="F4" s="1" t="inlineStr">
@@ -7113,59 +8436,59 @@
       </c>
       <c r="B5" s="1" t="inlineStr">
         <is>
-          <t>6-8</t>
+          <t>6-7</t>
         </is>
       </c>
       <c r="C5" s="29" t="n">
-        <v>0.4286</v>
+        <v>0.4615</v>
       </c>
       <c r="D5" s="1" t="inlineStr">
         <is>
-          <t>30-35</t>
+          <t>28-31</t>
         </is>
       </c>
       <c r="E5" s="32" t="n">
-        <v>0.4615</v>
+        <v>0.4746</v>
       </c>
       <c r="F5" s="1" t="inlineStr">
         <is>
-          <t>21-28</t>
+          <t>19-25</t>
         </is>
       </c>
       <c r="G5" s="32" t="n">
-        <v>0.4286</v>
+        <v>0.4318</v>
       </c>
       <c r="H5" s="1" t="inlineStr">
         <is>
-          <t>30-34</t>
+          <t>30-31</t>
         </is>
       </c>
       <c r="I5" s="32" t="n">
-        <v>0.4688</v>
+        <v>0.4918</v>
       </c>
       <c r="J5" s="1" t="inlineStr">
         <is>
-          <t>8-3</t>
+          <t>8-2</t>
         </is>
       </c>
       <c r="K5" s="32" t="n">
-        <v>0.7272999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="L5" s="1" t="inlineStr">
         <is>
-          <t>7-5</t>
+          <t>6-5</t>
         </is>
       </c>
       <c r="M5" s="32" t="n">
-        <v>0.5833</v>
+        <v>0.5455</v>
       </c>
       <c r="N5" s="1" t="inlineStr">
         <is>
-          <t>2-1</t>
+          <t>1-0</t>
         </is>
       </c>
       <c r="O5" s="32" t="n">
-        <v>0.6667</v>
+        <v>1</v>
       </c>
       <c r="P5" s="1" t="inlineStr">
         <is>
@@ -7196,59 +8519,59 @@
       </c>
       <c r="B6" s="1" t="inlineStr">
         <is>
-          <t>5-8</t>
+          <t>4-8</t>
         </is>
       </c>
       <c r="C6" s="29" t="n">
-        <v>0.3846</v>
+        <v>0.3333</v>
       </c>
       <c r="D6" s="1" t="inlineStr">
         <is>
-          <t>27-32</t>
+          <t>23-30</t>
         </is>
       </c>
       <c r="E6" s="32" t="n">
-        <v>0.4576</v>
+        <v>0.434</v>
       </c>
       <c r="F6" s="1" t="inlineStr">
         <is>
-          <t>23-20</t>
+          <t>20-18</t>
         </is>
       </c>
       <c r="G6" s="32" t="n">
-        <v>0.5349</v>
+        <v>0.5263</v>
       </c>
       <c r="H6" s="1" t="inlineStr">
         <is>
-          <t>27-25</t>
+          <t>24-25</t>
         </is>
       </c>
       <c r="I6" s="32" t="n">
-        <v>0.5192</v>
+        <v>0.4898</v>
       </c>
       <c r="J6" s="1" t="inlineStr">
         <is>
-          <t>5-6</t>
+          <t>4-6</t>
         </is>
       </c>
       <c r="K6" s="32" t="n">
-        <v>0.4545</v>
+        <v>0.4</v>
       </c>
       <c r="L6" s="1" t="inlineStr">
         <is>
-          <t>3-9</t>
+          <t>3-8</t>
         </is>
       </c>
       <c r="M6" s="32" t="n">
-        <v>0.25</v>
+        <v>0.2727</v>
       </c>
       <c r="N6" s="1" t="inlineStr">
         <is>
-          <t>1-2</t>
+          <t>0-1</t>
         </is>
       </c>
       <c r="O6" s="32" t="n">
-        <v>0.3333</v>
+        <v>0</v>
       </c>
       <c r="P6" s="1" t="inlineStr">
         <is>
@@ -7272,73 +8595,73 @@
       <c r="U6" s="14" t="n"/>
     </row>
     <row r="7">
-      <c r="A7" s="11" t="inlineStr">
+      <c r="A7" s="48" t="inlineStr">
         <is>
           <t>Jacob</t>
         </is>
       </c>
       <c r="B7" s="1" t="inlineStr">
         <is>
-          <t>8-8</t>
-        </is>
-      </c>
-      <c r="C7" s="29" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="D7" s="1" t="inlineStr">
-        <is>
-          <t>39-33</t>
-        </is>
-      </c>
-      <c r="E7" s="32" t="n">
-        <v>0.5417</v>
-      </c>
-      <c r="F7" s="1" t="inlineStr">
-        <is>
-          <t>29-26</t>
-        </is>
-      </c>
-      <c r="G7" s="32" t="n">
-        <v>0.5273</v>
-      </c>
-      <c r="H7" s="1" t="inlineStr">
-        <is>
-          <t>34-36</t>
-        </is>
-      </c>
-      <c r="I7" s="32" t="n">
-        <v>0.4857</v>
-      </c>
-      <c r="J7" s="1" t="inlineStr">
-        <is>
-          <t>6-6</t>
-        </is>
-      </c>
-      <c r="K7" s="32" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="L7" s="1" t="inlineStr">
-        <is>
-          <t>6-8</t>
-        </is>
-      </c>
-      <c r="M7" s="32" t="n">
-        <v>0.4286</v>
-      </c>
-      <c r="N7" s="1" t="inlineStr">
-        <is>
-          <t>2-1</t>
-        </is>
-      </c>
-      <c r="O7" s="32" t="n">
-        <v>0.6667</v>
-      </c>
-      <c r="P7" s="1" t="inlineStr">
+          <t>7-8</t>
+        </is>
+      </c>
+      <c r="C7" s="30" t="n">
+        <v>0.4667</v>
+      </c>
+      <c r="D7" s="26" t="inlineStr">
+        <is>
+          <t>35-31</t>
+        </is>
+      </c>
+      <c r="E7" s="30" t="n">
+        <v>0.5303</v>
+      </c>
+      <c r="F7" s="26" t="inlineStr">
+        <is>
+          <t>26-24</t>
+        </is>
+      </c>
+      <c r="G7" s="30" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="H7" s="26" t="inlineStr">
+        <is>
+          <t>31-36</t>
+        </is>
+      </c>
+      <c r="I7" s="30" t="n">
+        <v>0.4627</v>
+      </c>
+      <c r="J7" s="26" t="inlineStr">
+        <is>
+          <t>5-6</t>
+        </is>
+      </c>
+      <c r="K7" s="30" t="n">
+        <v>0.4545</v>
+      </c>
+      <c r="L7" s="26" t="inlineStr">
+        <is>
+          <t>6-7</t>
+        </is>
+      </c>
+      <c r="M7" s="30" t="n">
+        <v>0.4615</v>
+      </c>
+      <c r="N7" s="26" t="inlineStr">
+        <is>
+          <t>1-0</t>
+        </is>
+      </c>
+      <c r="O7" s="30" t="n">
+        <v>1</v>
+      </c>
+      <c r="P7" s="26" t="inlineStr">
         <is>
           <t>4-0</t>
         </is>
       </c>
-      <c r="Q7" s="29" t="n">
+      <c r="Q7" s="30" t="n">
         <v>1</v>
       </c>
       <c r="R7" s="35" t="n">
@@ -7347,7 +8670,7 @@
       <c r="S7" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="T7" s="17" t="inlineStr">
+      <c r="T7" s="27" t="inlineStr">
         <is>
           <t>Jacob</t>
         </is>
@@ -7362,59 +8685,59 @@
       </c>
       <c r="B8" s="1" t="inlineStr">
         <is>
-          <t>5-8</t>
+          <t>5-7</t>
         </is>
       </c>
       <c r="C8" s="29" t="n">
-        <v>0.3846</v>
+        <v>0.4167</v>
       </c>
       <c r="D8" s="1" t="inlineStr">
         <is>
-          <t>26-35</t>
+          <t>24-31</t>
         </is>
       </c>
       <c r="E8" s="32" t="n">
-        <v>0.4262</v>
+        <v>0.4364</v>
       </c>
       <c r="F8" s="1" t="inlineStr">
         <is>
-          <t>15-30</t>
+          <t>13-27</t>
         </is>
       </c>
       <c r="G8" s="32" t="n">
-        <v>0.3333</v>
+        <v>0.325</v>
       </c>
       <c r="H8" s="1" t="inlineStr">
         <is>
-          <t>28-29</t>
+          <t>28-26</t>
         </is>
       </c>
       <c r="I8" s="32" t="n">
-        <v>0.4912</v>
+        <v>0.5185</v>
       </c>
       <c r="J8" s="1" t="inlineStr">
         <is>
-          <t>6-4</t>
+          <t>6-3</t>
         </is>
       </c>
       <c r="K8" s="32" t="n">
-        <v>0.6</v>
+        <v>0.6667</v>
       </c>
       <c r="L8" s="1" t="inlineStr">
         <is>
-          <t>6-6</t>
+          <t>5-6</t>
         </is>
       </c>
       <c r="M8" s="32" t="n">
-        <v>0.5</v>
+        <v>0.4545</v>
       </c>
       <c r="N8" s="1" t="inlineStr">
         <is>
-          <t>2-1</t>
+          <t>1-0</t>
         </is>
       </c>
       <c r="O8" s="32" t="n">
-        <v>0.6667</v>
+        <v>1</v>
       </c>
       <c r="P8" s="1" t="inlineStr">
         <is>
@@ -7456,7 +8779,7 @@
           <t>8-10</t>
         </is>
       </c>
-      <c r="E9" s="32" t="n">
+      <c r="E9" s="29" t="n">
         <v>0.4444</v>
       </c>
       <c r="F9" s="1" t="inlineStr">
@@ -7464,7 +8787,7 @@
           <t>3-8</t>
         </is>
       </c>
-      <c r="G9" s="32" t="n">
+      <c r="G9" s="29" t="n">
         <v>0.2727</v>
       </c>
       <c r="H9" s="1" t="inlineStr">
@@ -7472,7 +8795,7 @@
           <t>7-9</t>
         </is>
       </c>
-      <c r="I9" s="32" t="n">
+      <c r="I9" s="29" t="n">
         <v>0.4375</v>
       </c>
       <c r="J9" s="1" t="inlineStr">
@@ -7480,7 +8803,7 @@
           <t>2-1</t>
         </is>
       </c>
-      <c r="K9" s="32" t="n">
+      <c r="K9" s="29" t="n">
         <v>0.6667</v>
       </c>
       <c r="L9" s="1" t="inlineStr">
@@ -7488,7 +8811,7 @@
           <t>0-3</t>
         </is>
       </c>
-      <c r="M9" s="32" t="n">
+      <c r="M9" s="29" t="n">
         <v>0</v>
       </c>
       <c r="N9" s="1" t="inlineStr">
@@ -7496,7 +8819,7 @@
           <t>1-0</t>
         </is>
       </c>
-      <c r="O9" s="32" t="n">
+      <c r="O9" s="29" t="n">
         <v>1</v>
       </c>
       <c r="P9" s="1" t="inlineStr">
@@ -7513,7 +8836,7 @@
       <c r="S9" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="T9" s="17" t="inlineStr">
+      <c r="T9" s="66" t="inlineStr">
         <is>
           <t>Quinn</t>
         </is>
@@ -7528,59 +8851,59 @@
       </c>
       <c r="B10" s="1" t="inlineStr">
         <is>
-          <t>11-5</t>
+          <t>10-5</t>
         </is>
       </c>
       <c r="C10" s="29" t="n">
-        <v>0.6875</v>
+        <v>0.6667</v>
       </c>
       <c r="D10" s="1" t="inlineStr">
         <is>
-          <t>42-30</t>
+          <t>38-28</t>
         </is>
       </c>
       <c r="E10" s="32" t="n">
-        <v>0.5833</v>
+        <v>0.5758</v>
       </c>
       <c r="F10" s="1" t="inlineStr">
         <is>
-          <t>35-20</t>
+          <t>32-18</t>
         </is>
       </c>
       <c r="G10" s="32" t="n">
-        <v>0.6364</v>
+        <v>0.64</v>
       </c>
       <c r="H10" s="1" t="inlineStr">
         <is>
-          <t>33-37</t>
+          <t>30-37</t>
         </is>
       </c>
       <c r="I10" s="32" t="n">
-        <v>0.4714</v>
+        <v>0.4478</v>
       </c>
       <c r="J10" s="1" t="inlineStr">
         <is>
-          <t>6-6</t>
+          <t>5-6</t>
         </is>
       </c>
       <c r="K10" s="32" t="n">
-        <v>0.5</v>
+        <v>0.4545</v>
       </c>
       <c r="L10" s="1" t="inlineStr">
         <is>
-          <t>8-6</t>
+          <t>8-5</t>
         </is>
       </c>
       <c r="M10" s="32" t="n">
-        <v>0.5714</v>
+        <v>0.6153999999999999</v>
       </c>
       <c r="N10" s="1" t="inlineStr">
         <is>
-          <t>1-2</t>
+          <t>0-1</t>
         </is>
       </c>
       <c r="O10" s="32" t="n">
-        <v>0.3333</v>
+        <v>0</v>
       </c>
       <c r="P10" s="1" t="inlineStr">
         <is>
@@ -7591,7 +8914,7 @@
         <v>0.5</v>
       </c>
       <c r="R10" s="35" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="S10" s="15" t="n">
         <v>0</v>
@@ -7604,80 +8927,1368 @@
       <c r="U10" s="14" t="n"/>
     </row>
     <row r="11">
-      <c r="A11" s="59" t="inlineStr">
+      <c r="A11" s="11" t="inlineStr">
         <is>
           <t>Sam S</t>
         </is>
       </c>
       <c r="B11" s="1" t="inlineStr">
         <is>
-          <t>4-5</t>
-        </is>
-      </c>
-      <c r="C11" s="30" t="n">
-        <v>0.4444</v>
-      </c>
-      <c r="D11" s="26" t="inlineStr">
-        <is>
-          <t>19-21</t>
-        </is>
-      </c>
-      <c r="E11" s="30" t="n">
-        <v>0.475</v>
-      </c>
-      <c r="F11" s="26" t="inlineStr">
-        <is>
-          <t>16-19</t>
-        </is>
-      </c>
-      <c r="G11" s="30" t="n">
-        <v>0.4571</v>
-      </c>
-      <c r="H11" s="26" t="inlineStr">
-        <is>
-          <t>27-15</t>
-        </is>
-      </c>
-      <c r="I11" s="30" t="n">
-        <v>0.6429</v>
-      </c>
-      <c r="J11" s="26" t="inlineStr">
-        <is>
-          <t>0-7</t>
-        </is>
-      </c>
-      <c r="K11" s="30" t="n">
-        <v>0</v>
-      </c>
-      <c r="L11" s="26" t="inlineStr">
-        <is>
-          <t>2-4</t>
-        </is>
-      </c>
-      <c r="M11" s="30" t="n">
-        <v>0.3333</v>
-      </c>
-      <c r="N11" s="26" t="inlineStr">
-        <is>
-          <t>1-1</t>
-        </is>
-      </c>
-      <c r="O11" s="30" t="n">
+          <t>4-4</t>
+        </is>
+      </c>
+      <c r="C11" s="29" t="n">
         <v>0.5</v>
       </c>
-      <c r="P11" s="26" t="inlineStr">
+      <c r="D11" s="1" t="inlineStr">
+        <is>
+          <t>17-17</t>
+        </is>
+      </c>
+      <c r="E11" s="32" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F11" s="1" t="inlineStr">
+        <is>
+          <t>14-16</t>
+        </is>
+      </c>
+      <c r="G11" s="32" t="n">
+        <v>0.4667</v>
+      </c>
+      <c r="H11" s="1" t="inlineStr">
+        <is>
+          <t>27-12</t>
+        </is>
+      </c>
+      <c r="I11" s="32" t="n">
+        <v>0.6923</v>
+      </c>
+      <c r="J11" s="1" t="inlineStr">
+        <is>
+          <t>0-6</t>
+        </is>
+      </c>
+      <c r="K11" s="32" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" s="1" t="inlineStr">
+        <is>
+          <t>1-4</t>
+        </is>
+      </c>
+      <c r="M11" s="32" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="N11" s="1" t="inlineStr">
+        <is>
+          <t>0-0</t>
+        </is>
+      </c>
+      <c r="O11" s="32" t="n">
+        <v>0</v>
+      </c>
+      <c r="P11" s="1" t="inlineStr">
         <is>
           <t>1-0</t>
         </is>
       </c>
-      <c r="Q11" s="30" t="n">
+      <c r="Q11" s="29" t="n">
         <v>1</v>
       </c>
       <c r="R11" s="35" t="n">
         <v>1</v>
       </c>
       <c r="S11" s="1" t="n">
-        <v>3</v>
+        <v>2</v>
+      </c>
+      <c r="T11" s="17" t="inlineStr">
+        <is>
+          <t>Sam S</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="49" t="inlineStr">
+        <is>
+          <t>Tighe</t>
+        </is>
+      </c>
+      <c r="B12" s="9" t="inlineStr">
+        <is>
+          <t>1-0</t>
+        </is>
+      </c>
+      <c r="C12" s="31" t="n">
+        <v>1</v>
+      </c>
+      <c r="D12" s="9" t="inlineStr">
+        <is>
+          <t>3-2</t>
+        </is>
+      </c>
+      <c r="E12" s="64" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="F12" s="9" t="inlineStr">
+        <is>
+          <t>1-2</t>
+        </is>
+      </c>
+      <c r="G12" s="64" t="n">
+        <v>0.3333</v>
+      </c>
+      <c r="H12" s="9" t="inlineStr">
+        <is>
+          <t>2-0</t>
+        </is>
+      </c>
+      <c r="I12" s="64" t="n">
+        <v>1</v>
+      </c>
+      <c r="J12" s="9" t="inlineStr">
+        <is>
+          <t>1-0</t>
+        </is>
+      </c>
+      <c r="K12" s="64" t="n">
+        <v>1</v>
+      </c>
+      <c r="L12" s="9" t="inlineStr">
+        <is>
+          <t>1-1</t>
+        </is>
+      </c>
+      <c r="M12" s="64" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="N12" s="9" t="inlineStr">
+        <is>
+          <t>0-0</t>
+        </is>
+      </c>
+      <c r="O12" s="64" t="n">
+        <v>0</v>
+      </c>
+      <c r="P12" s="9" t="inlineStr">
+        <is>
+          <t>0-0</t>
+        </is>
+      </c>
+      <c r="Q12" s="31" t="n">
+        <v>0</v>
+      </c>
+      <c r="R12" s="36" t="n">
+        <v>0</v>
+      </c>
+      <c r="S12" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="T12" s="65" t="inlineStr">
+        <is>
+          <t>Tighe</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n"/>
+      <c r="C13" s="8" t="n"/>
+      <c r="D13" s="8" t="n"/>
+      <c r="E13" s="8" t="n"/>
+      <c r="F13" s="8" t="n"/>
+      <c r="G13" s="8" t="n"/>
+      <c r="H13" s="8" t="n"/>
+      <c r="I13" s="8" t="n"/>
+      <c r="J13" s="8" t="n"/>
+      <c r="K13" s="8" t="n"/>
+      <c r="L13" s="8" t="n"/>
+      <c r="M13" s="8" t="n"/>
+      <c r="N13" s="8" t="n"/>
+      <c r="O13" s="8" t="n"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n"/>
+      <c r="C14" s="8" t="n"/>
+      <c r="E14" s="8" t="n"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n"/>
+      <c r="C15" s="8" t="n"/>
+      <c r="E15" s="8" t="n"/>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n"/>
+      <c r="C16" s="8" t="n"/>
+      <c r="E16" s="8" t="n"/>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n"/>
+      <c r="C17" s="8" t="n"/>
+      <c r="E17" s="8" t="n"/>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n"/>
+      <c r="C18" s="8" t="n"/>
+      <c r="E18" s="8" t="n"/>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n"/>
+      <c r="C19" s="8" t="n"/>
+      <c r="E19" s="8" t="n"/>
+      <c r="X19" s="2" t="n"/>
+      <c r="Y19" s="32" t="n"/>
+      <c r="Z19" s="29" t="n"/>
+      <c r="AA19" s="1" t="n"/>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n"/>
+      <c r="C20" s="8" t="n"/>
+      <c r="E20" s="8" t="n"/>
+      <c r="X20" s="2" t="n"/>
+      <c r="Y20" s="32" t="n"/>
+      <c r="Z20" s="29" t="n"/>
+      <c r="AA20" s="1" t="n"/>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n"/>
+      <c r="C21" s="8" t="n"/>
+      <c r="E21" s="8" t="n"/>
+      <c r="X21" s="2" t="n"/>
+      <c r="Y21" s="32" t="n"/>
+      <c r="Z21" s="29" t="n"/>
+      <c r="AA21" s="1" t="n"/>
+    </row>
+    <row r="22">
+      <c r="X22" s="2" t="n"/>
+      <c r="Y22" s="32" t="n"/>
+      <c r="Z22" s="29" t="n"/>
+      <c r="AA22" s="1" t="n"/>
+    </row>
+    <row r="23">
+      <c r="X23" s="2" t="n"/>
+      <c r="Y23" s="32" t="n"/>
+      <c r="Z23" s="29" t="n"/>
+      <c r="AA23" s="1" t="n"/>
+    </row>
+    <row r="24">
+      <c r="X24" s="2" t="n"/>
+      <c r="Y24" s="32" t="n"/>
+      <c r="Z24" s="29" t="n"/>
+      <c r="AA24" s="1" t="n"/>
+    </row>
+    <row r="25">
+      <c r="X25" s="33" t="n"/>
+      <c r="Y25" s="30" t="n"/>
+      <c r="Z25" s="29" t="n"/>
+      <c r="AA25" s="1" t="n"/>
+    </row>
+    <row r="26">
+      <c r="X26" s="2" t="n"/>
+      <c r="Y26" s="30" t="n"/>
+      <c r="Z26" s="29" t="n"/>
+      <c r="AA26" s="1" t="n"/>
+    </row>
+    <row r="27">
+      <c r="Z27" s="29" t="n"/>
+      <c r="AA27" s="1" t="n"/>
+    </row>
+    <row r="28">
+      <c r="Z28" s="30" t="n"/>
+      <c r="AA28" s="26" t="n"/>
+    </row>
+    <row r="29">
+      <c r="X29" s="2" t="n"/>
+      <c r="Y29" s="29" t="n"/>
+      <c r="Z29" s="29" t="n"/>
+      <c r="AA29" s="1" t="n"/>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:T11">
+    <sortState ref="A2:T12">
+      <sortCondition descending="1" ref="G1:G12"/>
+    </sortState>
+  </autoFilter>
+  <mergeCells count="1">
+    <mergeCell ref="V2:X4"/>
+  </mergeCells>
+  <conditionalFormatting sqref="C2:C12">
+    <cfRule type="colorScale" priority="8">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E12">
+    <cfRule type="colorScale" priority="7">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G2:G12">
+    <cfRule type="colorScale" priority="6">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I2:I12">
+    <cfRule type="colorScale" priority="5">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K2:K12">
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M2:M12">
+    <cfRule type="colorScale" priority="3">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O2:O12">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q2:Q12">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R2:R12">
+    <cfRule type="colorScale" priority="9">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S2:S12">
+    <cfRule type="colorScale" priority="10">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="landscape" scale="0" fitToHeight="0" fitToWidth="0" firstPageNumber="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:AA29"/>
+  <sheetViews>
+    <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="V8" sqref="V8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16"/>
+  <cols>
+    <col width="11.33203125" customWidth="1" style="71" min="1" max="1"/>
+    <col width="13.1640625" customWidth="1" style="71" min="2" max="17"/>
+    <col width="9.83203125" customWidth="1" style="71" min="18" max="19"/>
+    <col width="11.33203125" customWidth="1" style="71" min="20" max="20"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="82" t="inlineStr">
+        <is>
+          <t>Name</t>
+        </is>
+      </c>
+      <c r="B1" s="82" t="inlineStr">
+        <is>
+          <t>Days Record</t>
+        </is>
+      </c>
+      <c r="C1" s="82" t="inlineStr">
+        <is>
+          <t>Days Pct</t>
+        </is>
+      </c>
+      <c r="D1" s="82" t="inlineStr">
+        <is>
+          <t>Games Record</t>
+        </is>
+      </c>
+      <c r="E1" s="82" t="inlineStr">
+        <is>
+          <t>Games Pct</t>
+        </is>
+      </c>
+      <c r="F1" s="82" t="inlineStr">
+        <is>
+          <t>PK's Record</t>
+        </is>
+      </c>
+      <c r="G1" s="82" t="inlineStr">
+        <is>
+          <t>PK's Pct</t>
+        </is>
+      </c>
+      <c r="H1" s="82" t="inlineStr">
+        <is>
+          <t>Cross Record</t>
+        </is>
+      </c>
+      <c r="I1" s="82" t="inlineStr">
+        <is>
+          <t>Cross Pct</t>
+        </is>
+      </c>
+      <c r="J1" s="82" t="inlineStr">
+        <is>
+          <t>A/D Record</t>
+        </is>
+      </c>
+      <c r="K1" s="82" t="inlineStr">
+        <is>
+          <t>A/D Pct</t>
+        </is>
+      </c>
+      <c r="L1" s="82" t="inlineStr">
+        <is>
+          <t>P&amp;F Record</t>
+        </is>
+      </c>
+      <c r="M1" s="82" t="inlineStr">
+        <is>
+          <t>P&amp;F Pct</t>
+        </is>
+      </c>
+      <c r="N1" s="82" t="inlineStr">
+        <is>
+          <t>SS Record</t>
+        </is>
+      </c>
+      <c r="O1" s="82" t="inlineStr">
+        <is>
+          <t>SS Pct</t>
+        </is>
+      </c>
+      <c r="P1" s="82" t="inlineStr">
+        <is>
+          <t>FK's Record</t>
+        </is>
+      </c>
+      <c r="Q1" s="82" t="inlineStr">
+        <is>
+          <t>FK's Pct</t>
+        </is>
+      </c>
+      <c r="R1" s="82" t="inlineStr">
+        <is>
+          <t>MVP</t>
+        </is>
+      </c>
+      <c r="S1" s="82" t="inlineStr">
+        <is>
+          <t>Clown</t>
+        </is>
+      </c>
+      <c r="T1" s="82" t="inlineStr">
+        <is>
+          <t>(Name)</t>
+        </is>
+      </c>
+      <c r="U1" s="13" t="n"/>
+      <c r="V1" s="12" t="n"/>
+      <c r="W1" s="12" t="n"/>
+      <c r="X1" s="12" t="n"/>
+      <c r="Y1" s="34" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="10" t="inlineStr">
+        <is>
+          <t>Aaron</t>
+        </is>
+      </c>
+      <c r="B2" s="1" t="inlineStr">
+        <is>
+          <t>0-1</t>
+        </is>
+      </c>
+      <c r="C2" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" s="1" t="inlineStr">
+        <is>
+          <t>1-3</t>
+        </is>
+      </c>
+      <c r="E2" s="29" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="F2" s="1" t="inlineStr">
+        <is>
+          <t>0-2</t>
+        </is>
+      </c>
+      <c r="G2" s="32" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" s="1" t="inlineStr">
+        <is>
+          <t>3-2</t>
+        </is>
+      </c>
+      <c r="I2" s="32" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="J2" s="1" t="inlineStr">
+        <is>
+          <t>0-1</t>
+        </is>
+      </c>
+      <c r="K2" s="32" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" s="1" t="inlineStr">
+        <is>
+          <t>0-1</t>
+        </is>
+      </c>
+      <c r="M2" s="32" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" s="1" t="inlineStr">
+        <is>
+          <t>0-0</t>
+        </is>
+      </c>
+      <c r="O2" s="32" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" s="1" t="inlineStr">
+        <is>
+          <t>0-0</t>
+        </is>
+      </c>
+      <c r="Q2" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="R2" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="S2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T2" s="16" t="inlineStr">
+        <is>
+          <t>Aaron</t>
+        </is>
+      </c>
+      <c r="U2" s="14" t="n"/>
+      <c r="V2" s="70" t="n">
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="11" t="inlineStr">
+        <is>
+          <t>AB</t>
+        </is>
+      </c>
+      <c r="B3" s="1" t="inlineStr">
+        <is>
+          <t>1-0</t>
+        </is>
+      </c>
+      <c r="C3" s="29" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" s="1" t="inlineStr">
+        <is>
+          <t>3-1</t>
+        </is>
+      </c>
+      <c r="E3" s="32" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="F3" s="1" t="inlineStr">
+        <is>
+          <t>2-0</t>
+        </is>
+      </c>
+      <c r="G3" s="32" t="n">
+        <v>1</v>
+      </c>
+      <c r="H3" s="1" t="inlineStr">
+        <is>
+          <t>2-3</t>
+        </is>
+      </c>
+      <c r="I3" s="32" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="J3" s="1" t="inlineStr">
+        <is>
+          <t>1-0</t>
+        </is>
+      </c>
+      <c r="K3" s="32" t="n">
+        <v>1</v>
+      </c>
+      <c r="L3" s="1" t="inlineStr">
+        <is>
+          <t>1-0</t>
+        </is>
+      </c>
+      <c r="M3" s="32" t="n">
+        <v>1</v>
+      </c>
+      <c r="N3" s="1" t="inlineStr">
+        <is>
+          <t>0-0</t>
+        </is>
+      </c>
+      <c r="O3" s="32" t="n">
+        <v>0</v>
+      </c>
+      <c r="P3" s="1" t="inlineStr">
+        <is>
+          <t>0-0</t>
+        </is>
+      </c>
+      <c r="Q3" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="R3" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="S3" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T3" s="17" t="inlineStr">
+        <is>
+          <t>AB</t>
+        </is>
+      </c>
+      <c r="U3" s="14" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="11" t="inlineStr">
+        <is>
+          <t>Anthony</t>
+        </is>
+      </c>
+      <c r="B4" s="1" t="inlineStr">
+        <is>
+          <t>0-0</t>
+        </is>
+      </c>
+      <c r="C4" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="D4" s="1" t="inlineStr">
+        <is>
+          <t>0-0</t>
+        </is>
+      </c>
+      <c r="E4" s="32" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" s="1" t="inlineStr">
+        <is>
+          <t>0-0</t>
+        </is>
+      </c>
+      <c r="G4" s="32" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" s="1" t="inlineStr">
+        <is>
+          <t>0-0</t>
+        </is>
+      </c>
+      <c r="I4" s="32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" s="1" t="inlineStr">
+        <is>
+          <t>0-0</t>
+        </is>
+      </c>
+      <c r="K4" s="32" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" s="1" t="inlineStr">
+        <is>
+          <t>0-0</t>
+        </is>
+      </c>
+      <c r="M4" s="32" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" s="1" t="inlineStr">
+        <is>
+          <t>0-0</t>
+        </is>
+      </c>
+      <c r="O4" s="32" t="n">
+        <v>0</v>
+      </c>
+      <c r="P4" s="1" t="inlineStr">
+        <is>
+          <t>0-0</t>
+        </is>
+      </c>
+      <c r="Q4" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="R4" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="S4" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T4" s="17" t="inlineStr">
+        <is>
+          <t>Anthony</t>
+        </is>
+      </c>
+      <c r="U4" s="14" t="n"/>
+    </row>
+    <row r="5">
+      <c r="A5" s="11" t="inlineStr">
+        <is>
+          <t>Brandon</t>
+        </is>
+      </c>
+      <c r="B5" s="1" t="inlineStr">
+        <is>
+          <t>1-0</t>
+        </is>
+      </c>
+      <c r="C5" s="29" t="n">
+        <v>1</v>
+      </c>
+      <c r="D5" s="1" t="inlineStr">
+        <is>
+          <t>3-1</t>
+        </is>
+      </c>
+      <c r="E5" s="32" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="F5" s="1" t="inlineStr">
+        <is>
+          <t>2-0</t>
+        </is>
+      </c>
+      <c r="G5" s="32" t="n">
+        <v>1</v>
+      </c>
+      <c r="H5" s="1" t="inlineStr">
+        <is>
+          <t>2-3</t>
+        </is>
+      </c>
+      <c r="I5" s="32" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="J5" s="1" t="inlineStr">
+        <is>
+          <t>1-0</t>
+        </is>
+      </c>
+      <c r="K5" s="32" t="n">
+        <v>1</v>
+      </c>
+      <c r="L5" s="1" t="inlineStr">
+        <is>
+          <t>1-0</t>
+        </is>
+      </c>
+      <c r="M5" s="32" t="n">
+        <v>1</v>
+      </c>
+      <c r="N5" s="1" t="inlineStr">
+        <is>
+          <t>0-0</t>
+        </is>
+      </c>
+      <c r="O5" s="32" t="n">
+        <v>0</v>
+      </c>
+      <c r="P5" s="1" t="inlineStr">
+        <is>
+          <t>0-0</t>
+        </is>
+      </c>
+      <c r="Q5" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="R5" s="35" t="n">
+        <v>1</v>
+      </c>
+      <c r="S5" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T5" s="17" t="inlineStr">
+        <is>
+          <t>Brandon</t>
+        </is>
+      </c>
+      <c r="U5" s="14" t="n"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="11" t="inlineStr">
+        <is>
+          <t>Eric</t>
+        </is>
+      </c>
+      <c r="B6" s="1" t="inlineStr">
+        <is>
+          <t>0-0</t>
+        </is>
+      </c>
+      <c r="C6" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="D6" s="1" t="inlineStr">
+        <is>
+          <t>0-0</t>
+        </is>
+      </c>
+      <c r="E6" s="32" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" s="1" t="inlineStr">
+        <is>
+          <t>0-0</t>
+        </is>
+      </c>
+      <c r="G6" s="32" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" s="1" t="inlineStr">
+        <is>
+          <t>0-0</t>
+        </is>
+      </c>
+      <c r="I6" s="32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" s="1" t="inlineStr">
+        <is>
+          <t>0-0</t>
+        </is>
+      </c>
+      <c r="K6" s="32" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6" s="1" t="inlineStr">
+        <is>
+          <t>0-0</t>
+        </is>
+      </c>
+      <c r="M6" s="32" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" s="1" t="inlineStr">
+        <is>
+          <t>0-0</t>
+        </is>
+      </c>
+      <c r="O6" s="32" t="n">
+        <v>0</v>
+      </c>
+      <c r="P6" s="1" t="inlineStr">
+        <is>
+          <t>0-0</t>
+        </is>
+      </c>
+      <c r="Q6" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="R6" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="S6" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T6" s="17" t="inlineStr">
+        <is>
+          <t>Eric</t>
+        </is>
+      </c>
+      <c r="U6" s="14" t="n"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="11" t="inlineStr">
+        <is>
+          <t>Jacob</t>
+        </is>
+      </c>
+      <c r="B7" s="1" t="inlineStr">
+        <is>
+          <t>0-1</t>
+        </is>
+      </c>
+      <c r="C7" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="D7" s="1" t="inlineStr">
+        <is>
+          <t>1-3</t>
+        </is>
+      </c>
+      <c r="E7" s="32" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="F7" s="1" t="inlineStr">
+        <is>
+          <t>0-2</t>
+        </is>
+      </c>
+      <c r="G7" s="32" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" s="1" t="inlineStr">
+        <is>
+          <t>3-2</t>
+        </is>
+      </c>
+      <c r="I7" s="32" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="J7" s="1" t="inlineStr">
+        <is>
+          <t>0-1</t>
+        </is>
+      </c>
+      <c r="K7" s="32" t="n">
+        <v>0</v>
+      </c>
+      <c r="L7" s="1" t="inlineStr">
+        <is>
+          <t>0-1</t>
+        </is>
+      </c>
+      <c r="M7" s="32" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" s="1" t="inlineStr">
+        <is>
+          <t>0-0</t>
+        </is>
+      </c>
+      <c r="O7" s="32" t="n">
+        <v>0</v>
+      </c>
+      <c r="P7" s="1" t="inlineStr">
+        <is>
+          <t>0-0</t>
+        </is>
+      </c>
+      <c r="Q7" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="R7" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="S7" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T7" s="17" t="inlineStr">
+        <is>
+          <t>Jacob</t>
+        </is>
+      </c>
+      <c r="U7" s="14" t="n"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="11" t="inlineStr">
+        <is>
+          <t>Kiernan</t>
+        </is>
+      </c>
+      <c r="B8" s="1" t="inlineStr">
+        <is>
+          <t>1-0</t>
+        </is>
+      </c>
+      <c r="C8" s="29" t="n">
+        <v>1</v>
+      </c>
+      <c r="D8" s="1" t="inlineStr">
+        <is>
+          <t>3-1</t>
+        </is>
+      </c>
+      <c r="E8" s="32" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="F8" s="1" t="inlineStr">
+        <is>
+          <t>2-0</t>
+        </is>
+      </c>
+      <c r="G8" s="32" t="n">
+        <v>1</v>
+      </c>
+      <c r="H8" s="1" t="inlineStr">
+        <is>
+          <t>2-3</t>
+        </is>
+      </c>
+      <c r="I8" s="32" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="J8" s="1" t="inlineStr">
+        <is>
+          <t>1-0</t>
+        </is>
+      </c>
+      <c r="K8" s="32" t="n">
+        <v>1</v>
+      </c>
+      <c r="L8" s="1" t="inlineStr">
+        <is>
+          <t>1-0</t>
+        </is>
+      </c>
+      <c r="M8" s="32" t="n">
+        <v>1</v>
+      </c>
+      <c r="N8" s="1" t="inlineStr">
+        <is>
+          <t>0-0</t>
+        </is>
+      </c>
+      <c r="O8" s="32" t="n">
+        <v>0</v>
+      </c>
+      <c r="P8" s="1" t="inlineStr">
+        <is>
+          <t>0-0</t>
+        </is>
+      </c>
+      <c r="Q8" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="R8" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="S8" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T8" s="17" t="inlineStr">
+        <is>
+          <t>Kiernan</t>
+        </is>
+      </c>
+      <c r="U8" s="14" t="n"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="11" t="inlineStr">
+        <is>
+          <t>Quinn</t>
+        </is>
+      </c>
+      <c r="B9" s="1" t="inlineStr">
+        <is>
+          <t>1-0</t>
+        </is>
+      </c>
+      <c r="C9" s="29" t="n">
+        <v>1</v>
+      </c>
+      <c r="D9" s="1" t="inlineStr">
+        <is>
+          <t>3-1</t>
+        </is>
+      </c>
+      <c r="E9" s="32" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="F9" s="1" t="inlineStr">
+        <is>
+          <t>2-0</t>
+        </is>
+      </c>
+      <c r="G9" s="32" t="n">
+        <v>1</v>
+      </c>
+      <c r="H9" s="1" t="inlineStr">
+        <is>
+          <t>2-3</t>
+        </is>
+      </c>
+      <c r="I9" s="32" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="J9" s="1" t="inlineStr">
+        <is>
+          <t>1-0</t>
+        </is>
+      </c>
+      <c r="K9" s="32" t="n">
+        <v>1</v>
+      </c>
+      <c r="L9" s="1" t="inlineStr">
+        <is>
+          <t>1-0</t>
+        </is>
+      </c>
+      <c r="M9" s="32" t="n">
+        <v>1</v>
+      </c>
+      <c r="N9" s="1" t="inlineStr">
+        <is>
+          <t>0-0</t>
+        </is>
+      </c>
+      <c r="O9" s="32" t="n">
+        <v>0</v>
+      </c>
+      <c r="P9" s="1" t="inlineStr">
+        <is>
+          <t>0-0</t>
+        </is>
+      </c>
+      <c r="Q9" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="R9" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="S9" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T9" s="17" t="inlineStr">
+        <is>
+          <t>Quinn</t>
+        </is>
+      </c>
+      <c r="U9" s="14" t="n"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="11" t="inlineStr">
+        <is>
+          <t>Sam G</t>
+        </is>
+      </c>
+      <c r="B10" s="1" t="inlineStr">
+        <is>
+          <t>0-1</t>
+        </is>
+      </c>
+      <c r="C10" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="D10" s="1" t="inlineStr">
+        <is>
+          <t>1-3</t>
+        </is>
+      </c>
+      <c r="E10" s="32" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="F10" s="1" t="inlineStr">
+        <is>
+          <t>0-2</t>
+        </is>
+      </c>
+      <c r="G10" s="32" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" s="1" t="inlineStr">
+        <is>
+          <t>3-2</t>
+        </is>
+      </c>
+      <c r="I10" s="32" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="J10" s="1" t="inlineStr">
+        <is>
+          <t>0-1</t>
+        </is>
+      </c>
+      <c r="K10" s="32" t="n">
+        <v>0</v>
+      </c>
+      <c r="L10" s="1" t="inlineStr">
+        <is>
+          <t>0-1</t>
+        </is>
+      </c>
+      <c r="M10" s="32" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" s="1" t="inlineStr">
+        <is>
+          <t>0-0</t>
+        </is>
+      </c>
+      <c r="O10" s="32" t="n">
+        <v>0</v>
+      </c>
+      <c r="P10" s="1" t="inlineStr">
+        <is>
+          <t>0-0</t>
+        </is>
+      </c>
+      <c r="Q10" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="R10" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="S10" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="T10" s="18" t="inlineStr">
+        <is>
+          <t>Sam G</t>
+        </is>
+      </c>
+      <c r="U10" s="14" t="n"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="48" t="inlineStr">
+        <is>
+          <t>Sam S</t>
+        </is>
+      </c>
+      <c r="B11" s="1" t="inlineStr">
+        <is>
+          <t>0-1</t>
+        </is>
+      </c>
+      <c r="C11" s="30" t="n">
+        <v>0</v>
+      </c>
+      <c r="D11" s="26" t="inlineStr">
+        <is>
+          <t>1-3</t>
+        </is>
+      </c>
+      <c r="E11" s="30" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="F11" s="26" t="inlineStr">
+        <is>
+          <t>0-2</t>
+        </is>
+      </c>
+      <c r="G11" s="30" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" s="26" t="inlineStr">
+        <is>
+          <t>3-2</t>
+        </is>
+      </c>
+      <c r="I11" s="30" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="J11" s="26" t="inlineStr">
+        <is>
+          <t>0-1</t>
+        </is>
+      </c>
+      <c r="K11" s="30" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" s="26" t="inlineStr">
+        <is>
+          <t>0-1</t>
+        </is>
+      </c>
+      <c r="M11" s="30" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" s="26" t="inlineStr">
+        <is>
+          <t>0-0</t>
+        </is>
+      </c>
+      <c r="O11" s="30" t="n">
+        <v>0</v>
+      </c>
+      <c r="P11" s="26" t="inlineStr">
+        <is>
+          <t>0-0</t>
+        </is>
+      </c>
+      <c r="Q11" s="30" t="n">
+        <v>0</v>
+      </c>
+      <c r="R11" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="S11" s="1" t="n">
+        <v>0</v>
       </c>
       <c r="T11" s="27" t="inlineStr">
         <is>
@@ -7686,66 +10297,66 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="60" t="inlineStr">
+      <c r="A12" s="49" t="inlineStr">
         <is>
           <t>Tighe</t>
         </is>
       </c>
       <c r="B12" s="9" t="inlineStr">
         <is>
-          <t>1-1</t>
+          <t>0-0</t>
         </is>
       </c>
       <c r="C12" s="31" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="D12" s="9" t="inlineStr">
         <is>
-          <t>5-6</t>
+          <t>0-0</t>
         </is>
       </c>
       <c r="E12" s="31" t="n">
-        <v>0.4545</v>
+        <v>0</v>
       </c>
       <c r="F12" s="9" t="inlineStr">
         <is>
-          <t>3-5</t>
+          <t>0-0</t>
         </is>
       </c>
       <c r="G12" s="31" t="n">
-        <v>0.375</v>
+        <v>0</v>
       </c>
       <c r="H12" s="9" t="inlineStr">
         <is>
-          <t>2-3</t>
+          <t>0-0</t>
         </is>
       </c>
       <c r="I12" s="31" t="n">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="J12" s="9" t="inlineStr">
         <is>
-          <t>1-1</t>
+          <t>0-0</t>
         </is>
       </c>
       <c r="K12" s="31" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="L12" s="9" t="inlineStr">
         <is>
-          <t>2-1</t>
+          <t>0-0</t>
         </is>
       </c>
       <c r="M12" s="31" t="n">
-        <v>0.6667</v>
+        <v>0</v>
       </c>
       <c r="N12" s="9" t="inlineStr">
         <is>
-          <t>1-1</t>
+          <t>0-0</t>
         </is>
       </c>
       <c r="O12" s="31" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="P12" s="9" t="inlineStr">
         <is>

--- a/Field_Days.xlsx
+++ b/Field_Days.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15960" tabRatio="600" firstSheet="0" activeTab="1" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15960" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Days" sheetId="1" state="visible" r:id="rId1"/>
@@ -23,9 +23,8 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
+  <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0%"/>
-    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
   </numFmts>
   <fonts count="10">
     <font>
@@ -323,19 +322,13 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="84">
+  <cellXfs count="78">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
@@ -382,12 +375,6 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
@@ -423,7 +410,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
@@ -434,12 +420,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="10" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -458,10 +438,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
@@ -471,30 +447,8 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="14" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="14" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="15" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="15" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center"/>
@@ -503,9 +457,16 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
+    <xf numFmtId="164" fontId="1" fillId="4" borderId="11" pivotButton="0" quotePrefix="0" xfId="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="8" pivotButton="0" quotePrefix="0" xfId="1"/>
+    <xf numFmtId="164" fontId="1" fillId="4" borderId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="9" pivotButton="0" quotePrefix="0" xfId="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="1"/>
+    <xf numFmtId="164" fontId="1" fillId="4" borderId="4" pivotButton="0" quotePrefix="0" xfId="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="16" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -516,16 +477,34 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="164" fontId="1" fillId="4" borderId="11" pivotButton="0" quotePrefix="0" xfId="1"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="1"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="1"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="8" pivotButton="0" quotePrefix="0" xfId="1"/>
-    <xf numFmtId="164" fontId="1" fillId="4" borderId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="1"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="9" pivotButton="0" quotePrefix="0" xfId="1"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="1"/>
-    <xf numFmtId="164" fontId="1" fillId="4" borderId="4" pivotButton="0" quotePrefix="0" xfId="1"/>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="15" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="15" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="3" borderId="15" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="15" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="14" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="14" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="13" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="17" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -727,34 +706,34 @@
                 <formatCode>0.0%</formatCode>
                 <ptCount val="11"/>
                 <pt idx="0">
-                  <v>0.375</v>
+                  <v>0.4444</v>
                 </pt>
                 <pt idx="1">
                   <v>0.5881999999999999</v>
                 </pt>
                 <pt idx="2">
-                  <v>0</v>
+                  <v>0.5</v>
                 </pt>
                 <pt idx="3">
-                  <v>0.4667</v>
+                  <v>0.4375</v>
                 </pt>
                 <pt idx="4">
-                  <v>0.3846</v>
+                  <v>0.3571</v>
                 </pt>
                 <pt idx="5">
-                  <v>0.4706</v>
+                  <v>0.5</v>
                 </pt>
                 <pt idx="6">
-                  <v>0.4286</v>
+                  <v>0.4</v>
                 </pt>
                 <pt idx="7">
-                  <v>0.5</v>
+                  <v>0.4</v>
                 </pt>
                 <pt idx="8">
-                  <v>0.6471</v>
+                  <v>0.6667</v>
                 </pt>
                 <pt idx="9">
-                  <v>0.4</v>
+                  <v>0.3636</v>
                 </pt>
                 <pt idx="10">
                   <v>0.5</v>
@@ -827,34 +806,34 @@
                 <formatCode>0.0%</formatCode>
                 <ptCount val="11"/>
                 <pt idx="0">
-                  <v>0.4359</v>
+                  <v>0.4545</v>
                 </pt>
                 <pt idx="1">
                   <v>0.5263</v>
                 </pt>
                 <pt idx="2">
-                  <v>0.3333</v>
+                  <v>0.5</v>
                 </pt>
                 <pt idx="3">
-                  <v>0.4783</v>
+                  <v>0.473</v>
                 </pt>
                 <pt idx="4">
-                  <v>0.4576</v>
+                  <v>0.4531</v>
                 </pt>
                 <pt idx="5">
-                  <v>0.5263</v>
+                  <v>0.5309</v>
                 </pt>
                 <pt idx="6">
-                  <v>0.4462</v>
+                  <v>0.4429</v>
                 </pt>
                 <pt idx="7">
-                  <v>0.5</v>
+                  <v>0.4815</v>
                 </pt>
                 <pt idx="8">
-                  <v>0.5658</v>
+                  <v>0.5679</v>
                 </pt>
                 <pt idx="9">
-                  <v>0.4545</v>
+                  <v>0.449</v>
                 </pt>
                 <pt idx="10">
                   <v>0.4545</v>
@@ -927,34 +906,34 @@
                 <formatCode>0.0%</formatCode>
                 <ptCount val="11"/>
                 <pt idx="0">
-                  <v>0.5172</v>
+                  <v>0.5455</v>
                 </pt>
                 <pt idx="1">
                   <v>0.5965</v>
                 </pt>
                 <pt idx="2">
-                  <v>0.3333</v>
+                  <v>0.5714</v>
                 </pt>
                 <pt idx="3">
-                  <v>0.451</v>
+                  <v>0.4364</v>
                 </pt>
                 <pt idx="4">
-                  <v>0.5349</v>
+                  <v>0.5106000000000001</v>
                 </pt>
                 <pt idx="5">
-                  <v>0.5088</v>
+                  <v>0.5246</v>
                 </pt>
                 <pt idx="6">
-                  <v>0.3617</v>
+                  <v>0.3529</v>
                 </pt>
                 <pt idx="7">
-                  <v>0.3846</v>
+                  <v>0.3529</v>
                 </pt>
                 <pt idx="8">
-                  <v>0.614</v>
+                  <v>0.623</v>
                 </pt>
                 <pt idx="9">
-                  <v>0.4324</v>
+                  <v>0.4146</v>
                 </pt>
                 <pt idx="10">
                   <v>0.375</v>
@@ -1027,7 +1006,7 @@
                 <formatCode>0.0%</formatCode>
                 <ptCount val="11"/>
                 <pt idx="0">
-                  <v>0.35</v>
+                  <v>0.3778</v>
                 </pt>
                 <pt idx="1">
                   <v>0.52</v>
@@ -1036,25 +1015,25 @@
                   <v>0.6</v>
                 </pt>
                 <pt idx="3">
-                  <v>0.4638</v>
+                  <v>0.4595</v>
                 </pt>
                 <pt idx="4">
-                  <v>0.5192</v>
+                  <v>0.5088</v>
                 </pt>
                 <pt idx="5">
-                  <v>0.4933</v>
+                  <v>0.5</v>
                 </pt>
                 <pt idx="6">
-                  <v>0.4839</v>
+                  <v>0.4776</v>
                 </pt>
                 <pt idx="7">
-                  <v>0.4286</v>
+                  <v>0.4231</v>
                 </pt>
                 <pt idx="8">
-                  <v>0.48</v>
+                  <v>0.4875</v>
                 </pt>
                 <pt idx="9">
-                  <v>0.6383</v>
+                  <v>0.6153999999999999</v>
                 </pt>
                 <pt idx="10">
                   <v>0.4</v>
@@ -1127,7 +1106,7 @@
                 <formatCode>0.0%</formatCode>
                 <ptCount val="11"/>
                 <pt idx="0">
-                  <v>0.6667</v>
+                  <v>0.5714</v>
                 </pt>
                 <pt idx="1">
                   <v>0.3846</v>
@@ -1136,25 +1115,25 @@
                   <v>0</v>
                 </pt>
                 <pt idx="3">
-                  <v>0.75</v>
+                  <v>0.7692</v>
                 </pt>
                 <pt idx="4">
-                  <v>0.4545</v>
+                  <v>0.5</v>
                 </pt>
                 <pt idx="5">
-                  <v>0.4615</v>
+                  <v>0.4286</v>
                 </pt>
                 <pt idx="6">
-                  <v>0.6364</v>
+                  <v>0.6667</v>
                 </pt>
                 <pt idx="7">
-                  <v>0.75</v>
+                  <v>0.8</v>
                 </pt>
                 <pt idx="8">
-                  <v>0.4615</v>
+                  <v>0.4286</v>
                 </pt>
                 <pt idx="9">
-                  <v>0</v>
+                  <v>0.1111</v>
                 </pt>
                 <pt idx="10">
                   <v>0.5</v>
@@ -1227,7 +1206,7 @@
                 <formatCode>0.0%</formatCode>
                 <ptCount val="11"/>
                 <pt idx="0">
-                  <v>0.7143</v>
+                  <v>0.625</v>
                 </pt>
                 <pt idx="1">
                   <v>0.6</v>
@@ -1236,25 +1215,25 @@
                   <v>0</v>
                 </pt>
                 <pt idx="3">
-                  <v>0.6153999999999999</v>
+                  <v>0.6429</v>
                 </pt>
                 <pt idx="4">
-                  <v>0.25</v>
+                  <v>0.3077</v>
                 </pt>
                 <pt idx="5">
+                  <v>0.375</v>
+                </pt>
+                <pt idx="6">
+                  <v>0.5714</v>
+                </pt>
+                <pt idx="7">
                   <v>0.4</v>
                 </pt>
-                <pt idx="6">
-                  <v>0.5385</v>
-                </pt>
-                <pt idx="7">
-                  <v>0.25</v>
-                </pt>
                 <pt idx="8">
-                  <v>0.5333</v>
+                  <v>0.5</v>
                 </pt>
                 <pt idx="9">
-                  <v>0.2857</v>
+                  <v>0.375</v>
                 </pt>
                 <pt idx="10">
                   <v>0.6667</v>
@@ -4804,80 +4783,80 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z36"/>
+  <dimension ref="A1:Z62"/>
   <sheetViews>
-    <sheetView zoomScale="119" zoomScaleNormal="119" workbookViewId="0">
-      <selection activeCell="M1" sqref="M1"/>
+    <sheetView tabSelected="1" zoomScale="119" zoomScaleNormal="119" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16"/>
   <cols>
-    <col width="12.5" customWidth="1" style="71" min="1" max="1"/>
-    <col width="30.83203125" customWidth="1" style="71" min="2" max="3"/>
+    <col width="10" customWidth="1" style="65" min="1" max="1"/>
+    <col width="30.83203125" customWidth="1" style="63" min="2" max="3"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="61" t="inlineStr">
+      <c r="A1" s="64" t="inlineStr">
         <is>
           <t>Date</t>
         </is>
       </c>
-      <c r="B1" s="62" t="inlineStr">
+      <c r="B1" s="66" t="inlineStr">
         <is>
           <t>Team 1</t>
         </is>
       </c>
-      <c r="C1" s="63" t="inlineStr">
+      <c r="C1" s="67" t="inlineStr">
         <is>
           <t>Team 2</t>
         </is>
       </c>
-      <c r="D1" s="61" t="inlineStr">
+      <c r="D1" s="64" t="inlineStr">
         <is>
           <t>Score</t>
         </is>
       </c>
-      <c r="E1" s="61" t="inlineStr">
+      <c r="E1" s="64" t="inlineStr">
         <is>
           <t>Game 1</t>
         </is>
       </c>
-      <c r="F1" s="61" t="inlineStr">
+      <c r="F1" s="64" t="inlineStr">
         <is>
           <t>Game 2</t>
         </is>
       </c>
-      <c r="G1" s="61" t="inlineStr">
+      <c r="G1" s="64" t="inlineStr">
         <is>
           <t>Game 3</t>
         </is>
       </c>
-      <c r="H1" s="61" t="inlineStr">
+      <c r="H1" s="64" t="inlineStr">
         <is>
           <t>Game 4</t>
         </is>
       </c>
-      <c r="I1" s="61" t="inlineStr">
+      <c r="I1" s="64" t="inlineStr">
         <is>
           <t>Game 5</t>
         </is>
       </c>
-      <c r="J1" s="61" t="inlineStr">
+      <c r="J1" s="64" t="inlineStr">
         <is>
           <t>Game 6</t>
         </is>
       </c>
-      <c r="K1" s="61" t="inlineStr">
+      <c r="K1" s="64" t="inlineStr">
         <is>
           <t>Game 7</t>
         </is>
       </c>
-      <c r="L1" s="61" t="inlineStr">
+      <c r="L1" s="64" t="inlineStr">
         <is>
           <t>MVP</t>
         </is>
       </c>
-      <c r="M1" s="67" t="inlineStr">
+      <c r="M1" s="68" t="inlineStr">
         <is>
           <t>Clown of the Match</t>
         </is>
@@ -4894,739 +4873,739 @@
       <c r="Z1" s="1" t="n"/>
     </row>
     <row r="2">
-      <c r="A2" s="54" t="inlineStr">
+      <c r="A2" s="45" t="inlineStr">
         <is>
           <t>12/31/23</t>
         </is>
       </c>
-      <c r="B2" s="55" t="inlineStr">
+      <c r="B2" s="69" t="inlineStr">
         <is>
           <t>Jacob, Sam G, AB, Eric</t>
         </is>
       </c>
-      <c r="C2" s="55" t="inlineStr">
+      <c r="C2" s="69" t="inlineStr">
         <is>
           <t>Kiernan, Brandon, Sam S, Tighe</t>
         </is>
       </c>
-      <c r="D2" s="56" t="inlineStr">
+      <c r="D2" s="46" t="inlineStr">
         <is>
           <t>4-2</t>
         </is>
       </c>
-      <c r="E2" s="57" t="inlineStr">
+      <c r="E2" s="46" t="inlineStr">
         <is>
           <t>PK's (3-2)</t>
         </is>
       </c>
-      <c r="F2" s="57" t="inlineStr">
+      <c r="F2" s="46" t="inlineStr">
         <is>
           <t>Cross (3-0)</t>
         </is>
       </c>
-      <c r="G2" s="57" t="inlineStr">
+      <c r="G2" s="46" t="inlineStr">
         <is>
           <t>A/D (1-0)</t>
         </is>
       </c>
-      <c r="H2" s="58" t="inlineStr">
+      <c r="H2" s="70" t="inlineStr">
         <is>
           <t>SS (0-1)</t>
         </is>
       </c>
-      <c r="I2" s="58" t="inlineStr">
+      <c r="I2" s="70" t="inlineStr">
         <is>
           <t>P&amp;F (0-1)</t>
         </is>
       </c>
-      <c r="J2" s="57" t="inlineStr">
+      <c r="J2" s="46" t="inlineStr">
         <is>
           <t>SS (1-0)</t>
         </is>
       </c>
-      <c r="K2" s="59" t="n"/>
-      <c r="L2" s="57" t="inlineStr">
+      <c r="K2" s="71" t="n"/>
+      <c r="L2" s="46" t="inlineStr">
         <is>
           <t>Sam G</t>
         </is>
       </c>
-      <c r="M2" s="60" t="inlineStr">
+      <c r="M2" s="72" t="inlineStr">
         <is>
           <t>Sam S</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="52" t="inlineStr">
+      <c r="A3" s="43" t="inlineStr">
         <is>
           <t>1/2/24</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="B3" s="65" t="inlineStr">
         <is>
           <t>Jacob, Sam G, Brandon</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="C3" s="65" t="inlineStr">
         <is>
           <t>Kiernan, AB, Eric, Sam S</t>
         </is>
       </c>
-      <c r="D3" s="6" t="inlineStr">
+      <c r="D3" s="4" t="inlineStr">
         <is>
           <t>3-0</t>
         </is>
       </c>
-      <c r="E3" s="3" t="inlineStr">
+      <c r="E3" s="4" t="inlineStr">
         <is>
           <t>A/D (1-0)</t>
         </is>
       </c>
-      <c r="F3" s="3" t="inlineStr">
+      <c r="F3" s="4" t="inlineStr">
         <is>
           <t>PK's (2-1)</t>
         </is>
       </c>
-      <c r="G3" s="3" t="inlineStr">
+      <c r="G3" s="4" t="inlineStr">
         <is>
           <t>Cross (3-2)</t>
         </is>
       </c>
-      <c r="H3" s="1" t="n"/>
-      <c r="I3" s="1" t="n"/>
-      <c r="J3" s="1" t="n"/>
-      <c r="K3" s="1" t="n"/>
-      <c r="L3" s="3" t="inlineStr">
+      <c r="H3" s="3" t="n"/>
+      <c r="I3" s="3" t="n"/>
+      <c r="J3" s="3" t="n"/>
+      <c r="K3" s="3" t="n"/>
+      <c r="L3" s="4" t="inlineStr">
         <is>
           <t>Brandon</t>
         </is>
       </c>
-      <c r="M3" s="42" t="inlineStr">
+      <c r="M3" s="38" t="inlineStr">
         <is>
           <t>AB</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="52" t="inlineStr">
+      <c r="A4" s="43" t="inlineStr">
         <is>
           <t>1/6/24</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="B4" s="65" t="inlineStr">
         <is>
           <t>Jacob, Brandon, AB</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="C4" s="65" t="inlineStr">
         <is>
           <t>Sam G, Eric, Sam S</t>
         </is>
       </c>
-      <c r="D4" s="7" t="inlineStr">
+      <c r="D4" s="5" t="inlineStr">
         <is>
           <t>1-2</t>
         </is>
       </c>
-      <c r="E4" s="3" t="inlineStr">
+      <c r="E4" s="4" t="inlineStr">
         <is>
           <t>A/D (1-0)</t>
         </is>
       </c>
-      <c r="F4" s="4" t="inlineStr">
+      <c r="F4" s="5" t="inlineStr">
         <is>
           <t>Cross (1-2)</t>
         </is>
       </c>
-      <c r="G4" s="4" t="inlineStr">
+      <c r="G4" s="5" t="inlineStr">
         <is>
           <t>PK's (1-2)</t>
         </is>
       </c>
-      <c r="H4" s="1" t="n"/>
-      <c r="I4" s="1" t="n"/>
-      <c r="J4" s="1" t="n"/>
-      <c r="K4" s="1" t="n"/>
-      <c r="L4" s="4" t="inlineStr">
+      <c r="H4" s="3" t="n"/>
+      <c r="I4" s="3" t="n"/>
+      <c r="J4" s="3" t="n"/>
+      <c r="K4" s="3" t="n"/>
+      <c r="L4" s="5" t="inlineStr">
         <is>
           <t>Sam G</t>
         </is>
       </c>
-      <c r="M4" s="43" t="inlineStr">
+      <c r="M4" s="37" t="inlineStr">
         <is>
           <t>Brandon</t>
         </is>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="52" t="inlineStr">
+      <c r="A5" s="43" t="inlineStr">
         <is>
           <t>1/14/24</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="B5" s="65" t="inlineStr">
         <is>
           <t>Jacob, Sam G, Eric</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C5" s="65" t="inlineStr">
         <is>
           <t>Kiernan, AB, Tighe</t>
         </is>
       </c>
-      <c r="D5" s="7" t="inlineStr">
+      <c r="D5" s="5" t="inlineStr">
         <is>
           <t>2-3</t>
         </is>
       </c>
-      <c r="E5" s="4" t="inlineStr">
+      <c r="E5" s="5" t="inlineStr">
         <is>
           <t>A/D (0-1)</t>
         </is>
       </c>
-      <c r="F5" s="3" t="inlineStr">
+      <c r="F5" s="4" t="inlineStr">
         <is>
           <t>PK's (2-1)</t>
         </is>
       </c>
-      <c r="G5" s="4" t="inlineStr">
+      <c r="G5" s="5" t="inlineStr">
         <is>
           <t>Cross (0-2)</t>
         </is>
       </c>
-      <c r="H5" s="3" t="inlineStr">
+      <c r="H5" s="4" t="inlineStr">
         <is>
           <t>P&amp;F (1-0)</t>
         </is>
       </c>
-      <c r="I5" s="4" t="inlineStr">
+      <c r="I5" s="5" t="inlineStr">
         <is>
           <t>P&amp;F (0-1)</t>
         </is>
       </c>
-      <c r="J5" s="1" t="n"/>
-      <c r="K5" s="1" t="n"/>
-      <c r="L5" s="4" t="inlineStr">
+      <c r="J5" s="3" t="n"/>
+      <c r="K5" s="3" t="n"/>
+      <c r="L5" s="5" t="inlineStr">
         <is>
           <t>Kiernan</t>
         </is>
       </c>
-      <c r="M5" s="43" t="inlineStr">
+      <c r="M5" s="37" t="inlineStr">
         <is>
           <t>Jacob</t>
         </is>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="52" t="inlineStr">
+      <c r="A6" s="43" t="inlineStr">
         <is>
           <t>5/27/24</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="B6" s="65" t="inlineStr">
         <is>
           <t>Jacob, Sam S, Eric, AB</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="C6" s="65" t="inlineStr">
         <is>
           <t>Sam G, Brandon, Aaron</t>
         </is>
       </c>
-      <c r="D6" s="7" t="inlineStr">
+      <c r="D6" s="5" t="inlineStr">
         <is>
           <t>2-3</t>
         </is>
       </c>
-      <c r="E6" s="3" t="inlineStr">
+      <c r="E6" s="4" t="inlineStr">
         <is>
           <t>PK's (2-1)</t>
         </is>
       </c>
-      <c r="F6" s="3" t="inlineStr">
+      <c r="F6" s="4" t="inlineStr">
         <is>
           <t>Cross (3-2)</t>
         </is>
       </c>
-      <c r="G6" s="4" t="inlineStr">
+      <c r="G6" s="5" t="inlineStr">
         <is>
           <t>A/D (0-1)</t>
         </is>
       </c>
-      <c r="H6" s="4" t="inlineStr">
+      <c r="H6" s="5" t="inlineStr">
         <is>
           <t>P&amp;F (0-1)</t>
         </is>
       </c>
-      <c r="I6" s="4" t="inlineStr">
+      <c r="I6" s="5" t="inlineStr">
         <is>
           <t>PK's (0-1)</t>
         </is>
       </c>
-      <c r="J6" s="1" t="n"/>
-      <c r="K6" s="1" t="n"/>
-      <c r="L6" s="4" t="inlineStr">
+      <c r="J6" s="3" t="n"/>
+      <c r="K6" s="3" t="n"/>
+      <c r="L6" s="5" t="inlineStr">
         <is>
           <t>Brandon</t>
         </is>
       </c>
-      <c r="M6" s="43" t="inlineStr">
+      <c r="M6" s="37" t="inlineStr">
         <is>
           <t>Sam S</t>
         </is>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="52" t="inlineStr">
+      <c r="A7" s="43" t="inlineStr">
         <is>
           <t>6/2/24</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="B7" s="65" t="inlineStr">
         <is>
           <t>Jacob, Sam G, AB</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="C7" s="65" t="inlineStr">
         <is>
           <t>Kiernan, Brandon, Eric</t>
         </is>
       </c>
-      <c r="D7" s="6" t="inlineStr">
+      <c r="D7" s="4" t="inlineStr">
         <is>
           <t>4-1</t>
         </is>
       </c>
-      <c r="E7" s="3" t="inlineStr">
+      <c r="E7" s="4" t="inlineStr">
         <is>
           <t>PK's (2-1)</t>
         </is>
       </c>
-      <c r="F7" s="3" t="inlineStr">
+      <c r="F7" s="4" t="inlineStr">
         <is>
           <t>Cross (3-2)</t>
         </is>
       </c>
-      <c r="G7" s="4" t="inlineStr">
+      <c r="G7" s="5" t="inlineStr">
         <is>
           <t>A/D (0-1)</t>
         </is>
       </c>
-      <c r="H7" s="3" t="inlineStr">
+      <c r="H7" s="4" t="inlineStr">
         <is>
           <t>P&amp;F (1-0)</t>
         </is>
       </c>
-      <c r="I7" s="3" t="inlineStr">
+      <c r="I7" s="4" t="inlineStr">
         <is>
           <t>FK's (1-0)</t>
         </is>
       </c>
-      <c r="J7" s="1" t="n"/>
-      <c r="K7" s="1" t="n"/>
-      <c r="L7" s="3" t="inlineStr">
+      <c r="J7" s="3" t="n"/>
+      <c r="K7" s="3" t="n"/>
+      <c r="L7" s="4" t="inlineStr">
         <is>
           <t>Sam G</t>
         </is>
       </c>
-      <c r="M7" s="42" t="inlineStr">
+      <c r="M7" s="38" t="inlineStr">
         <is>
           <t>Eric</t>
         </is>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="52" t="inlineStr">
+      <c r="A8" s="43" t="inlineStr">
         <is>
           <t>6/8/24</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="B8" s="65" t="inlineStr">
         <is>
           <t>Jacob, Sam G, Eric</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="C8" s="65" t="inlineStr">
         <is>
           <t>Kiernan, Brandon, AB</t>
         </is>
       </c>
-      <c r="D8" s="6" t="inlineStr">
+      <c r="D8" s="4" t="inlineStr">
         <is>
           <t>4-1</t>
         </is>
       </c>
-      <c r="E8" s="3" t="inlineStr">
+      <c r="E8" s="4" t="inlineStr">
         <is>
           <t>PK's (2-0)</t>
         </is>
       </c>
-      <c r="F8" s="3" t="inlineStr">
+      <c r="F8" s="4" t="inlineStr">
         <is>
           <t>Cross (3-2)</t>
         </is>
       </c>
-      <c r="G8" s="4" t="inlineStr">
+      <c r="G8" s="5" t="inlineStr">
         <is>
           <t>P&amp;F (0-1)</t>
         </is>
       </c>
-      <c r="H8" s="3" t="inlineStr">
+      <c r="H8" s="4" t="inlineStr">
         <is>
           <t>A/D (1-0)</t>
         </is>
       </c>
-      <c r="I8" s="3" t="inlineStr">
+      <c r="I8" s="4" t="inlineStr">
         <is>
           <t>FK's (1-0)</t>
         </is>
       </c>
-      <c r="J8" s="1" t="n"/>
-      <c r="K8" s="1" t="n"/>
-      <c r="L8" s="3" t="inlineStr">
+      <c r="J8" s="3" t="n"/>
+      <c r="K8" s="3" t="n"/>
+      <c r="L8" s="4" t="inlineStr">
         <is>
           <t>Eric</t>
         </is>
       </c>
-      <c r="M8" s="42" t="inlineStr">
+      <c r="M8" s="38" t="inlineStr">
         <is>
           <t>AB</t>
         </is>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="52" t="inlineStr">
+      <c r="A9" s="43" t="inlineStr">
         <is>
           <t>6/8/24</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="B9" s="65" t="inlineStr">
         <is>
           <t>Jacob, Brandon, AB, Sam S</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="C9" s="65" t="inlineStr">
         <is>
           <t>Kiernan, Sam G, Eric, Aaron</t>
         </is>
       </c>
-      <c r="D9" s="7" t="inlineStr">
+      <c r="D9" s="5" t="inlineStr">
         <is>
           <t>2-3</t>
         </is>
       </c>
-      <c r="E9" s="3" t="inlineStr">
+      <c r="E9" s="4" t="inlineStr">
         <is>
           <t>PK's (2-1)</t>
         </is>
       </c>
-      <c r="F9" s="3" t="inlineStr">
+      <c r="F9" s="4" t="inlineStr">
         <is>
           <t>Cross (3-0)</t>
         </is>
       </c>
-      <c r="G9" s="4" t="inlineStr">
+      <c r="G9" s="5" t="inlineStr">
         <is>
           <t>A/D (0-1)</t>
         </is>
       </c>
-      <c r="H9" s="4" t="inlineStr">
+      <c r="H9" s="5" t="inlineStr">
         <is>
           <t>P&amp;F (0-1)</t>
         </is>
       </c>
-      <c r="I9" s="4" t="inlineStr">
+      <c r="I9" s="5" t="inlineStr">
         <is>
           <t>PK's (0-1)</t>
         </is>
       </c>
-      <c r="J9" s="1" t="n"/>
-      <c r="K9" s="1" t="n"/>
-      <c r="L9" s="4" t="inlineStr">
+      <c r="J9" s="3" t="n"/>
+      <c r="K9" s="3" t="n"/>
+      <c r="L9" s="5" t="inlineStr">
         <is>
           <t>Sam G</t>
         </is>
       </c>
-      <c r="M9" s="43" t="inlineStr">
+      <c r="M9" s="37" t="inlineStr">
         <is>
           <t>AB</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="52" t="inlineStr">
+      <c r="A10" s="43" t="inlineStr">
         <is>
           <t>6/25/24</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="B10" s="65" t="inlineStr">
         <is>
           <t>Jacob, Kiernan, Brandon, Aaron</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="C10" s="65" t="inlineStr">
         <is>
           <t>Sam G, Sam S, AB, Eric</t>
         </is>
       </c>
-      <c r="D10" s="7" t="inlineStr">
+      <c r="D10" s="5" t="inlineStr">
         <is>
           <t>2-3</t>
         </is>
       </c>
-      <c r="E10" s="4" t="inlineStr">
+      <c r="E10" s="5" t="inlineStr">
         <is>
           <t>PK's (1-2)</t>
         </is>
       </c>
-      <c r="F10" s="4" t="inlineStr">
+      <c r="F10" s="5" t="inlineStr">
         <is>
           <t>Cross (2-3)</t>
         </is>
       </c>
-      <c r="G10" s="3" t="inlineStr">
+      <c r="G10" s="4" t="inlineStr">
         <is>
           <t>A/D (1-0)</t>
         </is>
       </c>
-      <c r="H10" s="3" t="inlineStr">
+      <c r="H10" s="4" t="inlineStr">
         <is>
           <t>P&amp;F (1-0)</t>
         </is>
       </c>
-      <c r="I10" s="4" t="inlineStr">
+      <c r="I10" s="5" t="inlineStr">
         <is>
           <t>PK's (0-1)</t>
         </is>
       </c>
-      <c r="J10" s="1" t="n"/>
-      <c r="K10" s="1" t="n"/>
-      <c r="L10" s="3" t="inlineStr">
+      <c r="J10" s="3" t="n"/>
+      <c r="K10" s="3" t="n"/>
+      <c r="L10" s="4" t="inlineStr">
         <is>
           <t>Brandon</t>
         </is>
       </c>
-      <c r="M10" s="42" t="inlineStr">
+      <c r="M10" s="38" t="inlineStr">
         <is>
           <t>AB</t>
         </is>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="52" t="inlineStr">
+      <c r="A11" s="43" t="inlineStr">
         <is>
           <t>6/29/24</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="B11" s="65" t="inlineStr">
         <is>
           <t>Jacob, Brandon, AB</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="C11" s="65" t="inlineStr">
         <is>
           <t>Sam G, Eric, Anthony</t>
         </is>
       </c>
-      <c r="D11" s="6" t="inlineStr">
+      <c r="D11" s="4" t="inlineStr">
         <is>
           <t>2-1</t>
         </is>
       </c>
-      <c r="E11" s="3" t="inlineStr">
+      <c r="E11" s="4" t="inlineStr">
         <is>
           <t>PK's (2-1)</t>
         </is>
       </c>
-      <c r="F11" s="4" t="inlineStr">
+      <c r="F11" s="5" t="inlineStr">
         <is>
           <t>Cross (2-3)</t>
         </is>
       </c>
-      <c r="G11" s="3" t="inlineStr">
+      <c r="G11" s="4" t="inlineStr">
         <is>
           <t>P&amp;F (1-0)</t>
         </is>
       </c>
-      <c r="H11" s="1" t="n"/>
-      <c r="I11" s="1" t="n"/>
-      <c r="J11" s="1" t="n"/>
-      <c r="K11" s="1" t="n"/>
-      <c r="L11" s="3" t="inlineStr">
+      <c r="H11" s="3" t="n"/>
+      <c r="I11" s="3" t="n"/>
+      <c r="J11" s="3" t="n"/>
+      <c r="K11" s="3" t="n"/>
+      <c r="L11" s="4" t="inlineStr">
         <is>
           <t>Brandon</t>
         </is>
       </c>
-      <c r="M11" s="43" t="inlineStr">
+      <c r="M11" s="37" t="inlineStr">
         <is>
           <t>AB</t>
         </is>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="52" t="inlineStr">
+      <c r="A12" s="43" t="inlineStr">
         <is>
           <t>6/30/24</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr">
+      <c r="B12" s="65" t="inlineStr">
         <is>
           <t>Jacob, Sam G, AB</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="C12" s="65" t="inlineStr">
         <is>
           <t>Kiernan, Brandon, Eric, Quinn</t>
         </is>
       </c>
-      <c r="D12" s="6" t="inlineStr">
+      <c r="D12" s="4" t="inlineStr">
         <is>
           <t>3-1</t>
         </is>
       </c>
-      <c r="E12" s="3" t="inlineStr">
+      <c r="E12" s="4" t="inlineStr">
         <is>
           <t>PK's (2-1)</t>
         </is>
       </c>
-      <c r="F12" s="3" t="inlineStr">
+      <c r="F12" s="4" t="inlineStr">
         <is>
           <t>Cross (3-1)</t>
         </is>
       </c>
-      <c r="G12" s="4" t="inlineStr">
+      <c r="G12" s="5" t="inlineStr">
         <is>
           <t>A/D (0-1)</t>
         </is>
       </c>
-      <c r="H12" s="3" t="inlineStr">
+      <c r="H12" s="4" t="inlineStr">
         <is>
           <t>P&amp;F (1-0)</t>
         </is>
       </c>
-      <c r="I12" s="1" t="n"/>
-      <c r="J12" s="1" t="n"/>
-      <c r="K12" s="1" t="n"/>
-      <c r="L12" s="3" t="inlineStr">
+      <c r="I12" s="3" t="n"/>
+      <c r="J12" s="3" t="n"/>
+      <c r="K12" s="3" t="n"/>
+      <c r="L12" s="4" t="inlineStr">
         <is>
           <t>AB</t>
         </is>
       </c>
-      <c r="M12" s="42" t="inlineStr">
+      <c r="M12" s="38" t="inlineStr">
         <is>
           <t>Brandon</t>
         </is>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="52" t="inlineStr">
+      <c r="A13" s="43" t="inlineStr">
         <is>
           <t>7/7/24</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr">
+      <c r="B13" s="65" t="inlineStr">
         <is>
           <t>Jacob, Sam G, AB</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="C13" s="65" t="inlineStr">
         <is>
           <t>Kiernan, Brandon, Eric</t>
         </is>
       </c>
-      <c r="D13" s="6" t="inlineStr">
+      <c r="D13" s="4" t="inlineStr">
         <is>
           <t>2-1</t>
         </is>
       </c>
-      <c r="E13" s="3" t="inlineStr">
+      <c r="E13" s="4" t="inlineStr">
         <is>
           <t>PK's (2-1)</t>
         </is>
       </c>
-      <c r="F13" s="4" t="inlineStr">
+      <c r="F13" s="5" t="inlineStr">
         <is>
           <t>Cross (1-2)</t>
         </is>
       </c>
-      <c r="G13" s="3" t="inlineStr">
+      <c r="G13" s="4" t="inlineStr">
         <is>
           <t>P&amp;F (1-0)</t>
         </is>
       </c>
-      <c r="H13" s="1" t="n"/>
-      <c r="I13" s="1" t="n"/>
-      <c r="J13" s="1" t="n"/>
-      <c r="K13" s="1" t="n"/>
-      <c r="L13" s="3" t="inlineStr">
+      <c r="H13" s="3" t="n"/>
+      <c r="I13" s="3" t="n"/>
+      <c r="J13" s="3" t="n"/>
+      <c r="K13" s="3" t="n"/>
+      <c r="L13" s="4" t="inlineStr">
         <is>
           <t>Jacob</t>
         </is>
       </c>
-      <c r="M13" s="15" t="n"/>
+      <c r="M13" s="73" t="n"/>
     </row>
     <row r="14">
-      <c r="A14" s="52" t="inlineStr">
+      <c r="A14" s="43" t="inlineStr">
         <is>
           <t>7/20/24</t>
         </is>
       </c>
-      <c r="B14" t="inlineStr">
+      <c r="B14" s="65" t="inlineStr">
         <is>
           <t>Jacob, Kiernan, Brandon, Quinn</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
+      <c r="C14" s="65" t="inlineStr">
         <is>
           <t>Sam G, Aaron, AB, Eric</t>
         </is>
       </c>
-      <c r="D14" s="6" t="inlineStr">
+      <c r="D14" s="4" t="inlineStr">
         <is>
           <t>4-3</t>
         </is>
       </c>
-      <c r="E14" s="7" t="inlineStr">
+      <c r="E14" s="5" t="inlineStr">
         <is>
           <t>PK's (0-2)</t>
         </is>
       </c>
-      <c r="F14" s="7" t="inlineStr">
+      <c r="F14" s="5" t="inlineStr">
         <is>
           <t>Cross (1-3)</t>
         </is>
       </c>
-      <c r="G14" s="6" t="inlineStr">
+      <c r="G14" s="4" t="inlineStr">
         <is>
           <t>A/D (1-0)</t>
         </is>
       </c>
-      <c r="H14" s="7" t="inlineStr">
+      <c r="H14" s="5" t="inlineStr">
         <is>
           <t>P&amp;F (0-1)</t>
         </is>
       </c>
-      <c r="I14" s="6" t="inlineStr">
+      <c r="I14" s="4" t="inlineStr">
         <is>
           <t>FK's (1-0)</t>
         </is>
       </c>
-      <c r="J14" s="6" t="inlineStr">
+      <c r="J14" s="4" t="inlineStr">
         <is>
           <t>SS (1-0)</t>
         </is>
       </c>
-      <c r="K14" s="6" t="inlineStr">
+      <c r="K14" s="4" t="inlineStr">
         <is>
           <t>PK's (1-0)</t>
         </is>
       </c>
-      <c r="L14" s="7" t="inlineStr">
+      <c r="L14" s="5" t="inlineStr">
         <is>
           <t>Eric</t>
         </is>
       </c>
-      <c r="M14" s="44" t="inlineStr">
+      <c r="M14" s="37" t="inlineStr">
         <is>
           <t>Kiernan</t>
         </is>
@@ -5634,475 +5613,905 @@
       <c r="O14" s="1" t="n"/>
     </row>
     <row r="15">
-      <c r="A15" s="52" t="inlineStr">
+      <c r="A15" s="43" t="inlineStr">
         <is>
           <t>11/29/24</t>
         </is>
       </c>
-      <c r="B15" t="inlineStr">
+      <c r="B15" s="65" t="inlineStr">
         <is>
           <t>Jacob, Sam G, Aaron</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
+      <c r="C15" s="65" t="inlineStr">
         <is>
           <t>Kiernan, AB, Sam S</t>
         </is>
       </c>
-      <c r="D15" s="7" t="inlineStr">
+      <c r="D15" s="5" t="inlineStr">
         <is>
           <t>0-2</t>
         </is>
       </c>
-      <c r="E15" s="7" t="inlineStr">
+      <c r="E15" s="5" t="inlineStr">
         <is>
           <t>PK's (1-2)</t>
         </is>
       </c>
-      <c r="F15" s="7" t="inlineStr">
+      <c r="F15" s="5" t="inlineStr">
         <is>
           <t>Cross (1-3)</t>
         </is>
       </c>
-      <c r="G15" s="5" t="n"/>
-      <c r="H15" s="5" t="n"/>
-      <c r="I15" s="5" t="n"/>
-      <c r="J15" s="5" t="n"/>
-      <c r="K15" s="5" t="n"/>
-      <c r="L15" s="7" t="inlineStr">
+      <c r="G15" s="3" t="n"/>
+      <c r="H15" s="3" t="n"/>
+      <c r="I15" s="3" t="n"/>
+      <c r="J15" s="3" t="n"/>
+      <c r="K15" s="3" t="n"/>
+      <c r="L15" s="5" t="inlineStr">
         <is>
           <t>Sam S</t>
         </is>
       </c>
-      <c r="M15" s="45" t="inlineStr">
+      <c r="M15" s="38" t="inlineStr">
         <is>
           <t>Kiernan</t>
         </is>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="52" t="inlineStr">
+      <c r="A16" s="43" t="inlineStr">
         <is>
           <t>12/27/24</t>
         </is>
       </c>
-      <c r="B16" t="inlineStr">
+      <c r="B16" s="65" t="inlineStr">
         <is>
           <t>Jacob, Sam G, AB, Aaron</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
+      <c r="C16" s="65" t="inlineStr">
         <is>
           <t>Kiernan, Brandon, Sam S</t>
         </is>
       </c>
-      <c r="D16" s="7" t="inlineStr">
+      <c r="D16" s="5" t="inlineStr">
         <is>
           <t>1-3</t>
         </is>
       </c>
-      <c r="E16" s="6" t="inlineStr">
+      <c r="E16" s="4" t="inlineStr">
         <is>
           <t>PK's (3-1)</t>
         </is>
       </c>
-      <c r="F16" s="7" t="inlineStr">
+      <c r="F16" s="5" t="inlineStr">
         <is>
           <t>Cross (0-3)</t>
         </is>
       </c>
-      <c r="G16" s="7" t="inlineStr">
+      <c r="G16" s="5" t="inlineStr">
         <is>
           <t>Cross (0-3)</t>
         </is>
       </c>
-      <c r="H16" s="7" t="inlineStr">
+      <c r="H16" s="5" t="inlineStr">
         <is>
           <t>P&amp;F (0-1)</t>
         </is>
       </c>
-      <c r="I16" s="5" t="n"/>
-      <c r="J16" s="5" t="n"/>
-      <c r="K16" s="5" t="n"/>
-      <c r="L16" s="7" t="inlineStr">
+      <c r="I16" s="3" t="n"/>
+      <c r="J16" s="3" t="n"/>
+      <c r="K16" s="3" t="n"/>
+      <c r="L16" s="5" t="inlineStr">
         <is>
           <t>Brandon</t>
         </is>
       </c>
-      <c r="M16" s="44" t="inlineStr">
+      <c r="M16" s="37" t="inlineStr">
         <is>
           <t>Aaron</t>
         </is>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="53" t="inlineStr">
+      <c r="A17" s="44" t="inlineStr">
         <is>
           <t>12/31/24</t>
         </is>
       </c>
-      <c r="B17" s="37" t="inlineStr">
+      <c r="B17" s="74" t="inlineStr">
         <is>
           <t>Jacob, Kiernan, Sam S, Quinn</t>
         </is>
       </c>
-      <c r="C17" s="37" t="inlineStr">
+      <c r="C17" s="74" t="inlineStr">
         <is>
           <t>Sam G, Brandon, AB, Aaron</t>
         </is>
       </c>
-      <c r="D17" s="38" t="inlineStr">
+      <c r="D17" s="33" t="inlineStr">
         <is>
           <t>3-4</t>
         </is>
       </c>
-      <c r="E17" s="38" t="inlineStr">
+      <c r="E17" s="33" t="inlineStr">
         <is>
           <t>PK's (1-3)</t>
         </is>
       </c>
-      <c r="F17" s="39" t="inlineStr">
+      <c r="F17" s="34" t="inlineStr">
         <is>
           <t>Cross (3-2)</t>
         </is>
       </c>
-      <c r="G17" s="38" t="inlineStr">
+      <c r="G17" s="33" t="inlineStr">
         <is>
           <t>A/D (0-1)</t>
         </is>
       </c>
-      <c r="H17" s="38" t="inlineStr">
+      <c r="H17" s="33" t="inlineStr">
         <is>
           <t>P&amp;F (0-1)</t>
         </is>
       </c>
-      <c r="I17" s="39" t="inlineStr">
+      <c r="I17" s="34" t="inlineStr">
         <is>
           <t>Cross (2-1)</t>
         </is>
       </c>
-      <c r="J17" s="39" t="inlineStr">
+      <c r="J17" s="34" t="inlineStr">
         <is>
           <t>FK's (1-0)</t>
         </is>
       </c>
-      <c r="K17" s="38" t="inlineStr">
+      <c r="K17" s="33" t="inlineStr">
         <is>
           <t>PK's (0-1)</t>
         </is>
       </c>
-      <c r="L17" s="38" t="inlineStr">
+      <c r="L17" s="33" t="inlineStr">
         <is>
           <t>Sam G</t>
         </is>
       </c>
-      <c r="M17" s="46" t="inlineStr">
+      <c r="M17" s="39" t="inlineStr">
         <is>
           <t>Sam S</t>
         </is>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="52" t="inlineStr">
+      <c r="A18" s="43" t="inlineStr">
         <is>
           <t>1/2/25</t>
         </is>
       </c>
-      <c r="B18" t="inlineStr">
+      <c r="B18" s="65" t="inlineStr">
         <is>
           <t>Jacob, Sam G, Sam S, Aaron</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr">
+      <c r="C18" s="65" t="inlineStr">
         <is>
           <t>Kiernan, Brandon, AB, Quinn</t>
         </is>
       </c>
-      <c r="D18" s="7" t="inlineStr">
+      <c r="D18" s="5" t="inlineStr">
         <is>
           <t>1-3</t>
         </is>
       </c>
-      <c r="E18" s="7" t="inlineStr">
+      <c r="E18" s="5" t="inlineStr">
         <is>
           <t>PK's (0-2)</t>
         </is>
       </c>
-      <c r="F18" s="6" t="inlineStr">
+      <c r="F18" s="4" t="inlineStr">
         <is>
           <t>Cross (3-2)</t>
         </is>
       </c>
-      <c r="G18" s="7" t="inlineStr">
+      <c r="G18" s="5" t="inlineStr">
         <is>
           <t>A/D (0-1)</t>
         </is>
       </c>
-      <c r="H18" s="7" t="inlineStr">
+      <c r="H18" s="5" t="inlineStr">
         <is>
           <t>P&amp;F (0-1)</t>
         </is>
       </c>
-      <c r="I18" s="5" t="n"/>
-      <c r="J18" s="5" t="n"/>
-      <c r="K18" s="5" t="n"/>
-      <c r="L18" s="7" t="inlineStr">
+      <c r="I18" s="3" t="n"/>
+      <c r="J18" s="3" t="n"/>
+      <c r="K18" s="3" t="n"/>
+      <c r="L18" s="5" t="inlineStr">
         <is>
           <t>Brandon</t>
         </is>
       </c>
-      <c r="M18" s="5" t="n"/>
+      <c r="M18" s="3" t="n"/>
     </row>
     <row r="19">
-      <c r="A19" s="33" t="n"/>
-      <c r="D19" s="5" t="n"/>
-      <c r="E19" s="5" t="n"/>
-      <c r="F19" s="5" t="n"/>
-      <c r="G19" s="5" t="n"/>
-      <c r="H19" s="5" t="n"/>
-      <c r="I19" s="5" t="n"/>
-      <c r="J19" s="5" t="n"/>
-      <c r="K19" s="5" t="n"/>
-      <c r="L19" s="5" t="n"/>
-      <c r="M19" s="5" t="n"/>
+      <c r="A19" s="43" t="inlineStr">
+        <is>
+          <t>5/26/25</t>
+        </is>
+      </c>
+      <c r="B19" s="65" t="inlineStr">
+        <is>
+          <t>Jacob, Sam G, Anthony, Aaron</t>
+        </is>
+      </c>
+      <c r="C19" s="65" t="inlineStr">
+        <is>
+          <t>Kiernan, Brandon, Sam S, Eric, Quinn</t>
+        </is>
+      </c>
+      <c r="D19" s="4" t="inlineStr">
+        <is>
+          <t>3-2</t>
+        </is>
+      </c>
+      <c r="E19" s="4" t="inlineStr">
+        <is>
+          <t>PK's (2-1)</t>
+        </is>
+      </c>
+      <c r="F19" s="4" t="inlineStr">
+        <is>
+          <t>Cross (3-2)</t>
+        </is>
+      </c>
+      <c r="G19" s="5" t="inlineStr">
+        <is>
+          <t>A/D (0-1)</t>
+        </is>
+      </c>
+      <c r="H19" s="5" t="inlineStr">
+        <is>
+          <t>P&amp;F (0-1)</t>
+        </is>
+      </c>
+      <c r="I19" s="4" t="inlineStr">
+        <is>
+          <t>PK's (1-0)</t>
+        </is>
+      </c>
+      <c r="J19" s="3" t="n"/>
+      <c r="K19" s="3" t="n"/>
+      <c r="L19" s="4" t="inlineStr">
+        <is>
+          <t>Jacob</t>
+        </is>
+      </c>
+      <c r="M19" s="5" t="inlineStr">
+        <is>
+          <t>Brandon</t>
+        </is>
+      </c>
     </row>
     <row r="20">
-      <c r="D20" s="5" t="n"/>
-      <c r="E20" s="5" t="n"/>
-      <c r="F20" s="5" t="n"/>
-      <c r="G20" s="5" t="n"/>
-      <c r="H20" s="5" t="n"/>
-      <c r="I20" s="5" t="n"/>
-      <c r="J20" s="5" t="n"/>
-      <c r="K20" s="5" t="n"/>
-      <c r="L20" s="5" t="n"/>
-      <c r="M20" s="5" t="n"/>
+      <c r="B20" s="65" t="n"/>
+      <c r="C20" s="65" t="n"/>
+      <c r="D20" s="3" t="n"/>
+      <c r="E20" s="3" t="n"/>
+      <c r="F20" s="3" t="n"/>
+      <c r="G20" s="3" t="n"/>
+      <c r="H20" s="3" t="n"/>
+      <c r="I20" s="3" t="n"/>
+      <c r="J20" s="3" t="n"/>
+      <c r="K20" s="3" t="n"/>
+      <c r="L20" s="3" t="n"/>
+      <c r="M20" s="3" t="n"/>
     </row>
     <row r="21">
-      <c r="D21" s="5" t="n"/>
-      <c r="E21" s="5" t="n"/>
-      <c r="F21" s="5" t="n"/>
-      <c r="G21" s="5" t="n"/>
-      <c r="H21" s="5" t="n"/>
-      <c r="I21" s="5" t="n"/>
-      <c r="J21" s="5" t="n"/>
-      <c r="K21" s="5" t="n"/>
-      <c r="L21" s="5" t="n"/>
-      <c r="M21" s="5" t="n"/>
+      <c r="B21" s="65" t="n"/>
+      <c r="C21" s="65" t="n"/>
+      <c r="D21" s="3" t="n"/>
+      <c r="E21" s="3" t="n"/>
+      <c r="F21" s="3" t="n"/>
+      <c r="G21" s="3" t="n"/>
+      <c r="H21" s="3" t="n"/>
+      <c r="I21" s="3" t="n"/>
+      <c r="J21" s="3" t="n"/>
+      <c r="K21" s="3" t="n"/>
+      <c r="L21" s="3" t="n"/>
+      <c r="M21" s="3" t="n"/>
     </row>
     <row r="22">
-      <c r="D22" s="5" t="n"/>
-      <c r="E22" s="5" t="n"/>
-      <c r="F22" s="5" t="n"/>
-      <c r="G22" s="5" t="n"/>
-      <c r="H22" s="5" t="n"/>
-      <c r="I22" s="5" t="n"/>
-      <c r="J22" s="5" t="n"/>
-      <c r="K22" s="5" t="n"/>
-      <c r="L22" s="5" t="n"/>
-      <c r="M22" s="5" t="n"/>
+      <c r="B22" s="65" t="n"/>
+      <c r="C22" s="65" t="n"/>
+      <c r="D22" s="3" t="n"/>
+      <c r="E22" s="3" t="n"/>
+      <c r="F22" s="3" t="n"/>
+      <c r="G22" s="3" t="n"/>
+      <c r="H22" s="3" t="n"/>
+      <c r="I22" s="3" t="n"/>
+      <c r="J22" s="3" t="n"/>
+      <c r="K22" s="3" t="n"/>
+      <c r="L22" s="3" t="n"/>
+      <c r="M22" s="3" t="n"/>
     </row>
     <row r="23">
-      <c r="C23" s="50" t="n"/>
-      <c r="D23" s="5" t="n"/>
-      <c r="E23" s="5" t="n"/>
-      <c r="F23" s="5" t="n"/>
-      <c r="G23" s="5" t="n"/>
-      <c r="H23" s="5" t="n"/>
-      <c r="I23" s="5" t="n"/>
-      <c r="J23" s="5" t="n"/>
-      <c r="K23" s="5" t="n"/>
-      <c r="L23" s="5" t="n"/>
-      <c r="M23" s="5" t="n"/>
+      <c r="B23" s="65" t="n"/>
+      <c r="C23" s="65" t="n"/>
+      <c r="D23" s="3" t="n"/>
+      <c r="E23" s="3" t="n"/>
+      <c r="F23" s="3" t="n"/>
+      <c r="G23" s="3" t="n"/>
+      <c r="H23" s="3" t="n"/>
+      <c r="I23" s="3" t="n"/>
+      <c r="J23" s="3" t="n"/>
+      <c r="K23" s="3" t="n"/>
+      <c r="L23" s="3" t="n"/>
+      <c r="M23" s="3" t="n"/>
     </row>
     <row r="24">
-      <c r="C24" s="50" t="n"/>
-      <c r="D24" s="5" t="n"/>
-      <c r="E24" s="5" t="n"/>
-      <c r="F24" s="5" t="n"/>
-      <c r="G24" s="5" t="n"/>
-      <c r="H24" s="5" t="n"/>
-      <c r="I24" s="5" t="n"/>
-      <c r="J24" s="5" t="n"/>
-      <c r="K24" s="5" t="n"/>
-      <c r="L24" s="5" t="n"/>
-      <c r="M24" s="5" t="n"/>
+      <c r="B24" s="65" t="n"/>
+      <c r="C24" s="65" t="n"/>
+      <c r="D24" s="3" t="n"/>
+      <c r="E24" s="3" t="n"/>
+      <c r="F24" s="3" t="n"/>
+      <c r="G24" s="3" t="n"/>
+      <c r="H24" s="3" t="n"/>
+      <c r="I24" s="3" t="n"/>
+      <c r="J24" s="3" t="n"/>
+      <c r="K24" s="3" t="n"/>
+      <c r="L24" s="3" t="n"/>
+      <c r="M24" s="3" t="n"/>
     </row>
     <row r="25">
-      <c r="C25" s="50" t="n"/>
-      <c r="D25" s="5" t="n"/>
-      <c r="E25" s="5" t="n"/>
-      <c r="F25" s="5" t="n"/>
-      <c r="G25" s="5" t="n"/>
-      <c r="H25" s="5" t="n"/>
-      <c r="I25" s="5" t="n"/>
-      <c r="J25" s="5" t="n"/>
-      <c r="K25" s="5" t="n"/>
-      <c r="L25" s="5" t="n"/>
-      <c r="M25" s="5" t="n"/>
+      <c r="B25" s="65" t="n"/>
+      <c r="C25" s="65" t="n"/>
+      <c r="D25" s="3" t="n"/>
+      <c r="E25" s="3" t="n"/>
+      <c r="F25" s="3" t="n"/>
+      <c r="G25" s="3" t="n"/>
+      <c r="H25" s="3" t="n"/>
+      <c r="I25" s="3" t="n"/>
+      <c r="J25" s="3" t="n"/>
+      <c r="K25" s="3" t="n"/>
+      <c r="L25" s="3" t="n"/>
+      <c r="M25" s="3" t="n"/>
     </row>
     <row r="26">
-      <c r="C26" s="50" t="n"/>
-      <c r="D26" s="5" t="n"/>
-      <c r="E26" s="5" t="n"/>
-      <c r="F26" s="5" t="n"/>
-      <c r="G26" s="5" t="n"/>
-      <c r="H26" s="5" t="n"/>
-      <c r="I26" s="5" t="n"/>
-      <c r="J26" s="5" t="n"/>
-      <c r="K26" s="5" t="n"/>
-      <c r="L26" s="5" t="n"/>
-      <c r="M26" s="5" t="n"/>
+      <c r="B26" s="65" t="n"/>
+      <c r="C26" s="65" t="n"/>
+      <c r="D26" s="3" t="n"/>
+      <c r="E26" s="3" t="n"/>
+      <c r="F26" s="3" t="n"/>
+      <c r="G26" s="3" t="n"/>
+      <c r="H26" s="3" t="n"/>
+      <c r="I26" s="3" t="n"/>
+      <c r="J26" s="3" t="n"/>
+      <c r="K26" s="3" t="n"/>
+      <c r="L26" s="3" t="n"/>
+      <c r="M26" s="3" t="n"/>
     </row>
     <row r="27">
-      <c r="C27" s="50" t="n"/>
-      <c r="D27" s="5" t="n"/>
-      <c r="E27" s="21" t="n"/>
-      <c r="F27" s="21" t="n"/>
-      <c r="G27" s="21" t="n"/>
-      <c r="H27" s="21" t="n"/>
-      <c r="I27" s="21" t="n"/>
-      <c r="J27" s="21" t="n"/>
-      <c r="K27" s="21" t="n"/>
-      <c r="L27" s="21" t="n"/>
-      <c r="M27" s="21" t="n"/>
-      <c r="N27" s="19" t="n"/>
-      <c r="O27" s="20" t="n"/>
+      <c r="B27" s="65" t="n"/>
+      <c r="C27" s="65" t="n"/>
+      <c r="D27" s="3" t="n"/>
+      <c r="E27" s="19" t="n"/>
+      <c r="F27" s="19" t="n"/>
+      <c r="G27" s="19" t="n"/>
+      <c r="H27" s="19" t="n"/>
+      <c r="I27" s="19" t="n"/>
+      <c r="J27" s="19" t="n"/>
+      <c r="K27" s="19" t="n"/>
+      <c r="L27" s="19" t="n"/>
+      <c r="M27" s="19" t="n"/>
+      <c r="N27" s="17" t="n"/>
+      <c r="O27" s="18" t="n"/>
     </row>
     <row r="28">
-      <c r="C28" s="50" t="n"/>
-      <c r="D28" s="5" t="n"/>
-      <c r="E28" s="21" t="n"/>
-      <c r="F28" s="21" t="n"/>
-      <c r="G28" s="21" t="n"/>
-      <c r="H28" s="21" t="n"/>
-      <c r="I28" s="21" t="n"/>
-      <c r="J28" s="21" t="n"/>
-      <c r="K28" s="21" t="n"/>
-      <c r="L28" s="21" t="n"/>
-      <c r="M28" s="21" t="n"/>
-      <c r="N28" s="19" t="n"/>
-      <c r="O28" s="20" t="n"/>
+      <c r="B28" s="65" t="n"/>
+      <c r="C28" s="65" t="n"/>
+      <c r="D28" s="3" t="n"/>
+      <c r="E28" s="19" t="n"/>
+      <c r="F28" s="19" t="n"/>
+      <c r="G28" s="19" t="n"/>
+      <c r="H28" s="19" t="n"/>
+      <c r="I28" s="19" t="n"/>
+      <c r="J28" s="19" t="n"/>
+      <c r="K28" s="19" t="n"/>
+      <c r="L28" s="19" t="n"/>
+      <c r="M28" s="19" t="n"/>
+      <c r="N28" s="17" t="n"/>
+      <c r="O28" s="18" t="n"/>
     </row>
     <row r="29">
-      <c r="C29" s="50" t="n"/>
-      <c r="D29" s="5" t="n"/>
-      <c r="E29" s="21" t="n"/>
-      <c r="F29" s="21" t="n"/>
-      <c r="G29" s="21" t="n"/>
-      <c r="H29" s="21" t="n"/>
-      <c r="I29" s="21" t="n"/>
-      <c r="J29" s="21" t="n"/>
-      <c r="K29" s="21" t="n"/>
-      <c r="L29" s="21" t="n"/>
-      <c r="M29" s="21" t="n"/>
-      <c r="N29" s="19" t="n"/>
-      <c r="O29" s="20" t="n"/>
+      <c r="B29" s="65" t="n"/>
+      <c r="C29" s="65" t="n"/>
+      <c r="D29" s="3" t="n"/>
+      <c r="E29" s="19" t="n"/>
+      <c r="F29" s="19" t="n"/>
+      <c r="G29" s="19" t="n"/>
+      <c r="H29" s="19" t="n"/>
+      <c r="I29" s="19" t="n"/>
+      <c r="J29" s="19" t="n"/>
+      <c r="K29" s="19" t="n"/>
+      <c r="L29" s="19" t="n"/>
+      <c r="M29" s="19" t="n"/>
+      <c r="N29" s="17" t="n"/>
+      <c r="O29" s="18" t="n"/>
     </row>
     <row r="30">
-      <c r="C30" s="50" t="n"/>
-      <c r="D30" s="51" t="n"/>
-      <c r="E30" s="22" t="n"/>
-      <c r="F30" s="22" t="n"/>
-      <c r="G30" s="22" t="n"/>
-      <c r="H30" s="22" t="n"/>
-      <c r="I30" s="22" t="n"/>
-      <c r="J30" s="22" t="n"/>
-      <c r="K30" s="22" t="n"/>
-      <c r="L30" s="22" t="n"/>
-      <c r="M30" s="22" t="n"/>
-      <c r="N30" s="19" t="n"/>
-      <c r="O30" s="20" t="n"/>
+      <c r="B30" s="65" t="n"/>
+      <c r="C30" s="65" t="n"/>
+      <c r="D30" s="3" t="n"/>
+      <c r="E30" s="19" t="n"/>
+      <c r="F30" s="19" t="n"/>
+      <c r="G30" s="19" t="n"/>
+      <c r="H30" s="19" t="n"/>
+      <c r="I30" s="19" t="n"/>
+      <c r="J30" s="19" t="n"/>
+      <c r="K30" s="19" t="n"/>
+      <c r="L30" s="19" t="n"/>
+      <c r="M30" s="19" t="n"/>
+      <c r="N30" s="17" t="n"/>
+      <c r="O30" s="18" t="n"/>
     </row>
     <row r="31">
-      <c r="C31" s="50" t="n"/>
-      <c r="D31" s="5" t="n"/>
-      <c r="E31" s="23" t="n"/>
-      <c r="F31" s="23" t="n"/>
-      <c r="G31" s="23" t="n"/>
-      <c r="H31" s="23" t="n"/>
-      <c r="I31" s="23" t="n"/>
-      <c r="J31" s="23" t="n"/>
-      <c r="K31" s="23" t="n"/>
-      <c r="L31" s="23" t="n"/>
-      <c r="M31" s="23" t="n"/>
-      <c r="N31" s="19" t="n"/>
-      <c r="O31" s="20" t="n"/>
+      <c r="B31" s="65" t="n"/>
+      <c r="C31" s="65" t="n"/>
+      <c r="D31" s="3" t="n"/>
+      <c r="E31" s="19" t="n"/>
+      <c r="F31" s="19" t="n"/>
+      <c r="G31" s="19" t="n"/>
+      <c r="H31" s="19" t="n"/>
+      <c r="I31" s="19" t="n"/>
+      <c r="J31" s="19" t="n"/>
+      <c r="K31" s="19" t="n"/>
+      <c r="L31" s="19" t="n"/>
+      <c r="M31" s="19" t="n"/>
+      <c r="N31" s="17" t="n"/>
+      <c r="O31" s="18" t="n"/>
     </row>
     <row r="32">
-      <c r="C32" s="50" t="n"/>
-      <c r="D32" s="5" t="n"/>
-      <c r="E32" s="23" t="n"/>
-      <c r="F32" s="23" t="n"/>
-      <c r="G32" s="23" t="n"/>
-      <c r="H32" s="23" t="n"/>
-      <c r="I32" s="23" t="n"/>
-      <c r="J32" s="23" t="n"/>
-      <c r="K32" s="23" t="n"/>
-      <c r="L32" s="23" t="n"/>
-      <c r="M32" s="23" t="n"/>
-      <c r="N32" s="19" t="n"/>
-      <c r="O32" s="20" t="n"/>
+      <c r="B32" s="65" t="n"/>
+      <c r="C32" s="65" t="n"/>
+      <c r="D32" s="3" t="n"/>
+      <c r="E32" s="19" t="n"/>
+      <c r="F32" s="19" t="n"/>
+      <c r="G32" s="19" t="n"/>
+      <c r="H32" s="19" t="n"/>
+      <c r="I32" s="19" t="n"/>
+      <c r="J32" s="19" t="n"/>
+      <c r="K32" s="19" t="n"/>
+      <c r="L32" s="19" t="n"/>
+      <c r="M32" s="19" t="n"/>
+      <c r="N32" s="17" t="n"/>
+      <c r="O32" s="18" t="n"/>
     </row>
     <row r="33">
-      <c r="C33" s="50" t="n"/>
-      <c r="D33" s="5" t="n"/>
-      <c r="E33" s="23" t="n"/>
-      <c r="F33" s="23" t="n"/>
-      <c r="G33" s="23" t="n"/>
-      <c r="H33" s="23" t="n"/>
-      <c r="I33" s="23" t="n"/>
-      <c r="J33" s="23" t="n"/>
-      <c r="K33" s="23" t="n"/>
-      <c r="L33" s="23" t="n"/>
-      <c r="M33" s="23" t="n"/>
-      <c r="N33" s="19" t="n"/>
-      <c r="O33" s="20" t="n"/>
+      <c r="B33" s="65" t="n"/>
+      <c r="C33" s="65" t="n"/>
+      <c r="D33" s="3" t="n"/>
+      <c r="E33" s="19" t="n"/>
+      <c r="F33" s="19" t="n"/>
+      <c r="G33" s="19" t="n"/>
+      <c r="H33" s="19" t="n"/>
+      <c r="I33" s="19" t="n"/>
+      <c r="J33" s="19" t="n"/>
+      <c r="K33" s="19" t="n"/>
+      <c r="L33" s="19" t="n"/>
+      <c r="M33" s="19" t="n"/>
+      <c r="N33" s="17" t="n"/>
+      <c r="O33" s="18" t="n"/>
     </row>
     <row r="34">
-      <c r="C34" s="50" t="n"/>
-      <c r="D34" s="5" t="n"/>
-      <c r="E34" s="23" t="n"/>
-      <c r="F34" s="23" t="n"/>
-      <c r="G34" s="23" t="n"/>
-      <c r="H34" s="23" t="n"/>
-      <c r="I34" s="23" t="n"/>
-      <c r="J34" s="23" t="n"/>
-      <c r="K34" s="23" t="n"/>
-      <c r="L34" s="23" t="n"/>
-      <c r="M34" s="23" t="n"/>
-      <c r="N34" s="19" t="n"/>
-      <c r="O34" s="20" t="n"/>
+      <c r="B34" s="65" t="n"/>
+      <c r="C34" s="65" t="n"/>
+      <c r="D34" s="3" t="n"/>
+      <c r="E34" s="19" t="n"/>
+      <c r="F34" s="19" t="n"/>
+      <c r="G34" s="19" t="n"/>
+      <c r="H34" s="19" t="n"/>
+      <c r="I34" s="19" t="n"/>
+      <c r="J34" s="19" t="n"/>
+      <c r="K34" s="19" t="n"/>
+      <c r="L34" s="19" t="n"/>
+      <c r="M34" s="19" t="n"/>
+      <c r="N34" s="17" t="n"/>
+      <c r="O34" s="18" t="n"/>
     </row>
     <row r="35">
-      <c r="C35" s="50" t="n"/>
-      <c r="D35" s="5" t="n"/>
-      <c r="E35" s="19" t="n"/>
-      <c r="F35" s="19" t="n"/>
-      <c r="G35" s="19" t="n"/>
-      <c r="H35" s="19" t="n"/>
-      <c r="I35" s="19" t="n"/>
-      <c r="J35" s="19" t="n"/>
-      <c r="K35" s="19" t="n"/>
-      <c r="L35" s="19" t="n"/>
-      <c r="M35" s="19" t="n"/>
-      <c r="N35" s="19" t="n"/>
-      <c r="O35" s="20" t="n"/>
+      <c r="B35" s="65" t="n"/>
+      <c r="C35" s="65" t="n"/>
+      <c r="D35" s="3" t="n"/>
+      <c r="E35" s="75" t="n"/>
+      <c r="F35" s="75" t="n"/>
+      <c r="G35" s="75" t="n"/>
+      <c r="H35" s="75" t="n"/>
+      <c r="I35" s="75" t="n"/>
+      <c r="J35" s="75" t="n"/>
+      <c r="K35" s="75" t="n"/>
+      <c r="L35" s="75" t="n"/>
+      <c r="M35" s="75" t="n"/>
+      <c r="N35" s="17" t="n"/>
+      <c r="O35" s="18" t="n"/>
     </row>
     <row r="36">
-      <c r="C36" s="50" t="n"/>
-      <c r="D36" s="5" t="n"/>
-      <c r="E36" s="19" t="n"/>
-      <c r="F36" s="19" t="n"/>
-      <c r="G36" s="19" t="n"/>
-      <c r="H36" s="19" t="n"/>
-      <c r="I36" s="19" t="n"/>
-      <c r="J36" s="19" t="n"/>
-      <c r="K36" s="19" t="n"/>
-      <c r="L36" s="19" t="n"/>
-      <c r="M36" s="19" t="n"/>
-      <c r="N36" s="19" t="n"/>
-      <c r="O36" s="20" t="n"/>
+      <c r="B36" s="65" t="n"/>
+      <c r="C36" s="65" t="n"/>
+      <c r="D36" s="3" t="n"/>
+      <c r="E36" s="75" t="n"/>
+      <c r="F36" s="75" t="n"/>
+      <c r="G36" s="75" t="n"/>
+      <c r="H36" s="75" t="n"/>
+      <c r="I36" s="75" t="n"/>
+      <c r="J36" s="75" t="n"/>
+      <c r="K36" s="75" t="n"/>
+      <c r="L36" s="75" t="n"/>
+      <c r="M36" s="75" t="n"/>
+      <c r="N36" s="17" t="n"/>
+      <c r="O36" s="18" t="n"/>
+    </row>
+    <row r="37">
+      <c r="B37" s="65" t="n"/>
+      <c r="C37" s="65" t="n"/>
+      <c r="D37" s="65" t="n"/>
+      <c r="E37" s="65" t="n"/>
+      <c r="F37" s="65" t="n"/>
+      <c r="G37" s="65" t="n"/>
+      <c r="H37" s="65" t="n"/>
+      <c r="I37" s="65" t="n"/>
+      <c r="J37" s="65" t="n"/>
+      <c r="K37" s="65" t="n"/>
+      <c r="L37" s="65" t="n"/>
+      <c r="M37" s="65" t="n"/>
+    </row>
+    <row r="38">
+      <c r="B38" s="65" t="n"/>
+      <c r="C38" s="65" t="n"/>
+      <c r="D38" s="65" t="n"/>
+      <c r="E38" s="65" t="n"/>
+      <c r="F38" s="65" t="n"/>
+      <c r="G38" s="65" t="n"/>
+      <c r="H38" s="65" t="n"/>
+      <c r="I38" s="65" t="n"/>
+      <c r="J38" s="65" t="n"/>
+      <c r="K38" s="65" t="n"/>
+      <c r="L38" s="65" t="n"/>
+      <c r="M38" s="65" t="n"/>
+    </row>
+    <row r="39">
+      <c r="B39" s="65" t="n"/>
+      <c r="C39" s="65" t="n"/>
+      <c r="D39" s="65" t="n"/>
+      <c r="E39" s="65" t="n"/>
+      <c r="F39" s="65" t="n"/>
+      <c r="G39" s="65" t="n"/>
+      <c r="H39" s="65" t="n"/>
+      <c r="I39" s="65" t="n"/>
+      <c r="J39" s="65" t="n"/>
+      <c r="K39" s="65" t="n"/>
+      <c r="L39" s="65" t="n"/>
+      <c r="M39" s="65" t="n"/>
+    </row>
+    <row r="40">
+      <c r="B40" s="65" t="n"/>
+      <c r="C40" s="65" t="n"/>
+      <c r="D40" s="65" t="n"/>
+      <c r="E40" s="65" t="n"/>
+      <c r="F40" s="65" t="n"/>
+      <c r="G40" s="65" t="n"/>
+      <c r="H40" s="65" t="n"/>
+      <c r="I40" s="65" t="n"/>
+      <c r="J40" s="65" t="n"/>
+      <c r="K40" s="65" t="n"/>
+      <c r="L40" s="65" t="n"/>
+      <c r="M40" s="65" t="n"/>
+    </row>
+    <row r="41">
+      <c r="B41" s="65" t="n"/>
+      <c r="C41" s="65" t="n"/>
+      <c r="D41" s="65" t="n"/>
+      <c r="E41" s="65" t="n"/>
+      <c r="F41" s="65" t="n"/>
+      <c r="G41" s="65" t="n"/>
+      <c r="H41" s="65" t="n"/>
+      <c r="I41" s="65" t="n"/>
+      <c r="J41" s="65" t="n"/>
+      <c r="K41" s="65" t="n"/>
+      <c r="L41" s="65" t="n"/>
+      <c r="M41" s="65" t="n"/>
+    </row>
+    <row r="42">
+      <c r="B42" s="65" t="n"/>
+      <c r="C42" s="65" t="n"/>
+      <c r="D42" s="65" t="n"/>
+      <c r="E42" s="65" t="n"/>
+      <c r="F42" s="65" t="n"/>
+      <c r="G42" s="65" t="n"/>
+      <c r="H42" s="65" t="n"/>
+      <c r="I42" s="65" t="n"/>
+      <c r="J42" s="65" t="n"/>
+      <c r="K42" s="65" t="n"/>
+      <c r="L42" s="65" t="n"/>
+      <c r="M42" s="65" t="n"/>
+    </row>
+    <row r="43">
+      <c r="B43" s="65" t="n"/>
+      <c r="C43" s="65" t="n"/>
+      <c r="D43" s="65" t="n"/>
+      <c r="E43" s="65" t="n"/>
+      <c r="F43" s="65" t="n"/>
+      <c r="G43" s="65" t="n"/>
+      <c r="H43" s="65" t="n"/>
+      <c r="I43" s="65" t="n"/>
+      <c r="J43" s="65" t="n"/>
+      <c r="K43" s="65" t="n"/>
+      <c r="L43" s="65" t="n"/>
+      <c r="M43" s="65" t="n"/>
+    </row>
+    <row r="44">
+      <c r="B44" s="65" t="n"/>
+      <c r="C44" s="65" t="n"/>
+      <c r="D44" s="65" t="n"/>
+      <c r="E44" s="65" t="n"/>
+      <c r="F44" s="65" t="n"/>
+      <c r="G44" s="65" t="n"/>
+      <c r="H44" s="65" t="n"/>
+      <c r="I44" s="65" t="n"/>
+      <c r="J44" s="65" t="n"/>
+      <c r="K44" s="65" t="n"/>
+      <c r="L44" s="65" t="n"/>
+      <c r="M44" s="65" t="n"/>
+    </row>
+    <row r="45">
+      <c r="B45" s="65" t="n"/>
+      <c r="C45" s="65" t="n"/>
+      <c r="D45" s="65" t="n"/>
+      <c r="E45" s="65" t="n"/>
+      <c r="F45" s="65" t="n"/>
+      <c r="G45" s="65" t="n"/>
+      <c r="H45" s="65" t="n"/>
+      <c r="I45" s="65" t="n"/>
+      <c r="J45" s="65" t="n"/>
+      <c r="K45" s="65" t="n"/>
+      <c r="L45" s="65" t="n"/>
+      <c r="M45" s="65" t="n"/>
+    </row>
+    <row r="46">
+      <c r="B46" s="65" t="n"/>
+      <c r="C46" s="65" t="n"/>
+      <c r="D46" s="65" t="n"/>
+      <c r="E46" s="65" t="n"/>
+      <c r="F46" s="65" t="n"/>
+      <c r="G46" s="65" t="n"/>
+      <c r="H46" s="65" t="n"/>
+      <c r="I46" s="65" t="n"/>
+      <c r="J46" s="65" t="n"/>
+      <c r="K46" s="65" t="n"/>
+      <c r="L46" s="65" t="n"/>
+      <c r="M46" s="65" t="n"/>
+    </row>
+    <row r="47">
+      <c r="B47" s="65" t="n"/>
+      <c r="C47" s="65" t="n"/>
+      <c r="D47" s="65" t="n"/>
+      <c r="E47" s="65" t="n"/>
+      <c r="F47" s="65" t="n"/>
+      <c r="G47" s="65" t="n"/>
+      <c r="H47" s="65" t="n"/>
+      <c r="I47" s="65" t="n"/>
+      <c r="J47" s="65" t="n"/>
+      <c r="K47" s="65" t="n"/>
+      <c r="L47" s="65" t="n"/>
+      <c r="M47" s="65" t="n"/>
+    </row>
+    <row r="48">
+      <c r="B48" s="65" t="n"/>
+      <c r="C48" s="65" t="n"/>
+      <c r="D48" s="65" t="n"/>
+      <c r="E48" s="65" t="n"/>
+      <c r="F48" s="65" t="n"/>
+      <c r="G48" s="65" t="n"/>
+      <c r="H48" s="65" t="n"/>
+      <c r="I48" s="65" t="n"/>
+      <c r="J48" s="65" t="n"/>
+      <c r="K48" s="65" t="n"/>
+      <c r="L48" s="65" t="n"/>
+      <c r="M48" s="65" t="n"/>
+    </row>
+    <row r="49">
+      <c r="B49" s="65" t="n"/>
+      <c r="C49" s="65" t="n"/>
+      <c r="D49" s="65" t="n"/>
+      <c r="E49" s="65" t="n"/>
+      <c r="F49" s="65" t="n"/>
+      <c r="G49" s="65" t="n"/>
+      <c r="H49" s="65" t="n"/>
+      <c r="I49" s="65" t="n"/>
+      <c r="J49" s="65" t="n"/>
+      <c r="K49" s="65" t="n"/>
+      <c r="L49" s="65" t="n"/>
+      <c r="M49" s="65" t="n"/>
+    </row>
+    <row r="50">
+      <c r="B50" s="65" t="n"/>
+      <c r="C50" s="65" t="n"/>
+      <c r="D50" s="65" t="n"/>
+      <c r="E50" s="65" t="n"/>
+      <c r="F50" s="65" t="n"/>
+      <c r="G50" s="65" t="n"/>
+      <c r="H50" s="65" t="n"/>
+      <c r="I50" s="65" t="n"/>
+      <c r="J50" s="65" t="n"/>
+      <c r="K50" s="65" t="n"/>
+      <c r="L50" s="65" t="n"/>
+      <c r="M50" s="65" t="n"/>
+    </row>
+    <row r="51">
+      <c r="B51" s="65" t="n"/>
+      <c r="C51" s="65" t="n"/>
+      <c r="D51" s="65" t="n"/>
+      <c r="E51" s="65" t="n"/>
+      <c r="F51" s="65" t="n"/>
+      <c r="G51" s="65" t="n"/>
+      <c r="H51" s="65" t="n"/>
+      <c r="I51" s="65" t="n"/>
+      <c r="J51" s="65" t="n"/>
+      <c r="K51" s="65" t="n"/>
+      <c r="L51" s="65" t="n"/>
+      <c r="M51" s="65" t="n"/>
+    </row>
+    <row r="52">
+      <c r="B52" s="65" t="n"/>
+      <c r="C52" s="65" t="n"/>
+      <c r="D52" s="65" t="n"/>
+      <c r="E52" s="65" t="n"/>
+      <c r="F52" s="65" t="n"/>
+      <c r="G52" s="65" t="n"/>
+      <c r="H52" s="65" t="n"/>
+      <c r="I52" s="65" t="n"/>
+      <c r="J52" s="65" t="n"/>
+      <c r="K52" s="65" t="n"/>
+      <c r="L52" s="65" t="n"/>
+      <c r="M52" s="65" t="n"/>
+    </row>
+    <row r="53">
+      <c r="B53" s="65" t="n"/>
+      <c r="C53" s="65" t="n"/>
+      <c r="D53" s="65" t="n"/>
+      <c r="E53" s="65" t="n"/>
+      <c r="F53" s="65" t="n"/>
+      <c r="G53" s="65" t="n"/>
+      <c r="H53" s="65" t="n"/>
+      <c r="I53" s="65" t="n"/>
+      <c r="J53" s="65" t="n"/>
+      <c r="K53" s="65" t="n"/>
+      <c r="L53" s="65" t="n"/>
+      <c r="M53" s="65" t="n"/>
+    </row>
+    <row r="54">
+      <c r="B54" s="65" t="n"/>
+      <c r="C54" s="65" t="n"/>
+      <c r="D54" s="65" t="n"/>
+      <c r="E54" s="65" t="n"/>
+      <c r="F54" s="65" t="n"/>
+      <c r="G54" s="65" t="n"/>
+      <c r="H54" s="65" t="n"/>
+      <c r="I54" s="65" t="n"/>
+      <c r="J54" s="65" t="n"/>
+      <c r="K54" s="65" t="n"/>
+      <c r="L54" s="65" t="n"/>
+      <c r="M54" s="65" t="n"/>
+    </row>
+    <row r="55">
+      <c r="B55" s="65" t="n"/>
+      <c r="C55" s="65" t="n"/>
+      <c r="D55" s="65" t="n"/>
+      <c r="E55" s="65" t="n"/>
+      <c r="F55" s="65" t="n"/>
+      <c r="G55" s="65" t="n"/>
+      <c r="H55" s="65" t="n"/>
+      <c r="I55" s="65" t="n"/>
+      <c r="J55" s="65" t="n"/>
+      <c r="K55" s="65" t="n"/>
+      <c r="L55" s="65" t="n"/>
+      <c r="M55" s="65" t="n"/>
+    </row>
+    <row r="56">
+      <c r="B56" s="65" t="n"/>
+      <c r="C56" s="65" t="n"/>
+      <c r="D56" s="65" t="n"/>
+      <c r="E56" s="65" t="n"/>
+      <c r="F56" s="65" t="n"/>
+      <c r="G56" s="65" t="n"/>
+      <c r="H56" s="65" t="n"/>
+      <c r="I56" s="65" t="n"/>
+      <c r="J56" s="65" t="n"/>
+      <c r="K56" s="65" t="n"/>
+      <c r="L56" s="65" t="n"/>
+      <c r="M56" s="65" t="n"/>
+    </row>
+    <row r="57">
+      <c r="B57" s="65" t="n"/>
+      <c r="C57" s="65" t="n"/>
+      <c r="D57" s="65" t="n"/>
+      <c r="E57" s="65" t="n"/>
+      <c r="F57" s="65" t="n"/>
+      <c r="G57" s="65" t="n"/>
+      <c r="H57" s="65" t="n"/>
+      <c r="I57" s="65" t="n"/>
+      <c r="J57" s="65" t="n"/>
+      <c r="K57" s="65" t="n"/>
+      <c r="L57" s="65" t="n"/>
+      <c r="M57" s="65" t="n"/>
+    </row>
+    <row r="58">
+      <c r="B58" s="65" t="n"/>
+      <c r="C58" s="65" t="n"/>
+      <c r="D58" s="65" t="n"/>
+      <c r="E58" s="65" t="n"/>
+      <c r="F58" s="65" t="n"/>
+      <c r="G58" s="65" t="n"/>
+      <c r="H58" s="65" t="n"/>
+      <c r="I58" s="65" t="n"/>
+      <c r="J58" s="65" t="n"/>
+      <c r="K58" s="65" t="n"/>
+      <c r="L58" s="65" t="n"/>
+      <c r="M58" s="65" t="n"/>
+    </row>
+    <row r="59">
+      <c r="B59" s="65" t="n"/>
+      <c r="C59" s="65" t="n"/>
+      <c r="D59" s="65" t="n"/>
+      <c r="E59" s="65" t="n"/>
+      <c r="F59" s="65" t="n"/>
+      <c r="G59" s="65" t="n"/>
+      <c r="H59" s="65" t="n"/>
+      <c r="I59" s="65" t="n"/>
+      <c r="J59" s="65" t="n"/>
+      <c r="K59" s="65" t="n"/>
+      <c r="L59" s="65" t="n"/>
+      <c r="M59" s="65" t="n"/>
+    </row>
+    <row r="60">
+      <c r="B60" s="65" t="n"/>
+      <c r="C60" s="65" t="n"/>
+      <c r="D60" s="65" t="n"/>
+      <c r="E60" s="65" t="n"/>
+      <c r="F60" s="65" t="n"/>
+      <c r="G60" s="65" t="n"/>
+      <c r="H60" s="65" t="n"/>
+      <c r="I60" s="65" t="n"/>
+      <c r="J60" s="65" t="n"/>
+      <c r="K60" s="65" t="n"/>
+      <c r="L60" s="65" t="n"/>
+      <c r="M60" s="65" t="n"/>
+    </row>
+    <row r="61">
+      <c r="B61" s="65" t="n"/>
+      <c r="C61" s="65" t="n"/>
+      <c r="D61" s="65" t="n"/>
+      <c r="E61" s="65" t="n"/>
+      <c r="F61" s="65" t="n"/>
+      <c r="G61" s="65" t="n"/>
+      <c r="H61" s="65" t="n"/>
+      <c r="I61" s="65" t="n"/>
+      <c r="J61" s="65" t="n"/>
+      <c r="K61" s="65" t="n"/>
+      <c r="L61" s="65" t="n"/>
+      <c r="M61" s="65" t="n"/>
+    </row>
+    <row r="62">
+      <c r="B62" s="65" t="n"/>
+      <c r="C62" s="65" t="n"/>
+      <c r="D62" s="65" t="n"/>
+      <c r="E62" s="65" t="n"/>
+      <c r="F62" s="65" t="n"/>
+      <c r="G62" s="65" t="n"/>
+      <c r="H62" s="65" t="n"/>
+      <c r="I62" s="65" t="n"/>
+      <c r="J62" s="65" t="n"/>
+      <c r="K62" s="65" t="n"/>
+      <c r="L62" s="65" t="n"/>
+      <c r="M62" s="65" t="n"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="E27:N36">
@@ -6129,185 +6538,185 @@
   </sheetPr>
   <dimension ref="A1:AA29"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+    <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
       <selection activeCell="W8" sqref="W8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16"/>
   <cols>
-    <col width="11.33203125" customWidth="1" style="71" min="1" max="1"/>
-    <col width="13.1640625" customWidth="1" style="71" min="2" max="17"/>
-    <col width="9.83203125" customWidth="1" style="71" min="18" max="19"/>
-    <col width="11.33203125" customWidth="1" style="71" min="20" max="20"/>
+    <col width="11.33203125" customWidth="1" style="63" min="1" max="1"/>
+    <col width="13.1640625" customWidth="1" style="63" min="2" max="17"/>
+    <col width="9.83203125" customWidth="1" style="63" min="18" max="19"/>
+    <col width="11.33203125" customWidth="1" style="63" min="20" max="20"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="82" t="inlineStr">
+      <c r="A1" s="76" t="inlineStr">
         <is>
           <t>Name</t>
         </is>
       </c>
-      <c r="B1" s="82" t="inlineStr">
+      <c r="B1" s="76" t="inlineStr">
         <is>
           <t>Days Record</t>
         </is>
       </c>
-      <c r="C1" s="82" t="inlineStr">
+      <c r="C1" s="76" t="inlineStr">
         <is>
           <t>Days Pct</t>
         </is>
       </c>
-      <c r="D1" s="82" t="inlineStr">
+      <c r="D1" s="76" t="inlineStr">
         <is>
           <t>Games Record</t>
         </is>
       </c>
-      <c r="E1" s="82" t="inlineStr">
+      <c r="E1" s="76" t="inlineStr">
         <is>
           <t>Games Pct</t>
         </is>
       </c>
-      <c r="F1" s="82" t="inlineStr">
+      <c r="F1" s="76" t="inlineStr">
         <is>
           <t>PK's Record</t>
         </is>
       </c>
-      <c r="G1" s="82" t="inlineStr">
+      <c r="G1" s="76" t="inlineStr">
         <is>
           <t>PK's Pct</t>
         </is>
       </c>
-      <c r="H1" s="82" t="inlineStr">
+      <c r="H1" s="76" t="inlineStr">
         <is>
           <t>Cross Record</t>
         </is>
       </c>
-      <c r="I1" s="82" t="inlineStr">
+      <c r="I1" s="76" t="inlineStr">
         <is>
           <t>Cross Pct</t>
         </is>
       </c>
-      <c r="J1" s="82" t="inlineStr">
+      <c r="J1" s="76" t="inlineStr">
         <is>
           <t>A/D Record</t>
         </is>
       </c>
-      <c r="K1" s="82" t="inlineStr">
+      <c r="K1" s="76" t="inlineStr">
         <is>
           <t>A/D Pct</t>
         </is>
       </c>
-      <c r="L1" s="82" t="inlineStr">
+      <c r="L1" s="76" t="inlineStr">
         <is>
           <t>P&amp;F Record</t>
         </is>
       </c>
-      <c r="M1" s="82" t="inlineStr">
+      <c r="M1" s="76" t="inlineStr">
         <is>
           <t>P&amp;F Pct</t>
         </is>
       </c>
-      <c r="N1" s="82" t="inlineStr">
+      <c r="N1" s="76" t="inlineStr">
         <is>
           <t>SS Record</t>
         </is>
       </c>
-      <c r="O1" s="82" t="inlineStr">
+      <c r="O1" s="76" t="inlineStr">
         <is>
           <t>SS Pct</t>
         </is>
       </c>
-      <c r="P1" s="82" t="inlineStr">
+      <c r="P1" s="76" t="inlineStr">
         <is>
           <t>FK's Record</t>
         </is>
       </c>
-      <c r="Q1" s="82" t="inlineStr">
+      <c r="Q1" s="76" t="inlineStr">
         <is>
           <t>FK's Pct</t>
         </is>
       </c>
-      <c r="R1" s="82" t="inlineStr">
+      <c r="R1" s="76" t="inlineStr">
         <is>
           <t>MVP</t>
         </is>
       </c>
-      <c r="S1" s="82" t="inlineStr">
+      <c r="S1" s="76" t="inlineStr">
         <is>
           <t>Clown</t>
         </is>
       </c>
-      <c r="T1" s="82" t="inlineStr">
+      <c r="T1" s="76" t="inlineStr">
         <is>
           <t>(Name)</t>
         </is>
       </c>
-      <c r="U1" s="13" t="n"/>
-      <c r="V1" s="12" t="n"/>
-      <c r="W1" s="12" t="n"/>
-      <c r="X1" s="12" t="n"/>
-      <c r="Y1" s="34" t="n"/>
+      <c r="U1" s="11" t="n"/>
+      <c r="V1" s="10" t="n"/>
+      <c r="W1" s="10" t="n"/>
+      <c r="X1" s="10" t="n"/>
+      <c r="Y1" s="30" t="n"/>
     </row>
     <row r="2">
-      <c r="A2" s="10" t="inlineStr">
+      <c r="A2" s="8" t="inlineStr">
         <is>
           <t>Aaron</t>
         </is>
       </c>
       <c r="B2" s="1" t="inlineStr">
         <is>
-          <t>3-5</t>
-        </is>
-      </c>
-      <c r="C2" s="29" t="n">
-        <v>0.375</v>
+          <t>4-5</t>
+        </is>
+      </c>
+      <c r="C2" s="25" t="n">
+        <v>0.4444</v>
       </c>
       <c r="D2" s="1" t="inlineStr">
         <is>
-          <t>17-22</t>
-        </is>
-      </c>
-      <c r="E2" s="29" t="n">
-        <v>0.4359</v>
+          <t>20-24</t>
+        </is>
+      </c>
+      <c r="E2" s="25" t="n">
+        <v>0.4545</v>
       </c>
       <c r="F2" s="1" t="inlineStr">
         <is>
-          <t>15-14</t>
-        </is>
-      </c>
-      <c r="G2" s="32" t="n">
-        <v>0.5172</v>
+          <t>18-15</t>
+        </is>
+      </c>
+      <c r="G2" s="28" t="n">
+        <v>0.5455</v>
       </c>
       <c r="H2" s="1" t="inlineStr">
         <is>
-          <t>14-26</t>
-        </is>
-      </c>
-      <c r="I2" s="32" t="n">
-        <v>0.35</v>
+          <t>17-28</t>
+        </is>
+      </c>
+      <c r="I2" s="28" t="n">
+        <v>0.3778</v>
       </c>
       <c r="J2" s="1" t="inlineStr">
         <is>
-          <t>4-2</t>
-        </is>
-      </c>
-      <c r="K2" s="32" t="n">
-        <v>0.6667</v>
+          <t>4-3</t>
+        </is>
+      </c>
+      <c r="K2" s="28" t="n">
+        <v>0.5714</v>
       </c>
       <c r="L2" s="1" t="inlineStr">
         <is>
-          <t>5-2</t>
-        </is>
-      </c>
-      <c r="M2" s="32" t="n">
-        <v>0.7143</v>
+          <t>5-3</t>
+        </is>
+      </c>
+      <c r="M2" s="28" t="n">
+        <v>0.625</v>
       </c>
       <c r="N2" s="1" t="inlineStr">
         <is>
           <t>0-1</t>
         </is>
       </c>
-      <c r="O2" s="32" t="n">
+      <c r="O2" s="28" t="n">
         <v>0</v>
       </c>
       <c r="P2" s="1" t="inlineStr">
@@ -6315,24 +6724,24 @@
           <t>0-2</t>
         </is>
       </c>
-      <c r="Q2" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="R2" s="35" t="n">
+      <c r="Q2" s="25" t="n">
+        <v>0</v>
+      </c>
+      <c r="R2" s="31" t="n">
         <v>0</v>
       </c>
       <c r="S2" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="T2" s="16" t="inlineStr">
+      <c r="T2" s="14" t="inlineStr">
         <is>
           <t>Aaron</t>
         </is>
       </c>
-      <c r="U2" s="14" t="n"/>
+      <c r="U2" s="12" t="n"/>
     </row>
     <row r="3">
-      <c r="A3" s="11" t="inlineStr">
+      <c r="A3" s="9" t="inlineStr">
         <is>
           <t>AB</t>
         </is>
@@ -6342,7 +6751,7 @@
           <t>10-7</t>
         </is>
       </c>
-      <c r="C3" s="29" t="n">
+      <c r="C3" s="25" t="n">
         <v>0.5881999999999999</v>
       </c>
       <c r="D3" s="1" t="inlineStr">
@@ -6350,7 +6759,7 @@
           <t>40-36</t>
         </is>
       </c>
-      <c r="E3" s="32" t="n">
+      <c r="E3" s="28" t="n">
         <v>0.5263</v>
       </c>
       <c r="F3" s="1" t="inlineStr">
@@ -6358,7 +6767,7 @@
           <t>34-23</t>
         </is>
       </c>
-      <c r="G3" s="32" t="n">
+      <c r="G3" s="28" t="n">
         <v>0.5965</v>
       </c>
       <c r="H3" s="1" t="inlineStr">
@@ -6366,7 +6775,7 @@
           <t>39-36</t>
         </is>
       </c>
-      <c r="I3" s="32" t="n">
+      <c r="I3" s="28" t="n">
         <v>0.52</v>
       </c>
       <c r="J3" s="1" t="inlineStr">
@@ -6374,7 +6783,7 @@
           <t>5-8</t>
         </is>
       </c>
-      <c r="K3" s="32" t="n">
+      <c r="K3" s="28" t="n">
         <v>0.3846</v>
       </c>
       <c r="L3" s="1" t="inlineStr">
@@ -6382,7 +6791,7 @@
           <t>9-6</t>
         </is>
       </c>
-      <c r="M3" s="32" t="n">
+      <c r="M3" s="28" t="n">
         <v>0.6</v>
       </c>
       <c r="N3" s="1" t="inlineStr">
@@ -6390,7 +6799,7 @@
           <t>1-2</t>
         </is>
       </c>
-      <c r="O3" s="32" t="n">
+      <c r="O3" s="28" t="n">
         <v>0.3333</v>
       </c>
       <c r="P3" s="1" t="inlineStr">
@@ -6398,331 +6807,331 @@
           <t>1-3</t>
         </is>
       </c>
-      <c r="Q3" s="29" t="n">
+      <c r="Q3" s="25" t="n">
         <v>0.25</v>
       </c>
-      <c r="R3" s="35" t="n">
+      <c r="R3" s="31" t="n">
         <v>1</v>
       </c>
       <c r="S3" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="T3" s="17" t="inlineStr">
+      <c r="T3" s="15" t="inlineStr">
         <is>
           <t>AB</t>
         </is>
       </c>
-      <c r="U3" s="14" t="n"/>
+      <c r="U3" s="12" t="n"/>
     </row>
     <row r="4">
-      <c r="A4" s="11" t="inlineStr">
+      <c r="A4" s="9" t="inlineStr">
         <is>
           <t>Anthony</t>
         </is>
       </c>
       <c r="B4" s="1" t="inlineStr">
         <is>
+          <t>1-1</t>
+        </is>
+      </c>
+      <c r="C4" s="25" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D4" s="1" t="inlineStr">
+        <is>
+          <t>4-4</t>
+        </is>
+      </c>
+      <c r="E4" s="28" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F4" s="1" t="inlineStr">
+        <is>
+          <t>4-3</t>
+        </is>
+      </c>
+      <c r="G4" s="28" t="n">
+        <v>0.5714</v>
+      </c>
+      <c r="H4" s="1" t="inlineStr">
+        <is>
+          <t>6-4</t>
+        </is>
+      </c>
+      <c r="I4" s="28" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="J4" s="1" t="inlineStr">
+        <is>
           <t>0-1</t>
         </is>
       </c>
-      <c r="C4" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="D4" s="1" t="inlineStr">
+      <c r="K4" s="28" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" s="1" t="inlineStr">
+        <is>
+          <t>0-2</t>
+        </is>
+      </c>
+      <c r="M4" s="28" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" s="1" t="inlineStr">
+        <is>
+          <t>0-0</t>
+        </is>
+      </c>
+      <c r="O4" s="28" t="n">
+        <v>0</v>
+      </c>
+      <c r="P4" s="1" t="inlineStr">
+        <is>
+          <t>0-0</t>
+        </is>
+      </c>
+      <c r="Q4" s="25" t="n">
+        <v>0</v>
+      </c>
+      <c r="R4" s="31" t="n">
+        <v>0</v>
+      </c>
+      <c r="S4" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T4" s="15" t="inlineStr">
+        <is>
+          <t>Anthony</t>
+        </is>
+      </c>
+      <c r="U4" s="12" t="n"/>
+    </row>
+    <row r="5">
+      <c r="A5" s="9" t="inlineStr">
+        <is>
+          <t>Brandon</t>
+        </is>
+      </c>
+      <c r="B5" s="1" t="inlineStr">
+        <is>
+          <t>7-9</t>
+        </is>
+      </c>
+      <c r="C5" s="25" t="n">
+        <v>0.4375</v>
+      </c>
+      <c r="D5" s="1" t="inlineStr">
+        <is>
+          <t>35-39</t>
+        </is>
+      </c>
+      <c r="E5" s="28" t="n">
+        <v>0.473</v>
+      </c>
+      <c r="F5" s="1" t="inlineStr">
+        <is>
+          <t>24-31</t>
+        </is>
+      </c>
+      <c r="G5" s="28" t="n">
+        <v>0.4364</v>
+      </c>
+      <c r="H5" s="1" t="inlineStr">
+        <is>
+          <t>34-40</t>
+        </is>
+      </c>
+      <c r="I5" s="28" t="n">
+        <v>0.4595</v>
+      </c>
+      <c r="J5" s="1" t="inlineStr">
+        <is>
+          <t>10-3</t>
+        </is>
+      </c>
+      <c r="K5" s="28" t="n">
+        <v>0.7692</v>
+      </c>
+      <c r="L5" s="1" t="inlineStr">
+        <is>
+          <t>9-5</t>
+        </is>
+      </c>
+      <c r="M5" s="28" t="n">
+        <v>0.6429</v>
+      </c>
+      <c r="N5" s="1" t="inlineStr">
+        <is>
+          <t>2-1</t>
+        </is>
+      </c>
+      <c r="O5" s="28" t="n">
+        <v>0.6667</v>
+      </c>
+      <c r="P5" s="1" t="inlineStr">
+        <is>
+          <t>1-3</t>
+        </is>
+      </c>
+      <c r="Q5" s="25" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="R5" s="31" t="n">
+        <v>6</v>
+      </c>
+      <c r="S5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="T5" s="15" t="inlineStr">
+        <is>
+          <t>Brandon</t>
+        </is>
+      </c>
+      <c r="U5" s="12" t="n"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="9" t="inlineStr">
+        <is>
+          <t>Eric</t>
+        </is>
+      </c>
+      <c r="B6" s="1" t="inlineStr">
+        <is>
+          <t>5-9</t>
+        </is>
+      </c>
+      <c r="C6" s="25" t="n">
+        <v>0.3571</v>
+      </c>
+      <c r="D6" s="1" t="inlineStr">
+        <is>
+          <t>29-35</t>
+        </is>
+      </c>
+      <c r="E6" s="28" t="n">
+        <v>0.4531</v>
+      </c>
+      <c r="F6" s="1" t="inlineStr">
+        <is>
+          <t>24-23</t>
+        </is>
+      </c>
+      <c r="G6" s="28" t="n">
+        <v>0.5106000000000001</v>
+      </c>
+      <c r="H6" s="1" t="inlineStr">
+        <is>
+          <t>29-28</t>
+        </is>
+      </c>
+      <c r="I6" s="28" t="n">
+        <v>0.5088</v>
+      </c>
+      <c r="J6" s="1" t="inlineStr">
+        <is>
+          <t>6-6</t>
+        </is>
+      </c>
+      <c r="K6" s="28" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="L6" s="1" t="inlineStr">
+        <is>
+          <t>4-9</t>
+        </is>
+      </c>
+      <c r="M6" s="28" t="n">
+        <v>0.3077</v>
+      </c>
+      <c r="N6" s="1" t="inlineStr">
         <is>
           <t>1-2</t>
         </is>
       </c>
-      <c r="E4" s="32" t="n">
+      <c r="O6" s="28" t="n">
         <v>0.3333</v>
       </c>
-      <c r="F4" s="1" t="inlineStr">
+      <c r="P6" s="1" t="inlineStr">
         <is>
           <t>1-2</t>
         </is>
       </c>
-      <c r="G4" s="32" t="n">
+      <c r="Q6" s="25" t="n">
         <v>0.3333</v>
       </c>
-      <c r="H4" s="1" t="inlineStr">
-        <is>
-          <t>3-2</t>
-        </is>
-      </c>
-      <c r="I4" s="32" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="J4" s="1" t="inlineStr">
-        <is>
-          <t>0-0</t>
-        </is>
-      </c>
-      <c r="K4" s="32" t="n">
-        <v>0</v>
-      </c>
-      <c r="L4" s="1" t="inlineStr">
-        <is>
-          <t>0-1</t>
-        </is>
-      </c>
-      <c r="M4" s="32" t="n">
-        <v>0</v>
-      </c>
-      <c r="N4" s="1" t="inlineStr">
-        <is>
-          <t>0-0</t>
-        </is>
-      </c>
-      <c r="O4" s="32" t="n">
-        <v>0</v>
-      </c>
-      <c r="P4" s="1" t="inlineStr">
-        <is>
-          <t>0-0</t>
-        </is>
-      </c>
-      <c r="Q4" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="R4" s="35" t="n">
-        <v>0</v>
-      </c>
-      <c r="S4" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="T4" s="17" t="inlineStr">
-        <is>
-          <t>Anthony</t>
-        </is>
-      </c>
-      <c r="U4" s="14" t="n"/>
-    </row>
-    <row r="5">
-      <c r="A5" s="11" t="inlineStr">
-        <is>
-          <t>Brandon</t>
-        </is>
-      </c>
-      <c r="B5" s="1" t="inlineStr">
-        <is>
-          <t>7-8</t>
-        </is>
-      </c>
-      <c r="C5" s="29" t="n">
-        <v>0.4667</v>
-      </c>
-      <c r="D5" s="1" t="inlineStr">
-        <is>
-          <t>33-36</t>
-        </is>
-      </c>
-      <c r="E5" s="32" t="n">
-        <v>0.4783</v>
-      </c>
-      <c r="F5" s="1" t="inlineStr">
-        <is>
-          <t>23-28</t>
-        </is>
-      </c>
-      <c r="G5" s="32" t="n">
-        <v>0.451</v>
-      </c>
-      <c r="H5" s="1" t="inlineStr">
-        <is>
-          <t>32-37</t>
-        </is>
-      </c>
-      <c r="I5" s="32" t="n">
-        <v>0.4638</v>
-      </c>
-      <c r="J5" s="1" t="inlineStr">
-        <is>
-          <t>9-3</t>
-        </is>
-      </c>
-      <c r="K5" s="32" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="L5" s="1" t="inlineStr">
-        <is>
-          <t>8-5</t>
-        </is>
-      </c>
-      <c r="M5" s="32" t="n">
-        <v>0.6153999999999999</v>
-      </c>
-      <c r="N5" s="1" t="inlineStr">
-        <is>
-          <t>2-1</t>
-        </is>
-      </c>
-      <c r="O5" s="32" t="n">
-        <v>0.6667</v>
-      </c>
-      <c r="P5" s="1" t="inlineStr">
-        <is>
-          <t>1-3</t>
-        </is>
-      </c>
-      <c r="Q5" s="29" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="R5" s="35" t="n">
-        <v>6</v>
-      </c>
-      <c r="S5" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="T5" s="17" t="inlineStr">
-        <is>
-          <t>Brandon</t>
-        </is>
-      </c>
-      <c r="U5" s="14" t="n"/>
-    </row>
-    <row r="6">
-      <c r="A6" s="11" t="inlineStr">
-        <is>
-          <t>Eric</t>
-        </is>
-      </c>
-      <c r="B6" s="1" t="inlineStr">
-        <is>
-          <t>5-8</t>
-        </is>
-      </c>
-      <c r="C6" s="29" t="n">
-        <v>0.3846</v>
-      </c>
-      <c r="D6" s="1" t="inlineStr">
-        <is>
-          <t>27-32</t>
-        </is>
-      </c>
-      <c r="E6" s="32" t="n">
-        <v>0.4576</v>
-      </c>
-      <c r="F6" s="1" t="inlineStr">
-        <is>
-          <t>23-20</t>
-        </is>
-      </c>
-      <c r="G6" s="32" t="n">
-        <v>0.5349</v>
-      </c>
-      <c r="H6" s="1" t="inlineStr">
-        <is>
-          <t>27-25</t>
-        </is>
-      </c>
-      <c r="I6" s="32" t="n">
-        <v>0.5192</v>
-      </c>
-      <c r="J6" s="1" t="inlineStr">
-        <is>
-          <t>5-6</t>
-        </is>
-      </c>
-      <c r="K6" s="32" t="n">
-        <v>0.4545</v>
-      </c>
-      <c r="L6" s="1" t="inlineStr">
-        <is>
-          <t>3-9</t>
-        </is>
-      </c>
-      <c r="M6" s="32" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="N6" s="1" t="inlineStr">
-        <is>
-          <t>1-2</t>
-        </is>
-      </c>
-      <c r="O6" s="32" t="n">
-        <v>0.3333</v>
-      </c>
-      <c r="P6" s="1" t="inlineStr">
-        <is>
-          <t>1-2</t>
-        </is>
-      </c>
-      <c r="Q6" s="29" t="n">
-        <v>0.3333</v>
-      </c>
-      <c r="R6" s="35" t="n">
+      <c r="R6" s="31" t="n">
         <v>2</v>
       </c>
       <c r="S6" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="T6" s="17" t="inlineStr">
+      <c r="T6" s="15" t="inlineStr">
         <is>
           <t>Eric</t>
         </is>
       </c>
-      <c r="U6" s="14" t="n"/>
+      <c r="U6" s="12" t="n"/>
     </row>
     <row r="7">
-      <c r="A7" s="11" t="inlineStr">
+      <c r="A7" s="9" t="inlineStr">
         <is>
           <t>Jacob</t>
         </is>
       </c>
       <c r="B7" s="1" t="inlineStr">
         <is>
-          <t>8-9</t>
-        </is>
-      </c>
-      <c r="C7" s="29" t="n">
-        <v>0.4706</v>
+          <t>9-9</t>
+        </is>
+      </c>
+      <c r="C7" s="25" t="n">
+        <v>0.5</v>
       </c>
       <c r="D7" s="1" t="inlineStr">
         <is>
-          <t>40-36</t>
-        </is>
-      </c>
-      <c r="E7" s="32" t="n">
-        <v>0.5263</v>
+          <t>43-38</t>
+        </is>
+      </c>
+      <c r="E7" s="28" t="n">
+        <v>0.5309</v>
       </c>
       <c r="F7" s="1" t="inlineStr">
         <is>
-          <t>29-28</t>
-        </is>
-      </c>
-      <c r="G7" s="32" t="n">
-        <v>0.5088</v>
+          <t>32-29</t>
+        </is>
+      </c>
+      <c r="G7" s="28" t="n">
+        <v>0.5246</v>
       </c>
       <c r="H7" s="1" t="inlineStr">
         <is>
-          <t>37-38</t>
-        </is>
-      </c>
-      <c r="I7" s="32" t="n">
-        <v>0.4933</v>
+          <t>40-40</t>
+        </is>
+      </c>
+      <c r="I7" s="28" t="n">
+        <v>0.5</v>
       </c>
       <c r="J7" s="1" t="inlineStr">
         <is>
-          <t>6-7</t>
-        </is>
-      </c>
-      <c r="K7" s="32" t="n">
-        <v>0.4615</v>
+          <t>6-8</t>
+        </is>
+      </c>
+      <c r="K7" s="28" t="n">
+        <v>0.4286</v>
       </c>
       <c r="L7" s="1" t="inlineStr">
         <is>
-          <t>6-9</t>
-        </is>
-      </c>
-      <c r="M7" s="32" t="n">
-        <v>0.4</v>
+          <t>6-10</t>
+        </is>
+      </c>
+      <c r="M7" s="28" t="n">
+        <v>0.375</v>
       </c>
       <c r="N7" s="1" t="inlineStr">
         <is>
           <t>2-1</t>
         </is>
       </c>
-      <c r="O7" s="32" t="n">
+      <c r="O7" s="28" t="n">
         <v>0.6667</v>
       </c>
       <c r="P7" s="1" t="inlineStr">
@@ -6730,82 +7139,82 @@
           <t>4-0</t>
         </is>
       </c>
-      <c r="Q7" s="29" t="n">
+      <c r="Q7" s="25" t="n">
         <v>1</v>
       </c>
-      <c r="R7" s="35" t="n">
-        <v>1</v>
+      <c r="R7" s="31" t="n">
+        <v>2</v>
       </c>
       <c r="S7" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="T7" s="17" t="inlineStr">
+      <c r="T7" s="15" t="inlineStr">
         <is>
           <t>Jacob</t>
         </is>
       </c>
-      <c r="U7" s="14" t="n"/>
+      <c r="U7" s="12" t="n"/>
     </row>
     <row r="8">
-      <c r="A8" s="11" t="inlineStr">
+      <c r="A8" s="9" t="inlineStr">
         <is>
           <t>Kiernan</t>
         </is>
       </c>
       <c r="B8" s="1" t="inlineStr">
         <is>
-          <t>6-8</t>
-        </is>
-      </c>
-      <c r="C8" s="29" t="n">
-        <v>0.4286</v>
+          <t>6-9</t>
+        </is>
+      </c>
+      <c r="C8" s="25" t="n">
+        <v>0.4</v>
       </c>
       <c r="D8" s="1" t="inlineStr">
         <is>
-          <t>29-36</t>
-        </is>
-      </c>
-      <c r="E8" s="32" t="n">
-        <v>0.4462</v>
+          <t>31-39</t>
+        </is>
+      </c>
+      <c r="E8" s="28" t="n">
+        <v>0.4429</v>
       </c>
       <c r="F8" s="1" t="inlineStr">
         <is>
-          <t>17-30</t>
-        </is>
-      </c>
-      <c r="G8" s="32" t="n">
-        <v>0.3617</v>
+          <t>18-33</t>
+        </is>
+      </c>
+      <c r="G8" s="28" t="n">
+        <v>0.3529</v>
       </c>
       <c r="H8" s="1" t="inlineStr">
         <is>
-          <t>30-32</t>
-        </is>
-      </c>
-      <c r="I8" s="32" t="n">
-        <v>0.4839</v>
+          <t>32-35</t>
+        </is>
+      </c>
+      <c r="I8" s="28" t="n">
+        <v>0.4776</v>
       </c>
       <c r="J8" s="1" t="inlineStr">
         <is>
-          <t>7-4</t>
-        </is>
-      </c>
-      <c r="K8" s="32" t="n">
-        <v>0.6364</v>
+          <t>8-4</t>
+        </is>
+      </c>
+      <c r="K8" s="28" t="n">
+        <v>0.6667</v>
       </c>
       <c r="L8" s="1" t="inlineStr">
         <is>
-          <t>7-6</t>
-        </is>
-      </c>
-      <c r="M8" s="32" t="n">
-        <v>0.5385</v>
+          <t>8-6</t>
+        </is>
+      </c>
+      <c r="M8" s="28" t="n">
+        <v>0.5714</v>
       </c>
       <c r="N8" s="1" t="inlineStr">
         <is>
           <t>2-1</t>
         </is>
       </c>
-      <c r="O8" s="32" t="n">
+      <c r="O8" s="28" t="n">
         <v>0.6667</v>
       </c>
       <c r="P8" s="1" t="inlineStr">
@@ -6813,347 +7222,347 @@
           <t>2-2</t>
         </is>
       </c>
-      <c r="Q8" s="29" t="n">
+      <c r="Q8" s="25" t="n">
         <v>0.5</v>
       </c>
-      <c r="R8" s="35" t="n">
+      <c r="R8" s="31" t="n">
         <v>1</v>
       </c>
       <c r="S8" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="T8" s="17" t="inlineStr">
+      <c r="T8" s="15" t="inlineStr">
         <is>
           <t>Kiernan</t>
         </is>
       </c>
-      <c r="U8" s="14" t="n"/>
+      <c r="U8" s="12" t="n"/>
     </row>
     <row r="9">
-      <c r="A9" s="11" t="inlineStr">
+      <c r="A9" s="9" t="inlineStr">
         <is>
           <t>Quinn</t>
         </is>
       </c>
       <c r="B9" s="1" t="inlineStr">
         <is>
+          <t>2-3</t>
+        </is>
+      </c>
+      <c r="C9" s="25" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="D9" s="1" t="inlineStr">
+        <is>
+          <t>13-14</t>
+        </is>
+      </c>
+      <c r="E9" s="28" t="n">
+        <v>0.4815</v>
+      </c>
+      <c r="F9" s="1" t="inlineStr">
+        <is>
+          <t>6-11</t>
+        </is>
+      </c>
+      <c r="G9" s="28" t="n">
+        <v>0.3529</v>
+      </c>
+      <c r="H9" s="1" t="inlineStr">
+        <is>
+          <t>11-15</t>
+        </is>
+      </c>
+      <c r="I9" s="28" t="n">
+        <v>0.4231</v>
+      </c>
+      <c r="J9" s="1" t="inlineStr">
+        <is>
+          <t>4-1</t>
+        </is>
+      </c>
+      <c r="K9" s="28" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="L9" s="1" t="inlineStr">
+        <is>
+          <t>2-3</t>
+        </is>
+      </c>
+      <c r="M9" s="28" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="N9" s="1" t="inlineStr">
+        <is>
+          <t>1-0</t>
+        </is>
+      </c>
+      <c r="O9" s="28" t="n">
+        <v>1</v>
+      </c>
+      <c r="P9" s="1" t="inlineStr">
+        <is>
+          <t>2-0</t>
+        </is>
+      </c>
+      <c r="Q9" s="25" t="n">
+        <v>1</v>
+      </c>
+      <c r="R9" s="31" t="n">
+        <v>0</v>
+      </c>
+      <c r="S9" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T9" s="15" t="inlineStr">
+        <is>
+          <t>Quinn</t>
+        </is>
+      </c>
+      <c r="U9" s="12" t="n"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="9" t="inlineStr">
+        <is>
+          <t>Sam G</t>
+        </is>
+      </c>
+      <c r="B10" s="1" t="inlineStr">
+        <is>
+          <t>12-6</t>
+        </is>
+      </c>
+      <c r="C10" s="25" t="n">
+        <v>0.6667</v>
+      </c>
+      <c r="D10" s="1" t="inlineStr">
+        <is>
+          <t>46-35</t>
+        </is>
+      </c>
+      <c r="E10" s="28" t="n">
+        <v>0.5679</v>
+      </c>
+      <c r="F10" s="1" t="inlineStr">
+        <is>
+          <t>38-23</t>
+        </is>
+      </c>
+      <c r="G10" s="28" t="n">
+        <v>0.623</v>
+      </c>
+      <c r="H10" s="1" t="inlineStr">
+        <is>
+          <t>39-41</t>
+        </is>
+      </c>
+      <c r="I10" s="28" t="n">
+        <v>0.4875</v>
+      </c>
+      <c r="J10" s="1" t="inlineStr">
+        <is>
+          <t>6-8</t>
+        </is>
+      </c>
+      <c r="K10" s="28" t="n">
+        <v>0.4286</v>
+      </c>
+      <c r="L10" s="1" t="inlineStr">
+        <is>
+          <t>8-8</t>
+        </is>
+      </c>
+      <c r="M10" s="28" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="N10" s="1" t="inlineStr">
+        <is>
+          <t>1-2</t>
+        </is>
+      </c>
+      <c r="O10" s="28" t="n">
+        <v>0.3333</v>
+      </c>
+      <c r="P10" s="1" t="inlineStr">
+        <is>
           <t>2-2</t>
         </is>
       </c>
-      <c r="C9" s="29" t="n">
+      <c r="Q10" s="25" t="n">
         <v>0.5</v>
       </c>
-      <c r="D9" s="1" t="inlineStr">
-        <is>
-          <t>11-11</t>
-        </is>
-      </c>
-      <c r="E9" s="32" t="n">
+      <c r="R10" s="31" t="n">
+        <v>5</v>
+      </c>
+      <c r="S10" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="T10" s="16" t="inlineStr">
+        <is>
+          <t>Sam G</t>
+        </is>
+      </c>
+      <c r="U10" s="12" t="n"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="41" t="inlineStr">
+        <is>
+          <t>Sam S</t>
+        </is>
+      </c>
+      <c r="B11" s="1" t="inlineStr">
+        <is>
+          <t>4-7</t>
+        </is>
+      </c>
+      <c r="C11" s="26" t="n">
+        <v>0.3636</v>
+      </c>
+      <c r="D11" s="22" t="inlineStr">
+        <is>
+          <t>22-27</t>
+        </is>
+      </c>
+      <c r="E11" s="26" t="n">
+        <v>0.449</v>
+      </c>
+      <c r="F11" s="22" t="inlineStr">
+        <is>
+          <t>17-24</t>
+        </is>
+      </c>
+      <c r="G11" s="26" t="n">
+        <v>0.4146</v>
+      </c>
+      <c r="H11" s="22" t="inlineStr">
+        <is>
+          <t>32-20</t>
+        </is>
+      </c>
+      <c r="I11" s="26" t="n">
+        <v>0.6153999999999999</v>
+      </c>
+      <c r="J11" s="22" t="inlineStr">
+        <is>
+          <t>1-8</t>
+        </is>
+      </c>
+      <c r="K11" s="26" t="n">
+        <v>0.1111</v>
+      </c>
+      <c r="L11" s="22" t="inlineStr">
+        <is>
+          <t>3-5</t>
+        </is>
+      </c>
+      <c r="M11" s="26" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="N11" s="22" t="inlineStr">
+        <is>
+          <t>1-1</t>
+        </is>
+      </c>
+      <c r="O11" s="26" t="n">
         <v>0.5</v>
       </c>
-      <c r="F9" s="1" t="inlineStr">
-        <is>
-          <t>5-8</t>
-        </is>
-      </c>
-      <c r="G9" s="32" t="n">
-        <v>0.3846</v>
-      </c>
-      <c r="H9" s="1" t="inlineStr">
-        <is>
-          <t>9-12</t>
-        </is>
-      </c>
-      <c r="I9" s="32" t="n">
-        <v>0.4286</v>
-      </c>
-      <c r="J9" s="1" t="inlineStr">
-        <is>
-          <t>3-1</t>
-        </is>
-      </c>
-      <c r="K9" s="32" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="L9" s="1" t="inlineStr">
-        <is>
-          <t>1-3</t>
-        </is>
-      </c>
-      <c r="M9" s="32" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="N9" s="1" t="inlineStr">
+      <c r="P11" s="22" t="inlineStr">
         <is>
           <t>1-0</t>
         </is>
       </c>
-      <c r="O9" s="32" t="n">
+      <c r="Q11" s="26" t="n">
         <v>1</v>
       </c>
-      <c r="P9" s="1" t="inlineStr">
-        <is>
-          <t>2-0</t>
-        </is>
-      </c>
-      <c r="Q9" s="29" t="n">
-        <v>1</v>
-      </c>
-      <c r="R9" s="35" t="n">
-        <v>0</v>
-      </c>
-      <c r="S9" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="T9" s="17" t="inlineStr">
-        <is>
-          <t>Quinn</t>
-        </is>
-      </c>
-      <c r="U9" s="14" t="n"/>
-    </row>
-    <row r="10">
-      <c r="A10" s="11" t="inlineStr">
-        <is>
-          <t>Sam G</t>
-        </is>
-      </c>
-      <c r="B10" s="1" t="inlineStr">
-        <is>
-          <t>11-6</t>
-        </is>
-      </c>
-      <c r="C10" s="29" t="n">
-        <v>0.6471</v>
-      </c>
-      <c r="D10" s="1" t="inlineStr">
-        <is>
-          <t>43-33</t>
-        </is>
-      </c>
-      <c r="E10" s="32" t="n">
-        <v>0.5658</v>
-      </c>
-      <c r="F10" s="1" t="inlineStr">
-        <is>
-          <t>35-22</t>
-        </is>
-      </c>
-      <c r="G10" s="32" t="n">
-        <v>0.614</v>
-      </c>
-      <c r="H10" s="1" t="inlineStr">
-        <is>
-          <t>36-39</t>
-        </is>
-      </c>
-      <c r="I10" s="32" t="n">
-        <v>0.48</v>
-      </c>
-      <c r="J10" s="1" t="inlineStr">
-        <is>
-          <t>6-7</t>
-        </is>
-      </c>
-      <c r="K10" s="32" t="n">
-        <v>0.4615</v>
-      </c>
-      <c r="L10" s="1" t="inlineStr">
-        <is>
-          <t>8-7</t>
-        </is>
-      </c>
-      <c r="M10" s="32" t="n">
-        <v>0.5333</v>
-      </c>
-      <c r="N10" s="1" t="inlineStr">
-        <is>
-          <t>1-2</t>
-        </is>
-      </c>
-      <c r="O10" s="32" t="n">
-        <v>0.3333</v>
-      </c>
-      <c r="P10" s="1" t="inlineStr">
-        <is>
-          <t>2-2</t>
-        </is>
-      </c>
-      <c r="Q10" s="29" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="R10" s="35" t="n">
-        <v>5</v>
-      </c>
-      <c r="S10" s="15" t="n">
-        <v>0</v>
-      </c>
-      <c r="T10" s="18" t="inlineStr">
-        <is>
-          <t>Sam G</t>
-        </is>
-      </c>
-      <c r="U10" s="14" t="n"/>
-    </row>
-    <row r="11">
-      <c r="A11" s="48" t="inlineStr">
-        <is>
-          <t>Sam S</t>
-        </is>
-      </c>
-      <c r="B11" s="1" t="inlineStr">
-        <is>
-          <t>4-6</t>
-        </is>
-      </c>
-      <c r="C11" s="30" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="D11" s="26" t="inlineStr">
-        <is>
-          <t>20-24</t>
-        </is>
-      </c>
-      <c r="E11" s="30" t="n">
-        <v>0.4545</v>
-      </c>
-      <c r="F11" s="26" t="inlineStr">
-        <is>
-          <t>16-21</t>
-        </is>
-      </c>
-      <c r="G11" s="30" t="n">
-        <v>0.4324</v>
-      </c>
-      <c r="H11" s="26" t="inlineStr">
-        <is>
-          <t>30-17</t>
-        </is>
-      </c>
-      <c r="I11" s="30" t="n">
-        <v>0.6383</v>
-      </c>
-      <c r="J11" s="26" t="inlineStr">
-        <is>
-          <t>0-8</t>
-        </is>
-      </c>
-      <c r="K11" s="30" t="n">
-        <v>0</v>
-      </c>
-      <c r="L11" s="26" t="inlineStr">
-        <is>
-          <t>2-5</t>
-        </is>
-      </c>
-      <c r="M11" s="30" t="n">
-        <v>0.2857</v>
-      </c>
-      <c r="N11" s="26" t="inlineStr">
-        <is>
-          <t>1-1</t>
-        </is>
-      </c>
-      <c r="O11" s="30" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="P11" s="26" t="inlineStr">
-        <is>
-          <t>1-0</t>
-        </is>
-      </c>
-      <c r="Q11" s="30" t="n">
-        <v>1</v>
-      </c>
-      <c r="R11" s="35" t="n">
+      <c r="R11" s="31" t="n">
         <v>1</v>
       </c>
       <c r="S11" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="T11" s="27" t="inlineStr">
+      <c r="T11" s="23" t="inlineStr">
         <is>
           <t>Sam S</t>
         </is>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="49" t="inlineStr">
+      <c r="A12" s="42" t="inlineStr">
         <is>
           <t>Tighe</t>
         </is>
       </c>
-      <c r="B12" s="9" t="inlineStr">
+      <c r="B12" s="7" t="inlineStr">
         <is>
           <t>1-1</t>
         </is>
       </c>
-      <c r="C12" s="31" t="n">
+      <c r="C12" s="27" t="n">
         <v>0.5</v>
       </c>
-      <c r="D12" s="9" t="inlineStr">
+      <c r="D12" s="7" t="inlineStr">
         <is>
           <t>5-6</t>
         </is>
       </c>
-      <c r="E12" s="31" t="n">
+      <c r="E12" s="27" t="n">
         <v>0.4545</v>
       </c>
-      <c r="F12" s="9" t="inlineStr">
+      <c r="F12" s="7" t="inlineStr">
         <is>
           <t>3-5</t>
         </is>
       </c>
-      <c r="G12" s="31" t="n">
+      <c r="G12" s="27" t="n">
         <v>0.375</v>
       </c>
-      <c r="H12" s="9" t="inlineStr">
+      <c r="H12" s="7" t="inlineStr">
         <is>
           <t>2-3</t>
         </is>
       </c>
-      <c r="I12" s="31" t="n">
+      <c r="I12" s="27" t="n">
         <v>0.4</v>
       </c>
-      <c r="J12" s="9" t="inlineStr">
+      <c r="J12" s="7" t="inlineStr">
         <is>
           <t>1-1</t>
         </is>
       </c>
-      <c r="K12" s="31" t="n">
+      <c r="K12" s="27" t="n">
         <v>0.5</v>
       </c>
-      <c r="L12" s="9" t="inlineStr">
+      <c r="L12" s="7" t="inlineStr">
         <is>
           <t>2-1</t>
         </is>
       </c>
-      <c r="M12" s="31" t="n">
+      <c r="M12" s="27" t="n">
         <v>0.6667</v>
       </c>
-      <c r="N12" s="9" t="inlineStr">
+      <c r="N12" s="7" t="inlineStr">
         <is>
           <t>1-1</t>
         </is>
       </c>
-      <c r="O12" s="31" t="n">
+      <c r="O12" s="27" t="n">
         <v>0.5</v>
       </c>
-      <c r="P12" s="9" t="inlineStr">
+      <c r="P12" s="7" t="inlineStr">
         <is>
           <t>0-0</t>
         </is>
       </c>
-      <c r="Q12" s="31" t="n">
-        <v>0</v>
-      </c>
-      <c r="R12" s="36" t="n">
-        <v>0</v>
-      </c>
-      <c r="S12" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="T12" s="28" t="inlineStr">
+      <c r="Q12" s="27" t="n">
+        <v>0</v>
+      </c>
+      <c r="R12" s="32" t="n">
+        <v>0</v>
+      </c>
+      <c r="S12" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="T12" s="24" t="inlineStr">
         <is>
           <t>Tighe</t>
         </is>
@@ -7161,114 +7570,114 @@
     </row>
     <row r="13">
       <c r="A13" s="2" t="n"/>
-      <c r="C13" s="8" t="n"/>
-      <c r="D13" s="8" t="n"/>
-      <c r="E13" s="8" t="n"/>
-      <c r="F13" s="8" t="n"/>
-      <c r="G13" s="8" t="n"/>
-      <c r="H13" s="8" t="n"/>
-      <c r="I13" s="8" t="n"/>
-      <c r="J13" s="8" t="n"/>
-      <c r="K13" s="8" t="n"/>
-      <c r="L13" s="8" t="n"/>
-      <c r="M13" s="8" t="n"/>
-      <c r="N13" s="8" t="n"/>
-      <c r="O13" s="8" t="n"/>
+      <c r="C13" s="6" t="n"/>
+      <c r="D13" s="6" t="n"/>
+      <c r="E13" s="6" t="n"/>
+      <c r="F13" s="6" t="n"/>
+      <c r="G13" s="6" t="n"/>
+      <c r="H13" s="6" t="n"/>
+      <c r="I13" s="6" t="n"/>
+      <c r="J13" s="6" t="n"/>
+      <c r="K13" s="6" t="n"/>
+      <c r="L13" s="6" t="n"/>
+      <c r="M13" s="6" t="n"/>
+      <c r="N13" s="6" t="n"/>
+      <c r="O13" s="6" t="n"/>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n"/>
-      <c r="C14" s="8" t="n"/>
-      <c r="E14" s="8" t="n"/>
+      <c r="C14" s="6" t="n"/>
+      <c r="E14" s="6" t="n"/>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n"/>
-      <c r="C15" s="8" t="n"/>
-      <c r="E15" s="8" t="n"/>
+      <c r="C15" s="6" t="n"/>
+      <c r="E15" s="6" t="n"/>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n"/>
-      <c r="C16" s="8" t="n"/>
-      <c r="E16" s="8" t="n"/>
+      <c r="C16" s="6" t="n"/>
+      <c r="E16" s="6" t="n"/>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n"/>
-      <c r="C17" s="8" t="n"/>
-      <c r="E17" s="8" t="n"/>
+      <c r="C17" s="6" t="n"/>
+      <c r="E17" s="6" t="n"/>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n"/>
-      <c r="C18" s="8" t="n"/>
-      <c r="E18" s="8" t="n"/>
+      <c r="C18" s="6" t="n"/>
+      <c r="E18" s="6" t="n"/>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n"/>
-      <c r="C19" s="8" t="n"/>
-      <c r="E19" s="8" t="n"/>
+      <c r="C19" s="6" t="n"/>
+      <c r="E19" s="6" t="n"/>
       <c r="X19" s="2" t="n"/>
-      <c r="Y19" s="32" t="n"/>
-      <c r="Z19" s="29" t="n"/>
+      <c r="Y19" s="28" t="n"/>
+      <c r="Z19" s="25" t="n"/>
       <c r="AA19" s="1" t="n"/>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n"/>
-      <c r="C20" s="8" t="n"/>
-      <c r="E20" s="8" t="n"/>
+      <c r="C20" s="6" t="n"/>
+      <c r="E20" s="6" t="n"/>
       <c r="X20" s="2" t="n"/>
-      <c r="Y20" s="32" t="n"/>
-      <c r="Z20" s="29" t="n"/>
+      <c r="Y20" s="28" t="n"/>
+      <c r="Z20" s="25" t="n"/>
       <c r="AA20" s="1" t="n"/>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n"/>
-      <c r="C21" s="8" t="n"/>
-      <c r="E21" s="8" t="n"/>
+      <c r="C21" s="6" t="n"/>
+      <c r="E21" s="6" t="n"/>
       <c r="X21" s="2" t="n"/>
-      <c r="Y21" s="32" t="n"/>
-      <c r="Z21" s="29" t="n"/>
+      <c r="Y21" s="28" t="n"/>
+      <c r="Z21" s="25" t="n"/>
       <c r="AA21" s="1" t="n"/>
     </row>
     <row r="22">
       <c r="X22" s="2" t="n"/>
-      <c r="Y22" s="32" t="n"/>
-      <c r="Z22" s="29" t="n"/>
+      <c r="Y22" s="28" t="n"/>
+      <c r="Z22" s="25" t="n"/>
       <c r="AA22" s="1" t="n"/>
     </row>
     <row r="23">
       <c r="X23" s="2" t="n"/>
-      <c r="Y23" s="32" t="n"/>
-      <c r="Z23" s="29" t="n"/>
+      <c r="Y23" s="28" t="n"/>
+      <c r="Z23" s="25" t="n"/>
       <c r="AA23" s="1" t="n"/>
     </row>
     <row r="24">
       <c r="X24" s="2" t="n"/>
-      <c r="Y24" s="32" t="n"/>
-      <c r="Z24" s="29" t="n"/>
+      <c r="Y24" s="28" t="n"/>
+      <c r="Z24" s="25" t="n"/>
       <c r="AA24" s="1" t="n"/>
     </row>
     <row r="25">
-      <c r="X25" s="33" t="n"/>
-      <c r="Y25" s="30" t="n"/>
-      <c r="Z25" s="29" t="n"/>
+      <c r="X25" s="29" t="n"/>
+      <c r="Y25" s="26" t="n"/>
+      <c r="Z25" s="25" t="n"/>
       <c r="AA25" s="1" t="n"/>
     </row>
     <row r="26">
       <c r="X26" s="2" t="n"/>
-      <c r="Y26" s="30" t="n"/>
-      <c r="Z26" s="29" t="n"/>
+      <c r="Y26" s="26" t="n"/>
+      <c r="Z26" s="25" t="n"/>
       <c r="AA26" s="1" t="n"/>
     </row>
     <row r="27">
-      <c r="Z27" s="29" t="n"/>
+      <c r="Z27" s="25" t="n"/>
       <c r="AA27" s="1" t="n"/>
     </row>
     <row r="28">
-      <c r="Z28" s="30" t="n"/>
-      <c r="AA28" s="26" t="n"/>
+      <c r="Z28" s="26" t="n"/>
+      <c r="AA28" s="22" t="n"/>
     </row>
     <row r="29">
       <c r="X29" s="2" t="n"/>
-      <c r="Y29" s="29" t="n"/>
-      <c r="Z29" s="29" t="n"/>
+      <c r="Y29" s="25" t="n"/>
+      <c r="Z29" s="25" t="n"/>
       <c r="AA29" s="1" t="n"/>
     </row>
   </sheetData>
@@ -7418,540 +7827,540 @@
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="83" t="inlineStr">
+      <c r="A1" s="77" t="inlineStr">
         <is>
           <t>Name</t>
         </is>
       </c>
-      <c r="B1" s="82" t="inlineStr">
+      <c r="B1" s="76" t="inlineStr">
         <is>
           <t>Aaron</t>
         </is>
       </c>
-      <c r="C1" s="82" t="inlineStr">
+      <c r="C1" s="76" t="inlineStr">
         <is>
           <t>AB</t>
         </is>
       </c>
-      <c r="D1" s="82" t="inlineStr">
+      <c r="D1" s="76" t="inlineStr">
         <is>
           <t>Anthony</t>
         </is>
       </c>
-      <c r="E1" s="82" t="inlineStr">
+      <c r="E1" s="76" t="inlineStr">
         <is>
           <t>Brandon</t>
         </is>
       </c>
-      <c r="F1" s="82" t="inlineStr">
+      <c r="F1" s="76" t="inlineStr">
         <is>
           <t>Eric</t>
         </is>
       </c>
-      <c r="G1" s="82" t="inlineStr">
+      <c r="G1" s="76" t="inlineStr">
         <is>
           <t>Jacob</t>
         </is>
       </c>
-      <c r="H1" s="82" t="inlineStr">
+      <c r="H1" s="76" t="inlineStr">
         <is>
           <t>Kiernan</t>
         </is>
       </c>
-      <c r="I1" s="82" t="inlineStr">
+      <c r="I1" s="76" t="inlineStr">
         <is>
           <t>Quinn</t>
         </is>
       </c>
-      <c r="J1" s="82" t="inlineStr">
+      <c r="J1" s="76" t="inlineStr">
         <is>
           <t>Sam G</t>
         </is>
       </c>
-      <c r="K1" s="82" t="inlineStr">
+      <c r="K1" s="76" t="inlineStr">
         <is>
           <t>Sam S</t>
         </is>
       </c>
-      <c r="L1" s="82" t="inlineStr">
+      <c r="L1" s="76" t="inlineStr">
         <is>
           <t>Tighe</t>
         </is>
       </c>
-      <c r="M1" s="82" t="inlineStr">
+      <c r="M1" s="76" t="inlineStr">
         <is>
           <t>Player B</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="24" t="inlineStr">
+      <c r="A2" s="20" t="inlineStr">
         <is>
           <t>Aaron</t>
         </is>
       </c>
-      <c r="B2" s="72" t="n">
-        <v>0</v>
-      </c>
-      <c r="C2" s="73" t="n">
+      <c r="B2" s="50" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" s="51" t="n">
+        <v>0.333</v>
+      </c>
+      <c r="D2" s="51" t="n">
+        <v>0.111</v>
+      </c>
+      <c r="E2" s="51" t="n">
+        <v>0.333</v>
+      </c>
+      <c r="F2" s="51" t="n">
+        <v>0.222</v>
+      </c>
+      <c r="G2" s="51" t="n">
+        <v>0.556</v>
+      </c>
+      <c r="H2" s="51" t="n">
+        <v>0.222</v>
+      </c>
+      <c r="I2" s="51" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" s="51" t="n">
+        <v>0.889</v>
+      </c>
+      <c r="K2" s="51" t="n">
+        <v>0.111</v>
+      </c>
+      <c r="L2" s="52" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" s="40" t="inlineStr"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="20" t="inlineStr">
+        <is>
+          <t>AB</t>
+        </is>
+      </c>
+      <c r="B3" s="53" t="n">
+        <v>0.176</v>
+      </c>
+      <c r="C3" s="54" t="n">
+        <v>0</v>
+      </c>
+      <c r="D3" s="55" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" s="55" t="n">
+        <v>0.353</v>
+      </c>
+      <c r="F3" s="55" t="n">
+        <v>0.294</v>
+      </c>
+      <c r="G3" s="55" t="n">
+        <v>0.529</v>
+      </c>
+      <c r="H3" s="55" t="n">
+        <v>0.294</v>
+      </c>
+      <c r="I3" s="55" t="n">
+        <v>0.059</v>
+      </c>
+      <c r="J3" s="55" t="n">
+        <v>0.471</v>
+      </c>
+      <c r="K3" s="55" t="n">
+        <v>0.294</v>
+      </c>
+      <c r="L3" s="56" t="n">
+        <v>0.059</v>
+      </c>
+      <c r="M3" s="40" t="inlineStr"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="21" t="inlineStr">
+        <is>
+          <t>Anthony</t>
+        </is>
+      </c>
+      <c r="B4" s="53" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C4" s="55" t="n">
+        <v>0</v>
+      </c>
+      <c r="D4" s="54" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" s="55" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" s="55" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G4" s="55" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H4" s="55" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" s="55" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" s="55" t="n">
+        <v>1</v>
+      </c>
+      <c r="K4" s="55" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" s="56" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" s="40" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" s="20" t="inlineStr">
+        <is>
+          <t>Brandon</t>
+        </is>
+      </c>
+      <c r="B5" s="53" t="n">
+        <v>0.188</v>
+      </c>
+      <c r="C5" s="55" t="n">
         <v>0.375</v>
       </c>
-      <c r="D2" s="73" t="n">
-        <v>0</v>
-      </c>
-      <c r="E2" s="73" t="n">
+      <c r="D5" s="55" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" s="54" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" s="55" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="G5" s="55" t="n">
         <v>0.375</v>
       </c>
-      <c r="F2" s="73" t="n">
+      <c r="H5" s="55" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="I5" s="55" t="n">
         <v>0.25</v>
       </c>
-      <c r="G2" s="73" t="n">
+      <c r="J5" s="55" t="n">
+        <v>0.188</v>
+      </c>
+      <c r="K5" s="55" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="L5" s="56" t="n">
+        <v>0.062</v>
+      </c>
+      <c r="M5" s="40" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="20" t="inlineStr">
+        <is>
+          <t>Eric</t>
+        </is>
+      </c>
+      <c r="B6" s="53" t="n">
+        <v>0.143</v>
+      </c>
+      <c r="C6" s="55" t="n">
+        <v>0.357</v>
+      </c>
+      <c r="D6" s="55" t="n">
+        <v>0.07099999999999999</v>
+      </c>
+      <c r="E6" s="55" t="n">
+        <v>0.286</v>
+      </c>
+      <c r="F6" s="54" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" s="55" t="n">
+        <v>0.286</v>
+      </c>
+      <c r="H6" s="55" t="n">
+        <v>0.429</v>
+      </c>
+      <c r="I6" s="55" t="n">
+        <v>0.143</v>
+      </c>
+      <c r="J6" s="55" t="n">
+        <v>0.571</v>
+      </c>
+      <c r="K6" s="55" t="n">
+        <v>0.357</v>
+      </c>
+      <c r="L6" s="56" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" s="40" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="20" t="inlineStr">
+        <is>
+          <t>Jacob</t>
+        </is>
+      </c>
+      <c r="B7" s="53" t="n">
+        <v>0.278</v>
+      </c>
+      <c r="C7" s="55" t="n">
         <v>0.5</v>
       </c>
-      <c r="H2" s="73" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="I2" s="73" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" s="73" t="n">
-        <v>0.875</v>
-      </c>
-      <c r="K2" s="73" t="n">
-        <v>0.125</v>
-      </c>
-      <c r="L2" s="74" t="n">
-        <v>0</v>
-      </c>
-      <c r="M2" s="47" t="inlineStr"/>
-    </row>
-    <row r="3">
-      <c r="A3" s="24" t="inlineStr">
-        <is>
-          <t>AB</t>
-        </is>
-      </c>
-      <c r="B3" s="75" t="n">
-        <v>0.176</v>
-      </c>
-      <c r="C3" s="76" t="n">
-        <v>0</v>
-      </c>
-      <c r="D3" s="77" t="n">
-        <v>0</v>
-      </c>
-      <c r="E3" s="77" t="n">
-        <v>0.353</v>
-      </c>
-      <c r="F3" s="77" t="n">
-        <v>0.294</v>
-      </c>
-      <c r="G3" s="77" t="n">
-        <v>0.529</v>
-      </c>
-      <c r="H3" s="77" t="n">
-        <v>0.294</v>
-      </c>
-      <c r="I3" s="77" t="n">
-        <v>0.059</v>
-      </c>
-      <c r="J3" s="77" t="n">
-        <v>0.471</v>
-      </c>
-      <c r="K3" s="77" t="n">
-        <v>0.294</v>
-      </c>
-      <c r="L3" s="78" t="n">
-        <v>0.059</v>
-      </c>
-      <c r="M3" s="47" t="inlineStr"/>
-    </row>
-    <row r="4">
-      <c r="A4" s="25" t="inlineStr">
-        <is>
-          <t>Anthony</t>
-        </is>
-      </c>
-      <c r="B4" s="75" t="n">
-        <v>0</v>
-      </c>
-      <c r="C4" s="77" t="n">
-        <v>0</v>
-      </c>
-      <c r="D4" s="76" t="n">
-        <v>0</v>
-      </c>
-      <c r="E4" s="77" t="n">
-        <v>0</v>
-      </c>
-      <c r="F4" s="77" t="n">
+      <c r="D7" s="55" t="n">
+        <v>0.056</v>
+      </c>
+      <c r="E7" s="55" t="n">
+        <v>0.333</v>
+      </c>
+      <c r="F7" s="55" t="n">
+        <v>0.222</v>
+      </c>
+      <c r="G7" s="54" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" s="55" t="n">
+        <v>0.167</v>
+      </c>
+      <c r="I7" s="55" t="n">
+        <v>0.111</v>
+      </c>
+      <c r="J7" s="55" t="n">
+        <v>0.611</v>
+      </c>
+      <c r="K7" s="55" t="n">
+        <v>0.222</v>
+      </c>
+      <c r="L7" s="56" t="n">
+        <v>0</v>
+      </c>
+      <c r="M7" s="40" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="20" t="inlineStr">
+        <is>
+          <t>Kiernan</t>
+        </is>
+      </c>
+      <c r="B8" s="53" t="n">
+        <v>0.133</v>
+      </c>
+      <c r="C8" s="55" t="n">
+        <v>0.333</v>
+      </c>
+      <c r="D8" s="55" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" s="55" t="n">
+        <v>0.667</v>
+      </c>
+      <c r="F8" s="55" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="G8" s="55" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="H8" s="54" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" s="55" t="n">
+        <v>0.333</v>
+      </c>
+      <c r="J8" s="55" t="n">
+        <v>0.067</v>
+      </c>
+      <c r="K8" s="55" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="L8" s="56" t="n">
+        <v>0.133</v>
+      </c>
+      <c r="M8" s="40" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="20" t="inlineStr">
+        <is>
+          <t>Quinn</t>
+        </is>
+      </c>
+      <c r="B9" s="53" t="n">
+        <v>0</v>
+      </c>
+      <c r="C9" s="55" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="D9" s="55" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" s="55" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F9" s="55" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="G9" s="55" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="H9" s="55" t="n">
         <v>1</v>
       </c>
-      <c r="G4" s="77" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" s="77" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" s="77" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" s="77" t="n">
+      <c r="I9" s="54" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" s="55" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" s="55" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="L9" s="56" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" s="40" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="20" t="inlineStr">
+        <is>
+          <t>Sam G</t>
+        </is>
+      </c>
+      <c r="B10" s="53" t="n">
+        <v>0.444</v>
+      </c>
+      <c r="C10" s="55" t="n">
+        <v>0.444</v>
+      </c>
+      <c r="D10" s="55" t="n">
+        <v>0.111</v>
+      </c>
+      <c r="E10" s="55" t="n">
+        <v>0.167</v>
+      </c>
+      <c r="F10" s="55" t="n">
+        <v>0.444</v>
+      </c>
+      <c r="G10" s="55" t="n">
+        <v>0.611</v>
+      </c>
+      <c r="H10" s="55" t="n">
+        <v>0.056</v>
+      </c>
+      <c r="I10" s="55" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" s="54" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" s="55" t="n">
+        <v>0.167</v>
+      </c>
+      <c r="L10" s="56" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" s="40" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="20" t="inlineStr">
+        <is>
+          <t>Sam S</t>
+        </is>
+      </c>
+      <c r="B11" s="53" t="n">
+        <v>0.091</v>
+      </c>
+      <c r="C11" s="55" t="n">
+        <v>0.455</v>
+      </c>
+      <c r="D11" s="55" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" s="55" t="n">
+        <v>0.364</v>
+      </c>
+      <c r="F11" s="55" t="n">
+        <v>0.455</v>
+      </c>
+      <c r="G11" s="55" t="n">
+        <v>0.364</v>
+      </c>
+      <c r="H11" s="55" t="n">
+        <v>0.545</v>
+      </c>
+      <c r="I11" s="55" t="n">
+        <v>0.182</v>
+      </c>
+      <c r="J11" s="55" t="n">
+        <v>0.273</v>
+      </c>
+      <c r="K11" s="54" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" s="56" t="n">
+        <v>0.091</v>
+      </c>
+      <c r="M11" s="40" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="35" t="inlineStr">
+        <is>
+          <t>Tighe</t>
+        </is>
+      </c>
+      <c r="B12" s="57" t="n">
+        <v>0</v>
+      </c>
+      <c r="C12" s="58" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D12" s="58" t="n">
+        <v>0</v>
+      </c>
+      <c r="E12" s="58" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F12" s="58" t="n">
+        <v>0</v>
+      </c>
+      <c r="G12" s="58" t="n">
+        <v>0</v>
+      </c>
+      <c r="H12" s="58" t="n">
         <v>1</v>
       </c>
-      <c r="K4" s="77" t="n">
-        <v>0</v>
-      </c>
-      <c r="L4" s="78" t="n">
-        <v>0</v>
-      </c>
-      <c r="M4" s="47" t="inlineStr"/>
-    </row>
-    <row r="5">
-      <c r="A5" s="24" t="inlineStr">
-        <is>
-          <t>Brandon</t>
-        </is>
-      </c>
-      <c r="B5" s="75" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="C5" s="77" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="D5" s="77" t="n">
-        <v>0</v>
-      </c>
-      <c r="E5" s="76" t="n">
-        <v>0</v>
-      </c>
-      <c r="F5" s="77" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="G5" s="77" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="H5" s="77" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="I5" s="77" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="J5" s="77" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="K5" s="77" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="L5" s="78" t="n">
-        <v>0.067</v>
-      </c>
-      <c r="M5" s="47" t="inlineStr"/>
-    </row>
-    <row r="6">
-      <c r="A6" s="24" t="inlineStr">
-        <is>
-          <t>Eric</t>
-        </is>
-      </c>
-      <c r="B6" s="75" t="n">
-        <v>0.154</v>
-      </c>
-      <c r="C6" s="77" t="n">
-        <v>0.385</v>
-      </c>
-      <c r="D6" s="77" t="n">
-        <v>0.077</v>
-      </c>
-      <c r="E6" s="77" t="n">
-        <v>0.231</v>
-      </c>
-      <c r="F6" s="76" t="n">
-        <v>0</v>
-      </c>
-      <c r="G6" s="77" t="n">
-        <v>0.308</v>
-      </c>
-      <c r="H6" s="77" t="n">
-        <v>0.385</v>
-      </c>
-      <c r="I6" s="77" t="n">
-        <v>0.077</v>
-      </c>
-      <c r="J6" s="77" t="n">
-        <v>0.615</v>
-      </c>
-      <c r="K6" s="77" t="n">
-        <v>0.308</v>
-      </c>
-      <c r="L6" s="78" t="n">
-        <v>0</v>
-      </c>
-      <c r="M6" s="47" t="inlineStr"/>
-    </row>
-    <row r="7">
-      <c r="A7" s="24" t="inlineStr">
-        <is>
-          <t>Jacob</t>
-        </is>
-      </c>
-      <c r="B7" s="75" t="n">
-        <v>0.235</v>
-      </c>
-      <c r="C7" s="77" t="n">
-        <v>0.529</v>
-      </c>
-      <c r="D7" s="77" t="n">
-        <v>0</v>
-      </c>
-      <c r="E7" s="77" t="n">
-        <v>0.353</v>
-      </c>
-      <c r="F7" s="77" t="n">
-        <v>0.235</v>
-      </c>
-      <c r="G7" s="76" t="n">
-        <v>0</v>
-      </c>
-      <c r="H7" s="77" t="n">
-        <v>0.176</v>
-      </c>
-      <c r="I7" s="77" t="n">
-        <v>0.118</v>
-      </c>
-      <c r="J7" s="77" t="n">
-        <v>0.588</v>
-      </c>
-      <c r="K7" s="77" t="n">
-        <v>0.235</v>
-      </c>
-      <c r="L7" s="78" t="n">
-        <v>0</v>
-      </c>
-      <c r="M7" s="47" t="inlineStr"/>
-    </row>
-    <row r="8">
-      <c r="A8" s="24" t="inlineStr">
-        <is>
-          <t>Kiernan</t>
-        </is>
-      </c>
-      <c r="B8" s="75" t="n">
-        <v>0.143</v>
-      </c>
-      <c r="C8" s="77" t="n">
-        <v>0.357</v>
-      </c>
-      <c r="D8" s="77" t="n">
-        <v>0</v>
-      </c>
-      <c r="E8" s="77" t="n">
-        <v>0.643</v>
-      </c>
-      <c r="F8" s="77" t="n">
-        <v>0.357</v>
-      </c>
-      <c r="G8" s="77" t="n">
-        <v>0.214</v>
-      </c>
-      <c r="H8" s="76" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" s="77" t="n">
-        <v>0.286</v>
-      </c>
-      <c r="J8" s="77" t="n">
-        <v>0.07099999999999999</v>
-      </c>
-      <c r="K8" s="77" t="n">
-        <v>0.357</v>
-      </c>
-      <c r="L8" s="78" t="n">
-        <v>0.143</v>
-      </c>
-      <c r="M8" s="47" t="inlineStr"/>
-    </row>
-    <row r="9">
-      <c r="A9" s="24" t="inlineStr">
-        <is>
-          <t>Quinn</t>
-        </is>
-      </c>
-      <c r="B9" s="75" t="n">
-        <v>0</v>
-      </c>
-      <c r="C9" s="77" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="D9" s="77" t="n">
-        <v>0</v>
-      </c>
-      <c r="E9" s="77" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="F9" s="77" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="G9" s="77" t="n">
+      <c r="I12" s="58" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" s="58" t="n">
+        <v>0</v>
+      </c>
+      <c r="K12" s="58" t="n">
         <v>0.5</v>
       </c>
-      <c r="H9" s="77" t="n">
-        <v>1</v>
-      </c>
-      <c r="I9" s="76" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" s="77" t="n">
-        <v>0</v>
-      </c>
-      <c r="K9" s="77" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="L9" s="78" t="n">
-        <v>0</v>
-      </c>
-      <c r="M9" s="47" t="inlineStr"/>
-    </row>
-    <row r="10">
-      <c r="A10" s="24" t="inlineStr">
-        <is>
-          <t>Sam G</t>
-        </is>
-      </c>
-      <c r="B10" s="75" t="n">
-        <v>0.412</v>
-      </c>
-      <c r="C10" s="77" t="n">
-        <v>0.471</v>
-      </c>
-      <c r="D10" s="77" t="n">
-        <v>0.059</v>
-      </c>
-      <c r="E10" s="77" t="n">
-        <v>0.176</v>
-      </c>
-      <c r="F10" s="77" t="n">
-        <v>0.471</v>
-      </c>
-      <c r="G10" s="77" t="n">
-        <v>0.588</v>
-      </c>
-      <c r="H10" s="77" t="n">
-        <v>0.059</v>
-      </c>
-      <c r="I10" s="77" t="n">
-        <v>0</v>
-      </c>
-      <c r="J10" s="76" t="n">
-        <v>0</v>
-      </c>
-      <c r="K10" s="77" t="n">
-        <v>0.176</v>
-      </c>
-      <c r="L10" s="78" t="n">
-        <v>0</v>
-      </c>
-      <c r="M10" s="47" t="inlineStr"/>
-    </row>
-    <row r="11">
-      <c r="A11" s="24" t="inlineStr">
-        <is>
-          <t>Sam S</t>
-        </is>
-      </c>
-      <c r="B11" s="75" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="C11" s="77" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="D11" s="77" t="n">
-        <v>0</v>
-      </c>
-      <c r="E11" s="77" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="F11" s="77" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="G11" s="77" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="H11" s="77" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="I11" s="77" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="J11" s="77" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="K11" s="76" t="n">
-        <v>0</v>
-      </c>
-      <c r="L11" s="78" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="M11" s="47" t="inlineStr"/>
-    </row>
-    <row r="12">
-      <c r="A12" s="40" t="inlineStr">
-        <is>
-          <t>Tighe</t>
-        </is>
-      </c>
-      <c r="B12" s="79" t="n">
-        <v>0</v>
-      </c>
-      <c r="C12" s="80" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="D12" s="80" t="n">
-        <v>0</v>
-      </c>
-      <c r="E12" s="80" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="F12" s="80" t="n">
-        <v>0</v>
-      </c>
-      <c r="G12" s="80" t="n">
-        <v>0</v>
-      </c>
-      <c r="H12" s="80" t="n">
-        <v>1</v>
-      </c>
-      <c r="I12" s="80" t="n">
-        <v>0</v>
-      </c>
-      <c r="J12" s="80" t="n">
-        <v>0</v>
-      </c>
-      <c r="K12" s="80" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="L12" s="81" t="n">
-        <v>0</v>
-      </c>
-      <c r="M12" s="47" t="inlineStr"/>
+      <c r="L12" s="59" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" s="40" t="inlineStr"/>
     </row>
     <row r="13">
-      <c r="A13" s="41" t="inlineStr">
+      <c r="A13" s="36" t="inlineStr">
         <is>
           <t>Player A</t>
         </is>
       </c>
-      <c r="B13" s="26" t="inlineStr"/>
-      <c r="C13" s="26" t="inlineStr"/>
-      <c r="D13" s="26" t="inlineStr"/>
-      <c r="E13" s="26" t="inlineStr"/>
-      <c r="F13" s="26" t="inlineStr"/>
-      <c r="G13" s="26" t="inlineStr"/>
-      <c r="H13" s="26" t="inlineStr"/>
-      <c r="I13" s="26" t="inlineStr"/>
-      <c r="J13" s="26" t="inlineStr"/>
-      <c r="K13" s="26" t="inlineStr"/>
-      <c r="L13" s="26" t="inlineStr"/>
+      <c r="B13" s="22" t="inlineStr"/>
+      <c r="C13" s="22" t="inlineStr"/>
+      <c r="D13" s="22" t="inlineStr"/>
+      <c r="E13" s="22" t="inlineStr"/>
+      <c r="F13" s="22" t="inlineStr"/>
+      <c r="G13" s="22" t="inlineStr"/>
+      <c r="H13" s="22" t="inlineStr"/>
+      <c r="I13" s="22" t="inlineStr"/>
+      <c r="J13" s="22" t="inlineStr"/>
+      <c r="K13" s="22" t="inlineStr"/>
+      <c r="L13" s="22" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -8063,121 +8472,121 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16"/>
   <cols>
-    <col width="11.33203125" customWidth="1" style="71" min="1" max="1"/>
-    <col width="13.1640625" customWidth="1" style="71" min="2" max="17"/>
-    <col width="9.83203125" customWidth="1" style="71" min="18" max="19"/>
-    <col width="11.33203125" customWidth="1" style="71" min="20" max="20"/>
+    <col width="11.33203125" customWidth="1" style="63" min="1" max="1"/>
+    <col width="13.1640625" customWidth="1" style="63" min="2" max="17"/>
+    <col width="9.83203125" customWidth="1" style="63" min="18" max="19"/>
+    <col width="11.33203125" customWidth="1" style="63" min="20" max="20"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="82" t="inlineStr">
+      <c r="A1" s="76" t="inlineStr">
         <is>
           <t>Name</t>
         </is>
       </c>
-      <c r="B1" s="82" t="inlineStr">
+      <c r="B1" s="76" t="inlineStr">
         <is>
           <t>Days Record</t>
         </is>
       </c>
-      <c r="C1" s="82" t="inlineStr">
+      <c r="C1" s="76" t="inlineStr">
         <is>
           <t>Days Pct</t>
         </is>
       </c>
-      <c r="D1" s="82" t="inlineStr">
+      <c r="D1" s="76" t="inlineStr">
         <is>
           <t>Games Record</t>
         </is>
       </c>
-      <c r="E1" s="82" t="inlineStr">
+      <c r="E1" s="76" t="inlineStr">
         <is>
           <t>Games Pct</t>
         </is>
       </c>
-      <c r="F1" s="82" t="inlineStr">
+      <c r="F1" s="76" t="inlineStr">
         <is>
           <t>PK's Record</t>
         </is>
       </c>
-      <c r="G1" s="82" t="inlineStr">
+      <c r="G1" s="76" t="inlineStr">
         <is>
           <t>PK's Pct</t>
         </is>
       </c>
-      <c r="H1" s="82" t="inlineStr">
+      <c r="H1" s="76" t="inlineStr">
         <is>
           <t>Cross Record</t>
         </is>
       </c>
-      <c r="I1" s="82" t="inlineStr">
+      <c r="I1" s="76" t="inlineStr">
         <is>
           <t>Cross Pct</t>
         </is>
       </c>
-      <c r="J1" s="82" t="inlineStr">
+      <c r="J1" s="76" t="inlineStr">
         <is>
           <t>A/D Record</t>
         </is>
       </c>
-      <c r="K1" s="82" t="inlineStr">
+      <c r="K1" s="76" t="inlineStr">
         <is>
           <t>A/D Pct</t>
         </is>
       </c>
-      <c r="L1" s="82" t="inlineStr">
+      <c r="L1" s="76" t="inlineStr">
         <is>
           <t>P&amp;F Record</t>
         </is>
       </c>
-      <c r="M1" s="82" t="inlineStr">
+      <c r="M1" s="76" t="inlineStr">
         <is>
           <t>P&amp;F Pct</t>
         </is>
       </c>
-      <c r="N1" s="82" t="inlineStr">
+      <c r="N1" s="76" t="inlineStr">
         <is>
           <t>SS Record</t>
         </is>
       </c>
-      <c r="O1" s="82" t="inlineStr">
+      <c r="O1" s="76" t="inlineStr">
         <is>
           <t>SS Pct</t>
         </is>
       </c>
-      <c r="P1" s="82" t="inlineStr">
+      <c r="P1" s="76" t="inlineStr">
         <is>
           <t>FK's Record</t>
         </is>
       </c>
-      <c r="Q1" s="82" t="inlineStr">
+      <c r="Q1" s="76" t="inlineStr">
         <is>
           <t>FK's Pct</t>
         </is>
       </c>
-      <c r="R1" s="82" t="inlineStr">
+      <c r="R1" s="76" t="inlineStr">
         <is>
           <t>MVP</t>
         </is>
       </c>
-      <c r="S1" s="82" t="inlineStr">
+      <c r="S1" s="76" t="inlineStr">
         <is>
           <t>Clown</t>
         </is>
       </c>
-      <c r="T1" s="82" t="inlineStr">
+      <c r="T1" s="76" t="inlineStr">
         <is>
           <t>(Name)</t>
         </is>
       </c>
-      <c r="U1" s="13" t="n"/>
-      <c r="V1" s="12" t="n"/>
-      <c r="W1" s="12" t="n"/>
-      <c r="X1" s="12" t="n"/>
-      <c r="Y1" s="34" t="n"/>
+      <c r="U1" s="11" t="n"/>
+      <c r="V1" s="10" t="n"/>
+      <c r="W1" s="10" t="n"/>
+      <c r="X1" s="10" t="n"/>
+      <c r="Y1" s="30" t="n"/>
     </row>
     <row r="2">
-      <c r="A2" s="10" t="inlineStr">
+      <c r="A2" s="8" t="inlineStr">
         <is>
           <t>Aaron</t>
         </is>
@@ -8187,7 +8596,7 @@
           <t>3-4</t>
         </is>
       </c>
-      <c r="C2" s="29" t="n">
+      <c r="C2" s="25" t="n">
         <v>0.4286</v>
       </c>
       <c r="D2" s="1" t="inlineStr">
@@ -8195,7 +8604,7 @@
           <t>16-19</t>
         </is>
       </c>
-      <c r="E2" s="32" t="n">
+      <c r="E2" s="28" t="n">
         <v>0.4571</v>
       </c>
       <c r="F2" s="1" t="inlineStr">
@@ -8203,7 +8612,7 @@
           <t>15-12</t>
         </is>
       </c>
-      <c r="G2" s="32" t="n">
+      <c r="G2" s="28" t="n">
         <v>0.5556</v>
       </c>
       <c r="H2" s="1" t="inlineStr">
@@ -8211,7 +8620,7 @@
           <t>11-24</t>
         </is>
       </c>
-      <c r="I2" s="32" t="n">
+      <c r="I2" s="28" t="n">
         <v>0.3143</v>
       </c>
       <c r="J2" s="1" t="inlineStr">
@@ -8219,7 +8628,7 @@
           <t>4-1</t>
         </is>
       </c>
-      <c r="K2" s="32" t="n">
+      <c r="K2" s="28" t="n">
         <v>0.8</v>
       </c>
       <c r="L2" s="1" t="inlineStr">
@@ -8227,7 +8636,7 @@
           <t>5-1</t>
         </is>
       </c>
-      <c r="M2" s="32" t="n">
+      <c r="M2" s="28" t="n">
         <v>0.8333</v>
       </c>
       <c r="N2" s="1" t="inlineStr">
@@ -8235,7 +8644,7 @@
           <t>0-1</t>
         </is>
       </c>
-      <c r="O2" s="32" t="n">
+      <c r="O2" s="28" t="n">
         <v>0</v>
       </c>
       <c r="P2" s="1" t="inlineStr">
@@ -8243,27 +8652,27 @@
           <t>0-2</t>
         </is>
       </c>
-      <c r="Q2" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="R2" s="35" t="n">
+      <c r="Q2" s="25" t="n">
+        <v>0</v>
+      </c>
+      <c r="R2" s="31" t="n">
         <v>0</v>
       </c>
       <c r="S2" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="T2" s="16" t="inlineStr">
+      <c r="T2" s="14" t="inlineStr">
         <is>
           <t>Aaron</t>
         </is>
       </c>
-      <c r="U2" s="14" t="n"/>
-      <c r="V2" s="70" t="n">
+      <c r="U2" s="12" t="n"/>
+      <c r="V2" s="62" t="n">
         <v>2024</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="11" t="inlineStr">
+      <c r="A3" s="9" t="inlineStr">
         <is>
           <t>AB</t>
         </is>
@@ -8273,7 +8682,7 @@
           <t>8-7</t>
         </is>
       </c>
-      <c r="C3" s="29" t="n">
+      <c r="C3" s="25" t="n">
         <v>0.5333</v>
       </c>
       <c r="D3" s="1" t="inlineStr">
@@ -8281,7 +8690,7 @@
           <t>33-33</t>
         </is>
       </c>
-      <c r="E3" s="32" t="n">
+      <c r="E3" s="28" t="n">
         <v>0.5</v>
       </c>
       <c r="F3" s="1" t="inlineStr">
@@ -8289,7 +8698,7 @@
           <t>29-21</t>
         </is>
       </c>
-      <c r="G3" s="32" t="n">
+      <c r="G3" s="28" t="n">
         <v>0.58</v>
       </c>
       <c r="H3" s="1" t="inlineStr">
@@ -8297,7 +8706,7 @@
           <t>34-33</t>
         </is>
       </c>
-      <c r="I3" s="32" t="n">
+      <c r="I3" s="28" t="n">
         <v>0.5075</v>
       </c>
       <c r="J3" s="1" t="inlineStr">
@@ -8305,7 +8714,7 @@
           <t>3-8</t>
         </is>
       </c>
-      <c r="K3" s="32" t="n">
+      <c r="K3" s="28" t="n">
         <v>0.2727</v>
       </c>
       <c r="L3" s="1" t="inlineStr">
@@ -8313,7 +8722,7 @@
           <t>8-5</t>
         </is>
       </c>
-      <c r="M3" s="32" t="n">
+      <c r="M3" s="28" t="n">
         <v>0.6153999999999999</v>
       </c>
       <c r="N3" s="1" t="inlineStr">
@@ -8321,7 +8730,7 @@
           <t>0-1</t>
         </is>
       </c>
-      <c r="O3" s="32" t="n">
+      <c r="O3" s="28" t="n">
         <v>0</v>
       </c>
       <c r="P3" s="1" t="inlineStr">
@@ -8329,24 +8738,24 @@
           <t>1-3</t>
         </is>
       </c>
-      <c r="Q3" s="29" t="n">
+      <c r="Q3" s="25" t="n">
         <v>0.25</v>
       </c>
-      <c r="R3" s="35" t="n">
+      <c r="R3" s="31" t="n">
         <v>1</v>
       </c>
       <c r="S3" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="T3" s="17" t="inlineStr">
+      <c r="T3" s="15" t="inlineStr">
         <is>
           <t>AB</t>
         </is>
       </c>
-      <c r="U3" s="14" t="n"/>
+      <c r="U3" s="12" t="n"/>
     </row>
     <row r="4">
-      <c r="A4" s="11" t="inlineStr">
+      <c r="A4" s="9" t="inlineStr">
         <is>
           <t>Anthony</t>
         </is>
@@ -8356,7 +8765,7 @@
           <t>0-1</t>
         </is>
       </c>
-      <c r="C4" s="29" t="n">
+      <c r="C4" s="25" t="n">
         <v>0</v>
       </c>
       <c r="D4" s="1" t="inlineStr">
@@ -8364,7 +8773,7 @@
           <t>1-2</t>
         </is>
       </c>
-      <c r="E4" s="29" t="n">
+      <c r="E4" s="25" t="n">
         <v>0.3333</v>
       </c>
       <c r="F4" s="1" t="inlineStr">
@@ -8372,7 +8781,7 @@
           <t>1-2</t>
         </is>
       </c>
-      <c r="G4" s="32" t="n">
+      <c r="G4" s="28" t="n">
         <v>0.3333</v>
       </c>
       <c r="H4" s="1" t="inlineStr">
@@ -8380,7 +8789,7 @@
           <t>3-2</t>
         </is>
       </c>
-      <c r="I4" s="32" t="n">
+      <c r="I4" s="28" t="n">
         <v>0.6</v>
       </c>
       <c r="J4" s="1" t="inlineStr">
@@ -8388,7 +8797,7 @@
           <t>0-0</t>
         </is>
       </c>
-      <c r="K4" s="32" t="n">
+      <c r="K4" s="28" t="n">
         <v>0</v>
       </c>
       <c r="L4" s="1" t="inlineStr">
@@ -8396,7 +8805,7 @@
           <t>0-1</t>
         </is>
       </c>
-      <c r="M4" s="32" t="n">
+      <c r="M4" s="28" t="n">
         <v>0</v>
       </c>
       <c r="N4" s="1" t="inlineStr">
@@ -8404,7 +8813,7 @@
           <t>0-0</t>
         </is>
       </c>
-      <c r="O4" s="32" t="n">
+      <c r="O4" s="28" t="n">
         <v>0</v>
       </c>
       <c r="P4" s="1" t="inlineStr">
@@ -8412,24 +8821,24 @@
           <t>0-0</t>
         </is>
       </c>
-      <c r="Q4" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="R4" s="35" t="n">
+      <c r="Q4" s="25" t="n">
+        <v>0</v>
+      </c>
+      <c r="R4" s="31" t="n">
         <v>0</v>
       </c>
       <c r="S4" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="T4" s="17" t="inlineStr">
+      <c r="T4" s="15" t="inlineStr">
         <is>
           <t>Anthony</t>
         </is>
       </c>
-      <c r="U4" s="14" t="n"/>
+      <c r="U4" s="12" t="n"/>
     </row>
     <row r="5">
-      <c r="A5" s="11" t="inlineStr">
+      <c r="A5" s="9" t="inlineStr">
         <is>
           <t>Brandon</t>
         </is>
@@ -8439,7 +8848,7 @@
           <t>6-7</t>
         </is>
       </c>
-      <c r="C5" s="29" t="n">
+      <c r="C5" s="25" t="n">
         <v>0.4615</v>
       </c>
       <c r="D5" s="1" t="inlineStr">
@@ -8447,7 +8856,7 @@
           <t>28-31</t>
         </is>
       </c>
-      <c r="E5" s="32" t="n">
+      <c r="E5" s="28" t="n">
         <v>0.4746</v>
       </c>
       <c r="F5" s="1" t="inlineStr">
@@ -8455,7 +8864,7 @@
           <t>19-25</t>
         </is>
       </c>
-      <c r="G5" s="32" t="n">
+      <c r="G5" s="28" t="n">
         <v>0.4318</v>
       </c>
       <c r="H5" s="1" t="inlineStr">
@@ -8463,7 +8872,7 @@
           <t>30-31</t>
         </is>
       </c>
-      <c r="I5" s="32" t="n">
+      <c r="I5" s="28" t="n">
         <v>0.4918</v>
       </c>
       <c r="J5" s="1" t="inlineStr">
@@ -8471,7 +8880,7 @@
           <t>8-2</t>
         </is>
       </c>
-      <c r="K5" s="32" t="n">
+      <c r="K5" s="28" t="n">
         <v>0.8</v>
       </c>
       <c r="L5" s="1" t="inlineStr">
@@ -8479,7 +8888,7 @@
           <t>6-5</t>
         </is>
       </c>
-      <c r="M5" s="32" t="n">
+      <c r="M5" s="28" t="n">
         <v>0.5455</v>
       </c>
       <c r="N5" s="1" t="inlineStr">
@@ -8487,7 +8896,7 @@
           <t>1-0</t>
         </is>
       </c>
-      <c r="O5" s="32" t="n">
+      <c r="O5" s="28" t="n">
         <v>1</v>
       </c>
       <c r="P5" s="1" t="inlineStr">
@@ -8495,24 +8904,24 @@
           <t>1-3</t>
         </is>
       </c>
-      <c r="Q5" s="29" t="n">
+      <c r="Q5" s="25" t="n">
         <v>0.25</v>
       </c>
-      <c r="R5" s="35" t="n">
+      <c r="R5" s="31" t="n">
         <v>5</v>
       </c>
       <c r="S5" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="T5" s="17" t="inlineStr">
+      <c r="T5" s="15" t="inlineStr">
         <is>
           <t>Brandon</t>
         </is>
       </c>
-      <c r="U5" s="14" t="n"/>
+      <c r="U5" s="12" t="n"/>
     </row>
     <row r="6">
-      <c r="A6" s="11" t="inlineStr">
+      <c r="A6" s="9" t="inlineStr">
         <is>
           <t>Eric</t>
         </is>
@@ -8522,7 +8931,7 @@
           <t>4-8</t>
         </is>
       </c>
-      <c r="C6" s="29" t="n">
+      <c r="C6" s="25" t="n">
         <v>0.3333</v>
       </c>
       <c r="D6" s="1" t="inlineStr">
@@ -8530,7 +8939,7 @@
           <t>23-30</t>
         </is>
       </c>
-      <c r="E6" s="32" t="n">
+      <c r="E6" s="28" t="n">
         <v>0.434</v>
       </c>
       <c r="F6" s="1" t="inlineStr">
@@ -8538,7 +8947,7 @@
           <t>20-18</t>
         </is>
       </c>
-      <c r="G6" s="32" t="n">
+      <c r="G6" s="28" t="n">
         <v>0.5263</v>
       </c>
       <c r="H6" s="1" t="inlineStr">
@@ -8546,7 +8955,7 @@
           <t>24-25</t>
         </is>
       </c>
-      <c r="I6" s="32" t="n">
+      <c r="I6" s="28" t="n">
         <v>0.4898</v>
       </c>
       <c r="J6" s="1" t="inlineStr">
@@ -8554,7 +8963,7 @@
           <t>4-6</t>
         </is>
       </c>
-      <c r="K6" s="32" t="n">
+      <c r="K6" s="28" t="n">
         <v>0.4</v>
       </c>
       <c r="L6" s="1" t="inlineStr">
@@ -8562,7 +8971,7 @@
           <t>3-8</t>
         </is>
       </c>
-      <c r="M6" s="32" t="n">
+      <c r="M6" s="28" t="n">
         <v>0.2727</v>
       </c>
       <c r="N6" s="1" t="inlineStr">
@@ -8570,7 +8979,7 @@
           <t>0-1</t>
         </is>
       </c>
-      <c r="O6" s="32" t="n">
+      <c r="O6" s="28" t="n">
         <v>0</v>
       </c>
       <c r="P6" s="1" t="inlineStr">
@@ -8578,24 +8987,24 @@
           <t>1-2</t>
         </is>
       </c>
-      <c r="Q6" s="29" t="n">
+      <c r="Q6" s="25" t="n">
         <v>0.3333</v>
       </c>
-      <c r="R6" s="35" t="n">
+      <c r="R6" s="31" t="n">
         <v>2</v>
       </c>
       <c r="S6" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="T6" s="17" t="inlineStr">
+      <c r="T6" s="15" t="inlineStr">
         <is>
           <t>Eric</t>
         </is>
       </c>
-      <c r="U6" s="14" t="n"/>
+      <c r="U6" s="12" t="n"/>
     </row>
     <row r="7">
-      <c r="A7" s="48" t="inlineStr">
+      <c r="A7" s="41" t="inlineStr">
         <is>
           <t>Jacob</t>
         </is>
@@ -8605,80 +9014,80 @@
           <t>7-8</t>
         </is>
       </c>
-      <c r="C7" s="30" t="n">
+      <c r="C7" s="26" t="n">
         <v>0.4667</v>
       </c>
-      <c r="D7" s="26" t="inlineStr">
+      <c r="D7" s="22" t="inlineStr">
         <is>
           <t>35-31</t>
         </is>
       </c>
-      <c r="E7" s="30" t="n">
+      <c r="E7" s="26" t="n">
         <v>0.5303</v>
       </c>
-      <c r="F7" s="26" t="inlineStr">
+      <c r="F7" s="22" t="inlineStr">
         <is>
           <t>26-24</t>
         </is>
       </c>
-      <c r="G7" s="30" t="n">
+      <c r="G7" s="26" t="n">
         <v>0.52</v>
       </c>
-      <c r="H7" s="26" t="inlineStr">
+      <c r="H7" s="22" t="inlineStr">
         <is>
           <t>31-36</t>
         </is>
       </c>
-      <c r="I7" s="30" t="n">
+      <c r="I7" s="26" t="n">
         <v>0.4627</v>
       </c>
-      <c r="J7" s="26" t="inlineStr">
+      <c r="J7" s="22" t="inlineStr">
         <is>
           <t>5-6</t>
         </is>
       </c>
-      <c r="K7" s="30" t="n">
+      <c r="K7" s="26" t="n">
         <v>0.4545</v>
       </c>
-      <c r="L7" s="26" t="inlineStr">
+      <c r="L7" s="22" t="inlineStr">
         <is>
           <t>6-7</t>
         </is>
       </c>
-      <c r="M7" s="30" t="n">
+      <c r="M7" s="26" t="n">
         <v>0.4615</v>
       </c>
-      <c r="N7" s="26" t="inlineStr">
+      <c r="N7" s="22" t="inlineStr">
         <is>
           <t>1-0</t>
         </is>
       </c>
-      <c r="O7" s="30" t="n">
+      <c r="O7" s="26" t="n">
         <v>1</v>
       </c>
-      <c r="P7" s="26" t="inlineStr">
+      <c r="P7" s="22" t="inlineStr">
         <is>
           <t>4-0</t>
         </is>
       </c>
-      <c r="Q7" s="30" t="n">
+      <c r="Q7" s="26" t="n">
         <v>1</v>
       </c>
-      <c r="R7" s="35" t="n">
+      <c r="R7" s="31" t="n">
         <v>1</v>
       </c>
       <c r="S7" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="T7" s="27" t="inlineStr">
+      <c r="T7" s="23" t="inlineStr">
         <is>
           <t>Jacob</t>
         </is>
       </c>
-      <c r="U7" s="14" t="n"/>
+      <c r="U7" s="12" t="n"/>
     </row>
     <row r="8">
-      <c r="A8" s="11" t="inlineStr">
+      <c r="A8" s="9" t="inlineStr">
         <is>
           <t>Kiernan</t>
         </is>
@@ -8688,7 +9097,7 @@
           <t>5-7</t>
         </is>
       </c>
-      <c r="C8" s="29" t="n">
+      <c r="C8" s="25" t="n">
         <v>0.4167</v>
       </c>
       <c r="D8" s="1" t="inlineStr">
@@ -8696,7 +9105,7 @@
           <t>24-31</t>
         </is>
       </c>
-      <c r="E8" s="32" t="n">
+      <c r="E8" s="28" t="n">
         <v>0.4364</v>
       </c>
       <c r="F8" s="1" t="inlineStr">
@@ -8704,7 +9113,7 @@
           <t>13-27</t>
         </is>
       </c>
-      <c r="G8" s="32" t="n">
+      <c r="G8" s="28" t="n">
         <v>0.325</v>
       </c>
       <c r="H8" s="1" t="inlineStr">
@@ -8712,7 +9121,7 @@
           <t>28-26</t>
         </is>
       </c>
-      <c r="I8" s="32" t="n">
+      <c r="I8" s="28" t="n">
         <v>0.5185</v>
       </c>
       <c r="J8" s="1" t="inlineStr">
@@ -8720,7 +9129,7 @@
           <t>6-3</t>
         </is>
       </c>
-      <c r="K8" s="32" t="n">
+      <c r="K8" s="28" t="n">
         <v>0.6667</v>
       </c>
       <c r="L8" s="1" t="inlineStr">
@@ -8728,7 +9137,7 @@
           <t>5-6</t>
         </is>
       </c>
-      <c r="M8" s="32" t="n">
+      <c r="M8" s="28" t="n">
         <v>0.4545</v>
       </c>
       <c r="N8" s="1" t="inlineStr">
@@ -8736,7 +9145,7 @@
           <t>1-0</t>
         </is>
       </c>
-      <c r="O8" s="32" t="n">
+      <c r="O8" s="28" t="n">
         <v>1</v>
       </c>
       <c r="P8" s="1" t="inlineStr">
@@ -8744,24 +9153,24 @@
           <t>2-2</t>
         </is>
       </c>
-      <c r="Q8" s="29" t="n">
+      <c r="Q8" s="25" t="n">
         <v>0.5</v>
       </c>
-      <c r="R8" s="35" t="n">
+      <c r="R8" s="31" t="n">
         <v>1</v>
       </c>
       <c r="S8" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="T8" s="17" t="inlineStr">
+      <c r="T8" s="15" t="inlineStr">
         <is>
           <t>Kiernan</t>
         </is>
       </c>
-      <c r="U8" s="14" t="n"/>
+      <c r="U8" s="12" t="n"/>
     </row>
     <row r="9">
-      <c r="A9" s="11" t="inlineStr">
+      <c r="A9" s="9" t="inlineStr">
         <is>
           <t>Quinn</t>
         </is>
@@ -8771,7 +9180,7 @@
           <t>1-2</t>
         </is>
       </c>
-      <c r="C9" s="29" t="n">
+      <c r="C9" s="25" t="n">
         <v>0.3333</v>
       </c>
       <c r="D9" s="1" t="inlineStr">
@@ -8779,7 +9188,7 @@
           <t>8-10</t>
         </is>
       </c>
-      <c r="E9" s="29" t="n">
+      <c r="E9" s="25" t="n">
         <v>0.4444</v>
       </c>
       <c r="F9" s="1" t="inlineStr">
@@ -8787,7 +9196,7 @@
           <t>3-8</t>
         </is>
       </c>
-      <c r="G9" s="29" t="n">
+      <c r="G9" s="25" t="n">
         <v>0.2727</v>
       </c>
       <c r="H9" s="1" t="inlineStr">
@@ -8795,7 +9204,7 @@
           <t>7-9</t>
         </is>
       </c>
-      <c r="I9" s="29" t="n">
+      <c r="I9" s="25" t="n">
         <v>0.4375</v>
       </c>
       <c r="J9" s="1" t="inlineStr">
@@ -8803,7 +9212,7 @@
           <t>2-1</t>
         </is>
       </c>
-      <c r="K9" s="29" t="n">
+      <c r="K9" s="25" t="n">
         <v>0.6667</v>
       </c>
       <c r="L9" s="1" t="inlineStr">
@@ -8811,7 +9220,7 @@
           <t>0-3</t>
         </is>
       </c>
-      <c r="M9" s="29" t="n">
+      <c r="M9" s="25" t="n">
         <v>0</v>
       </c>
       <c r="N9" s="1" t="inlineStr">
@@ -8819,7 +9228,7 @@
           <t>1-0</t>
         </is>
       </c>
-      <c r="O9" s="29" t="n">
+      <c r="O9" s="25" t="n">
         <v>1</v>
       </c>
       <c r="P9" s="1" t="inlineStr">
@@ -8827,24 +9236,24 @@
           <t>2-0</t>
         </is>
       </c>
-      <c r="Q9" s="29" t="n">
+      <c r="Q9" s="25" t="n">
         <v>1</v>
       </c>
-      <c r="R9" s="35" t="n">
+      <c r="R9" s="31" t="n">
         <v>0</v>
       </c>
       <c r="S9" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="T9" s="66" t="inlineStr">
+      <c r="T9" s="49" t="inlineStr">
         <is>
           <t>Quinn</t>
         </is>
       </c>
-      <c r="U9" s="14" t="n"/>
+      <c r="U9" s="12" t="n"/>
     </row>
     <row r="10">
-      <c r="A10" s="11" t="inlineStr">
+      <c r="A10" s="9" t="inlineStr">
         <is>
           <t>Sam G</t>
         </is>
@@ -8854,7 +9263,7 @@
           <t>10-5</t>
         </is>
       </c>
-      <c r="C10" s="29" t="n">
+      <c r="C10" s="25" t="n">
         <v>0.6667</v>
       </c>
       <c r="D10" s="1" t="inlineStr">
@@ -8862,7 +9271,7 @@
           <t>38-28</t>
         </is>
       </c>
-      <c r="E10" s="32" t="n">
+      <c r="E10" s="28" t="n">
         <v>0.5758</v>
       </c>
       <c r="F10" s="1" t="inlineStr">
@@ -8870,7 +9279,7 @@
           <t>32-18</t>
         </is>
       </c>
-      <c r="G10" s="32" t="n">
+      <c r="G10" s="28" t="n">
         <v>0.64</v>
       </c>
       <c r="H10" s="1" t="inlineStr">
@@ -8878,7 +9287,7 @@
           <t>30-37</t>
         </is>
       </c>
-      <c r="I10" s="32" t="n">
+      <c r="I10" s="28" t="n">
         <v>0.4478</v>
       </c>
       <c r="J10" s="1" t="inlineStr">
@@ -8886,7 +9295,7 @@
           <t>5-6</t>
         </is>
       </c>
-      <c r="K10" s="32" t="n">
+      <c r="K10" s="28" t="n">
         <v>0.4545</v>
       </c>
       <c r="L10" s="1" t="inlineStr">
@@ -8894,7 +9303,7 @@
           <t>8-5</t>
         </is>
       </c>
-      <c r="M10" s="32" t="n">
+      <c r="M10" s="28" t="n">
         <v>0.6153999999999999</v>
       </c>
       <c r="N10" s="1" t="inlineStr">
@@ -8902,7 +9311,7 @@
           <t>0-1</t>
         </is>
       </c>
-      <c r="O10" s="32" t="n">
+      <c r="O10" s="28" t="n">
         <v>0</v>
       </c>
       <c r="P10" s="1" t="inlineStr">
@@ -8910,24 +9319,24 @@
           <t>2-2</t>
         </is>
       </c>
-      <c r="Q10" s="29" t="n">
+      <c r="Q10" s="25" t="n">
         <v>0.5</v>
       </c>
-      <c r="R10" s="35" t="n">
+      <c r="R10" s="31" t="n">
         <v>4</v>
       </c>
-      <c r="S10" s="15" t="n">
-        <v>0</v>
-      </c>
-      <c r="T10" s="18" t="inlineStr">
+      <c r="S10" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="T10" s="16" t="inlineStr">
         <is>
           <t>Sam G</t>
         </is>
       </c>
-      <c r="U10" s="14" t="n"/>
+      <c r="U10" s="12" t="n"/>
     </row>
     <row r="11">
-      <c r="A11" s="11" t="inlineStr">
+      <c r="A11" s="9" t="inlineStr">
         <is>
           <t>Sam S</t>
         </is>
@@ -8937,7 +9346,7 @@
           <t>4-4</t>
         </is>
       </c>
-      <c r="C11" s="29" t="n">
+      <c r="C11" s="25" t="n">
         <v>0.5</v>
       </c>
       <c r="D11" s="1" t="inlineStr">
@@ -8945,7 +9354,7 @@
           <t>17-17</t>
         </is>
       </c>
-      <c r="E11" s="32" t="n">
+      <c r="E11" s="28" t="n">
         <v>0.5</v>
       </c>
       <c r="F11" s="1" t="inlineStr">
@@ -8953,7 +9362,7 @@
           <t>14-16</t>
         </is>
       </c>
-      <c r="G11" s="32" t="n">
+      <c r="G11" s="28" t="n">
         <v>0.4667</v>
       </c>
       <c r="H11" s="1" t="inlineStr">
@@ -8961,7 +9370,7 @@
           <t>27-12</t>
         </is>
       </c>
-      <c r="I11" s="32" t="n">
+      <c r="I11" s="28" t="n">
         <v>0.6923</v>
       </c>
       <c r="J11" s="1" t="inlineStr">
@@ -8969,7 +9378,7 @@
           <t>0-6</t>
         </is>
       </c>
-      <c r="K11" s="32" t="n">
+      <c r="K11" s="28" t="n">
         <v>0</v>
       </c>
       <c r="L11" s="1" t="inlineStr">
@@ -8977,7 +9386,7 @@
           <t>1-4</t>
         </is>
       </c>
-      <c r="M11" s="32" t="n">
+      <c r="M11" s="28" t="n">
         <v>0.2</v>
       </c>
       <c r="N11" s="1" t="inlineStr">
@@ -8985,7 +9394,7 @@
           <t>0-0</t>
         </is>
       </c>
-      <c r="O11" s="32" t="n">
+      <c r="O11" s="28" t="n">
         <v>0</v>
       </c>
       <c r="P11" s="1" t="inlineStr">
@@ -8993,98 +9402,98 @@
           <t>1-0</t>
         </is>
       </c>
-      <c r="Q11" s="29" t="n">
+      <c r="Q11" s="25" t="n">
         <v>1</v>
       </c>
-      <c r="R11" s="35" t="n">
+      <c r="R11" s="31" t="n">
         <v>1</v>
       </c>
       <c r="S11" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="T11" s="17" t="inlineStr">
+      <c r="T11" s="15" t="inlineStr">
         <is>
           <t>Sam S</t>
         </is>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="49" t="inlineStr">
+      <c r="A12" s="42" t="inlineStr">
         <is>
           <t>Tighe</t>
         </is>
       </c>
-      <c r="B12" s="9" t="inlineStr">
+      <c r="B12" s="7" t="inlineStr">
         <is>
           <t>1-0</t>
         </is>
       </c>
-      <c r="C12" s="31" t="n">
+      <c r="C12" s="27" t="n">
         <v>1</v>
       </c>
-      <c r="D12" s="9" t="inlineStr">
+      <c r="D12" s="7" t="inlineStr">
         <is>
           <t>3-2</t>
         </is>
       </c>
-      <c r="E12" s="64" t="n">
+      <c r="E12" s="47" t="n">
         <v>0.6</v>
       </c>
-      <c r="F12" s="9" t="inlineStr">
+      <c r="F12" s="7" t="inlineStr">
         <is>
           <t>1-2</t>
         </is>
       </c>
-      <c r="G12" s="64" t="n">
+      <c r="G12" s="47" t="n">
         <v>0.3333</v>
       </c>
-      <c r="H12" s="9" t="inlineStr">
+      <c r="H12" s="7" t="inlineStr">
         <is>
           <t>2-0</t>
         </is>
       </c>
-      <c r="I12" s="64" t="n">
+      <c r="I12" s="47" t="n">
         <v>1</v>
       </c>
-      <c r="J12" s="9" t="inlineStr">
+      <c r="J12" s="7" t="inlineStr">
         <is>
           <t>1-0</t>
         </is>
       </c>
-      <c r="K12" s="64" t="n">
+      <c r="K12" s="47" t="n">
         <v>1</v>
       </c>
-      <c r="L12" s="9" t="inlineStr">
+      <c r="L12" s="7" t="inlineStr">
         <is>
           <t>1-1</t>
         </is>
       </c>
-      <c r="M12" s="64" t="n">
+      <c r="M12" s="47" t="n">
         <v>0.5</v>
       </c>
-      <c r="N12" s="9" t="inlineStr">
+      <c r="N12" s="7" t="inlineStr">
         <is>
           <t>0-0</t>
         </is>
       </c>
-      <c r="O12" s="64" t="n">
-        <v>0</v>
-      </c>
-      <c r="P12" s="9" t="inlineStr">
+      <c r="O12" s="47" t="n">
+        <v>0</v>
+      </c>
+      <c r="P12" s="7" t="inlineStr">
         <is>
           <t>0-0</t>
         </is>
       </c>
-      <c r="Q12" s="31" t="n">
-        <v>0</v>
-      </c>
-      <c r="R12" s="36" t="n">
-        <v>0</v>
-      </c>
-      <c r="S12" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="T12" s="65" t="inlineStr">
+      <c r="Q12" s="27" t="n">
+        <v>0</v>
+      </c>
+      <c r="R12" s="32" t="n">
+        <v>0</v>
+      </c>
+      <c r="S12" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="T12" s="48" t="inlineStr">
         <is>
           <t>Tighe</t>
         </is>
@@ -9092,114 +9501,114 @@
     </row>
     <row r="13">
       <c r="A13" s="2" t="n"/>
-      <c r="C13" s="8" t="n"/>
-      <c r="D13" s="8" t="n"/>
-      <c r="E13" s="8" t="n"/>
-      <c r="F13" s="8" t="n"/>
-      <c r="G13" s="8" t="n"/>
-      <c r="H13" s="8" t="n"/>
-      <c r="I13" s="8" t="n"/>
-      <c r="J13" s="8" t="n"/>
-      <c r="K13" s="8" t="n"/>
-      <c r="L13" s="8" t="n"/>
-      <c r="M13" s="8" t="n"/>
-      <c r="N13" s="8" t="n"/>
-      <c r="O13" s="8" t="n"/>
+      <c r="C13" s="6" t="n"/>
+      <c r="D13" s="6" t="n"/>
+      <c r="E13" s="6" t="n"/>
+      <c r="F13" s="6" t="n"/>
+      <c r="G13" s="6" t="n"/>
+      <c r="H13" s="6" t="n"/>
+      <c r="I13" s="6" t="n"/>
+      <c r="J13" s="6" t="n"/>
+      <c r="K13" s="6" t="n"/>
+      <c r="L13" s="6" t="n"/>
+      <c r="M13" s="6" t="n"/>
+      <c r="N13" s="6" t="n"/>
+      <c r="O13" s="6" t="n"/>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n"/>
-      <c r="C14" s="8" t="n"/>
-      <c r="E14" s="8" t="n"/>
+      <c r="C14" s="6" t="n"/>
+      <c r="E14" s="6" t="n"/>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n"/>
-      <c r="C15" s="8" t="n"/>
-      <c r="E15" s="8" t="n"/>
+      <c r="C15" s="6" t="n"/>
+      <c r="E15" s="6" t="n"/>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n"/>
-      <c r="C16" s="8" t="n"/>
-      <c r="E16" s="8" t="n"/>
+      <c r="C16" s="6" t="n"/>
+      <c r="E16" s="6" t="n"/>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n"/>
-      <c r="C17" s="8" t="n"/>
-      <c r="E17" s="8" t="n"/>
+      <c r="C17" s="6" t="n"/>
+      <c r="E17" s="6" t="n"/>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n"/>
-      <c r="C18" s="8" t="n"/>
-      <c r="E18" s="8" t="n"/>
+      <c r="C18" s="6" t="n"/>
+      <c r="E18" s="6" t="n"/>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n"/>
-      <c r="C19" s="8" t="n"/>
-      <c r="E19" s="8" t="n"/>
+      <c r="C19" s="6" t="n"/>
+      <c r="E19" s="6" t="n"/>
       <c r="X19" s="2" t="n"/>
-      <c r="Y19" s="32" t="n"/>
-      <c r="Z19" s="29" t="n"/>
+      <c r="Y19" s="28" t="n"/>
+      <c r="Z19" s="25" t="n"/>
       <c r="AA19" s="1" t="n"/>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n"/>
-      <c r="C20" s="8" t="n"/>
-      <c r="E20" s="8" t="n"/>
+      <c r="C20" s="6" t="n"/>
+      <c r="E20" s="6" t="n"/>
       <c r="X20" s="2" t="n"/>
-      <c r="Y20" s="32" t="n"/>
-      <c r="Z20" s="29" t="n"/>
+      <c r="Y20" s="28" t="n"/>
+      <c r="Z20" s="25" t="n"/>
       <c r="AA20" s="1" t="n"/>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n"/>
-      <c r="C21" s="8" t="n"/>
-      <c r="E21" s="8" t="n"/>
+      <c r="C21" s="6" t="n"/>
+      <c r="E21" s="6" t="n"/>
       <c r="X21" s="2" t="n"/>
-      <c r="Y21" s="32" t="n"/>
-      <c r="Z21" s="29" t="n"/>
+      <c r="Y21" s="28" t="n"/>
+      <c r="Z21" s="25" t="n"/>
       <c r="AA21" s="1" t="n"/>
     </row>
     <row r="22">
       <c r="X22" s="2" t="n"/>
-      <c r="Y22" s="32" t="n"/>
-      <c r="Z22" s="29" t="n"/>
+      <c r="Y22" s="28" t="n"/>
+      <c r="Z22" s="25" t="n"/>
       <c r="AA22" s="1" t="n"/>
     </row>
     <row r="23">
       <c r="X23" s="2" t="n"/>
-      <c r="Y23" s="32" t="n"/>
-      <c r="Z23" s="29" t="n"/>
+      <c r="Y23" s="28" t="n"/>
+      <c r="Z23" s="25" t="n"/>
       <c r="AA23" s="1" t="n"/>
     </row>
     <row r="24">
       <c r="X24" s="2" t="n"/>
-      <c r="Y24" s="32" t="n"/>
-      <c r="Z24" s="29" t="n"/>
+      <c r="Y24" s="28" t="n"/>
+      <c r="Z24" s="25" t="n"/>
       <c r="AA24" s="1" t="n"/>
     </row>
     <row r="25">
-      <c r="X25" s="33" t="n"/>
-      <c r="Y25" s="30" t="n"/>
-      <c r="Z25" s="29" t="n"/>
+      <c r="X25" s="29" t="n"/>
+      <c r="Y25" s="26" t="n"/>
+      <c r="Z25" s="25" t="n"/>
       <c r="AA25" s="1" t="n"/>
     </row>
     <row r="26">
       <c r="X26" s="2" t="n"/>
-      <c r="Y26" s="30" t="n"/>
-      <c r="Z26" s="29" t="n"/>
+      <c r="Y26" s="26" t="n"/>
+      <c r="Z26" s="25" t="n"/>
       <c r="AA26" s="1" t="n"/>
     </row>
     <row r="27">
-      <c r="Z27" s="29" t="n"/>
+      <c r="Z27" s="25" t="n"/>
       <c r="AA27" s="1" t="n"/>
     </row>
     <row r="28">
-      <c r="Z28" s="30" t="n"/>
-      <c r="AA28" s="26" t="n"/>
+      <c r="Z28" s="26" t="n"/>
+      <c r="AA28" s="22" t="n"/>
     </row>
     <row r="29">
       <c r="X29" s="2" t="n"/>
-      <c r="Y29" s="29" t="n"/>
-      <c r="Z29" s="29" t="n"/>
+      <c r="Y29" s="25" t="n"/>
+      <c r="Z29" s="25" t="n"/>
       <c r="AA29" s="1" t="n"/>
     </row>
   </sheetData>
@@ -9351,1028 +9760,1028 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16"/>
   <cols>
-    <col width="11.33203125" customWidth="1" style="71" min="1" max="1"/>
-    <col width="13.1640625" customWidth="1" style="71" min="2" max="17"/>
-    <col width="9.83203125" customWidth="1" style="71" min="18" max="19"/>
-    <col width="11.33203125" customWidth="1" style="71" min="20" max="20"/>
+    <col width="11.33203125" customWidth="1" style="63" min="1" max="1"/>
+    <col width="13.1640625" customWidth="1" style="63" min="2" max="17"/>
+    <col width="9.83203125" customWidth="1" style="63" min="18" max="19"/>
+    <col width="11.33203125" customWidth="1" style="63" min="20" max="20"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="82" t="inlineStr">
+      <c r="A1" s="76" t="inlineStr">
         <is>
           <t>Name</t>
         </is>
       </c>
-      <c r="B1" s="82" t="inlineStr">
+      <c r="B1" s="76" t="inlineStr">
         <is>
           <t>Days Record</t>
         </is>
       </c>
-      <c r="C1" s="82" t="inlineStr">
+      <c r="C1" s="76" t="inlineStr">
         <is>
           <t>Days Pct</t>
         </is>
       </c>
-      <c r="D1" s="82" t="inlineStr">
+      <c r="D1" s="76" t="inlineStr">
         <is>
           <t>Games Record</t>
         </is>
       </c>
-      <c r="E1" s="82" t="inlineStr">
+      <c r="E1" s="76" t="inlineStr">
         <is>
           <t>Games Pct</t>
         </is>
       </c>
-      <c r="F1" s="82" t="inlineStr">
+      <c r="F1" s="76" t="inlineStr">
         <is>
           <t>PK's Record</t>
         </is>
       </c>
-      <c r="G1" s="82" t="inlineStr">
+      <c r="G1" s="76" t="inlineStr">
         <is>
           <t>PK's Pct</t>
         </is>
       </c>
-      <c r="H1" s="82" t="inlineStr">
+      <c r="H1" s="76" t="inlineStr">
         <is>
           <t>Cross Record</t>
         </is>
       </c>
-      <c r="I1" s="82" t="inlineStr">
+      <c r="I1" s="76" t="inlineStr">
         <is>
           <t>Cross Pct</t>
         </is>
       </c>
-      <c r="J1" s="82" t="inlineStr">
+      <c r="J1" s="76" t="inlineStr">
         <is>
           <t>A/D Record</t>
         </is>
       </c>
-      <c r="K1" s="82" t="inlineStr">
+      <c r="K1" s="76" t="inlineStr">
         <is>
           <t>A/D Pct</t>
         </is>
       </c>
-      <c r="L1" s="82" t="inlineStr">
+      <c r="L1" s="76" t="inlineStr">
         <is>
           <t>P&amp;F Record</t>
         </is>
       </c>
-      <c r="M1" s="82" t="inlineStr">
+      <c r="M1" s="76" t="inlineStr">
         <is>
           <t>P&amp;F Pct</t>
         </is>
       </c>
-      <c r="N1" s="82" t="inlineStr">
+      <c r="N1" s="76" t="inlineStr">
         <is>
           <t>SS Record</t>
         </is>
       </c>
-      <c r="O1" s="82" t="inlineStr">
+      <c r="O1" s="76" t="inlineStr">
         <is>
           <t>SS Pct</t>
         </is>
       </c>
-      <c r="P1" s="82" t="inlineStr">
+      <c r="P1" s="76" t="inlineStr">
         <is>
           <t>FK's Record</t>
         </is>
       </c>
-      <c r="Q1" s="82" t="inlineStr">
+      <c r="Q1" s="76" t="inlineStr">
         <is>
           <t>FK's Pct</t>
         </is>
       </c>
-      <c r="R1" s="82" t="inlineStr">
+      <c r="R1" s="76" t="inlineStr">
         <is>
           <t>MVP</t>
         </is>
       </c>
-      <c r="S1" s="82" t="inlineStr">
+      <c r="S1" s="76" t="inlineStr">
         <is>
           <t>Clown</t>
         </is>
       </c>
-      <c r="T1" s="82" t="inlineStr">
+      <c r="T1" s="76" t="inlineStr">
         <is>
           <t>(Name)</t>
         </is>
       </c>
-      <c r="U1" s="13" t="n"/>
-      <c r="V1" s="12" t="n"/>
-      <c r="W1" s="12" t="n"/>
-      <c r="X1" s="12" t="n"/>
-      <c r="Y1" s="34" t="n"/>
+      <c r="U1" s="11" t="n"/>
+      <c r="V1" s="10" t="n"/>
+      <c r="W1" s="10" t="n"/>
+      <c r="X1" s="10" t="n"/>
+      <c r="Y1" s="30" t="n"/>
     </row>
     <row r="2">
-      <c r="A2" s="10" t="inlineStr">
+      <c r="A2" s="8" t="inlineStr">
         <is>
           <t>Aaron</t>
         </is>
       </c>
       <c r="B2" s="1" t="inlineStr">
         <is>
+          <t>1-1</t>
+        </is>
+      </c>
+      <c r="C2" s="25" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D2" s="1" t="inlineStr">
+        <is>
+          <t>4-5</t>
+        </is>
+      </c>
+      <c r="E2" s="25" t="n">
+        <v>0.4444</v>
+      </c>
+      <c r="F2" s="1" t="inlineStr">
+        <is>
+          <t>3-3</t>
+        </is>
+      </c>
+      <c r="G2" s="28" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H2" s="1" t="inlineStr">
+        <is>
+          <t>6-4</t>
+        </is>
+      </c>
+      <c r="I2" s="28" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="J2" s="1" t="inlineStr">
+        <is>
+          <t>0-2</t>
+        </is>
+      </c>
+      <c r="K2" s="28" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" s="1" t="inlineStr">
+        <is>
+          <t>0-2</t>
+        </is>
+      </c>
+      <c r="M2" s="28" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" s="1" t="inlineStr">
+        <is>
+          <t>0-0</t>
+        </is>
+      </c>
+      <c r="O2" s="28" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" s="1" t="inlineStr">
+        <is>
+          <t>0-0</t>
+        </is>
+      </c>
+      <c r="Q2" s="25" t="n">
+        <v>0</v>
+      </c>
+      <c r="R2" s="31" t="n">
+        <v>0</v>
+      </c>
+      <c r="S2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T2" s="14" t="inlineStr">
+        <is>
+          <t>Aaron</t>
+        </is>
+      </c>
+      <c r="U2" s="12" t="n"/>
+      <c r="V2" s="62" t="n">
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="9" t="inlineStr">
+        <is>
+          <t>AB</t>
+        </is>
+      </c>
+      <c r="B3" s="1" t="inlineStr">
+        <is>
+          <t>1-0</t>
+        </is>
+      </c>
+      <c r="C3" s="25" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" s="1" t="inlineStr">
+        <is>
+          <t>3-1</t>
+        </is>
+      </c>
+      <c r="E3" s="28" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="F3" s="1" t="inlineStr">
+        <is>
+          <t>2-0</t>
+        </is>
+      </c>
+      <c r="G3" s="28" t="n">
+        <v>1</v>
+      </c>
+      <c r="H3" s="1" t="inlineStr">
+        <is>
+          <t>2-3</t>
+        </is>
+      </c>
+      <c r="I3" s="28" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="J3" s="1" t="inlineStr">
+        <is>
+          <t>1-0</t>
+        </is>
+      </c>
+      <c r="K3" s="28" t="n">
+        <v>1</v>
+      </c>
+      <c r="L3" s="1" t="inlineStr">
+        <is>
+          <t>1-0</t>
+        </is>
+      </c>
+      <c r="M3" s="28" t="n">
+        <v>1</v>
+      </c>
+      <c r="N3" s="1" t="inlineStr">
+        <is>
+          <t>0-0</t>
+        </is>
+      </c>
+      <c r="O3" s="28" t="n">
+        <v>0</v>
+      </c>
+      <c r="P3" s="1" t="inlineStr">
+        <is>
+          <t>0-0</t>
+        </is>
+      </c>
+      <c r="Q3" s="25" t="n">
+        <v>0</v>
+      </c>
+      <c r="R3" s="31" t="n">
+        <v>0</v>
+      </c>
+      <c r="S3" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T3" s="15" t="inlineStr">
+        <is>
+          <t>AB</t>
+        </is>
+      </c>
+      <c r="U3" s="12" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="9" t="inlineStr">
+        <is>
+          <t>Anthony</t>
+        </is>
+      </c>
+      <c r="B4" s="1" t="inlineStr">
+        <is>
+          <t>1-0</t>
+        </is>
+      </c>
+      <c r="C4" s="25" t="n">
+        <v>1</v>
+      </c>
+      <c r="D4" s="1" t="inlineStr">
+        <is>
+          <t>3-2</t>
+        </is>
+      </c>
+      <c r="E4" s="28" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="F4" s="1" t="inlineStr">
+        <is>
+          <t>3-1</t>
+        </is>
+      </c>
+      <c r="G4" s="28" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="H4" s="1" t="inlineStr">
+        <is>
+          <t>3-2</t>
+        </is>
+      </c>
+      <c r="I4" s="28" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="J4" s="1" t="inlineStr">
+        <is>
           <t>0-1</t>
         </is>
       </c>
-      <c r="C2" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="D2" s="1" t="inlineStr">
+      <c r="K4" s="28" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" s="1" t="inlineStr">
+        <is>
+          <t>0-1</t>
+        </is>
+      </c>
+      <c r="M4" s="28" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" s="1" t="inlineStr">
+        <is>
+          <t>0-0</t>
+        </is>
+      </c>
+      <c r="O4" s="28" t="n">
+        <v>0</v>
+      </c>
+      <c r="P4" s="1" t="inlineStr">
+        <is>
+          <t>0-0</t>
+        </is>
+      </c>
+      <c r="Q4" s="25" t="n">
+        <v>0</v>
+      </c>
+      <c r="R4" s="31" t="n">
+        <v>0</v>
+      </c>
+      <c r="S4" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T4" s="15" t="inlineStr">
+        <is>
+          <t>Anthony</t>
+        </is>
+      </c>
+      <c r="U4" s="12" t="n"/>
+    </row>
+    <row r="5">
+      <c r="A5" s="9" t="inlineStr">
+        <is>
+          <t>Brandon</t>
+        </is>
+      </c>
+      <c r="B5" s="1" t="inlineStr">
+        <is>
+          <t>1-1</t>
+        </is>
+      </c>
+      <c r="C5" s="25" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D5" s="1" t="inlineStr">
+        <is>
+          <t>5-4</t>
+        </is>
+      </c>
+      <c r="E5" s="28" t="n">
+        <v>0.5556</v>
+      </c>
+      <c r="F5" s="1" t="inlineStr">
+        <is>
+          <t>3-3</t>
+        </is>
+      </c>
+      <c r="G5" s="28" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H5" s="1" t="inlineStr">
+        <is>
+          <t>4-6</t>
+        </is>
+      </c>
+      <c r="I5" s="28" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="J5" s="1" t="inlineStr">
+        <is>
+          <t>2-0</t>
+        </is>
+      </c>
+      <c r="K5" s="28" t="n">
+        <v>1</v>
+      </c>
+      <c r="L5" s="1" t="inlineStr">
+        <is>
+          <t>2-0</t>
+        </is>
+      </c>
+      <c r="M5" s="28" t="n">
+        <v>1</v>
+      </c>
+      <c r="N5" s="1" t="inlineStr">
+        <is>
+          <t>0-0</t>
+        </is>
+      </c>
+      <c r="O5" s="28" t="n">
+        <v>0</v>
+      </c>
+      <c r="P5" s="1" t="inlineStr">
+        <is>
+          <t>0-0</t>
+        </is>
+      </c>
+      <c r="Q5" s="25" t="n">
+        <v>0</v>
+      </c>
+      <c r="R5" s="31" t="n">
+        <v>1</v>
+      </c>
+      <c r="S5" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="T5" s="15" t="inlineStr">
+        <is>
+          <t>Brandon</t>
+        </is>
+      </c>
+      <c r="U5" s="12" t="n"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="9" t="inlineStr">
+        <is>
+          <t>Eric</t>
+        </is>
+      </c>
+      <c r="B6" s="1" t="inlineStr">
+        <is>
+          <t>0-1</t>
+        </is>
+      </c>
+      <c r="C6" s="25" t="n">
+        <v>0</v>
+      </c>
+      <c r="D6" s="1" t="inlineStr">
+        <is>
+          <t>2-3</t>
+        </is>
+      </c>
+      <c r="E6" s="28" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="F6" s="1" t="inlineStr">
         <is>
           <t>1-3</t>
         </is>
       </c>
-      <c r="E2" s="29" t="n">
+      <c r="G6" s="28" t="n">
         <v>0.25</v>
       </c>
-      <c r="F2" s="1" t="inlineStr">
+      <c r="H6" s="1" t="inlineStr">
+        <is>
+          <t>2-3</t>
+        </is>
+      </c>
+      <c r="I6" s="28" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="J6" s="1" t="inlineStr">
+        <is>
+          <t>1-0</t>
+        </is>
+      </c>
+      <c r="K6" s="28" t="n">
+        <v>1</v>
+      </c>
+      <c r="L6" s="1" t="inlineStr">
+        <is>
+          <t>1-0</t>
+        </is>
+      </c>
+      <c r="M6" s="28" t="n">
+        <v>1</v>
+      </c>
+      <c r="N6" s="1" t="inlineStr">
+        <is>
+          <t>0-0</t>
+        </is>
+      </c>
+      <c r="O6" s="28" t="n">
+        <v>0</v>
+      </c>
+      <c r="P6" s="1" t="inlineStr">
+        <is>
+          <t>0-0</t>
+        </is>
+      </c>
+      <c r="Q6" s="25" t="n">
+        <v>0</v>
+      </c>
+      <c r="R6" s="31" t="n">
+        <v>0</v>
+      </c>
+      <c r="S6" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T6" s="15" t="inlineStr">
+        <is>
+          <t>Eric</t>
+        </is>
+      </c>
+      <c r="U6" s="12" t="n"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="9" t="inlineStr">
+        <is>
+          <t>Jacob</t>
+        </is>
+      </c>
+      <c r="B7" s="1" t="inlineStr">
+        <is>
+          <t>1-1</t>
+        </is>
+      </c>
+      <c r="C7" s="25" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D7" s="1" t="inlineStr">
+        <is>
+          <t>4-5</t>
+        </is>
+      </c>
+      <c r="E7" s="28" t="n">
+        <v>0.4444</v>
+      </c>
+      <c r="F7" s="1" t="inlineStr">
+        <is>
+          <t>3-3</t>
+        </is>
+      </c>
+      <c r="G7" s="28" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H7" s="1" t="inlineStr">
+        <is>
+          <t>6-4</t>
+        </is>
+      </c>
+      <c r="I7" s="28" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="J7" s="1" t="inlineStr">
         <is>
           <t>0-2</t>
         </is>
       </c>
-      <c r="G2" s="32" t="n">
-        <v>0</v>
-      </c>
-      <c r="H2" s="1" t="inlineStr">
-        <is>
-          <t>3-2</t>
-        </is>
-      </c>
-      <c r="I2" s="32" t="n">
+      <c r="K7" s="28" t="n">
+        <v>0</v>
+      </c>
+      <c r="L7" s="1" t="inlineStr">
+        <is>
+          <t>0-2</t>
+        </is>
+      </c>
+      <c r="M7" s="28" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" s="1" t="inlineStr">
+        <is>
+          <t>0-0</t>
+        </is>
+      </c>
+      <c r="O7" s="28" t="n">
+        <v>0</v>
+      </c>
+      <c r="P7" s="1" t="inlineStr">
+        <is>
+          <t>0-0</t>
+        </is>
+      </c>
+      <c r="Q7" s="25" t="n">
+        <v>0</v>
+      </c>
+      <c r="R7" s="31" t="n">
+        <v>1</v>
+      </c>
+      <c r="S7" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T7" s="15" t="inlineStr">
+        <is>
+          <t>Jacob</t>
+        </is>
+      </c>
+      <c r="U7" s="12" t="n"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="9" t="inlineStr">
+        <is>
+          <t>Kiernan</t>
+        </is>
+      </c>
+      <c r="B8" s="1" t="inlineStr">
+        <is>
+          <t>1-1</t>
+        </is>
+      </c>
+      <c r="C8" s="25" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D8" s="1" t="inlineStr">
+        <is>
+          <t>5-4</t>
+        </is>
+      </c>
+      <c r="E8" s="28" t="n">
+        <v>0.5556</v>
+      </c>
+      <c r="F8" s="1" t="inlineStr">
+        <is>
+          <t>3-3</t>
+        </is>
+      </c>
+      <c r="G8" s="28" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H8" s="1" t="inlineStr">
+        <is>
+          <t>4-6</t>
+        </is>
+      </c>
+      <c r="I8" s="28" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="J8" s="1" t="inlineStr">
+        <is>
+          <t>2-0</t>
+        </is>
+      </c>
+      <c r="K8" s="28" t="n">
+        <v>1</v>
+      </c>
+      <c r="L8" s="1" t="inlineStr">
+        <is>
+          <t>2-0</t>
+        </is>
+      </c>
+      <c r="M8" s="28" t="n">
+        <v>1</v>
+      </c>
+      <c r="N8" s="1" t="inlineStr">
+        <is>
+          <t>0-0</t>
+        </is>
+      </c>
+      <c r="O8" s="28" t="n">
+        <v>0</v>
+      </c>
+      <c r="P8" s="1" t="inlineStr">
+        <is>
+          <t>0-0</t>
+        </is>
+      </c>
+      <c r="Q8" s="25" t="n">
+        <v>0</v>
+      </c>
+      <c r="R8" s="31" t="n">
+        <v>0</v>
+      </c>
+      <c r="S8" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T8" s="15" t="inlineStr">
+        <is>
+          <t>Kiernan</t>
+        </is>
+      </c>
+      <c r="U8" s="12" t="n"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="9" t="inlineStr">
+        <is>
+          <t>Quinn</t>
+        </is>
+      </c>
+      <c r="B9" s="1" t="inlineStr">
+        <is>
+          <t>1-1</t>
+        </is>
+      </c>
+      <c r="C9" s="25" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D9" s="1" t="inlineStr">
+        <is>
+          <t>5-4</t>
+        </is>
+      </c>
+      <c r="E9" s="28" t="n">
+        <v>0.5556</v>
+      </c>
+      <c r="F9" s="1" t="inlineStr">
+        <is>
+          <t>3-3</t>
+        </is>
+      </c>
+      <c r="G9" s="28" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H9" s="1" t="inlineStr">
+        <is>
+          <t>4-6</t>
+        </is>
+      </c>
+      <c r="I9" s="28" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="J9" s="1" t="inlineStr">
+        <is>
+          <t>2-0</t>
+        </is>
+      </c>
+      <c r="K9" s="28" t="n">
+        <v>1</v>
+      </c>
+      <c r="L9" s="1" t="inlineStr">
+        <is>
+          <t>2-0</t>
+        </is>
+      </c>
+      <c r="M9" s="28" t="n">
+        <v>1</v>
+      </c>
+      <c r="N9" s="1" t="inlineStr">
+        <is>
+          <t>0-0</t>
+        </is>
+      </c>
+      <c r="O9" s="28" t="n">
+        <v>0</v>
+      </c>
+      <c r="P9" s="1" t="inlineStr">
+        <is>
+          <t>0-0</t>
+        </is>
+      </c>
+      <c r="Q9" s="25" t="n">
+        <v>0</v>
+      </c>
+      <c r="R9" s="31" t="n">
+        <v>0</v>
+      </c>
+      <c r="S9" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T9" s="15" t="inlineStr">
+        <is>
+          <t>Quinn</t>
+        </is>
+      </c>
+      <c r="U9" s="12" t="n"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="9" t="inlineStr">
+        <is>
+          <t>Sam G</t>
+        </is>
+      </c>
+      <c r="B10" s="1" t="inlineStr">
+        <is>
+          <t>1-1</t>
+        </is>
+      </c>
+      <c r="C10" s="25" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D10" s="1" t="inlineStr">
+        <is>
+          <t>4-5</t>
+        </is>
+      </c>
+      <c r="E10" s="28" t="n">
+        <v>0.4444</v>
+      </c>
+      <c r="F10" s="1" t="inlineStr">
+        <is>
+          <t>3-3</t>
+        </is>
+      </c>
+      <c r="G10" s="28" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H10" s="1" t="inlineStr">
+        <is>
+          <t>6-4</t>
+        </is>
+      </c>
+      <c r="I10" s="28" t="n">
         <v>0.6</v>
       </c>
-      <c r="J2" s="1" t="inlineStr">
-        <is>
-          <t>0-1</t>
-        </is>
-      </c>
-      <c r="K2" s="32" t="n">
-        <v>0</v>
-      </c>
-      <c r="L2" s="1" t="inlineStr">
-        <is>
-          <t>0-1</t>
-        </is>
-      </c>
-      <c r="M2" s="32" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" s="1" t="inlineStr">
+      <c r="J10" s="1" t="inlineStr">
+        <is>
+          <t>0-2</t>
+        </is>
+      </c>
+      <c r="K10" s="28" t="n">
+        <v>0</v>
+      </c>
+      <c r="L10" s="1" t="inlineStr">
+        <is>
+          <t>0-2</t>
+        </is>
+      </c>
+      <c r="M10" s="28" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" s="1" t="inlineStr">
         <is>
           <t>0-0</t>
         </is>
       </c>
-      <c r="O2" s="32" t="n">
-        <v>0</v>
-      </c>
-      <c r="P2" s="1" t="inlineStr">
+      <c r="O10" s="28" t="n">
+        <v>0</v>
+      </c>
+      <c r="P10" s="1" t="inlineStr">
         <is>
           <t>0-0</t>
         </is>
       </c>
-      <c r="Q2" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="R2" s="35" t="n">
-        <v>0</v>
-      </c>
-      <c r="S2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="T2" s="16" t="inlineStr">
-        <is>
-          <t>Aaron</t>
-        </is>
-      </c>
-      <c r="U2" s="14" t="n"/>
-      <c r="V2" s="70" t="n">
-        <v>2025</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="11" t="inlineStr">
-        <is>
-          <t>AB</t>
-        </is>
-      </c>
-      <c r="B3" s="1" t="inlineStr">
-        <is>
-          <t>1-0</t>
-        </is>
-      </c>
-      <c r="C3" s="29" t="n">
-        <v>1</v>
-      </c>
-      <c r="D3" s="1" t="inlineStr">
-        <is>
-          <t>3-1</t>
-        </is>
-      </c>
-      <c r="E3" s="32" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="F3" s="1" t="inlineStr">
-        <is>
-          <t>2-0</t>
-        </is>
-      </c>
-      <c r="G3" s="32" t="n">
-        <v>1</v>
-      </c>
-      <c r="H3" s="1" t="inlineStr">
-        <is>
-          <t>2-3</t>
-        </is>
-      </c>
-      <c r="I3" s="32" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="J3" s="1" t="inlineStr">
-        <is>
-          <t>1-0</t>
-        </is>
-      </c>
-      <c r="K3" s="32" t="n">
-        <v>1</v>
-      </c>
-      <c r="L3" s="1" t="inlineStr">
-        <is>
-          <t>1-0</t>
-        </is>
-      </c>
-      <c r="M3" s="32" t="n">
-        <v>1</v>
-      </c>
-      <c r="N3" s="1" t="inlineStr">
+      <c r="Q10" s="25" t="n">
+        <v>0</v>
+      </c>
+      <c r="R10" s="31" t="n">
+        <v>0</v>
+      </c>
+      <c r="S10" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="T10" s="16" t="inlineStr">
+        <is>
+          <t>Sam G</t>
+        </is>
+      </c>
+      <c r="U10" s="12" t="n"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="41" t="inlineStr">
+        <is>
+          <t>Sam S</t>
+        </is>
+      </c>
+      <c r="B11" s="1" t="inlineStr">
+        <is>
+          <t>0-2</t>
+        </is>
+      </c>
+      <c r="C11" s="26" t="n">
+        <v>0</v>
+      </c>
+      <c r="D11" s="22" t="inlineStr">
+        <is>
+          <t>3-6</t>
+        </is>
+      </c>
+      <c r="E11" s="26" t="n">
+        <v>0.3333</v>
+      </c>
+      <c r="F11" s="22" t="inlineStr">
+        <is>
+          <t>1-5</t>
+        </is>
+      </c>
+      <c r="G11" s="26" t="n">
+        <v>0.1667</v>
+      </c>
+      <c r="H11" s="22" t="inlineStr">
+        <is>
+          <t>5-5</t>
+        </is>
+      </c>
+      <c r="I11" s="26" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="J11" s="22" t="inlineStr">
+        <is>
+          <t>1-1</t>
+        </is>
+      </c>
+      <c r="K11" s="26" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="L11" s="22" t="inlineStr">
+        <is>
+          <t>1-1</t>
+        </is>
+      </c>
+      <c r="M11" s="26" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="N11" s="22" t="inlineStr">
         <is>
           <t>0-0</t>
         </is>
       </c>
-      <c r="O3" s="32" t="n">
-        <v>0</v>
-      </c>
-      <c r="P3" s="1" t="inlineStr">
+      <c r="O11" s="26" t="n">
+        <v>0</v>
+      </c>
+      <c r="P11" s="22" t="inlineStr">
         <is>
           <t>0-0</t>
         </is>
       </c>
-      <c r="Q3" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="R3" s="35" t="n">
-        <v>0</v>
-      </c>
-      <c r="S3" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="T3" s="17" t="inlineStr">
-        <is>
-          <t>AB</t>
-        </is>
-      </c>
-      <c r="U3" s="14" t="n"/>
-    </row>
-    <row r="4">
-      <c r="A4" s="11" t="inlineStr">
-        <is>
-          <t>Anthony</t>
-        </is>
-      </c>
-      <c r="B4" s="1" t="inlineStr">
+      <c r="Q11" s="26" t="n">
+        <v>0</v>
+      </c>
+      <c r="R11" s="31" t="n">
+        <v>0</v>
+      </c>
+      <c r="S11" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T11" s="23" t="inlineStr">
+        <is>
+          <t>Sam S</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="42" t="inlineStr">
+        <is>
+          <t>Tighe</t>
+        </is>
+      </c>
+      <c r="B12" s="7" t="inlineStr">
         <is>
           <t>0-0</t>
         </is>
       </c>
-      <c r="C4" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="D4" s="1" t="inlineStr">
+      <c r="C12" s="27" t="n">
+        <v>0</v>
+      </c>
+      <c r="D12" s="7" t="inlineStr">
         <is>
           <t>0-0</t>
         </is>
       </c>
-      <c r="E4" s="32" t="n">
-        <v>0</v>
-      </c>
-      <c r="F4" s="1" t="inlineStr">
+      <c r="E12" s="27" t="n">
+        <v>0</v>
+      </c>
+      <c r="F12" s="7" t="inlineStr">
         <is>
           <t>0-0</t>
         </is>
       </c>
-      <c r="G4" s="32" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" s="1" t="inlineStr">
+      <c r="G12" s="27" t="n">
+        <v>0</v>
+      </c>
+      <c r="H12" s="7" t="inlineStr">
         <is>
           <t>0-0</t>
         </is>
       </c>
-      <c r="I4" s="32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" s="1" t="inlineStr">
+      <c r="I12" s="27" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" s="7" t="inlineStr">
         <is>
           <t>0-0</t>
         </is>
       </c>
-      <c r="K4" s="32" t="n">
-        <v>0</v>
-      </c>
-      <c r="L4" s="1" t="inlineStr">
+      <c r="K12" s="27" t="n">
+        <v>0</v>
+      </c>
+      <c r="L12" s="7" t="inlineStr">
         <is>
           <t>0-0</t>
         </is>
       </c>
-      <c r="M4" s="32" t="n">
-        <v>0</v>
-      </c>
-      <c r="N4" s="1" t="inlineStr">
+      <c r="M12" s="27" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" s="7" t="inlineStr">
         <is>
           <t>0-0</t>
         </is>
       </c>
-      <c r="O4" s="32" t="n">
-        <v>0</v>
-      </c>
-      <c r="P4" s="1" t="inlineStr">
+      <c r="O12" s="27" t="n">
+        <v>0</v>
+      </c>
+      <c r="P12" s="7" t="inlineStr">
         <is>
           <t>0-0</t>
         </is>
       </c>
-      <c r="Q4" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="R4" s="35" t="n">
-        <v>0</v>
-      </c>
-      <c r="S4" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="T4" s="17" t="inlineStr">
-        <is>
-          <t>Anthony</t>
-        </is>
-      </c>
-      <c r="U4" s="14" t="n"/>
-    </row>
-    <row r="5">
-      <c r="A5" s="11" t="inlineStr">
-        <is>
-          <t>Brandon</t>
-        </is>
-      </c>
-      <c r="B5" s="1" t="inlineStr">
-        <is>
-          <t>1-0</t>
-        </is>
-      </c>
-      <c r="C5" s="29" t="n">
-        <v>1</v>
-      </c>
-      <c r="D5" s="1" t="inlineStr">
-        <is>
-          <t>3-1</t>
-        </is>
-      </c>
-      <c r="E5" s="32" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="F5" s="1" t="inlineStr">
-        <is>
-          <t>2-0</t>
-        </is>
-      </c>
-      <c r="G5" s="32" t="n">
-        <v>1</v>
-      </c>
-      <c r="H5" s="1" t="inlineStr">
-        <is>
-          <t>2-3</t>
-        </is>
-      </c>
-      <c r="I5" s="32" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="J5" s="1" t="inlineStr">
-        <is>
-          <t>1-0</t>
-        </is>
-      </c>
-      <c r="K5" s="32" t="n">
-        <v>1</v>
-      </c>
-      <c r="L5" s="1" t="inlineStr">
-        <is>
-          <t>1-0</t>
-        </is>
-      </c>
-      <c r="M5" s="32" t="n">
-        <v>1</v>
-      </c>
-      <c r="N5" s="1" t="inlineStr">
-        <is>
-          <t>0-0</t>
-        </is>
-      </c>
-      <c r="O5" s="32" t="n">
-        <v>0</v>
-      </c>
-      <c r="P5" s="1" t="inlineStr">
-        <is>
-          <t>0-0</t>
-        </is>
-      </c>
-      <c r="Q5" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="R5" s="35" t="n">
-        <v>1</v>
-      </c>
-      <c r="S5" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="T5" s="17" t="inlineStr">
-        <is>
-          <t>Brandon</t>
-        </is>
-      </c>
-      <c r="U5" s="14" t="n"/>
-    </row>
-    <row r="6">
-      <c r="A6" s="11" t="inlineStr">
-        <is>
-          <t>Eric</t>
-        </is>
-      </c>
-      <c r="B6" s="1" t="inlineStr">
-        <is>
-          <t>0-0</t>
-        </is>
-      </c>
-      <c r="C6" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="D6" s="1" t="inlineStr">
-        <is>
-          <t>0-0</t>
-        </is>
-      </c>
-      <c r="E6" s="32" t="n">
-        <v>0</v>
-      </c>
-      <c r="F6" s="1" t="inlineStr">
-        <is>
-          <t>0-0</t>
-        </is>
-      </c>
-      <c r="G6" s="32" t="n">
-        <v>0</v>
-      </c>
-      <c r="H6" s="1" t="inlineStr">
-        <is>
-          <t>0-0</t>
-        </is>
-      </c>
-      <c r="I6" s="32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J6" s="1" t="inlineStr">
-        <is>
-          <t>0-0</t>
-        </is>
-      </c>
-      <c r="K6" s="32" t="n">
-        <v>0</v>
-      </c>
-      <c r="L6" s="1" t="inlineStr">
-        <is>
-          <t>0-0</t>
-        </is>
-      </c>
-      <c r="M6" s="32" t="n">
-        <v>0</v>
-      </c>
-      <c r="N6" s="1" t="inlineStr">
-        <is>
-          <t>0-0</t>
-        </is>
-      </c>
-      <c r="O6" s="32" t="n">
-        <v>0</v>
-      </c>
-      <c r="P6" s="1" t="inlineStr">
-        <is>
-          <t>0-0</t>
-        </is>
-      </c>
-      <c r="Q6" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="R6" s="35" t="n">
-        <v>0</v>
-      </c>
-      <c r="S6" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="T6" s="17" t="inlineStr">
-        <is>
-          <t>Eric</t>
-        </is>
-      </c>
-      <c r="U6" s="14" t="n"/>
-    </row>
-    <row r="7">
-      <c r="A7" s="11" t="inlineStr">
-        <is>
-          <t>Jacob</t>
-        </is>
-      </c>
-      <c r="B7" s="1" t="inlineStr">
-        <is>
-          <t>0-1</t>
-        </is>
-      </c>
-      <c r="C7" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="D7" s="1" t="inlineStr">
-        <is>
-          <t>1-3</t>
-        </is>
-      </c>
-      <c r="E7" s="32" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="F7" s="1" t="inlineStr">
-        <is>
-          <t>0-2</t>
-        </is>
-      </c>
-      <c r="G7" s="32" t="n">
-        <v>0</v>
-      </c>
-      <c r="H7" s="1" t="inlineStr">
-        <is>
-          <t>3-2</t>
-        </is>
-      </c>
-      <c r="I7" s="32" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="J7" s="1" t="inlineStr">
-        <is>
-          <t>0-1</t>
-        </is>
-      </c>
-      <c r="K7" s="32" t="n">
-        <v>0</v>
-      </c>
-      <c r="L7" s="1" t="inlineStr">
-        <is>
-          <t>0-1</t>
-        </is>
-      </c>
-      <c r="M7" s="32" t="n">
-        <v>0</v>
-      </c>
-      <c r="N7" s="1" t="inlineStr">
-        <is>
-          <t>0-0</t>
-        </is>
-      </c>
-      <c r="O7" s="32" t="n">
-        <v>0</v>
-      </c>
-      <c r="P7" s="1" t="inlineStr">
-        <is>
-          <t>0-0</t>
-        </is>
-      </c>
-      <c r="Q7" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="R7" s="35" t="n">
-        <v>0</v>
-      </c>
-      <c r="S7" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="T7" s="17" t="inlineStr">
-        <is>
-          <t>Jacob</t>
-        </is>
-      </c>
-      <c r="U7" s="14" t="n"/>
-    </row>
-    <row r="8">
-      <c r="A8" s="11" t="inlineStr">
-        <is>
-          <t>Kiernan</t>
-        </is>
-      </c>
-      <c r="B8" s="1" t="inlineStr">
-        <is>
-          <t>1-0</t>
-        </is>
-      </c>
-      <c r="C8" s="29" t="n">
-        <v>1</v>
-      </c>
-      <c r="D8" s="1" t="inlineStr">
-        <is>
-          <t>3-1</t>
-        </is>
-      </c>
-      <c r="E8" s="32" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="F8" s="1" t="inlineStr">
-        <is>
-          <t>2-0</t>
-        </is>
-      </c>
-      <c r="G8" s="32" t="n">
-        <v>1</v>
-      </c>
-      <c r="H8" s="1" t="inlineStr">
-        <is>
-          <t>2-3</t>
-        </is>
-      </c>
-      <c r="I8" s="32" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="J8" s="1" t="inlineStr">
-        <is>
-          <t>1-0</t>
-        </is>
-      </c>
-      <c r="K8" s="32" t="n">
-        <v>1</v>
-      </c>
-      <c r="L8" s="1" t="inlineStr">
-        <is>
-          <t>1-0</t>
-        </is>
-      </c>
-      <c r="M8" s="32" t="n">
-        <v>1</v>
-      </c>
-      <c r="N8" s="1" t="inlineStr">
-        <is>
-          <t>0-0</t>
-        </is>
-      </c>
-      <c r="O8" s="32" t="n">
-        <v>0</v>
-      </c>
-      <c r="P8" s="1" t="inlineStr">
-        <is>
-          <t>0-0</t>
-        </is>
-      </c>
-      <c r="Q8" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="R8" s="35" t="n">
-        <v>0</v>
-      </c>
-      <c r="S8" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="T8" s="17" t="inlineStr">
-        <is>
-          <t>Kiernan</t>
-        </is>
-      </c>
-      <c r="U8" s="14" t="n"/>
-    </row>
-    <row r="9">
-      <c r="A9" s="11" t="inlineStr">
-        <is>
-          <t>Quinn</t>
-        </is>
-      </c>
-      <c r="B9" s="1" t="inlineStr">
-        <is>
-          <t>1-0</t>
-        </is>
-      </c>
-      <c r="C9" s="29" t="n">
-        <v>1</v>
-      </c>
-      <c r="D9" s="1" t="inlineStr">
-        <is>
-          <t>3-1</t>
-        </is>
-      </c>
-      <c r="E9" s="32" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="F9" s="1" t="inlineStr">
-        <is>
-          <t>2-0</t>
-        </is>
-      </c>
-      <c r="G9" s="32" t="n">
-        <v>1</v>
-      </c>
-      <c r="H9" s="1" t="inlineStr">
-        <is>
-          <t>2-3</t>
-        </is>
-      </c>
-      <c r="I9" s="32" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="J9" s="1" t="inlineStr">
-        <is>
-          <t>1-0</t>
-        </is>
-      </c>
-      <c r="K9" s="32" t="n">
-        <v>1</v>
-      </c>
-      <c r="L9" s="1" t="inlineStr">
-        <is>
-          <t>1-0</t>
-        </is>
-      </c>
-      <c r="M9" s="32" t="n">
-        <v>1</v>
-      </c>
-      <c r="N9" s="1" t="inlineStr">
-        <is>
-          <t>0-0</t>
-        </is>
-      </c>
-      <c r="O9" s="32" t="n">
-        <v>0</v>
-      </c>
-      <c r="P9" s="1" t="inlineStr">
-        <is>
-          <t>0-0</t>
-        </is>
-      </c>
-      <c r="Q9" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="R9" s="35" t="n">
-        <v>0</v>
-      </c>
-      <c r="S9" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="T9" s="17" t="inlineStr">
-        <is>
-          <t>Quinn</t>
-        </is>
-      </c>
-      <c r="U9" s="14" t="n"/>
-    </row>
-    <row r="10">
-      <c r="A10" s="11" t="inlineStr">
-        <is>
-          <t>Sam G</t>
-        </is>
-      </c>
-      <c r="B10" s="1" t="inlineStr">
-        <is>
-          <t>0-1</t>
-        </is>
-      </c>
-      <c r="C10" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="D10" s="1" t="inlineStr">
-        <is>
-          <t>1-3</t>
-        </is>
-      </c>
-      <c r="E10" s="32" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="F10" s="1" t="inlineStr">
-        <is>
-          <t>0-2</t>
-        </is>
-      </c>
-      <c r="G10" s="32" t="n">
-        <v>0</v>
-      </c>
-      <c r="H10" s="1" t="inlineStr">
-        <is>
-          <t>3-2</t>
-        </is>
-      </c>
-      <c r="I10" s="32" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="J10" s="1" t="inlineStr">
-        <is>
-          <t>0-1</t>
-        </is>
-      </c>
-      <c r="K10" s="32" t="n">
-        <v>0</v>
-      </c>
-      <c r="L10" s="1" t="inlineStr">
-        <is>
-          <t>0-1</t>
-        </is>
-      </c>
-      <c r="M10" s="32" t="n">
-        <v>0</v>
-      </c>
-      <c r="N10" s="1" t="inlineStr">
-        <is>
-          <t>0-0</t>
-        </is>
-      </c>
-      <c r="O10" s="32" t="n">
-        <v>0</v>
-      </c>
-      <c r="P10" s="1" t="inlineStr">
-        <is>
-          <t>0-0</t>
-        </is>
-      </c>
-      <c r="Q10" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="R10" s="35" t="n">
-        <v>0</v>
-      </c>
-      <c r="S10" s="15" t="n">
-        <v>0</v>
-      </c>
-      <c r="T10" s="18" t="inlineStr">
-        <is>
-          <t>Sam G</t>
-        </is>
-      </c>
-      <c r="U10" s="14" t="n"/>
-    </row>
-    <row r="11">
-      <c r="A11" s="48" t="inlineStr">
-        <is>
-          <t>Sam S</t>
-        </is>
-      </c>
-      <c r="B11" s="1" t="inlineStr">
-        <is>
-          <t>0-1</t>
-        </is>
-      </c>
-      <c r="C11" s="30" t="n">
-        <v>0</v>
-      </c>
-      <c r="D11" s="26" t="inlineStr">
-        <is>
-          <t>1-3</t>
-        </is>
-      </c>
-      <c r="E11" s="30" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="F11" s="26" t="inlineStr">
-        <is>
-          <t>0-2</t>
-        </is>
-      </c>
-      <c r="G11" s="30" t="n">
-        <v>0</v>
-      </c>
-      <c r="H11" s="26" t="inlineStr">
-        <is>
-          <t>3-2</t>
-        </is>
-      </c>
-      <c r="I11" s="30" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="J11" s="26" t="inlineStr">
-        <is>
-          <t>0-1</t>
-        </is>
-      </c>
-      <c r="K11" s="30" t="n">
-        <v>0</v>
-      </c>
-      <c r="L11" s="26" t="inlineStr">
-        <is>
-          <t>0-1</t>
-        </is>
-      </c>
-      <c r="M11" s="30" t="n">
-        <v>0</v>
-      </c>
-      <c r="N11" s="26" t="inlineStr">
-        <is>
-          <t>0-0</t>
-        </is>
-      </c>
-      <c r="O11" s="30" t="n">
-        <v>0</v>
-      </c>
-      <c r="P11" s="26" t="inlineStr">
-        <is>
-          <t>0-0</t>
-        </is>
-      </c>
-      <c r="Q11" s="30" t="n">
-        <v>0</v>
-      </c>
-      <c r="R11" s="35" t="n">
-        <v>0</v>
-      </c>
-      <c r="S11" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="T11" s="27" t="inlineStr">
-        <is>
-          <t>Sam S</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="49" t="inlineStr">
-        <is>
-          <t>Tighe</t>
-        </is>
-      </c>
-      <c r="B12" s="9" t="inlineStr">
-        <is>
-          <t>0-0</t>
-        </is>
-      </c>
-      <c r="C12" s="31" t="n">
-        <v>0</v>
-      </c>
-      <c r="D12" s="9" t="inlineStr">
-        <is>
-          <t>0-0</t>
-        </is>
-      </c>
-      <c r="E12" s="31" t="n">
-        <v>0</v>
-      </c>
-      <c r="F12" s="9" t="inlineStr">
-        <is>
-          <t>0-0</t>
-        </is>
-      </c>
-      <c r="G12" s="31" t="n">
-        <v>0</v>
-      </c>
-      <c r="H12" s="9" t="inlineStr">
-        <is>
-          <t>0-0</t>
-        </is>
-      </c>
-      <c r="I12" s="31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J12" s="9" t="inlineStr">
-        <is>
-          <t>0-0</t>
-        </is>
-      </c>
-      <c r="K12" s="31" t="n">
-        <v>0</v>
-      </c>
-      <c r="L12" s="9" t="inlineStr">
-        <is>
-          <t>0-0</t>
-        </is>
-      </c>
-      <c r="M12" s="31" t="n">
-        <v>0</v>
-      </c>
-      <c r="N12" s="9" t="inlineStr">
-        <is>
-          <t>0-0</t>
-        </is>
-      </c>
-      <c r="O12" s="31" t="n">
-        <v>0</v>
-      </c>
-      <c r="P12" s="9" t="inlineStr">
-        <is>
-          <t>0-0</t>
-        </is>
-      </c>
-      <c r="Q12" s="31" t="n">
-        <v>0</v>
-      </c>
-      <c r="R12" s="36" t="n">
-        <v>0</v>
-      </c>
-      <c r="S12" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="T12" s="28" t="inlineStr">
+      <c r="Q12" s="27" t="n">
+        <v>0</v>
+      </c>
+      <c r="R12" s="32" t="n">
+        <v>0</v>
+      </c>
+      <c r="S12" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="T12" s="24" t="inlineStr">
         <is>
           <t>Tighe</t>
         </is>
@@ -10380,114 +10789,114 @@
     </row>
     <row r="13">
       <c r="A13" s="2" t="n"/>
-      <c r="C13" s="8" t="n"/>
-      <c r="D13" s="8" t="n"/>
-      <c r="E13" s="8" t="n"/>
-      <c r="F13" s="8" t="n"/>
-      <c r="G13" s="8" t="n"/>
-      <c r="H13" s="8" t="n"/>
-      <c r="I13" s="8" t="n"/>
-      <c r="J13" s="8" t="n"/>
-      <c r="K13" s="8" t="n"/>
-      <c r="L13" s="8" t="n"/>
-      <c r="M13" s="8" t="n"/>
-      <c r="N13" s="8" t="n"/>
-      <c r="O13" s="8" t="n"/>
+      <c r="C13" s="6" t="n"/>
+      <c r="D13" s="6" t="n"/>
+      <c r="E13" s="6" t="n"/>
+      <c r="F13" s="6" t="n"/>
+      <c r="G13" s="6" t="n"/>
+      <c r="H13" s="6" t="n"/>
+      <c r="I13" s="6" t="n"/>
+      <c r="J13" s="6" t="n"/>
+      <c r="K13" s="6" t="n"/>
+      <c r="L13" s="6" t="n"/>
+      <c r="M13" s="6" t="n"/>
+      <c r="N13" s="6" t="n"/>
+      <c r="O13" s="6" t="n"/>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n"/>
-      <c r="C14" s="8" t="n"/>
-      <c r="E14" s="8" t="n"/>
+      <c r="C14" s="6" t="n"/>
+      <c r="E14" s="6" t="n"/>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n"/>
-      <c r="C15" s="8" t="n"/>
-      <c r="E15" s="8" t="n"/>
+      <c r="C15" s="6" t="n"/>
+      <c r="E15" s="6" t="n"/>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n"/>
-      <c r="C16" s="8" t="n"/>
-      <c r="E16" s="8" t="n"/>
+      <c r="C16" s="6" t="n"/>
+      <c r="E16" s="6" t="n"/>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n"/>
-      <c r="C17" s="8" t="n"/>
-      <c r="E17" s="8" t="n"/>
+      <c r="C17" s="6" t="n"/>
+      <c r="E17" s="6" t="n"/>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n"/>
-      <c r="C18" s="8" t="n"/>
-      <c r="E18" s="8" t="n"/>
+      <c r="C18" s="6" t="n"/>
+      <c r="E18" s="6" t="n"/>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n"/>
-      <c r="C19" s="8" t="n"/>
-      <c r="E19" s="8" t="n"/>
+      <c r="C19" s="6" t="n"/>
+      <c r="E19" s="6" t="n"/>
       <c r="X19" s="2" t="n"/>
-      <c r="Y19" s="32" t="n"/>
-      <c r="Z19" s="29" t="n"/>
+      <c r="Y19" s="28" t="n"/>
+      <c r="Z19" s="25" t="n"/>
       <c r="AA19" s="1" t="n"/>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n"/>
-      <c r="C20" s="8" t="n"/>
-      <c r="E20" s="8" t="n"/>
+      <c r="C20" s="6" t="n"/>
+      <c r="E20" s="6" t="n"/>
       <c r="X20" s="2" t="n"/>
-      <c r="Y20" s="32" t="n"/>
-      <c r="Z20" s="29" t="n"/>
+      <c r="Y20" s="28" t="n"/>
+      <c r="Z20" s="25" t="n"/>
       <c r="AA20" s="1" t="n"/>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n"/>
-      <c r="C21" s="8" t="n"/>
-      <c r="E21" s="8" t="n"/>
+      <c r="C21" s="6" t="n"/>
+      <c r="E21" s="6" t="n"/>
       <c r="X21" s="2" t="n"/>
-      <c r="Y21" s="32" t="n"/>
-      <c r="Z21" s="29" t="n"/>
+      <c r="Y21" s="28" t="n"/>
+      <c r="Z21" s="25" t="n"/>
       <c r="AA21" s="1" t="n"/>
     </row>
     <row r="22">
       <c r="X22" s="2" t="n"/>
-      <c r="Y22" s="32" t="n"/>
-      <c r="Z22" s="29" t="n"/>
+      <c r="Y22" s="28" t="n"/>
+      <c r="Z22" s="25" t="n"/>
       <c r="AA22" s="1" t="n"/>
     </row>
     <row r="23">
       <c r="X23" s="2" t="n"/>
-      <c r="Y23" s="32" t="n"/>
-      <c r="Z23" s="29" t="n"/>
+      <c r="Y23" s="28" t="n"/>
+      <c r="Z23" s="25" t="n"/>
       <c r="AA23" s="1" t="n"/>
     </row>
     <row r="24">
       <c r="X24" s="2" t="n"/>
-      <c r="Y24" s="32" t="n"/>
-      <c r="Z24" s="29" t="n"/>
+      <c r="Y24" s="28" t="n"/>
+      <c r="Z24" s="25" t="n"/>
       <c r="AA24" s="1" t="n"/>
     </row>
     <row r="25">
-      <c r="X25" s="33" t="n"/>
-      <c r="Y25" s="30" t="n"/>
-      <c r="Z25" s="29" t="n"/>
+      <c r="X25" s="29" t="n"/>
+      <c r="Y25" s="26" t="n"/>
+      <c r="Z25" s="25" t="n"/>
       <c r="AA25" s="1" t="n"/>
     </row>
     <row r="26">
       <c r="X26" s="2" t="n"/>
-      <c r="Y26" s="30" t="n"/>
-      <c r="Z26" s="29" t="n"/>
+      <c r="Y26" s="26" t="n"/>
+      <c r="Z26" s="25" t="n"/>
       <c r="AA26" s="1" t="n"/>
     </row>
     <row r="27">
-      <c r="Z27" s="29" t="n"/>
+      <c r="Z27" s="25" t="n"/>
       <c r="AA27" s="1" t="n"/>
     </row>
     <row r="28">
-      <c r="Z28" s="30" t="n"/>
-      <c r="AA28" s="26" t="n"/>
+      <c r="Z28" s="26" t="n"/>
+      <c r="AA28" s="22" t="n"/>
     </row>
     <row r="29">
       <c r="X29" s="2" t="n"/>
-      <c r="Y29" s="29" t="n"/>
-      <c r="Z29" s="29" t="n"/>
+      <c r="Y29" s="25" t="n"/>
+      <c r="Z29" s="25" t="n"/>
       <c r="AA29" s="1" t="n"/>
     </row>
   </sheetData>
